--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="726">
   <si>
     <t>Pāli1</t>
   </si>
@@ -160,6 +160,9 @@
     <t>vinipāta</t>
   </si>
   <si>
+    <t>māna 1</t>
+  </si>
+  <si>
     <t>kāya 2</t>
   </si>
   <si>
@@ -304,9 +307,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -316,15 +316,9 @@
     <t>cora</t>
   </si>
   <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
     <t>attha 5</t>
   </si>
   <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -577,15 +571,6 @@
     <t>kassaka</t>
   </si>
   <si>
-    <t>ahosiṃ</t>
-  </si>
-  <si>
-    <t>ahu 1</t>
-  </si>
-  <si>
-    <t>ahosi</t>
-  </si>
-  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
@@ -718,6 +703,9 @@
     <t>karohi</t>
   </si>
   <si>
+    <t>sakkaroti</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
@@ -748,6 +736,9 @@
     <t>ājīva</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
     <t>adhamma 2</t>
   </si>
   <si>
@@ -799,12 +790,6 @@
     <t>me 3</t>
   </si>
   <si>
-    <t>ahesuṃ</t>
-  </si>
-  <si>
-    <t>ahuvattha</t>
-  </si>
-  <si>
     <t>khaṇati</t>
   </si>
   <si>
@@ -835,12 +820,12 @@
     <t>saddhiṃ</t>
   </si>
   <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 1</t>
   </si>
   <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>mā 1</t>
   </si>
   <si>
@@ -895,6 +880,9 @@
     <t>vo 4</t>
   </si>
   <si>
+    <t>nābhijānāti</t>
+  </si>
+  <si>
     <t>ottappī</t>
   </si>
   <si>
@@ -1219,6 +1207,9 @@
     <t>state of suffering; lit. bad fall</t>
   </si>
   <si>
+    <t>pride; conceit; comparison; lit. measuring</t>
+  </si>
+  <si>
     <t>group; host; multitude; lit. collection</t>
   </si>
   <si>
@@ -1363,9 +1354,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1375,15 +1363,9 @@
     <t>thief</t>
   </si>
   <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -1636,153 +1618,150 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>takes place; arises; appears</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>dispels; drives out; rejects; pushes away</t>
+  </si>
+  <si>
+    <t>cuts; cuts off; severs</t>
+  </si>
+  <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
+    <t>they are; there are</t>
+  </si>
+  <si>
+    <t>there is</t>
+  </si>
+  <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
+    <t>addressed; said (to)</t>
+  </si>
+  <si>
+    <t>may you all be! you all must be!</t>
+  </si>
+  <si>
+    <t>may they be! they must be!</t>
+  </si>
+  <si>
+    <t>may it be! he must be</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>replied; assented; agreed</t>
+  </si>
+  <si>
+    <t>asked; enquired</t>
+  </si>
+  <si>
+    <t>arose; appeared</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; was friendly (with)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to)</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>went; travelled</t>
+  </si>
+  <si>
+    <t>monk; sage; hermit; holy man</t>
+  </si>
+  <si>
+    <t>householder; landowner; lit. house master</t>
+  </si>
+  <si>
+    <t>rice paddy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>sickness; disease; lit. upset; overturn</t>
+  </si>
+  <si>
+    <t>family; relative; lit. known</t>
+  </si>
+  <si>
+    <t>does; makes; acts; performs; builds</t>
+  </si>
+  <si>
+    <t>do! make! may you preform; you must do</t>
+  </si>
+  <si>
+    <t>honours; esteems; respects; lit. makes properly</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; explained</t>
+  </si>
+  <si>
     <t>I was</t>
   </si>
   <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>was; existed; became</t>
-  </si>
-  <si>
-    <t>takes place; arises; appears</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>dispels; drives out; rejects; pushes away</t>
-  </si>
-  <si>
-    <t>cuts; cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
-    <t>they are; there are</t>
-  </si>
-  <si>
-    <t>there is</t>
-  </si>
-  <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
-    <t>addressed; said (to)</t>
-  </si>
-  <si>
-    <t>may you all be! you all must be!</t>
-  </si>
-  <si>
-    <t>may they be! they must be!</t>
-  </si>
-  <si>
-    <t>may it be! he must be</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>replied; assented; agreed</t>
-  </si>
-  <si>
-    <t>asked; enquired</t>
-  </si>
-  <si>
-    <t>arose; appeared</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; was friendly (with)</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to)</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
-    <t>went; travelled</t>
-  </si>
-  <si>
-    <t>monk; sage; hermit; holy man</t>
-  </si>
-  <si>
-    <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>rice paddy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>sickness; disease; lit. upset; overturn</t>
-  </si>
-  <si>
-    <t>family; relative; lit. known</t>
-  </si>
-  <si>
-    <t>does; makes; acts; performs; builds</t>
-  </si>
-  <si>
-    <t>do! make! may you preform; you must do</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
-    <t>answered; explained</t>
-  </si>
-  <si>
     <t>one was; it was</t>
   </si>
   <si>
@@ -1801,6 +1780,9 @@
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
+    <t>one who has thoroughly understood; being enlightened; the Buddha</t>
+  </si>
+  <si>
     <t>false teaching; against the teaching</t>
   </si>
   <si>
@@ -1849,12 +1831,6 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>there were; they were</t>
-  </si>
-  <si>
-    <t>you all were</t>
-  </si>
-  <si>
     <t>digs; uproots; destroys</t>
   </si>
   <si>
@@ -1885,12 +1861,12 @@
     <t>together (with); with</t>
   </si>
   <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>no; not</t>
   </si>
   <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>do not; may one not</t>
   </si>
   <si>
@@ -1942,6 +1918,9 @@
     <t>your</t>
   </si>
   <si>
+    <t>does not know; does not understand</t>
+  </si>
+  <si>
     <t>afraid of wrong; feeling shame; conscientious</t>
   </si>
   <si>
@@ -2131,9 +2110,6 @@
     <t>āti-pr</t>
   </si>
   <si>
-    <t>ahosi-aor</t>
-  </si>
-  <si>
     <t>atthi-pr</t>
   </si>
   <si>
@@ -2153,6 +2129,9 @@
   </si>
   <si>
     <t>karoti-pr</t>
+  </si>
+  <si>
+    <t>oti-pr</t>
   </si>
   <si>
     <t>āsi-aor</t>
@@ -2570,7 +2549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E346"/>
+  <dimension ref="A1:E342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2598,16 +2577,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E2" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2615,16 +2594,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E3" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2632,16 +2611,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E4" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2649,16 +2628,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2666,16 +2645,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E6" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2683,16 +2662,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2700,16 +2679,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D8" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E8" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2717,16 +2696,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D9" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E9" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2734,16 +2713,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D10" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E10" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2751,16 +2730,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E11" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2768,16 +2747,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E12" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2785,16 +2764,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C13" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D13" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E13" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2802,16 +2781,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D14" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E14" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2819,16 +2798,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D15" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E15" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2836,16 +2815,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D16" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E16" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2853,16 +2832,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D17" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E17" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2870,16 +2849,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D18" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E18" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2887,16 +2866,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E19" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2904,16 +2883,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E20" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2921,16 +2900,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D21" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E21" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2938,16 +2917,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D22" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E22" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2955,16 +2934,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C23" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E23" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2972,16 +2951,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E24" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2989,16 +2968,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D25" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E25" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3006,16 +2985,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C26" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E26" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3023,16 +3002,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C27" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D27" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E27" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3040,16 +3019,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C28" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D28" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E28" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3057,16 +3036,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C29" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D29" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E29" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3074,16 +3053,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C30" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D30" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E30" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3091,16 +3070,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C31" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D31" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E31" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3108,16 +3087,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C32" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D32" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E32" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3125,16 +3104,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E33" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3142,16 +3121,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D34" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E34" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3159,16 +3138,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C35" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D35" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E35" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3176,16 +3155,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C36" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D36" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E36" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3193,16 +3172,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C37" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D37" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E37" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3210,16 +3189,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C38" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D38" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E38" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3227,16 +3206,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D39" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E39" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3244,16 +3223,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C40" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D40" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E40" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3261,16 +3240,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C41" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D41" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E41" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3278,16 +3257,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D42" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E42" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3295,16 +3274,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C43" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D43" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E43" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3312,16 +3291,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C44" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D44" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E44" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3329,16 +3308,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C45" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D45" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E45" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3346,16 +3325,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C46" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D46" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E46" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3363,16 +3342,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C47" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D47" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E47" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3380,16 +3359,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C48" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D48" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E48" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3397,16 +3376,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C49" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D49" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E49" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3414,16 +3393,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C50" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D50" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E50" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3431,16 +3410,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C51" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D51" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E51" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3448,16 +3427,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C52" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D52" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E52" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3465,16 +3444,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C53" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D53" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E53" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3482,16 +3461,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C54" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D54" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E54" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3499,16 +3478,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C55" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D55" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E55" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3516,16 +3495,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C56" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D56" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E56" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3533,16 +3512,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C57" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D57" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E57" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3550,16 +3529,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C58" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D58" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E58" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3567,16 +3546,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C59" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D59" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E59" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3584,16 +3563,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C60" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D60" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E60" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3601,16 +3580,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C61" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D61" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E61" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3618,16 +3597,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C62" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D62" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E62" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3635,16 +3614,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C63" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D63" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E63" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3652,16 +3631,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C64" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D64" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E64" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3669,16 +3648,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C65" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D65" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E65" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3686,16 +3665,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D66" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E66" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3703,16 +3682,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C67" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D67" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E67" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3720,16 +3699,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C68" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D68" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E68" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3737,16 +3716,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C69" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D69" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E69" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3754,16 +3733,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D70" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E70" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3771,16 +3750,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C71" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D71" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E71" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3788,16 +3767,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C72" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D72" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E72" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3805,16 +3784,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C73" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D73" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E73" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3822,16 +3801,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C74" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D74" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E74" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3839,16 +3818,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C75" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D75" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E75" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3856,16 +3835,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C76" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D76" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E76" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3873,16 +3852,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C77" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D77" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E77" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3890,16 +3869,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C78" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D78" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E78" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3907,16 +3886,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C79" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D79" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E79" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3924,16 +3903,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C80" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D80" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E80" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3941,16 +3920,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C81" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D81" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E81" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3958,16 +3937,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C82" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D82" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E82" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3975,16 +3954,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C83" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D83" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E83" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3992,16 +3971,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C84" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D84" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E84" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4009,16 +3988,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C85" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D85" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E85" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4026,16 +4005,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C86" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D86" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E86" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4043,16 +4022,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C87" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D87" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E87" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4060,16 +4039,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C88" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D88" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E88" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4077,16 +4056,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C89" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D89" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E89" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4094,16 +4073,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C90" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D90" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E90" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4111,16 +4090,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D91" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E91" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4128,16 +4107,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C92" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D92" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E92" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4145,16 +4124,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C93" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D93" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E93" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4162,16 +4141,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C94" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D94" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E94" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4179,16 +4158,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C95" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D95" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E95" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4196,16 +4175,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C96" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D96" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E96" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4213,16 +4192,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C97" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D97" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E97" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4230,16 +4209,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C98" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D98" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E98" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4247,16 +4226,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C99" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D99" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E99" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4264,16 +4243,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C100" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D100" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E100" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4281,16 +4260,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C101" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D101" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E101" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4298,16 +4277,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C102" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D102" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E102" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4315,16 +4294,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C103" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D103" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E103" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4332,16 +4311,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C104" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D104" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E104" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4349,16 +4328,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C105" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D105" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E105" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4366,16 +4345,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C106" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D106" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E106" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4383,16 +4362,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C107" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D107" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E107" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4400,16 +4379,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C108" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D108" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E108" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4417,16 +4396,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C109" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D109" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E109" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4434,16 +4413,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C110" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D110" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E110" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4451,16 +4430,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C111" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D111" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E111" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4468,16 +4447,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C112" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D112" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E112" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4485,16 +4464,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C113" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D113" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E113" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4502,16 +4481,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C114" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D114" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E114" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4519,16 +4498,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C115" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D115" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E115" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4536,16 +4515,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C116" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D116" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E116" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4553,16 +4532,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C117" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D117" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E117" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4570,16 +4549,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C118" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D118" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E118" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4587,16 +4566,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C119" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D119" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E119" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4604,16 +4583,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C120" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D120" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E120" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4621,16 +4600,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C121" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D121" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E121" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4638,16 +4617,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C122" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D122" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E122" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4655,16 +4634,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C123" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D123" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E123" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4672,16 +4651,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C124" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D124" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E124" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4689,16 +4668,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C125" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D125" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E125" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4706,16 +4685,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C126" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D126" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E126" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4723,16 +4702,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C127" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D127" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E127" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4740,16 +4719,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C128" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D128" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E128" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4757,16 +4736,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C129" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D129" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E129" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4774,16 +4753,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C130" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D130" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E130" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4791,16 +4770,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C131" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D131" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E131" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4808,16 +4787,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C132" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D132" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E132" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4825,16 +4804,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C133" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D133" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E133" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4842,16 +4821,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C134" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D134" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E134" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4859,16 +4838,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C135" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D135" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E135" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4876,16 +4855,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C136" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D136" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E136" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4893,16 +4872,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D137" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E137" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4910,16 +4889,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C138" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D138" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E138" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4927,16 +4906,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C139" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D139" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E139" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4944,16 +4923,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C140" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D140" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E140" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4961,16 +4940,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C141" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D141" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E141" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4978,16 +4957,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C142" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D142" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E142" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4995,16 +4974,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C143" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D143" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E143" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5012,16 +4991,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C144" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D144" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E144" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5029,16 +5008,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C145" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D145" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E145" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5046,16 +5025,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C146" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D146" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E146" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5063,16 +5042,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C147" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D147" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E147" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5080,16 +5059,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C148" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D148" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E148" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5097,16 +5076,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C149" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D149" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E149" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5114,16 +5093,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C150" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D150" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E150" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5131,16 +5110,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C151" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D151" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E151" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5148,16 +5127,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C152" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D152" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E152" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5165,16 +5144,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C153" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D153" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E153" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5182,16 +5161,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C154" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D154" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E154" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5199,16 +5178,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C155" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D155" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E155" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5216,16 +5195,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C156" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D156" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E156" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5233,16 +5212,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C157" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D157" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E157" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5250,16 +5229,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C158" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D158" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E158" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5267,16 +5246,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C159" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D159" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E159" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5284,16 +5263,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C160" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D160" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E160" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5301,16 +5280,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C161" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D161" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E161" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5318,16 +5297,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C162" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D162" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E162" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5335,16 +5314,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C163" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D163" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E163" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5352,16 +5331,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C164" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D164" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="E164" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5369,16 +5348,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C165" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D165" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E165" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5386,16 +5365,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C166" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D166" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E166" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5403,16 +5382,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C167" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D167" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E167" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5420,16 +5399,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C168" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D168" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E168" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5437,16 +5416,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C169" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D169" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E169" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5454,16 +5433,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C170" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D170" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E170" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5471,16 +5450,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C171" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D171" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E171" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5488,16 +5467,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C172" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D172" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E172" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5505,16 +5484,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C173" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D173" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E173" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5522,16 +5501,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C174" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D174" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E174" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5539,16 +5518,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C175" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D175" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="E175" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5556,16 +5535,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C176" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D176" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="E176" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5573,16 +5552,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C177" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D177" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E177" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5590,16 +5569,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C178" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D178" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E178" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5607,16 +5586,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C179" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D179" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E179" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5624,16 +5603,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C180" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D180" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E180" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5641,16 +5620,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C181" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D181" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E181" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5658,16 +5637,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C182" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D182" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E182" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5675,16 +5654,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C183" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D183" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E183" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5692,16 +5671,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C184" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D184" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E184" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5709,16 +5688,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C185" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D185" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E185" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5726,16 +5705,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C186" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D186" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E186" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5743,16 +5722,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C187" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D187" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E187" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5760,16 +5739,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C188" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D188" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E188" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5777,16 +5756,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C189" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D189" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E189" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5794,16 +5773,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C190" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D190" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E190" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5811,16 +5790,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C191" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D191" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E191" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5828,16 +5807,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C192" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D192" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E192" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5845,16 +5824,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C193" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D193" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E193" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5862,16 +5841,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C194" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D194" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E194" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5879,16 +5858,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C195" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D195" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E195" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5896,16 +5875,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C196" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D196" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E196" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5913,16 +5892,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C197" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D197" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E197" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5930,16 +5909,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C198" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D198" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E198" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5947,16 +5926,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C199" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D199" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E199" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5964,16 +5943,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C200" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D200" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E200" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5981,16 +5960,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C201" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D201" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E201" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5998,16 +5977,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C202" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D202" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E202" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6015,16 +5994,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C203" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D203" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E203" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6032,16 +6011,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C204" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D204" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E204" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6049,16 +6028,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C205" t="s">
         <v>556</v>
       </c>
       <c r="D205" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E205" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6066,16 +6045,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C206" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D206" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E206" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6083,16 +6062,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C207" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D207" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E207" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6100,16 +6079,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C208" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D208" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E208" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6117,16 +6096,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C209" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D209" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E209" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6134,16 +6113,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C210" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D210" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="E210" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6151,16 +6130,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C211" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D211" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="E211" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6168,16 +6147,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C212" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D212" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="E212" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6185,16 +6164,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C213" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D213" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E213" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6202,16 +6181,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C214" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D214" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E214" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6219,16 +6198,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C215" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D215" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E215" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6236,16 +6215,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C216" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D216" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E216" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6253,16 +6232,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C217" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D217" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E217" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6270,16 +6249,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C218" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D218" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E218" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6287,16 +6266,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C219" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D219" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E219" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6304,16 +6283,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C220" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D220" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E220" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6321,16 +6300,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C221" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D221" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E221" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6338,16 +6317,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C222" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D222" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E222" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6355,16 +6334,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C223" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D223" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E223" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6372,16 +6351,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C224" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D224" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E224" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6389,16 +6368,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C225" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D225" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="E225" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6406,16 +6385,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C226" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D226" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E226" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6423,16 +6402,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C227" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D227" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E227" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6440,16 +6419,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C228" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D228" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E228" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6457,16 +6436,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C229" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D229" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E229" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6474,16 +6453,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C230" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D230" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E230" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6491,16 +6470,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C231" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D231" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E231" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6508,16 +6487,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C232" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D232" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="E232" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6525,16 +6504,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C233" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D233" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="E233" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6542,16 +6521,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C234" t="s">
-        <v>540</v>
+        <v>585</v>
       </c>
       <c r="D234" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="E234" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6559,16 +6538,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C235" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D235" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="E235" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6576,16 +6555,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C236" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D236" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E236" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6593,16 +6572,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C237" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D237" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E237" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6610,16 +6589,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C238" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D238" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E238" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6627,16 +6606,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C239" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D239" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E239" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6644,16 +6623,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C240" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D240" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E240" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6661,16 +6640,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C241" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D241" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E241" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6678,16 +6657,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C242" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D242" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E242" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6698,13 +6677,13 @@
         <v>350</v>
       </c>
       <c r="C243" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D243" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="E243" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6715,13 +6694,13 @@
         <v>350</v>
       </c>
       <c r="C244" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D244" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="E244" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6732,13 +6711,13 @@
         <v>350</v>
       </c>
       <c r="C245" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D245" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="E245" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6746,16 +6725,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C246" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D246" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E246" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6763,16 +6742,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C247" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D247" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E247" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6780,16 +6759,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C248" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D248" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E248" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6797,16 +6776,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C249" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D249" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E249" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6814,16 +6793,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C250" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D250" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E250" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6831,16 +6810,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C251" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D251" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E251" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6848,16 +6827,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C252" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D252" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E252" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6865,16 +6844,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C253" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D253" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E253" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6882,16 +6861,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C254" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D254" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E254" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6899,16 +6878,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C255" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D255" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="E255" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6916,16 +6895,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C256" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D256" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="E256" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6933,16 +6912,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C257" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D257" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="E257" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6950,16 +6929,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C258" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D258" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E258" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6967,16 +6946,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C259" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D259" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E259" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6984,16 +6963,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C260" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D260" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E260" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7001,16 +6980,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C261" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D261" t="s">
         <v>701</v>
       </c>
       <c r="E261" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7018,16 +6997,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C262" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D262" t="s">
         <v>701</v>
       </c>
       <c r="E262" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7035,16 +7014,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C263" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D263" t="s">
-        <v>707</v>
+        <v>351</v>
       </c>
       <c r="E263" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7055,13 +7034,13 @@
         <v>351</v>
       </c>
       <c r="C264" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D264" t="s">
-        <v>702</v>
+        <v>351</v>
       </c>
       <c r="E264" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7072,13 +7051,13 @@
         <v>351</v>
       </c>
       <c r="C265" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D265" t="s">
-        <v>702</v>
+        <v>351</v>
       </c>
       <c r="E265" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7086,16 +7065,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C266" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D266" t="s">
-        <v>709</v>
+        <v>351</v>
       </c>
       <c r="E266" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7103,16 +7082,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C267" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D267" t="s">
-        <v>709</v>
+        <v>351</v>
       </c>
       <c r="E267" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7120,16 +7099,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C268" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D268" t="s">
-        <v>355</v>
+        <v>709</v>
       </c>
       <c r="E268" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7137,16 +7116,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C269" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D269" t="s">
-        <v>355</v>
+        <v>709</v>
       </c>
       <c r="E269" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7154,16 +7133,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C270" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D270" t="s">
-        <v>355</v>
+        <v>709</v>
       </c>
       <c r="E270" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7171,16 +7150,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C271" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D271" t="s">
-        <v>355</v>
+        <v>709</v>
       </c>
       <c r="E271" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7188,16 +7167,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C272" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D272" t="s">
-        <v>355</v>
+        <v>709</v>
       </c>
       <c r="E272" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7205,16 +7184,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C273" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D273" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E273" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7222,16 +7201,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C274" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D274" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E274" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7239,16 +7218,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C275" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D275" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E275" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7256,16 +7235,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C276" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D276" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E276" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7273,16 +7252,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C277" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D277" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E277" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7290,16 +7269,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C278" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D278" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E278" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7307,16 +7286,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C279" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D279" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E279" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7324,16 +7303,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C280" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D280" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E280" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7341,16 +7320,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C281" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D281" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E281" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7358,16 +7337,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C282" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D282" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E282" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7375,16 +7354,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C283" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D283" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E283" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7392,16 +7371,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C284" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D284" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E284" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7409,16 +7388,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C285" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D285" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="E285" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7426,16 +7405,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C286" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D286" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E286" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7443,16 +7422,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C287" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D287" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E287" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7460,16 +7439,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C288" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D288" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E288" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7477,16 +7456,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C289" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D289" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E289" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7494,16 +7473,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C290" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D290" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E290" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7511,16 +7490,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C291" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D291" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E291" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7528,16 +7507,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C292" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D292" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E292" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7545,16 +7524,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C293" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D293" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E293" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7562,16 +7541,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C294" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D294" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E294" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7579,16 +7558,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C295" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D295" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="E295" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7596,16 +7575,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C296" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D296" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="E296" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7613,16 +7592,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C297" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D297" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="E297" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7630,16 +7609,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C298" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D298" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="E298" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7647,16 +7626,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C299" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D299" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E299" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7664,16 +7643,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C300" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D300" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E300" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7681,16 +7660,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C301" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D301" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="E301" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7698,16 +7677,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C302" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D302" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="E302" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7715,16 +7694,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C303" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D303" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="E303" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7732,16 +7711,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C304" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D304" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="E304" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7749,16 +7728,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C305" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D305" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E305" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7766,16 +7745,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C306" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D306" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E306" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7783,16 +7762,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C307" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D307" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E307" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7800,16 +7779,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C308" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D308" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E308" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7817,16 +7796,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C309" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D309" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E309" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7834,16 +7813,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C310" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D310" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E310" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7851,16 +7830,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C311" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D311" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E311" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7868,16 +7847,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C312" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D312" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E312" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7885,16 +7864,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C313" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D313" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E313" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7902,16 +7881,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C314" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D314" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E314" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7919,16 +7898,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C315" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D315" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E315" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7936,16 +7915,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C316" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D316" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E316" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7953,16 +7932,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C317" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D317" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E317" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7970,16 +7949,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C318" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D318" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E318" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7987,16 +7966,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C319" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D319" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="E319" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8004,16 +7983,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C320" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D320" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="E320" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8021,16 +8000,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C321" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D321" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="E321" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8038,16 +8017,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C322" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D322" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
       <c r="E322" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8055,16 +8034,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C323" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D323" t="s">
         <v>701</v>
       </c>
       <c r="E323" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8072,16 +8051,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C324" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D324" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E324" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8092,13 +8071,13 @@
         <v>351</v>
       </c>
       <c r="C325" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D325" t="s">
-        <v>701</v>
+        <v>351</v>
       </c>
       <c r="E325" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8109,13 +8088,13 @@
         <v>351</v>
       </c>
       <c r="C326" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D326" t="s">
-        <v>702</v>
+        <v>351</v>
       </c>
       <c r="E326" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8123,16 +8102,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C327" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D327" t="s">
-        <v>709</v>
+        <v>351</v>
       </c>
       <c r="E327" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8140,16 +8119,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C328" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D328" t="s">
-        <v>711</v>
+        <v>351</v>
       </c>
       <c r="E328" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8157,16 +8136,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C329" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D329" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E329" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8174,16 +8153,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C330" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D330" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E330" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8191,16 +8170,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C331" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D331" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E331" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8208,16 +8187,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C332" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D332" t="s">
-        <v>355</v>
+        <v>718</v>
       </c>
       <c r="E332" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8225,16 +8204,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C333" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D333" t="s">
-        <v>355</v>
+        <v>718</v>
       </c>
       <c r="E333" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8242,16 +8221,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C334" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D334" t="s">
-        <v>355</v>
+        <v>718</v>
       </c>
       <c r="E334" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8259,16 +8238,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C335" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D335" t="s">
-        <v>355</v>
+        <v>718</v>
       </c>
       <c r="E335" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8276,16 +8255,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C336" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D336" t="s">
+        <v>718</v>
+      </c>
+      <c r="E336" t="s">
         <v>725</v>
-      </c>
-      <c r="E336" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8293,16 +8272,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C337" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D337" t="s">
+        <v>718</v>
+      </c>
+      <c r="E337" t="s">
         <v>725</v>
-      </c>
-      <c r="E337" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8310,16 +8289,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C338" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D338" t="s">
+        <v>712</v>
+      </c>
+      <c r="E338" t="s">
         <v>725</v>
-      </c>
-      <c r="E338" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8327,16 +8306,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C339" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D339" t="s">
+        <v>719</v>
+      </c>
+      <c r="E339" t="s">
         <v>725</v>
-      </c>
-      <c r="E339" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8344,16 +8323,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C340" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D340" t="s">
+        <v>719</v>
+      </c>
+      <c r="E340" t="s">
         <v>725</v>
-      </c>
-      <c r="E340" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8361,16 +8340,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C341" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D341" t="s">
+        <v>720</v>
+      </c>
+      <c r="E341" t="s">
         <v>725</v>
-      </c>
-      <c r="E341" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8378,84 +8357,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C342" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D342" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E342" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" t="s">
-        <v>346</v>
-      </c>
-      <c r="B343" t="s">
-        <v>357</v>
-      </c>
-      <c r="C343" t="s">
-        <v>695</v>
-      </c>
-      <c r="D343" t="s">
-        <v>726</v>
-      </c>
-      <c r="E343" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" t="s">
-        <v>347</v>
-      </c>
-      <c r="B344" t="s">
-        <v>357</v>
-      </c>
-      <c r="C344" t="s">
-        <v>696</v>
-      </c>
-      <c r="D344" t="s">
-        <v>726</v>
-      </c>
-      <c r="E344" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="A345" t="s">
-        <v>348</v>
-      </c>
-      <c r="B345" t="s">
-        <v>350</v>
-      </c>
-      <c r="C345" t="s">
-        <v>697</v>
-      </c>
-      <c r="D345" t="s">
-        <v>727</v>
-      </c>
-      <c r="E345" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" t="s">
-        <v>349</v>
-      </c>
-      <c r="B346" t="s">
-        <v>350</v>
-      </c>
-      <c r="C346" t="s">
-        <v>698</v>
-      </c>
-      <c r="D346" t="s">
-        <v>727</v>
-      </c>
-      <c r="E346" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="754">
   <si>
     <t>Pāli1</t>
   </si>
@@ -49,12 +49,36 @@
     <t>sāvaka</t>
   </si>
   <si>
+    <t>adhigama</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
     <t>loka 2</t>
   </si>
   <si>
     <t>sagga 2</t>
   </si>
   <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 2</t>
+  </si>
+  <si>
+    <t>nakha</t>
+  </si>
+  <si>
+    <t>loma</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
     <t>vinaya 1</t>
   </si>
   <si>
@@ -79,6 +103,9 @@
     <t>puggala</t>
   </si>
   <si>
+    <t>uposatha</t>
+  </si>
+  <si>
     <t>bhava 2</t>
   </si>
   <si>
@@ -151,6 +178,9 @@
     <t>paṇḍita 2</t>
   </si>
   <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
     <t>satta 1</t>
   </si>
   <si>
@@ -286,6 +316,9 @@
     <t>paribbājaka</t>
   </si>
   <si>
+    <t>rukkha</t>
+  </si>
+  <si>
     <t>buddha 1</t>
   </si>
   <si>
@@ -307,6 +340,9 @@
     <t>bāla 4</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -316,9 +352,15 @@
     <t>cora</t>
   </si>
   <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
     <t>attha 5</t>
   </si>
   <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -352,9 +394,6 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 3</t>
-  </si>
-  <si>
     <t>dhamma 9</t>
   </si>
   <si>
@@ -430,6 +469,9 @@
     <t>vadati 1</t>
   </si>
   <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>rakkhati 1</t>
   </si>
   <si>
@@ -721,6 +763,9 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>taca 1</t>
+  </si>
+  <si>
     <t>kāra 2</t>
   </si>
   <si>
@@ -730,9 +775,6 @@
     <t>dava</t>
   </si>
   <si>
-    <t>taca 1</t>
-  </si>
-  <si>
     <t>ājīva</t>
   </si>
   <si>
@@ -1096,12 +1138,36 @@
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>arrival (at); attainment (of); reaching (of)</t>
+  </si>
+  <si>
+    <t>method; system; (right) path</t>
+  </si>
+  <si>
+    <t>surpassing; overcoming; going beyond</t>
+  </si>
+  <si>
     <t>world; plane of existence</t>
   </si>
   <si>
     <t>heaven; state of happiness</t>
   </si>
   <si>
+    <t>distinction; attainment</t>
+  </si>
+  <si>
+    <t>tooth; tusk; fang</t>
+  </si>
+  <si>
+    <t>a nail; a claw</t>
+  </si>
+  <si>
+    <t>the hair on the body; pelt</t>
+  </si>
+  <si>
+    <t>hair of the head</t>
+  </si>
+  <si>
     <t>discipline; training; lit. leading out (from unwholesome)</t>
   </si>
   <si>
@@ -1126,6 +1192,9 @@
     <t>an individual; a person</t>
   </si>
   <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
     <t>being; existence; becoming</t>
   </si>
   <si>
@@ -1198,6 +1267,9 @@
     <t>sage; intelligent person; wise man</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>a living being; creature; sentient beings</t>
   </si>
   <si>
@@ -1333,6 +1405,9 @@
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
+    <t>tree</t>
+  </si>
+  <si>
     <t>the Buddha; Awakened One</t>
   </si>
   <si>
@@ -1354,6 +1429,9 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1363,9 +1441,15 @@
     <t>thief</t>
   </si>
   <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -1399,9 +1483,6 @@
     <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
   </si>
   <si>
-    <t>mental phenomena; mind object</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -1477,6 +1558,9 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
@@ -1765,6 +1849,9 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>skin</t>
+  </si>
+  <si>
     <t>deed; action; service</t>
   </si>
   <si>
@@ -1772,9 +1859,6 @@
   </si>
   <si>
     <t>pleasure; fun; play; sport</t>
-  </si>
-  <si>
-    <t>skin</t>
   </si>
   <si>
     <t>livelihood; way of earning a living</t>
@@ -2549,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:E356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2577,16 +2661,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D2" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E2" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2594,16 +2678,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C3" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E3" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2611,16 +2695,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E4" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2628,16 +2712,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E5" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2645,16 +2729,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E6" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2662,16 +2746,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D7" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E7" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2679,16 +2763,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="D8" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E8" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2696,16 +2780,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C9" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D9" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E9" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2713,16 +2797,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E10" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2730,16 +2814,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D11" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E11" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2747,16 +2831,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C12" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D12" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E12" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2764,16 +2848,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="D13" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E13" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2781,16 +2865,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C14" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="D14" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E14" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2798,16 +2882,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D15" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E15" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2815,16 +2899,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="D16" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E16" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2832,16 +2916,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="D17" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E17" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2849,16 +2933,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D18" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E18" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2866,16 +2950,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D19" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E19" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2883,16 +2967,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D20" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E20" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2900,16 +2984,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="D21" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E21" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2917,16 +3001,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D22" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E22" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2934,16 +3018,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C23" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D23" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E23" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2951,16 +3035,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C24" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D24" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E24" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2968,16 +3052,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C25" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="D25" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E25" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2985,16 +3069,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D26" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E26" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3002,16 +3086,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="D27" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E27" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3019,16 +3103,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D28" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E28" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3036,16 +3120,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="D29" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E29" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3053,16 +3137,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C30" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D30" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E30" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3070,16 +3154,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C31" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D31" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E31" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3087,16 +3171,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C32" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D32" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E32" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3104,16 +3188,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C33" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D33" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E33" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3121,16 +3205,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D34" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E34" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3138,16 +3222,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C35" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="D35" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E35" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3155,16 +3239,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C36" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D36" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E36" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3172,16 +3256,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D37" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E37" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3189,16 +3273,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C38" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="D38" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E38" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3206,16 +3290,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C39" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D39" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E39" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3223,16 +3307,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="D40" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E40" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3240,16 +3324,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C41" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D41" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E41" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3257,16 +3341,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C42" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D42" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E42" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3274,16 +3358,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C43" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D43" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E43" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3291,16 +3375,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D44" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E44" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3308,16 +3392,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="D45" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E45" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3325,16 +3409,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C46" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D46" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E46" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3342,16 +3426,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C47" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="D47" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E47" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3359,16 +3443,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C48" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="D48" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E48" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3376,16 +3460,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C49" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D49" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E49" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3393,16 +3477,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C50" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="D50" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E50" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3410,16 +3494,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C51" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="D51" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E51" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3427,16 +3511,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="D52" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E52" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3444,16 +3528,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="D53" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E53" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3461,16 +3545,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C54" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="D54" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E54" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3478,16 +3562,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C55" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D55" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E55" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3495,16 +3579,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C56" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="D56" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E56" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3512,16 +3596,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C57" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="D57" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E57" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3529,16 +3613,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C58" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="D58" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E58" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3546,16 +3630,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C59" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="D59" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E59" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3563,16 +3647,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C60" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="D60" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E60" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3580,16 +3664,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C61" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="D61" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E61" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3597,16 +3681,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C62" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="D62" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E62" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3614,16 +3698,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C63" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="D63" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E63" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3631,16 +3715,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C64" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="D64" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E64" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3648,16 +3732,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C65" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="D65" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E65" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3665,16 +3749,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C66" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="D66" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E66" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3682,16 +3766,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C67" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="D67" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E67" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3699,16 +3783,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C68" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D68" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E68" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3716,16 +3800,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C69" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="D69" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E69" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3733,16 +3817,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C70" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="D70" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E70" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3750,16 +3834,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C71" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="D71" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E71" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3767,16 +3851,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C72" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="D72" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E72" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3784,16 +3868,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C73" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="D73" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E73" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3801,16 +3885,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C74" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="D74" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E74" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3818,16 +3902,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C75" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="D75" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E75" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3835,16 +3919,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C76" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="D76" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E76" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3852,16 +3936,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C77" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="D77" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E77" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3869,16 +3953,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C78" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="D78" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E78" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3886,16 +3970,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C79" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="D79" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E79" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3903,16 +3987,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C80" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="D80" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E80" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3920,16 +4004,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C81" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="D81" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E81" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3937,16 +4021,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C82" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="D82" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E82" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3954,16 +4038,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C83" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="D83" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E83" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3971,16 +4055,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C84" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="D84" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E84" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3988,16 +4072,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C85" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="D85" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E85" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4005,16 +4089,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C86" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="D86" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E86" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4022,16 +4106,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C87" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="D87" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E87" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4039,16 +4123,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C88" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="D88" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E88" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4056,16 +4140,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="D89" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E89" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4073,16 +4157,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C90" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="D90" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E90" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4090,16 +4174,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C91" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="D91" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E91" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4107,16 +4191,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C92" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="D92" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E92" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4124,16 +4208,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C93" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="D93" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E93" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4141,16 +4225,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C94" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D94" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E94" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4158,16 +4242,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C95" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="D95" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E95" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4175,16 +4259,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C96" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="D96" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E96" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4192,16 +4276,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C97" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D97" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E97" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4209,16 +4293,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C98" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D98" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E98" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4226,16 +4310,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C99" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="D99" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E99" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4243,16 +4327,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C100" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D100" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E100" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4260,16 +4344,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C101" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="D101" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E101" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4277,16 +4361,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C102" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D102" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E102" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4294,16 +4378,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C103" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="D103" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E103" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4311,16 +4395,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C104" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="D104" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E104" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4328,16 +4412,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C105" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="D105" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E105" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4345,16 +4429,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C106" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D106" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E106" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4362,16 +4446,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C107" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="D107" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E107" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4379,16 +4463,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C108" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="D108" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E108" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4396,16 +4480,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C109" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="D109" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E109" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4413,16 +4497,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C110" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="D110" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E110" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4430,16 +4514,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C111" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D111" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E111" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4447,16 +4531,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C112" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="D112" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E112" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4464,16 +4548,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C113" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="D113" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E113" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4481,16 +4565,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C114" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="D114" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E114" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4498,16 +4582,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C115" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="D115" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E115" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4515,16 +4599,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C116" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="D116" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E116" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4532,16 +4616,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C117" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="D117" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E117" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4549,16 +4633,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C118" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D118" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E118" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4566,16 +4650,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C119" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="D119" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E119" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4583,16 +4667,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C120" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D120" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E120" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4600,16 +4684,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C121" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="D121" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
       <c r="E121" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4617,16 +4701,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="D122" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
       <c r="E122" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4634,16 +4718,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C123" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="D123" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E123" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4651,16 +4735,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C124" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="D124" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E124" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4668,16 +4752,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C125" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="D125" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="E125" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4685,16 +4769,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C126" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="D126" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E126" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4702,16 +4786,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C127" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="D127" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E127" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4719,16 +4803,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C128" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D128" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E128" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4736,16 +4820,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C129" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D129" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E129" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4753,16 +4837,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C130" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="D130" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E130" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4770,16 +4854,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C131" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D131" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E131" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4787,16 +4871,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C132" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D132" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E132" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4804,16 +4888,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C133" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="D133" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E133" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4821,16 +4905,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C134" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="D134" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
       <c r="E134" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4838,16 +4922,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C135" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="D135" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
       <c r="E135" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4855,16 +4939,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C136" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="D136" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E136" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4872,16 +4956,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C137" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="D137" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E137" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4889,16 +4973,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C138" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="D138" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E138" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4906,16 +4990,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C139" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="D139" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E139" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4923,16 +5007,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C140" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D140" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E140" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4940,16 +5024,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C141" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="D141" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E141" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4957,16 +5041,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C142" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="D142" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E142" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4974,16 +5058,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C143" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="D143" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E143" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4991,16 +5075,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C144" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="D144" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E144" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5008,16 +5092,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C145" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D145" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E145" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5025,16 +5109,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C146" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D146" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E146" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5042,16 +5126,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C147" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="D147" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E147" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5059,16 +5143,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C148" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="D148" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E148" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5076,16 +5160,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C149" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="D149" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E149" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5093,16 +5177,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C150" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D150" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E150" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5110,16 +5194,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C151" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="D151" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E151" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5127,16 +5211,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C152" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="D152" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E152" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5144,16 +5228,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C153" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="D153" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E153" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5161,16 +5245,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C154" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="D154" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E154" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5178,16 +5262,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C155" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="D155" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E155" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5195,16 +5279,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C156" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="D156" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E156" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5212,16 +5296,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C157" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="D157" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="E157" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5229,16 +5313,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C158" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="D158" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="E158" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5246,16 +5330,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C159" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="D159" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="E159" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5263,16 +5347,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C160" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="D160" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="E160" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5280,16 +5364,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C161" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="D161" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="E161" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5297,16 +5381,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C162" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="D162" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="E162" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5314,16 +5398,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C163" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="D163" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="E163" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5331,16 +5415,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C164" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="D164" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="E164" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5348,16 +5432,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C165" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="D165" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="E165" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5365,16 +5449,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C166" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="D166" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="E166" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5382,16 +5466,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C167" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="D167" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="E167" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5399,16 +5483,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C168" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="D168" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="E168" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5416,16 +5500,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C169" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="D169" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="E169" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5433,16 +5517,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C170" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="D170" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="E170" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5450,16 +5534,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C171" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="D171" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="E171" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5467,16 +5551,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C172" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="D172" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="E172" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5484,16 +5568,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C173" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="D173" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="E173" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5501,16 +5585,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C174" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="D174" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="E174" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5518,16 +5602,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C175" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="D175" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="E175" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5535,16 +5619,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C176" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="D176" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="E176" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5552,16 +5636,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C177" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="D177" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="E177" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5569,16 +5653,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C178" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="D178" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="E178" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5586,16 +5670,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C179" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="D179" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="E179" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5603,16 +5687,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C180" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="D180" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="E180" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5620,16 +5704,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C181" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="D181" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="E181" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5637,16 +5721,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C182" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="D182" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="E182" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5654,16 +5738,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C183" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="D183" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="E183" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5671,16 +5755,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C184" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="D184" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="E184" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5688,16 +5772,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C185" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="D185" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="E185" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5705,16 +5789,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C186" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="D186" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="E186" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5722,16 +5806,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C187" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="D187" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="E187" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5739,16 +5823,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C188" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="D188" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="E188" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5756,16 +5840,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C189" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="D189" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E189" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5773,16 +5857,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C190" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="D190" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E190" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5790,16 +5874,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C191" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="D191" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E191" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5807,16 +5891,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C192" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="D192" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="E192" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5824,16 +5908,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C193" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D193" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="E193" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5841,16 +5925,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C194" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="D194" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="E194" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5858,16 +5942,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C195" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="D195" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="E195" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5875,16 +5959,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C196" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="D196" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="E196" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5892,16 +5976,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C197" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="D197" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="E197" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5909,16 +5993,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C198" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="D198" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="E198" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5926,16 +6010,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C199" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="D199" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="E199" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5943,16 +6027,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C200" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="D200" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="E200" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5960,16 +6044,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C201" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="D201" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="E201" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5977,16 +6061,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C202" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="D202" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="E202" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5994,16 +6078,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C203" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="D203" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="E203" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6011,16 +6095,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C204" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D204" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="E204" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6028,16 +6112,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C205" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="D205" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E205" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6045,16 +6129,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C206" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="D206" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="E206" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6062,16 +6146,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C207" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="D207" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="E207" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6079,16 +6163,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C208" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="D208" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="E208" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6096,16 +6180,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C209" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D209" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="E209" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6113,16 +6197,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C210" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="D210" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="E210" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6130,16 +6214,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C211" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="D211" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="E211" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6147,16 +6231,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C212" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="D212" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="E212" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6164,16 +6248,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C213" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="D213" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="E213" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6181,16 +6265,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C214" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="D214" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="E214" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6198,16 +6282,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C215" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="D215" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="E215" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6215,16 +6299,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C216" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="D216" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="E216" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6232,16 +6316,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C217" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="D217" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="E217" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6249,16 +6333,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C218" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="D218" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="E218" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6266,16 +6350,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C219" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="D219" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="E219" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6283,16 +6367,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C220" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="D220" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="E220" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6300,16 +6384,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C221" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="D221" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="E221" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6317,16 +6401,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C222" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="D222" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="E222" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6334,16 +6418,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C223" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="D223" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="E223" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6351,16 +6435,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C224" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D224" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="E224" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6368,16 +6452,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C225" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="D225" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="E225" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6385,16 +6469,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C226" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="D226" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="E226" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6402,16 +6486,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C227" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D227" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="E227" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6419,16 +6503,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C228" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="D228" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="E228" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6436,16 +6520,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C229" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="D229" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="E229" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6453,16 +6537,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C230" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="D230" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="E230" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6470,16 +6554,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C231" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="D231" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="E231" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6487,16 +6571,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C232" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="D232" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="E232" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6504,16 +6588,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C233" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="D233" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="E233" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6521,16 +6605,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C234" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="D234" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="E234" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6538,16 +6622,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C235" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="D235" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="E235" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6555,16 +6639,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C236" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="D236" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="E236" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6572,16 +6656,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C237" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="D237" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="E237" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6589,16 +6673,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C238" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="D238" t="s">
-        <v>692</v>
+        <v>732</v>
       </c>
       <c r="E238" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6606,16 +6690,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C239" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="D239" t="s">
-        <v>692</v>
+        <v>732</v>
       </c>
       <c r="E239" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6623,16 +6707,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C240" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="D240" t="s">
-        <v>692</v>
+        <v>733</v>
       </c>
       <c r="E240" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6640,16 +6724,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C241" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="D241" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="E241" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6657,16 +6741,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C242" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D242" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="E242" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6674,16 +6758,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C243" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="D243" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="E243" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6691,16 +6775,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C244" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="D244" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="E244" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6708,16 +6792,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C245" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D245" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="E245" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6725,16 +6809,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C246" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D246" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E246" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6742,16 +6826,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C247" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="D247" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E247" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6759,16 +6843,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C248" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="D248" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E248" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6776,16 +6860,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C249" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="D249" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E249" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6793,16 +6877,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C250" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="D250" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E250" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6810,16 +6894,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C251" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D251" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E251" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6827,16 +6911,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C252" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="D252" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E252" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6844,16 +6928,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C253" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="D253" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E253" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6861,16 +6945,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C254" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="D254" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="E254" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6878,16 +6962,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C255" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="D255" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E255" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6895,16 +6979,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C256" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="D256" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E256" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6912,16 +6996,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C257" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D257" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="E257" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6929,16 +7013,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C258" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="D258" t="s">
-        <v>699</v>
+        <v>736</v>
       </c>
       <c r="E258" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6946,16 +7030,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C259" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="D259" t="s">
-        <v>695</v>
+        <v>736</v>
       </c>
       <c r="E259" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6963,16 +7047,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C260" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D260" t="s">
-        <v>695</v>
+        <v>736</v>
       </c>
       <c r="E260" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6980,16 +7064,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C261" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="D261" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="E261" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6997,16 +7081,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C262" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="D262" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="E262" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7014,16 +7098,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C263" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="D263" t="s">
-        <v>351</v>
+        <v>736</v>
       </c>
       <c r="E263" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7031,16 +7115,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C264" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="D264" t="s">
-        <v>351</v>
+        <v>736</v>
       </c>
       <c r="E264" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7048,16 +7132,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C265" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="D265" t="s">
-        <v>351</v>
+        <v>736</v>
       </c>
       <c r="E265" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7065,16 +7149,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C266" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="D266" t="s">
-        <v>351</v>
+        <v>736</v>
       </c>
       <c r="E266" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7082,16 +7166,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C267" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="D267" t="s">
-        <v>351</v>
+        <v>736</v>
       </c>
       <c r="E267" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7099,16 +7183,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C268" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="D268" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
       <c r="E268" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7116,16 +7200,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C269" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="D269" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="E269" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7133,16 +7217,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C270" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="D270" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="E270" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7150,16 +7234,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C271" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="D271" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="E271" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7167,16 +7251,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C272" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="D272" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="E272" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7184,16 +7268,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C273" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="D273" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="E273" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7201,16 +7285,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C274" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="D274" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="E274" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7218,16 +7302,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C275" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="D275" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="E275" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7235,16 +7319,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C276" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="D276" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="E276" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7252,16 +7336,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C277" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="D277" t="s">
-        <v>711</v>
+        <v>365</v>
       </c>
       <c r="E277" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7269,16 +7353,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C278" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="D278" t="s">
-        <v>711</v>
+        <v>365</v>
       </c>
       <c r="E278" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7286,16 +7370,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C279" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="D279" t="s">
-        <v>711</v>
+        <v>365</v>
       </c>
       <c r="E279" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7303,16 +7387,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C280" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="D280" t="s">
-        <v>711</v>
+        <v>365</v>
       </c>
       <c r="E280" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7320,16 +7404,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C281" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="D281" t="s">
-        <v>711</v>
+        <v>365</v>
       </c>
       <c r="E281" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7337,16 +7421,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C282" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D282" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="E282" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7354,16 +7438,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C283" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="D283" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="E283" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7371,16 +7455,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C284" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="D284" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="E284" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7388,16 +7472,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C285" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="D285" t="s">
-        <v>697</v>
+        <v>737</v>
       </c>
       <c r="E285" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7405,16 +7489,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C286" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="D286" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="E286" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7422,16 +7506,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C287" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="D287" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="E287" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7439,16 +7523,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C288" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="D288" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="E288" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7456,16 +7540,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C289" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="D289" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
       <c r="E289" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7473,16 +7557,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C290" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="D290" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
       <c r="E290" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7490,16 +7574,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C291" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="D291" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="E291" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7507,16 +7591,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C292" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="D292" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="E292" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7524,16 +7608,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C293" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="D293" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="E293" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7541,16 +7625,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C294" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="D294" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="E294" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7558,16 +7642,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C295" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="D295" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
       <c r="E295" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7575,16 +7659,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C296" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="D296" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
       <c r="E296" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7592,16 +7676,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C297" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D297" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
       <c r="E297" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7609,16 +7693,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C298" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="D298" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
       <c r="E298" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7626,16 +7710,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C299" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="D299" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="E299" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7643,16 +7727,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C300" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="D300" t="s">
-        <v>692</v>
+        <v>740</v>
       </c>
       <c r="E300" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7660,16 +7744,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C301" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="D301" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="E301" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7677,16 +7761,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C302" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="D302" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="E302" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7694,16 +7778,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C303" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="D303" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="E303" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7711,16 +7795,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C304" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="D304" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="E304" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7728,16 +7812,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C305" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="D305" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="E305" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7745,16 +7829,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C306" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="D306" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="E306" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7762,16 +7846,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C307" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="D307" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E307" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7779,16 +7863,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C308" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="D308" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E308" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7796,16 +7880,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C309" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="D309" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="E309" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7813,16 +7897,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C310" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="D310" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E310" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7830,16 +7914,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C311" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="D311" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E311" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7847,16 +7931,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C312" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="D312" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E312" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7864,16 +7948,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C313" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="D313" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E313" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7881,16 +7965,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C314" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="D314" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E314" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7898,16 +7982,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C315" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="D315" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="E315" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7915,16 +7999,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C316" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="D316" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="E316" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7932,16 +8016,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C317" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="D317" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="E317" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7949,16 +8033,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C318" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="D318" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="E318" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7966,16 +8050,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C319" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="D319" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="E319" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7983,16 +8067,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C320" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="D320" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="E320" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8000,16 +8084,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C321" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="D321" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="E321" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8017,16 +8101,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C322" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="D322" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
       <c r="E322" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8034,16 +8118,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C323" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="D323" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="E323" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8051,16 +8135,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C324" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="D324" t="s">
-        <v>703</v>
+        <v>744</v>
       </c>
       <c r="E324" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8068,16 +8152,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C325" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="D325" t="s">
-        <v>351</v>
+        <v>744</v>
       </c>
       <c r="E325" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8085,16 +8169,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C326" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="D326" t="s">
-        <v>351</v>
+        <v>744</v>
       </c>
       <c r="E326" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8102,16 +8186,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C327" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="D327" t="s">
-        <v>351</v>
+        <v>744</v>
       </c>
       <c r="E327" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8119,16 +8203,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C328" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="D328" t="s">
-        <v>351</v>
+        <v>744</v>
       </c>
       <c r="E328" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8136,16 +8220,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C329" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="D329" t="s">
-        <v>351</v>
+        <v>745</v>
       </c>
       <c r="E329" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8153,16 +8237,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C330" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="D330" t="s">
-        <v>351</v>
+        <v>745</v>
       </c>
       <c r="E330" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8170,16 +8254,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C331" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="D331" t="s">
-        <v>351</v>
+        <v>745</v>
       </c>
       <c r="E331" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8187,16 +8271,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C332" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="D332" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="E332" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8204,16 +8288,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C333" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="D333" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E333" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8221,16 +8305,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C334" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="D334" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E334" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8238,16 +8322,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C335" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="D335" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E335" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8255,16 +8339,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C336" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="D336" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="E336" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8272,16 +8356,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C337" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="D337" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="E337" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8289,16 +8373,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C338" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="D338" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="E338" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8306,16 +8390,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C339" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="D339" t="s">
-        <v>719</v>
+        <v>365</v>
       </c>
       <c r="E339" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8323,16 +8407,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C340" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="D340" t="s">
-        <v>719</v>
+        <v>365</v>
       </c>
       <c r="E340" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8340,16 +8424,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C341" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="D341" t="s">
-        <v>720</v>
+        <v>365</v>
       </c>
       <c r="E341" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8357,16 +8441,254 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
+        <v>365</v>
+      </c>
+      <c r="C342" t="s">
+        <v>705</v>
+      </c>
+      <c r="D342" t="s">
+        <v>365</v>
+      </c>
+      <c r="E342" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
         <v>346</v>
       </c>
-      <c r="C342" t="s">
-        <v>691</v>
-      </c>
-      <c r="D342" t="s">
-        <v>720</v>
-      </c>
-      <c r="E342" t="s">
-        <v>725</v>
+      <c r="B343" t="s">
+        <v>365</v>
+      </c>
+      <c r="C343" t="s">
+        <v>706</v>
+      </c>
+      <c r="D343" t="s">
+        <v>365</v>
+      </c>
+      <c r="E343" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>347</v>
+      </c>
+      <c r="B344" t="s">
+        <v>365</v>
+      </c>
+      <c r="C344" t="s">
+        <v>707</v>
+      </c>
+      <c r="D344" t="s">
+        <v>365</v>
+      </c>
+      <c r="E344" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>348</v>
+      </c>
+      <c r="B345" t="s">
+        <v>365</v>
+      </c>
+      <c r="C345" t="s">
+        <v>708</v>
+      </c>
+      <c r="D345" t="s">
+        <v>365</v>
+      </c>
+      <c r="E345" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>349</v>
+      </c>
+      <c r="B346" t="s">
+        <v>360</v>
+      </c>
+      <c r="C346" t="s">
+        <v>709</v>
+      </c>
+      <c r="D346" t="s">
+        <v>746</v>
+      </c>
+      <c r="E346" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>350</v>
+      </c>
+      <c r="B347" t="s">
+        <v>360</v>
+      </c>
+      <c r="C347" t="s">
+        <v>710</v>
+      </c>
+      <c r="D347" t="s">
+        <v>746</v>
+      </c>
+      <c r="E347" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>351</v>
+      </c>
+      <c r="B348" t="s">
+        <v>360</v>
+      </c>
+      <c r="C348" t="s">
+        <v>711</v>
+      </c>
+      <c r="D348" t="s">
+        <v>746</v>
+      </c>
+      <c r="E348" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>352</v>
+      </c>
+      <c r="B349" t="s">
+        <v>360</v>
+      </c>
+      <c r="C349" t="s">
+        <v>712</v>
+      </c>
+      <c r="D349" t="s">
+        <v>746</v>
+      </c>
+      <c r="E349" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>353</v>
+      </c>
+      <c r="B350" t="s">
+        <v>360</v>
+      </c>
+      <c r="C350" t="s">
+        <v>713</v>
+      </c>
+      <c r="D350" t="s">
+        <v>746</v>
+      </c>
+      <c r="E350" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>354</v>
+      </c>
+      <c r="B351" t="s">
+        <v>360</v>
+      </c>
+      <c r="C351" t="s">
+        <v>714</v>
+      </c>
+      <c r="D351" t="s">
+        <v>746</v>
+      </c>
+      <c r="E351" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>355</v>
+      </c>
+      <c r="B352" t="s">
+        <v>367</v>
+      </c>
+      <c r="C352" t="s">
+        <v>715</v>
+      </c>
+      <c r="D352" t="s">
+        <v>740</v>
+      </c>
+      <c r="E352" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>356</v>
+      </c>
+      <c r="B353" t="s">
+        <v>367</v>
+      </c>
+      <c r="C353" t="s">
+        <v>716</v>
+      </c>
+      <c r="D353" t="s">
+        <v>747</v>
+      </c>
+      <c r="E353" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>357</v>
+      </c>
+      <c r="B354" t="s">
+        <v>367</v>
+      </c>
+      <c r="C354" t="s">
+        <v>717</v>
+      </c>
+      <c r="D354" t="s">
+        <v>747</v>
+      </c>
+      <c r="E354" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>358</v>
+      </c>
+      <c r="B355" t="s">
+        <v>360</v>
+      </c>
+      <c r="C355" t="s">
+        <v>718</v>
+      </c>
+      <c r="D355" t="s">
+        <v>748</v>
+      </c>
+      <c r="E355" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>359</v>
+      </c>
+      <c r="B356" t="s">
+        <v>360</v>
+      </c>
+      <c r="C356" t="s">
+        <v>719</v>
+      </c>
+      <c r="D356" t="s">
+        <v>748</v>
+      </c>
+      <c r="E356" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -58,12 +58,6 @@
     <t>samatikkama</t>
   </si>
   <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>sagga 2</t>
-  </si>
-  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -340,9 +334,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -484,6 +475,9 @@
     <t>yācati</t>
   </si>
   <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
     <t>passati 2</t>
   </si>
   <si>
@@ -550,6 +544,9 @@
     <t>ceteti 2</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>vedeti 1</t>
   </si>
   <si>
@@ -568,6 +565,9 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
     <t>paṭibhāti</t>
   </si>
   <si>
@@ -1147,12 +1147,6 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>heaven; state of happiness</t>
-  </si>
-  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -1279,7 +1273,7 @@
     <t>state of suffering; lit. bad fall</t>
   </si>
   <si>
-    <t>pride; conceit; comparison; lit. measuring</t>
+    <t>pride; conceit; comparison</t>
   </si>
   <si>
     <t>group; host; multitude; lit. collection</t>
@@ -1429,9 +1423,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1498,7 +1489,7 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>(vinaya) offence requiring involvement of the Community from start to finish</t>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
@@ -1573,6 +1564,9 @@
     <t>asks (for); begs (for) requests</t>
   </si>
   <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
     <t>understands; gets; lit. sees</t>
   </si>
   <si>
@@ -1639,6 +1633,9 @@
     <t>intends; will (to); lit. thinks</t>
   </si>
   <si>
+    <t>undergoes; feels; experiences</t>
+  </si>
+  <si>
     <t>feels; experiences; senses</t>
   </si>
   <si>
@@ -1655,6 +1652,9 @@
   </si>
   <si>
     <t>he must hear! may he listen!</t>
+  </si>
+  <si>
+    <t>takes; accepts; receives</t>
   </si>
   <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
@@ -4860,7 +4860,7 @@
         <v>497</v>
       </c>
       <c r="D131" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E131" t="s">
         <v>749</v>
@@ -4877,7 +4877,7 @@
         <v>498</v>
       </c>
       <c r="D132" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E132" t="s">
         <v>749</v>
@@ -4897,7 +4897,7 @@
         <v>720</v>
       </c>
       <c r="E133" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4911,10 +4911,10 @@
         <v>500</v>
       </c>
       <c r="D134" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E134" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4928,10 +4928,10 @@
         <v>501</v>
       </c>
       <c r="D135" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E135" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4939,13 +4939,13 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C136" t="s">
         <v>502</v>
       </c>
       <c r="D136" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E136" t="s">
         <v>750</v>
@@ -4956,13 +4956,13 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C137" t="s">
         <v>503</v>
       </c>
       <c r="D137" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E137" t="s">
         <v>750</v>
@@ -4973,13 +4973,13 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C138" t="s">
         <v>504</v>
       </c>
       <c r="D138" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E138" t="s">
         <v>750</v>
@@ -5024,7 +5024,7 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C141" t="s">
         <v>507</v>
@@ -5075,7 +5075,7 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C144" t="s">
         <v>510</v>
@@ -5483,7 +5483,7 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C168" t="s">
         <v>534</v>
@@ -5517,13 +5517,13 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C170" t="s">
         <v>536</v>
       </c>
       <c r="D170" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E170" t="s">
         <v>750</v>
@@ -5540,7 +5540,7 @@
         <v>537</v>
       </c>
       <c r="D171" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E171" t="s">
         <v>750</v>
@@ -5636,13 +5636,13 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C177" t="s">
         <v>543</v>
       </c>
       <c r="D177" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E177" t="s">
         <v>750</v>
@@ -5653,13 +5653,13 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C178" t="s">
         <v>544</v>
       </c>
       <c r="D178" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E178" t="s">
         <v>750</v>
@@ -5670,7 +5670,7 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C179" t="s">
         <v>545</v>
@@ -5687,7 +5687,7 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C180" t="s">
         <v>546</v>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="761">
   <si>
     <t>Pāli1</t>
   </si>
@@ -547,6 +547,9 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
+    <t>paṭiggaheti</t>
+  </si>
+  <si>
     <t>vedeti 1</t>
   </si>
   <si>
@@ -616,6 +619,9 @@
     <t>uppajjati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -628,6 +634,9 @@
     <t>nibbindati</t>
   </si>
   <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
     <t>bhuñjati 1</t>
   </si>
   <si>
@@ -748,6 +757,9 @@
     <t>sakkaroti</t>
   </si>
   <si>
+    <t>abhisaṅkharoti</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
@@ -1201,7 +1213,7 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
-    <t>black gram; Vigna mungo</t>
+    <t>bean</t>
   </si>
   <si>
     <t>child; son</t>
@@ -1636,6 +1648,9 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>feels; experiences; senses</t>
   </si>
   <si>
@@ -1654,9 +1669,6 @@
     <t>he must hear! may he listen!</t>
   </si>
   <si>
-    <t>takes; accepts; receives</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
   </si>
   <si>
@@ -1705,6 +1717,9 @@
     <t>takes place; arises; appears</t>
   </si>
   <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -1717,6 +1732,9 @@
     <t>is disenchanted; is disinterested; is disillusioned</t>
   </si>
   <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
     <t>eats; consumes</t>
   </si>
   <si>
@@ -1813,7 +1831,7 @@
     <t>seer; sage</t>
   </si>
   <si>
-    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure; lit. putting together</t>
   </si>
   <si>
     <t>chief; chieftain; headman; leader</t>
@@ -1832,6 +1850,9 @@
   </si>
   <si>
     <t>honours; esteems; respects; lit. makes properly</t>
+  </si>
+  <si>
+    <t>does; performs; creates; constructs</t>
   </si>
   <si>
     <t>spoke; said</t>
@@ -2633,7 +2654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E356"/>
+  <dimension ref="A1:E360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2661,16 +2682,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E2" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2678,16 +2699,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E3" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2695,16 +2716,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E4" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2712,16 +2733,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E5" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2729,16 +2750,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E6" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2746,16 +2767,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E7" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2763,16 +2784,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E8" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2780,16 +2801,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D9" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E9" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2797,16 +2818,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D10" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E10" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2814,16 +2835,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D11" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E11" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2831,16 +2852,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C12" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E12" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2848,16 +2869,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D13" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E13" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2865,16 +2886,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E14" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2882,16 +2903,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D15" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E15" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2899,16 +2920,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C16" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E16" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2916,16 +2937,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D17" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E17" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2933,16 +2954,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E18" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2950,16 +2971,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D19" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E19" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2967,16 +2988,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D20" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E20" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2984,16 +3005,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D21" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E21" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3001,16 +3022,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C22" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D22" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E22" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3018,16 +3039,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C23" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D23" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E23" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3035,16 +3056,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C24" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D24" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E24" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3052,16 +3073,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D25" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E25" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3069,16 +3090,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D26" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E26" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3086,16 +3107,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C27" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E27" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3103,16 +3124,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C28" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D28" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3120,16 +3141,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D29" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E29" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3137,16 +3158,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C30" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E30" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3154,16 +3175,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D31" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E31" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3171,16 +3192,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D32" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E32" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3188,16 +3209,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D33" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E33" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3205,16 +3226,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D34" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E34" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3222,16 +3243,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C35" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D35" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E35" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3239,16 +3260,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C36" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D36" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E36" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3256,16 +3277,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C37" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D37" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E37" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3273,16 +3294,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D38" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E38" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3290,16 +3311,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C39" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D39" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E39" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3307,16 +3328,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C40" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D40" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E40" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3324,16 +3345,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C41" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D41" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E41" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3341,16 +3362,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C42" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D42" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E42" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3358,16 +3379,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C43" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D43" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E43" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3375,16 +3396,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C44" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D44" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E44" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3392,16 +3413,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C45" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D45" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E45" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3409,16 +3430,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C46" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D46" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E46" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3426,16 +3447,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C47" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D47" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E47" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3443,16 +3464,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C48" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D48" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E48" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3460,16 +3481,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D49" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E49" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3477,16 +3498,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C50" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D50" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E50" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3494,16 +3515,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C51" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D51" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E51" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3511,16 +3532,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C52" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D52" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E52" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3528,16 +3549,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D53" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E53" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3545,16 +3566,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D54" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E54" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3562,16 +3583,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C55" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D55" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E55" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3579,16 +3600,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C56" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D56" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E56" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3596,16 +3617,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C57" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D57" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E57" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3613,16 +3634,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C58" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D58" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E58" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3630,16 +3651,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C59" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D59" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E59" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3647,16 +3668,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C60" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D60" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E60" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3664,16 +3685,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C61" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D61" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E61" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3681,16 +3702,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C62" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D62" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E62" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3698,16 +3719,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C63" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D63" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E63" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3715,16 +3736,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C64" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D64" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E64" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3732,16 +3753,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C65" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D65" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E65" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3749,16 +3770,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C66" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D66" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E66" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3766,16 +3787,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C67" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D67" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E67" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3783,16 +3804,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C68" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D68" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E68" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3800,16 +3821,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C69" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D69" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E69" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3817,16 +3838,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C70" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D70" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E70" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3834,16 +3855,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C71" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D71" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E71" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3851,16 +3872,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C72" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D72" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E72" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3868,16 +3889,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C73" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D73" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E73" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3885,16 +3906,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C74" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D74" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E74" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3902,16 +3923,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C75" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D75" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E75" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3919,16 +3940,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C76" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D76" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E76" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3936,16 +3957,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D77" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E77" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3953,16 +3974,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C78" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D78" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E78" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3970,16 +3991,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C79" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D79" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E79" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3987,16 +4008,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C80" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D80" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E80" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4004,16 +4025,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C81" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D81" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E81" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4021,16 +4042,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C82" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D82" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E82" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4038,16 +4059,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C83" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D83" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E83" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4055,16 +4076,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C84" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D84" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E84" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4072,16 +4093,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C85" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D85" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E85" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4089,16 +4110,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C86" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D86" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E86" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4106,16 +4127,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C87" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D87" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E87" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4123,16 +4144,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C88" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D88" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E88" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4140,16 +4161,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C89" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D89" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E89" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4157,16 +4178,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C90" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D90" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E90" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4174,16 +4195,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C91" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D91" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E91" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4191,16 +4212,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C92" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D92" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E92" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4208,16 +4229,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D93" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E93" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4225,16 +4246,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C94" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D94" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E94" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4242,16 +4263,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C95" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D95" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E95" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4259,16 +4280,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C96" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D96" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E96" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4276,16 +4297,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C97" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D97" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E97" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4293,16 +4314,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C98" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D98" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E98" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4310,16 +4331,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C99" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D99" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E99" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4327,16 +4348,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C100" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D100" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E100" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4344,16 +4365,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C101" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D101" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E101" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4361,16 +4382,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C102" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D102" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E102" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4378,16 +4399,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C103" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D103" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E103" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4395,16 +4416,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C104" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D104" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E104" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4412,16 +4433,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C105" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D105" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E105" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4429,16 +4450,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C106" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D106" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E106" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4446,16 +4467,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C107" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D107" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E107" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4463,16 +4484,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C108" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D108" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E108" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4480,16 +4501,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C109" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D109" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E109" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4497,16 +4518,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C110" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D110" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E110" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4514,16 +4535,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C111" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D111" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E111" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4531,16 +4552,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C112" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D112" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E112" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4548,16 +4569,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C113" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D113" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E113" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4565,16 +4586,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C114" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D114" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E114" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4582,16 +4603,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C115" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D115" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E115" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4599,16 +4620,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C116" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D116" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E116" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4616,16 +4637,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C117" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D117" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E117" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4633,16 +4654,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C118" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D118" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E118" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4650,16 +4671,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C119" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D119" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E119" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4667,16 +4688,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C120" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D120" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E120" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4684,16 +4705,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C121" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D121" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E121" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4701,16 +4722,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C122" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D122" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E122" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4718,16 +4739,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C123" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D123" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E123" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4735,16 +4756,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C124" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D124" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E124" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4752,16 +4773,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C125" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D125" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E125" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4769,16 +4790,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C126" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D126" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E126" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4786,16 +4807,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C127" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D127" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E127" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4803,16 +4824,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C128" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D128" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E128" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4820,16 +4841,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C129" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E129" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4837,16 +4858,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C130" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D130" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E130" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4854,16 +4875,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C131" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D131" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="E131" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4871,16 +4892,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C132" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D132" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="E132" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4888,16 +4909,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C133" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D133" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E133" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4905,16 +4926,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C134" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D134" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E134" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4922,16 +4943,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C135" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D135" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E135" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4939,16 +4960,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C136" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D136" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E136" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4956,16 +4977,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C137" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D137" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E137" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4973,16 +4994,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C138" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D138" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E138" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4990,16 +5011,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C139" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D139" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E139" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5007,16 +5028,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C140" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D140" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E140" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5024,16 +5045,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C141" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D141" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E141" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5041,16 +5062,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C142" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D142" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E142" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5058,16 +5079,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C143" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D143" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E143" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5075,16 +5096,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C144" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D144" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E144" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5092,16 +5113,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C145" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D145" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E145" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5109,16 +5130,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C146" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D146" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E146" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5126,16 +5147,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C147" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D147" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E147" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5143,16 +5164,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C148" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D148" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E148" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5160,16 +5181,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C149" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D149" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E149" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5177,16 +5198,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C150" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D150" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E150" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5194,16 +5215,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C151" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D151" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E151" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5211,16 +5232,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C152" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D152" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E152" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5228,16 +5249,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C153" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D153" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E153" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5245,16 +5266,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C154" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D154" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E154" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5262,16 +5283,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C155" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D155" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E155" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5279,16 +5300,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C156" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D156" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E156" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5296,16 +5317,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C157" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D157" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E157" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5313,16 +5334,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C158" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D158" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E158" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5330,16 +5351,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C159" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D159" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E159" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5347,16 +5368,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C160" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D160" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E160" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5364,16 +5385,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C161" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D161" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E161" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5381,16 +5402,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C162" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D162" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E162" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5398,16 +5419,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C163" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D163" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E163" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5415,16 +5436,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C164" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D164" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E164" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5432,16 +5453,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C165" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D165" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E165" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5449,16 +5470,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C166" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D166" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E166" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5466,16 +5487,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C167" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D167" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E167" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5483,16 +5504,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C168" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D168" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E168" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5500,16 +5521,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C169" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D169" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E169" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5517,16 +5538,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C170" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D170" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E170" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5534,16 +5555,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C171" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D171" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E171" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5551,16 +5572,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C172" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D172" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E172" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5568,16 +5589,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C173" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D173" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E173" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5585,16 +5606,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C174" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D174" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E174" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5602,16 +5623,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C175" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D175" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E175" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5619,16 +5640,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C176" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D176" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E176" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5636,16 +5657,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C177" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D177" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="E177" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5653,16 +5674,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C178" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D178" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E178" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5670,16 +5691,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C179" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D179" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E179" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5687,16 +5708,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C180" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D180" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E180" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5704,16 +5725,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C181" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D181" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E181" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5721,16 +5742,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C182" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D182" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E182" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5738,16 +5759,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C183" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D183" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E183" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5755,16 +5776,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C184" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D184" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E184" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5772,16 +5793,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C185" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D185" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E185" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5789,16 +5810,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C186" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D186" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E186" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5806,16 +5827,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C187" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D187" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E187" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5823,16 +5844,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C188" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D188" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="E188" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5840,16 +5861,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C189" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D189" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="E189" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5857,16 +5878,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C190" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D190" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E190" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5874,16 +5895,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C191" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D191" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E191" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5891,16 +5912,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C192" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D192" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E192" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5908,16 +5929,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C193" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D193" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E193" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5925,16 +5946,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C194" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D194" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E194" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5942,16 +5963,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C195" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D195" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E195" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5959,16 +5980,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C196" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D196" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E196" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5976,16 +5997,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C197" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D197" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E197" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5993,16 +6014,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C198" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D198" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E198" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6010,16 +6031,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C199" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D199" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E199" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6027,16 +6048,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C200" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D200" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E200" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6044,16 +6065,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C201" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D201" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E201" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6061,16 +6082,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C202" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D202" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E202" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6078,16 +6099,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C203" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D203" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E203" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6095,16 +6116,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C204" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D204" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E204" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6112,16 +6133,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C205" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D205" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E205" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6129,16 +6150,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C206" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D206" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E206" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6146,16 +6167,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C207" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D207" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E207" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6163,16 +6184,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C208" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D208" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E208" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6180,16 +6201,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C209" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D209" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E209" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6197,16 +6218,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C210" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D210" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E210" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6214,16 +6235,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C211" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D211" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E211" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6231,16 +6252,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C212" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D212" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E212" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6248,16 +6269,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C213" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D213" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E213" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6265,16 +6286,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C214" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D214" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="E214" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6282,16 +6303,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C215" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D215" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="E215" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6299,16 +6320,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C216" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D216" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="E216" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6316,16 +6337,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C217" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D217" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="E217" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6333,16 +6354,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C218" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D218" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="E218" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6350,16 +6371,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C219" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D219" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E219" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6367,16 +6388,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C220" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D220" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E220" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6384,16 +6405,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C221" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D221" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E221" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6401,16 +6422,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C222" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D222" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="E222" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6418,16 +6439,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C223" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D223" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="E223" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6435,16 +6456,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C224" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D224" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="E224" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6452,16 +6473,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C225" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D225" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="E225" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6469,16 +6490,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C226" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D226" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="E226" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6486,16 +6507,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C227" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D227" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E227" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6503,16 +6524,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C228" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D228" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="E228" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6520,16 +6541,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C229" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D229" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="E229" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6537,16 +6558,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C230" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D230" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="E230" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6554,16 +6575,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C231" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D231" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E231" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6571,16 +6592,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C232" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D232" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E232" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6588,16 +6609,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C233" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D233" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E233" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6605,16 +6626,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C234" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D234" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E234" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6622,16 +6643,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C235" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D235" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E235" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6639,16 +6660,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C236" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D236" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E236" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6656,16 +6677,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C237" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D237" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E237" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6673,16 +6694,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C238" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D238" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="E238" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6690,16 +6711,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C239" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D239" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="E239" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6707,16 +6728,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C240" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D240" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="E240" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6724,16 +6745,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C241" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D241" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="E241" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6741,16 +6762,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C242" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D242" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="E242" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6758,16 +6779,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C243" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D243" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E243" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6775,16 +6796,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C244" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D244" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="E244" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6792,16 +6813,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C245" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D245" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="E245" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6809,16 +6830,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C246" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D246" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="E246" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6826,16 +6847,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C247" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D247" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="E247" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6843,16 +6864,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C248" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D248" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="E248" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6860,16 +6881,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C249" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D249" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="E249" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6877,16 +6898,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C250" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D250" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E250" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6894,16 +6915,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C251" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D251" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E251" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6911,16 +6932,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C252" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D252" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E252" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6928,16 +6949,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C253" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D253" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E253" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6945,16 +6966,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C254" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D254" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E254" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6962,16 +6983,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C255" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D255" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E255" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6979,16 +7000,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C256" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D256" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E256" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6999,13 +7020,13 @@
         <v>364</v>
       </c>
       <c r="C257" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D257" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E257" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7016,13 +7037,13 @@
         <v>364</v>
       </c>
       <c r="C258" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D258" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E258" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7033,13 +7054,13 @@
         <v>364</v>
       </c>
       <c r="C259" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D259" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E259" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7050,13 +7071,13 @@
         <v>364</v>
       </c>
       <c r="C260" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D260" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E260" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7064,16 +7085,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C261" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D261" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E261" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7081,16 +7102,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C262" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D262" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E262" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7098,16 +7119,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C263" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="D263" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E263" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7115,16 +7136,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C264" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D264" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E264" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7132,16 +7153,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C265" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D265" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E265" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7149,16 +7170,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C266" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D266" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E266" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7166,16 +7187,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C267" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D267" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E267" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7183,16 +7204,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C268" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D268" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E268" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7200,16 +7221,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C269" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D269" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="E269" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7217,16 +7238,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C270" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D270" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="E270" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7234,16 +7255,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C271" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D271" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="E271" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7251,16 +7272,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C272" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D272" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="E272" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7268,16 +7289,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C273" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D273" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E273" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7285,16 +7306,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C274" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D274" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E274" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7302,16 +7323,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C275" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D275" t="s">
         <v>729</v>
       </c>
       <c r="E275" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7319,16 +7340,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C276" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D276" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="E276" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7339,13 +7360,13 @@
         <v>365</v>
       </c>
       <c r="C277" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D277" t="s">
-        <v>365</v>
+        <v>730</v>
       </c>
       <c r="E277" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7356,13 +7377,13 @@
         <v>365</v>
       </c>
       <c r="C278" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D278" t="s">
-        <v>365</v>
+        <v>730</v>
       </c>
       <c r="E278" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7370,16 +7391,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C279" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D279" t="s">
-        <v>365</v>
+        <v>736</v>
       </c>
       <c r="E279" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7387,16 +7408,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C280" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D280" t="s">
-        <v>365</v>
+        <v>736</v>
       </c>
       <c r="E280" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7404,16 +7425,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C281" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D281" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E281" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7421,16 +7442,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C282" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D282" t="s">
-        <v>737</v>
+        <v>369</v>
       </c>
       <c r="E282" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7438,16 +7459,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C283" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D283" t="s">
-        <v>737</v>
+        <v>369</v>
       </c>
       <c r="E283" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7455,16 +7476,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C284" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D284" t="s">
-        <v>737</v>
+        <v>369</v>
       </c>
       <c r="E284" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7472,16 +7493,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C285" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D285" t="s">
-        <v>737</v>
+        <v>369</v>
       </c>
       <c r="E285" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7489,16 +7510,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C286" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D286" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="E286" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7506,16 +7527,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C287" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D287" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="E287" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7523,16 +7544,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C288" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D288" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="E288" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7540,16 +7561,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C289" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D289" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="E289" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7557,16 +7578,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C290" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D290" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="E290" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7574,16 +7595,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C291" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D291" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="E291" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7591,16 +7612,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C292" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D292" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="E292" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7608,16 +7629,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C293" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D293" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="E293" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7625,16 +7646,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C294" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D294" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="E294" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7642,16 +7663,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C295" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D295" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="E295" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7659,16 +7680,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C296" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="D296" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="E296" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7676,16 +7697,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C297" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D297" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="E297" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7693,16 +7714,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C298" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D298" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="E298" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7710,16 +7731,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C299" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D299" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="E299" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7727,16 +7748,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C300" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D300" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="E300" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7744,16 +7765,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C301" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D301" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="E301" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7761,16 +7782,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C302" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D302" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="E302" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7778,16 +7799,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C303" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D303" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E303" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7795,16 +7816,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C304" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D304" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="E304" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7812,16 +7833,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C305" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D305" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="E305" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7829,16 +7850,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C306" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D306" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="E306" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7846,16 +7867,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C307" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D307" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="E307" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7863,16 +7884,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C308" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D308" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="E308" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7880,16 +7901,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C309" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D309" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="E309" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7897,16 +7918,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C310" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D310" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="E310" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7914,16 +7935,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C311" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D311" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="E311" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7931,16 +7952,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C312" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D312" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="E312" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7948,16 +7969,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C313" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D313" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E313" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7965,16 +7986,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C314" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D314" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="E314" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7982,16 +8003,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C315" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D315" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="E315" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7999,16 +8020,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C316" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D316" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="E316" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8016,16 +8037,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C317" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D317" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="E317" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8033,16 +8054,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C318" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D318" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="E318" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8050,16 +8071,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C319" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D319" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="E319" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8067,16 +8088,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C320" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D320" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="E320" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8084,16 +8105,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C321" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D321" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E321" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8101,16 +8122,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C322" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D322" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E322" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8118,16 +8139,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C323" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D323" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E323" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8135,16 +8156,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C324" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D324" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="E324" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8152,16 +8173,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C325" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D325" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E325" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8169,16 +8190,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C326" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D326" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E326" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8186,16 +8207,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C327" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D327" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E327" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8203,16 +8224,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C328" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D328" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="E328" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8220,16 +8241,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C329" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D329" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="E329" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8237,16 +8258,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C330" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D330" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="E330" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8254,16 +8275,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C331" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D331" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="E331" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8271,16 +8292,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C332" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D332" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="E332" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8288,16 +8309,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C333" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D333" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="E333" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8305,16 +8326,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C334" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D334" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="E334" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8322,16 +8343,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C335" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D335" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="E335" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8339,16 +8360,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C336" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D336" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="E336" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8356,16 +8377,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C337" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D337" t="s">
         <v>729</v>
       </c>
       <c r="E337" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8373,16 +8394,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C338" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D338" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E338" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8393,13 +8414,13 @@
         <v>365</v>
       </c>
       <c r="C339" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D339" t="s">
-        <v>365</v>
+        <v>729</v>
       </c>
       <c r="E339" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8410,13 +8431,13 @@
         <v>365</v>
       </c>
       <c r="C340" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D340" t="s">
-        <v>365</v>
+        <v>730</v>
       </c>
       <c r="E340" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8424,16 +8445,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C341" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D341" t="s">
-        <v>365</v>
+        <v>736</v>
       </c>
       <c r="E341" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8441,16 +8462,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C342" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D342" t="s">
-        <v>365</v>
+        <v>738</v>
       </c>
       <c r="E342" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8458,16 +8479,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C343" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D343" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E343" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8475,16 +8496,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C344" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D344" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E344" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8492,16 +8513,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C345" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D345" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E345" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8509,16 +8530,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C346" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D346" t="s">
-        <v>746</v>
+        <v>369</v>
       </c>
       <c r="E346" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8526,16 +8547,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C347" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D347" t="s">
-        <v>746</v>
+        <v>369</v>
       </c>
       <c r="E347" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8543,16 +8564,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C348" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D348" t="s">
-        <v>746</v>
+        <v>369</v>
       </c>
       <c r="E348" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8560,16 +8581,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C349" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D349" t="s">
-        <v>746</v>
+        <v>369</v>
       </c>
       <c r="E349" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8577,16 +8598,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C350" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D350" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="E350" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8594,16 +8615,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C351" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D351" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="E351" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8611,16 +8632,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C352" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D352" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="E352" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8628,16 +8649,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C353" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D353" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E353" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8645,16 +8666,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C354" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D354" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E354" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8662,16 +8683,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C355" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D355" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="E355" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8679,16 +8700,84 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
+        <v>371</v>
+      </c>
+      <c r="C356" t="s">
+        <v>722</v>
+      </c>
+      <c r="D356" t="s">
+        <v>747</v>
+      </c>
+      <c r="E356" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
         <v>360</v>
       </c>
-      <c r="C356" t="s">
-        <v>719</v>
-      </c>
-      <c r="D356" t="s">
-        <v>748</v>
-      </c>
-      <c r="E356" t="s">
-        <v>753</v>
+      <c r="B357" t="s">
+        <v>371</v>
+      </c>
+      <c r="C357" t="s">
+        <v>723</v>
+      </c>
+      <c r="D357" t="s">
+        <v>754</v>
+      </c>
+      <c r="E357" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>361</v>
+      </c>
+      <c r="B358" t="s">
+        <v>371</v>
+      </c>
+      <c r="C358" t="s">
+        <v>724</v>
+      </c>
+      <c r="D358" t="s">
+        <v>754</v>
+      </c>
+      <c r="E358" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>362</v>
+      </c>
+      <c r="B359" t="s">
+        <v>364</v>
+      </c>
+      <c r="C359" t="s">
+        <v>725</v>
+      </c>
+      <c r="D359" t="s">
+        <v>755</v>
+      </c>
+      <c r="E359" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>363</v>
+      </c>
+      <c r="B360" t="s">
+        <v>364</v>
+      </c>
+      <c r="C360" t="s">
+        <v>726</v>
+      </c>
+      <c r="D360" t="s">
+        <v>755</v>
+      </c>
+      <c r="E360" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="772">
   <si>
     <t>Pāli1</t>
   </si>
@@ -574,7 +574,7 @@
     <t>paṭibhāti</t>
   </si>
   <si>
-    <t>paṭijānāti 2</t>
+    <t>paṭijānāti 3</t>
   </si>
   <si>
     <t>jināti 2</t>
@@ -676,6 +676,9 @@
     <t>āmantesi</t>
   </si>
   <si>
+    <t>pāturahosi</t>
+  </si>
+  <si>
     <t>homa 3</t>
   </si>
   <si>
@@ -946,18 +949,30 @@
     <t>āgāmī 1</t>
   </si>
   <si>
+    <t>vippaṭisārī</t>
+  </si>
+  <si>
     <t>bhogī 1</t>
   </si>
   <si>
     <t>gavesī 1</t>
   </si>
   <si>
+    <t>pītipaṭisaṃvedī</t>
+  </si>
+  <si>
+    <t>sakadāgāmī</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
     <t>sukhī 2</t>
   </si>
   <si>
+    <t>sabrahmacārī</t>
+  </si>
+  <si>
     <t>medhāvī</t>
   </si>
   <si>
@@ -1351,7 +1366,7 @@
     <t>mass; heap; pile</t>
   </si>
   <si>
-    <t>personal name of the Buddha; of the Gotama family; lit. excellent bull</t>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
   </si>
   <si>
     <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
@@ -1615,7 +1630,7 @@
     <t>leads (to); is useful (for); is conducive to</t>
   </si>
   <si>
-    <t>goes; moves; walks</t>
+    <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
     <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
@@ -1774,6 +1789,9 @@
     <t>addressed; said (to)</t>
   </si>
   <si>
+    <t>appeared; manifested; lit. became visible</t>
+  </si>
+  <si>
     <t>may you all be! you all must be!</t>
   </si>
   <si>
@@ -2035,18 +2053,30 @@
     <t>who returns; who comes back</t>
   </si>
   <si>
+    <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
+  </si>
+  <si>
     <t>enjoying; using; experiencing; partaking in</t>
   </si>
   <si>
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
+    <t>experiencing heart-felt joy; feeling delight; sensitive to rapture</t>
+  </si>
+  <si>
+    <t>who returns once; once-returner</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
     <t>who is happy; at ease; comfortable</t>
   </si>
   <si>
+    <t>fellow monk; spiritual companion</t>
+  </si>
+  <si>
     <t>intelligent man; wise man; lit. who has wisdom</t>
   </si>
   <si>
@@ -2219,6 +2249,9 @@
   </si>
   <si>
     <t>esi-aor</t>
+  </si>
+  <si>
+    <t>hosi-aor</t>
   </si>
   <si>
     <t>hoti-pr</t>
@@ -2654,7 +2687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E360"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2682,16 +2715,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E2" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2699,16 +2732,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E3" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2716,16 +2749,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E4" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2733,16 +2766,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E5" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2750,16 +2783,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E6" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2767,16 +2800,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E7" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2784,16 +2817,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E8" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2801,16 +2834,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E9" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2818,16 +2851,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E10" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2835,16 +2868,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E11" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2852,16 +2885,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E12" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2869,16 +2902,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E13" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2886,16 +2919,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E14" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2903,16 +2936,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E15" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2920,16 +2953,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C16" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D16" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E16" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2937,16 +2970,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E17" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2954,16 +2987,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E18" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2971,16 +3004,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D19" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E19" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2988,16 +3021,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C20" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E20" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3005,16 +3038,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D21" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E21" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3022,16 +3055,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C22" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E22" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3039,16 +3072,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C23" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E23" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3056,16 +3089,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D24" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E24" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3073,16 +3106,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E25" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3090,16 +3123,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D26" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E26" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3107,16 +3140,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C27" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D27" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E27" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3124,16 +3157,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C28" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E28" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3141,16 +3174,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C29" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D29" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E29" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3158,16 +3191,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C30" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D30" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E30" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3175,16 +3208,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D31" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E31" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3192,16 +3225,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D32" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E32" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3209,16 +3242,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D33" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E33" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3226,16 +3259,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C34" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D34" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E34" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3243,16 +3276,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E35" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3260,16 +3293,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E36" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3277,16 +3310,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C37" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E37" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3294,16 +3327,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C38" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E38" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3311,16 +3344,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C39" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E39" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3328,16 +3361,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C40" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D40" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E40" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3345,16 +3378,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C41" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D41" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E41" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3362,16 +3395,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C42" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D42" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E42" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3379,16 +3412,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C43" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D43" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E43" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3396,16 +3429,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C44" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E44" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3413,16 +3446,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C45" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D45" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E45" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3430,16 +3463,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C46" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D46" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E46" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3447,16 +3480,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C47" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D47" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E47" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3464,16 +3497,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D48" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E48" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3481,16 +3514,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D49" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E49" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3498,16 +3531,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D50" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E50" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3515,16 +3548,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D51" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E51" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3532,16 +3565,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C52" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D52" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E52" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3549,16 +3582,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D53" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E53" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3566,16 +3599,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C54" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D54" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E54" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3583,16 +3616,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C55" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D55" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E55" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3600,16 +3633,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C56" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D56" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E56" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3617,16 +3650,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C57" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D57" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E57" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3634,16 +3667,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C58" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D58" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E58" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3651,16 +3684,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C59" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D59" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E59" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3668,16 +3701,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C60" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D60" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E60" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3685,16 +3718,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C61" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D61" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E61" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3702,16 +3735,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C62" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D62" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E62" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3719,16 +3752,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C63" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D63" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E63" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3736,16 +3769,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C64" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D64" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E64" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3753,16 +3786,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D65" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E65" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3770,16 +3803,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C66" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D66" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E66" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3787,16 +3820,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C67" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D67" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E67" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3804,16 +3837,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D68" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E68" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3821,16 +3854,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C69" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D69" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E69" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3838,16 +3871,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C70" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D70" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E70" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3855,16 +3888,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C71" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D71" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E71" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3872,16 +3905,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C72" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D72" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E72" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3889,16 +3922,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C73" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D73" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E73" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3906,16 +3939,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D74" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E74" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3923,16 +3956,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C75" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D75" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E75" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3940,16 +3973,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C76" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D76" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E76" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3957,16 +3990,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C77" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D77" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E77" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3974,16 +4007,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C78" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D78" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E78" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3991,16 +4024,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C79" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D79" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E79" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4008,16 +4041,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C80" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D80" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E80" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4025,16 +4058,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C81" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D81" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E81" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4042,16 +4075,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C82" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D82" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E82" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4059,16 +4092,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C83" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D83" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E83" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4076,16 +4109,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C84" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D84" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E84" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4093,16 +4126,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C85" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D85" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E85" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4110,16 +4143,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C86" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D86" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E86" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4127,16 +4160,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C87" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D87" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E87" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4144,16 +4177,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C88" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D88" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E88" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4161,16 +4194,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C89" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D89" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E89" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4178,16 +4211,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C90" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D90" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E90" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4195,16 +4228,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C91" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D91" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E91" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4212,16 +4245,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C92" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D92" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E92" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4229,16 +4262,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C93" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D93" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E93" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4246,16 +4279,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C94" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D94" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E94" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4263,16 +4296,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C95" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D95" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E95" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4280,16 +4313,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C96" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D96" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E96" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4297,16 +4330,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C97" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D97" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E97" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4314,16 +4347,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D98" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E98" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4331,16 +4364,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C99" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D99" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E99" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4348,16 +4381,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C100" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D100" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E100" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4365,16 +4398,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C101" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D101" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E101" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4382,16 +4415,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C102" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D102" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E102" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4399,16 +4432,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C103" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D103" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E103" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4416,16 +4449,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C104" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D104" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E104" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4433,16 +4466,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C105" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D105" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E105" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4450,16 +4483,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C106" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D106" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E106" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4467,16 +4500,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C107" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D107" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E107" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4484,16 +4517,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C108" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D108" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E108" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4501,16 +4534,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C109" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D109" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E109" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4518,16 +4551,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C110" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D110" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E110" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4535,16 +4568,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C111" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D111" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E111" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4552,16 +4585,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C112" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D112" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E112" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4569,16 +4602,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C113" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D113" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E113" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4586,16 +4619,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C114" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D114" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E114" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4603,16 +4636,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C115" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D115" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E115" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4620,16 +4653,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C116" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D116" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E116" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4637,16 +4670,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C117" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D117" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E117" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4654,16 +4687,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C118" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D118" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E118" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4671,16 +4704,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C119" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D119" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E119" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4688,16 +4721,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C120" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D120" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E120" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4705,16 +4738,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C121" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D121" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E121" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4722,16 +4755,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C122" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D122" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E122" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4739,16 +4772,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C123" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D123" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E123" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4756,16 +4789,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D124" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E124" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4773,16 +4806,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C125" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D125" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E125" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4790,16 +4823,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C126" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D126" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E126" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4807,16 +4840,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C127" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D127" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E127" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4824,16 +4857,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C128" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D128" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E128" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4841,16 +4874,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C129" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D129" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E129" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4858,16 +4891,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C130" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D130" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E130" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4875,16 +4908,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C131" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D131" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="E131" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4892,16 +4925,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C132" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D132" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="E132" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4909,16 +4942,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C133" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D133" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E133" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4926,16 +4959,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C134" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D134" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E134" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4943,16 +4976,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C135" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D135" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E135" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4960,16 +4993,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C136" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D136" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E136" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4977,16 +5010,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C137" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D137" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E137" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4994,16 +5027,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C138" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D138" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E138" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5011,16 +5044,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C139" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D139" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E139" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5028,16 +5061,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C140" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D140" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E140" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5045,16 +5078,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C141" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D141" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E141" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5062,16 +5095,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C142" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D142" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E142" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5079,16 +5112,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C143" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D143" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E143" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5096,16 +5129,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C144" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D144" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E144" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5113,16 +5146,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C145" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D145" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E145" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5130,16 +5163,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C146" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D146" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E146" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5147,16 +5180,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C147" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D147" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E147" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5164,16 +5197,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C148" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D148" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E148" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5181,16 +5214,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C149" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D149" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E149" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5198,16 +5231,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C150" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D150" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E150" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5215,16 +5248,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C151" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D151" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E151" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5232,16 +5265,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C152" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D152" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E152" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5249,16 +5282,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C153" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D153" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E153" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5266,16 +5299,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C154" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D154" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E154" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5283,16 +5316,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C155" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D155" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E155" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5300,16 +5333,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C156" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D156" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E156" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5317,16 +5350,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C157" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D157" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E157" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5334,16 +5367,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C158" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D158" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E158" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5351,16 +5384,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C159" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D159" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E159" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5368,16 +5401,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C160" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D160" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E160" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5385,16 +5418,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C161" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D161" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E161" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5402,16 +5435,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C162" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D162" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E162" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5419,16 +5452,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C163" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D163" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E163" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5436,16 +5469,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C164" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D164" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E164" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5453,16 +5486,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C165" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D165" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E165" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5470,16 +5503,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C166" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D166" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E166" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5487,16 +5520,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C167" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D167" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E167" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5504,16 +5537,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C168" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D168" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E168" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5521,16 +5554,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C169" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D169" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E169" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5538,16 +5571,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C170" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D170" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E170" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5555,16 +5588,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C171" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D171" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E171" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5572,16 +5605,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C172" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D172" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E172" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5589,16 +5622,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C173" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D173" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E173" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5606,16 +5639,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C174" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D174" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E174" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5623,16 +5656,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C175" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D175" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E175" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5640,16 +5673,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C176" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D176" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E176" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5657,16 +5690,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C177" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D177" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E177" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5674,16 +5707,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C178" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D178" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="E178" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5691,16 +5724,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C179" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D179" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E179" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5708,16 +5741,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C180" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D180" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E180" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5725,16 +5758,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D181" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E181" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5742,16 +5775,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C182" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D182" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E182" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5759,16 +5792,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C183" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D183" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E183" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5776,16 +5809,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C184" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D184" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E184" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5793,16 +5826,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D185" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E185" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5810,16 +5843,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C186" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D186" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E186" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5827,16 +5860,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D187" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E187" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5844,16 +5877,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C188" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D188" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E188" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5861,16 +5894,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C189" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D189" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E189" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5878,16 +5911,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C190" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D190" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E190" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5895,16 +5928,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C191" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D191" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E191" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5912,16 +5945,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C192" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D192" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E192" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5929,16 +5962,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C193" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D193" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E193" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5946,16 +5979,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C194" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D194" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E194" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5963,16 +5996,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C195" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D195" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E195" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5980,16 +6013,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C196" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D196" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E196" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5997,16 +6030,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C197" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D197" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E197" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6014,16 +6047,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C198" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D198" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E198" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6031,16 +6064,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C199" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D199" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E199" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6048,16 +6081,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C200" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D200" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E200" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6065,16 +6098,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C201" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D201" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E201" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6082,16 +6115,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C202" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D202" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E202" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6099,16 +6132,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C203" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D203" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E203" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6116,16 +6149,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C204" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D204" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E204" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6133,16 +6166,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C205" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D205" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E205" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6150,16 +6183,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C206" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D206" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E206" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6167,16 +6200,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C207" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D207" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E207" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6184,16 +6217,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C208" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D208" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E208" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6201,16 +6234,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C209" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D209" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E209" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6218,16 +6251,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C210" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D210" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E210" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6235,16 +6268,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C211" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D211" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E211" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6252,16 +6285,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C212" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D212" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E212" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6269,16 +6302,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C213" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D213" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E213" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6286,16 +6319,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C214" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="D214" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E214" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6303,16 +6336,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C215" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D215" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E215" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6320,16 +6353,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C216" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D216" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="E216" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6337,16 +6370,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C217" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="D217" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="E217" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6354,16 +6387,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C218" t="s">
         <v>586</v>
       </c>
       <c r="D218" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="E218" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6371,16 +6404,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C219" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D219" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="E219" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6388,16 +6421,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C220" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D220" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="E220" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6405,16 +6438,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C221" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D221" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="E221" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6422,16 +6455,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C222" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D222" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="E222" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6439,16 +6472,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C223" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D223" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="E223" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6456,16 +6489,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C224" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D224" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="E224" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6473,16 +6506,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C225" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D225" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="E225" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6490,16 +6523,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C226" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D226" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="E226" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6507,16 +6540,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C227" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D227" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="E227" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6524,16 +6557,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C228" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D228" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="E228" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6541,16 +6574,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C229" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D229" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="E229" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6558,16 +6591,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C230" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D230" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="E230" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6575,16 +6608,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C231" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D231" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="E231" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6592,16 +6625,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C232" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D232" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E232" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6609,16 +6642,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C233" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D233" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E233" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6626,16 +6659,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C234" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D234" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E234" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6643,16 +6676,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C235" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D235" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E235" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6660,16 +6693,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C236" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D236" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E236" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6677,16 +6710,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C237" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D237" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E237" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6694,16 +6727,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C238" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D238" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E238" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6711,16 +6744,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C239" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D239" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E239" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6728,16 +6761,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C240" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D240" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="E240" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6745,16 +6778,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C241" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D241" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="E241" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6762,16 +6795,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C242" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D242" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="E242" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6779,16 +6812,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C243" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D243" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="E243" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6796,16 +6829,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C244" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D244" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="E244" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6813,16 +6846,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C245" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D245" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E245" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6830,16 +6863,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C246" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D246" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="E246" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6847,16 +6880,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C247" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D247" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="E247" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6864,16 +6897,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C248" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D248" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="E248" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6881,16 +6914,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C249" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D249" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="E249" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6898,16 +6931,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C250" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D250" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="E250" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6915,16 +6948,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C251" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D251" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E251" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6932,16 +6965,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C252" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D252" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E252" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6949,16 +6982,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C253" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D253" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E253" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6966,16 +6999,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C254" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D254" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E254" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6983,16 +7016,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C255" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D255" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E255" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7000,16 +7033,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D256" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E256" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7017,16 +7050,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C257" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D257" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E257" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7034,16 +7067,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C258" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D258" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E258" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7051,16 +7084,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C259" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="D259" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E259" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7068,16 +7101,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C260" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D260" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E260" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7085,16 +7118,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C261" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D261" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E261" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7102,16 +7135,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C262" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D262" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E262" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7119,16 +7152,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C263" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D263" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E263" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7136,16 +7169,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C264" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D264" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E264" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7153,16 +7186,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C265" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D265" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E265" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7170,16 +7203,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C266" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D266" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E266" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7187,16 +7220,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C267" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="D267" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E267" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7204,16 +7237,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C268" t="s">
         <v>635</v>
       </c>
       <c r="D268" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E268" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7221,16 +7254,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C269" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D269" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E269" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7238,16 +7271,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C270" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D270" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E270" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7255,16 +7288,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C271" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D271" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E271" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7272,16 +7305,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C272" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D272" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="E272" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7289,16 +7322,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C273" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="D273" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="E273" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7306,16 +7339,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C274" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="D274" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E274" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7323,16 +7356,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C275" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="D275" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E275" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7340,16 +7373,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C276" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D276" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="E276" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7357,16 +7390,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C277" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D277" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="E277" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7374,16 +7407,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C278" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="D278" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E278" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7391,16 +7424,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C279" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="D279" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E279" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7408,16 +7441,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C280" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D280" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="E280" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7425,16 +7458,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C281" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D281" t="s">
-        <v>369</v>
+        <v>747</v>
       </c>
       <c r="E281" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7442,16 +7475,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C282" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="D282" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E282" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7459,16 +7492,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C283" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D283" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E283" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7476,16 +7509,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C284" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D284" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E284" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7493,16 +7526,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C285" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D285" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E285" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7510,16 +7543,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C286" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="D286" t="s">
-        <v>744</v>
+        <v>374</v>
       </c>
       <c r="E286" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7527,16 +7560,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C287" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D287" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="E287" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7544,16 +7577,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C288" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D288" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="E288" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7561,16 +7594,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C289" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D289" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="E289" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7578,16 +7611,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C290" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D290" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="E290" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7595,16 +7628,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C291" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="D291" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="E291" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7612,16 +7645,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C292" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D292" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="E292" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7629,16 +7662,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C293" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D293" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="E293" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7646,16 +7679,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C294" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D294" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E294" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7663,16 +7696,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C295" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="D295" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E295" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7680,16 +7713,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C296" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="D296" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E296" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7697,16 +7730,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C297" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="D297" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E297" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7714,16 +7747,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C298" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D298" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E298" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7731,16 +7764,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C299" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D299" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E299" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7748,16 +7781,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C300" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="D300" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E300" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7765,16 +7798,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C301" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D301" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E301" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7782,16 +7815,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C302" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="D302" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E302" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7799,16 +7832,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C303" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D303" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="E303" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7816,16 +7849,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C304" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D304" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E304" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7833,16 +7866,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C305" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="D305" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="E305" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7850,16 +7883,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C306" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="D306" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="E306" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7867,16 +7900,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C307" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D307" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="E307" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7884,16 +7917,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C308" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="D308" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="E308" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7901,16 +7934,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C309" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D309" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="E309" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7918,16 +7951,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C310" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="D310" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="E310" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7935,16 +7968,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C311" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D311" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="E311" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7952,16 +7985,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C312" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="D312" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="E312" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7969,16 +8002,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C313" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="D313" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="E313" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7986,16 +8019,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C314" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D314" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="E314" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8003,16 +8036,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C315" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="D315" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="E315" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8020,16 +8053,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C316" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="D316" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="E316" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8037,16 +8070,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C317" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D317" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="E317" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8054,16 +8087,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C318" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D318" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="E318" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8071,16 +8104,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C319" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="D319" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E319" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8088,16 +8121,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C320" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D320" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E320" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8105,16 +8138,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C321" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="D321" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E321" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8122,16 +8155,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C322" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="D322" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E322" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8139,16 +8172,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C323" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="D323" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E323" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8156,16 +8189,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C324" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="D324" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="E324" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8173,16 +8206,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C325" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D325" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="E325" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8190,16 +8223,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C326" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D326" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="E326" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8207,16 +8240,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C327" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="D327" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="E327" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8224,16 +8257,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C328" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D328" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="E328" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8241,16 +8274,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C329" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D329" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="E329" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8258,16 +8291,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C330" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="D330" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="E330" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8275,16 +8308,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C331" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="D331" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="E331" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8292,16 +8325,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C332" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="D332" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="E332" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8309,16 +8342,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C333" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="D333" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="E333" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8326,16 +8359,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C334" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D334" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="E334" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8343,16 +8376,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C335" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="D335" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="E335" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8360,16 +8393,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C336" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D336" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="E336" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8377,16 +8410,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C337" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="D337" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="E337" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8394,16 +8427,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C338" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="D338" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="E338" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8411,16 +8444,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C339" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="D339" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="E339" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8428,16 +8461,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C340" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="D340" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
       <c r="E340" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8445,16 +8478,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C341" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D341" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="E341" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8462,16 +8495,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C342" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="D342" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E342" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8479,16 +8512,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C343" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="D343" t="s">
-        <v>369</v>
+        <v>739</v>
       </c>
       <c r="E343" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8496,16 +8529,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C344" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D344" t="s">
-        <v>369</v>
+        <v>739</v>
       </c>
       <c r="E344" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8513,16 +8546,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C345" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="D345" t="s">
-        <v>369</v>
+        <v>740</v>
       </c>
       <c r="E345" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8530,16 +8563,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C346" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D346" t="s">
-        <v>369</v>
+        <v>747</v>
       </c>
       <c r="E346" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8550,13 +8583,13 @@
         <v>369</v>
       </c>
       <c r="C347" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="D347" t="s">
-        <v>369</v>
+        <v>749</v>
       </c>
       <c r="E347" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8564,16 +8597,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C348" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="D348" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E348" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8581,16 +8614,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C349" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D349" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E349" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8598,16 +8631,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C350" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="D350" t="s">
-        <v>753</v>
+        <v>374</v>
       </c>
       <c r="E350" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8615,16 +8648,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C351" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="D351" t="s">
-        <v>753</v>
+        <v>374</v>
       </c>
       <c r="E351" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8632,16 +8665,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C352" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D352" t="s">
-        <v>753</v>
+        <v>374</v>
       </c>
       <c r="E352" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8649,16 +8682,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C353" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="D353" t="s">
-        <v>753</v>
+        <v>374</v>
       </c>
       <c r="E353" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8666,16 +8699,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C354" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="D354" t="s">
-        <v>753</v>
+        <v>374</v>
       </c>
       <c r="E354" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8683,16 +8716,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C355" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="D355" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="E355" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8700,16 +8733,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C356" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D356" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="E356" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8717,16 +8750,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C357" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="D357" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="E357" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8734,16 +8767,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C358" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D358" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="E358" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8751,16 +8784,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C359" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="D359" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="E359" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8768,16 +8801,101 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
+        <v>369</v>
+      </c>
+      <c r="C360" t="s">
+        <v>731</v>
+      </c>
+      <c r="D360" t="s">
+        <v>764</v>
+      </c>
+      <c r="E360" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
         <v>364</v>
       </c>
-      <c r="C360" t="s">
-        <v>726</v>
-      </c>
-      <c r="D360" t="s">
-        <v>755</v>
-      </c>
-      <c r="E360" t="s">
-        <v>760</v>
+      <c r="B361" t="s">
+        <v>376</v>
+      </c>
+      <c r="C361" t="s">
+        <v>732</v>
+      </c>
+      <c r="D361" t="s">
+        <v>758</v>
+      </c>
+      <c r="E361" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>365</v>
+      </c>
+      <c r="B362" t="s">
+        <v>376</v>
+      </c>
+      <c r="C362" t="s">
+        <v>733</v>
+      </c>
+      <c r="D362" t="s">
+        <v>765</v>
+      </c>
+      <c r="E362" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>366</v>
+      </c>
+      <c r="B363" t="s">
+        <v>376</v>
+      </c>
+      <c r="C363" t="s">
+        <v>734</v>
+      </c>
+      <c r="D363" t="s">
+        <v>765</v>
+      </c>
+      <c r="E363" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>367</v>
+      </c>
+      <c r="B364" t="s">
+        <v>369</v>
+      </c>
+      <c r="C364" t="s">
+        <v>735</v>
+      </c>
+      <c r="D364" t="s">
+        <v>766</v>
+      </c>
+      <c r="E364" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>368</v>
+      </c>
+      <c r="B365" t="s">
+        <v>369</v>
+      </c>
+      <c r="C365" t="s">
+        <v>736</v>
+      </c>
+      <c r="D365" t="s">
+        <v>766</v>
+      </c>
+      <c r="E365" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="788">
   <si>
     <t>Pāli1</t>
   </si>
@@ -676,6 +676,9 @@
     <t>āmantesi</t>
   </si>
   <si>
+    <t>ahosi</t>
+  </si>
+  <si>
     <t>pāturahosi</t>
   </si>
   <si>
@@ -946,6 +949,9 @@
     <t>vādī 1</t>
   </si>
   <si>
+    <t>vihārī</t>
+  </si>
+  <si>
     <t>āgāmī 1</t>
   </si>
   <si>
@@ -955,6 +961,9 @@
     <t>bhogī 1</t>
   </si>
   <si>
+    <t>anupassī 1</t>
+  </si>
+  <si>
     <t>gavesī 1</t>
   </si>
   <si>
@@ -967,6 +976,9 @@
     <t>brahmacārī 2</t>
   </si>
   <si>
+    <t>dassī 2</t>
+  </si>
+  <si>
     <t>sukhī 2</t>
   </si>
   <si>
@@ -1069,6 +1081,9 @@
     <t>nidhi</t>
   </si>
   <si>
+    <t>vā 1</t>
+  </si>
+  <si>
     <t>kālena</t>
   </si>
   <si>
@@ -1078,9 +1093,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>ca 1</t>
+  </si>
+  <si>
     <t>pacchā 1</t>
   </si>
   <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>suve</t>
   </si>
   <si>
@@ -1114,6 +1135,9 @@
     <t>rattaññū</t>
   </si>
   <si>
+    <t>vidū 1</t>
+  </si>
+  <si>
     <t>mattaññū</t>
   </si>
   <si>
@@ -1789,6 +1813,9 @@
     <t>addressed; said (to)</t>
   </si>
   <si>
+    <t>was; existed; became</t>
+  </si>
+  <si>
     <t>appeared; manifested; lit. became visible</t>
   </si>
   <si>
@@ -2050,6 +2077,9 @@
     <t>speaking; saying; telling</t>
   </si>
   <si>
+    <t>(of a state of being) living in; who has</t>
+  </si>
+  <si>
     <t>who returns; who comes back</t>
   </si>
   <si>
@@ -2059,6 +2089,9 @@
     <t>enjoying; using; experiencing; partaking in</t>
   </si>
   <si>
+    <t>looking (at); observing; following; noticing; witnessing; watching</t>
+  </si>
+  <si>
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
@@ -2071,6 +2104,9 @@
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
+    <t>who sees; who knows; who perceives; who understands</t>
+  </si>
+  <si>
     <t>who is happy; at ease; comfortable</t>
   </si>
   <si>
@@ -2173,6 +2209,9 @@
     <t>treasure; trove; hoard; lit. put down</t>
   </si>
   <si>
+    <t>or; either or</t>
+  </si>
+  <si>
     <t>at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
@@ -2182,9 +2221,15 @@
     <t>ever; always</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>after; afterwards; in the future</t>
   </si>
   <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>tomorrow</t>
   </si>
   <si>
@@ -2216,6 +2261,9 @@
   </si>
   <si>
     <t>of long standing; lit. who knowing (many) night (as a monk)</t>
+  </si>
+  <si>
+    <t>wise; knowing; understanding</t>
   </si>
   <si>
     <t>knowing the measure or limit; moderate</t>
@@ -2687,7 +2735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2715,16 +2763,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E2" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2732,16 +2780,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E3" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2749,16 +2797,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E4" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2766,16 +2814,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D5" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E5" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2783,16 +2831,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E6" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2800,16 +2848,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D7" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E7" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2817,16 +2865,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E8" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2834,16 +2882,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D9" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E9" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2851,16 +2899,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D10" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E10" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2868,16 +2916,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D11" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E11" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2885,16 +2933,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D12" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E12" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2902,16 +2950,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D13" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E13" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2919,16 +2967,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D14" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E14" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2936,16 +2984,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E15" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2953,16 +3001,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D16" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E16" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2970,16 +3018,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D17" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E17" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2987,16 +3035,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E18" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3004,16 +3052,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C19" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D19" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E19" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3021,16 +3069,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C20" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D20" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E20" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3038,16 +3086,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D21" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E21" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3055,16 +3103,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C22" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D22" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E22" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3072,16 +3120,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D23" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E23" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3089,16 +3137,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C24" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D24" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E24" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3106,16 +3154,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C25" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D25" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E25" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3123,16 +3171,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D26" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E26" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3140,16 +3188,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C27" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D27" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E27" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3157,16 +3205,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C28" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D28" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E28" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3174,16 +3222,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C29" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D29" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E29" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3191,16 +3239,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C30" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D30" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E30" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3208,16 +3256,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C31" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D31" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E31" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3225,16 +3273,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C32" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D32" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E32" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3242,16 +3290,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C33" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D33" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E33" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3259,16 +3307,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C34" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D34" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E34" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3276,16 +3324,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C35" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D35" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E35" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3293,16 +3341,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D36" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E36" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3310,16 +3358,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D37" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E37" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3327,16 +3375,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D38" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E38" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3344,16 +3392,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C39" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D39" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E39" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3361,16 +3409,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C40" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D40" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E40" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3378,16 +3426,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C41" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D41" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E41" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3395,16 +3443,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D42" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E42" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3412,16 +3460,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C43" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D43" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E43" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3429,16 +3477,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C44" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D44" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E44" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3446,16 +3494,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C45" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D45" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E45" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3463,16 +3511,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C46" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D46" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E46" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3480,16 +3528,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D47" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E47" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3497,16 +3545,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C48" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="D48" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E48" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3514,16 +3562,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C49" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D49" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E49" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3531,16 +3579,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C50" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D50" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E50" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3548,16 +3596,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D51" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E51" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3565,16 +3613,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C52" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D52" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E52" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3582,16 +3630,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D53" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E53" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3599,16 +3647,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C54" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D54" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E54" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3616,16 +3664,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C55" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="D55" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E55" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3633,16 +3681,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C56" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D56" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E56" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3650,16 +3698,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C57" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D57" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E57" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3667,16 +3715,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C58" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D58" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E58" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3684,16 +3732,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C59" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D59" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E59" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3701,16 +3749,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C60" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D60" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E60" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3718,16 +3766,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C61" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D61" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E61" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3735,16 +3783,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C62" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D62" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E62" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3752,16 +3800,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C63" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D63" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E63" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3769,16 +3817,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C64" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D64" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E64" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3786,16 +3834,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C65" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D65" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E65" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3803,16 +3851,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C66" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D66" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E66" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3820,16 +3868,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C67" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D67" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E67" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3837,16 +3885,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C68" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D68" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E68" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3854,16 +3902,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C69" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D69" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E69" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3871,16 +3919,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C70" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D70" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E70" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3888,16 +3936,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C71" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D71" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E71" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3905,16 +3953,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C72" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D72" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E72" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3922,16 +3970,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C73" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D73" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E73" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3939,16 +3987,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C74" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D74" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E74" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3956,16 +4004,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C75" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D75" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E75" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3973,16 +4021,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D76" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E76" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3990,16 +4038,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C77" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D77" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E77" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4007,16 +4055,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C78" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D78" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E78" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4024,16 +4072,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C79" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D79" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E79" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4041,16 +4089,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C80" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D80" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E80" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4058,16 +4106,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C81" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D81" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E81" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4075,16 +4123,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C82" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D82" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E82" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4092,16 +4140,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C83" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D83" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E83" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4109,16 +4157,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C84" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D84" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E84" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4126,16 +4174,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C85" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D85" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E85" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4143,16 +4191,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C86" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D86" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E86" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4160,16 +4208,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C87" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D87" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E87" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4177,16 +4225,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C88" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D88" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E88" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4194,16 +4242,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C89" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D89" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E89" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4211,16 +4259,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C90" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D90" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E90" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4228,16 +4276,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C91" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D91" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E91" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4245,16 +4293,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C92" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D92" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E92" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4262,16 +4310,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C93" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D93" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E93" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4279,16 +4327,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C94" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D94" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E94" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4296,16 +4344,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C95" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D95" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E95" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4313,16 +4361,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C96" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D96" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E96" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4330,16 +4378,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C97" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D97" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E97" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4347,16 +4395,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C98" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D98" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E98" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4364,16 +4412,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C99" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D99" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E99" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4381,16 +4429,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C100" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D100" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E100" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4398,16 +4446,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C101" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D101" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E101" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4415,16 +4463,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C102" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D102" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E102" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4432,16 +4480,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C103" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D103" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E103" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4449,16 +4497,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C104" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D104" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E104" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4466,16 +4514,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C105" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D105" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E105" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4483,16 +4531,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C106" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D106" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E106" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4500,16 +4548,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C107" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D107" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E107" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4517,16 +4565,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C108" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D108" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E108" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4534,16 +4582,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C109" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D109" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E109" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4551,16 +4599,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C110" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D110" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E110" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4568,16 +4616,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C111" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D111" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E111" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4585,16 +4633,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C112" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D112" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E112" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4602,16 +4650,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C113" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D113" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E113" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4619,16 +4667,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C114" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D114" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E114" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4636,16 +4684,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C115" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D115" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E115" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4653,16 +4701,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C116" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D116" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E116" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4670,16 +4718,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C117" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D117" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E117" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4687,16 +4735,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C118" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D118" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E118" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4704,16 +4752,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C119" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D119" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E119" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4721,16 +4769,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C120" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D120" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E120" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4738,16 +4786,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C121" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D121" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E121" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4755,16 +4803,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C122" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D122" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E122" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4772,16 +4820,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C123" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D123" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E123" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4789,16 +4837,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C124" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D124" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E124" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4806,16 +4854,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C125" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D125" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E125" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4823,16 +4871,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C126" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D126" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E126" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4840,16 +4888,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C127" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D127" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E127" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4857,16 +4905,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C128" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D128" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E128" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4874,16 +4922,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C129" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D129" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E129" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4891,16 +4939,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C130" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D130" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E130" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4908,16 +4956,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C131" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D131" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="E131" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4925,16 +4973,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C132" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D132" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="E132" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4942,16 +4990,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C133" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D133" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E133" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4959,16 +5007,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C134" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D134" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E134" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4976,16 +5024,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C135" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D135" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E135" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4993,16 +5041,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C136" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D136" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E136" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5010,16 +5058,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C137" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D137" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E137" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5027,16 +5075,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D138" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E138" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5044,16 +5092,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C139" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D139" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E139" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5061,16 +5109,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C140" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D140" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E140" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5078,16 +5126,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C141" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="D141" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E141" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5095,16 +5143,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C142" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D142" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E142" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5112,16 +5160,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C143" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="D143" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E143" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5129,16 +5177,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C144" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D144" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E144" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5146,16 +5194,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C145" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D145" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E145" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5163,16 +5211,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C146" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D146" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E146" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5180,16 +5228,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C147" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="D147" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E147" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5197,16 +5245,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C148" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="D148" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E148" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5214,16 +5262,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C149" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D149" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E149" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5231,16 +5279,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C150" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D150" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E150" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5248,16 +5296,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C151" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D151" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E151" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5265,16 +5313,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C152" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D152" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E152" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5282,16 +5330,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C153" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D153" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E153" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5299,16 +5347,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C154" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D154" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E154" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5316,16 +5364,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C155" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D155" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E155" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5333,16 +5381,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C156" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D156" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E156" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5350,16 +5398,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C157" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D157" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E157" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5367,16 +5415,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C158" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D158" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E158" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5384,16 +5432,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C159" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D159" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E159" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5401,16 +5449,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C160" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D160" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E160" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5418,16 +5466,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C161" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D161" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E161" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5435,16 +5483,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C162" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D162" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E162" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5452,16 +5500,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C163" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D163" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E163" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5469,16 +5517,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C164" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D164" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E164" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5486,16 +5534,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C165" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D165" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E165" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5503,16 +5551,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C166" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="D166" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E166" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5520,16 +5568,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C167" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D167" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E167" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5537,16 +5585,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C168" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="D168" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E168" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5554,16 +5602,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C169" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D169" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E169" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5571,16 +5619,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C170" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D170" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E170" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5588,16 +5636,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C171" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D171" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E171" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5605,16 +5653,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C172" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D172" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E172" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5622,16 +5670,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C173" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D173" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E173" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5639,16 +5687,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C174" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D174" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E174" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5656,16 +5704,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C175" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D175" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E175" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5673,16 +5721,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C176" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D176" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E176" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5690,16 +5738,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C177" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D177" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E177" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5707,16 +5755,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C178" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D178" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="E178" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5724,16 +5772,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C179" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D179" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E179" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5741,16 +5789,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C180" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="D180" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E180" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5758,16 +5806,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C181" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D181" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E181" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5775,16 +5823,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C182" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="D182" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E182" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5792,16 +5840,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C183" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D183" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E183" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5809,16 +5857,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C184" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D184" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E184" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5826,16 +5874,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="D185" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E185" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5843,16 +5891,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C186" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D186" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E186" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5860,16 +5908,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C187" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="D187" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E187" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5877,16 +5925,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C188" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D188" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E188" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5894,16 +5942,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C189" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D189" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E189" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5911,16 +5959,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C190" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D190" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E190" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5928,16 +5976,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C191" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D191" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E191" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5945,16 +5993,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C192" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D192" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E192" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5962,16 +6010,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C193" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D193" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E193" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5979,16 +6027,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C194" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D194" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E194" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5996,16 +6044,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C195" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D195" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E195" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6013,16 +6061,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C196" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D196" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E196" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6030,16 +6078,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C197" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D197" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E197" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6047,16 +6095,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C198" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D198" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E198" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6064,16 +6112,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C199" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D199" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E199" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6081,16 +6129,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C200" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D200" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E200" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6098,16 +6146,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C201" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D201" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E201" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6115,16 +6163,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C202" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D202" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E202" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6132,16 +6180,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C203" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D203" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E203" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6149,16 +6197,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C204" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D204" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E204" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6166,16 +6214,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C205" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="D205" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E205" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6183,16 +6231,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C206" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D206" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E206" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6200,16 +6248,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C207" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D207" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E207" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6217,16 +6265,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C208" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D208" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E208" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6234,16 +6282,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C209" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D209" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="E209" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6251,16 +6299,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C210" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D210" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="E210" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6268,16 +6316,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C211" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D211" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="E211" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6285,16 +6333,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C212" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D212" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="E212" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6302,16 +6350,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C213" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D213" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="E213" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6319,16 +6367,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C214" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D214" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="E214" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6336,16 +6384,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C215" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D215" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="E215" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6353,16 +6401,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C216" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D216" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="E216" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6370,16 +6418,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C217" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D217" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="E217" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6387,16 +6435,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C218" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="D218" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="E218" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6404,16 +6452,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C219" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D219" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="E219" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6421,16 +6469,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C220" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D220" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="E220" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6438,16 +6486,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C221" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D221" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="E221" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6455,16 +6503,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C222" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D222" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="E222" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6472,16 +6520,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C223" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D223" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="E223" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6489,16 +6537,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C224" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D224" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="E224" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6506,16 +6554,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C225" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D225" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="E225" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6523,16 +6571,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C226" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D226" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="E226" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6540,16 +6588,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C227" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="D227" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="E227" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6557,16 +6605,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C228" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D228" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="E228" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6574,16 +6622,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C229" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D229" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="E229" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6591,16 +6639,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C230" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D230" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="E230" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6608,16 +6656,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C231" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D231" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="E231" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6625,16 +6673,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C232" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="D232" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="E232" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6642,16 +6690,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C233" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D233" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="E233" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6659,16 +6707,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C234" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D234" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="E234" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6676,16 +6724,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C235" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D235" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="E235" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6693,16 +6741,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C236" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="D236" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="E236" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6710,16 +6758,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C237" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D237" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="E237" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6727,16 +6775,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C238" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D238" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="E238" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6744,16 +6792,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C239" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D239" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="E239" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6761,16 +6809,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C240" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="D240" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="E240" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6778,16 +6826,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C241" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D241" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="E241" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6795,16 +6843,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C242" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="D242" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="E242" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6812,16 +6860,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C243" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D243" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="E243" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6829,16 +6877,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C244" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D244" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="E244" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6846,16 +6894,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C245" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D245" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="E245" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6863,16 +6911,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C246" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D246" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="E246" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6880,16 +6928,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C247" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D247" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="E247" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6897,16 +6945,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C248" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D248" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="E248" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6914,16 +6962,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C249" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D249" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="E249" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6931,16 +6979,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C250" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D250" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="E250" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6948,16 +6996,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C251" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D251" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="E251" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6965,16 +7013,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C252" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D252" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E252" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6982,16 +7030,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C253" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="D253" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E253" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6999,16 +7047,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C254" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D254" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E254" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7016,16 +7064,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C255" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D255" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E255" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7033,16 +7081,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C256" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D256" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E256" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7050,16 +7098,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C257" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D257" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E257" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7067,16 +7115,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C258" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D258" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E258" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7084,16 +7132,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C259" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D259" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E259" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7101,16 +7149,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C260" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D260" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E260" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7118,16 +7166,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C261" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D261" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E261" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7135,16 +7183,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="D262" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E262" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7152,16 +7200,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C263" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D263" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E263" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7169,16 +7217,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C264" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="D264" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E264" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7186,16 +7234,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C265" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="D265" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E265" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7203,16 +7251,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C266" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D266" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E266" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7220,16 +7268,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C267" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D267" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E267" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7237,16 +7285,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C268" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="D268" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E268" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7254,16 +7302,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C269" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D269" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E269" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7271,16 +7319,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C270" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D270" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E270" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7288,16 +7336,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C271" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="D271" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E271" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7305,16 +7353,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C272" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="D272" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E272" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7322,16 +7370,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C273" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D273" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E273" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7339,16 +7387,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C274" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="D274" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="E274" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7356,16 +7404,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C275" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D275" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E275" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7373,16 +7421,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C276" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D276" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E276" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7390,16 +7438,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C277" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="D277" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="E277" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7407,16 +7455,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C278" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D278" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="E278" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7424,16 +7472,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C279" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D279" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E279" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7441,16 +7489,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C280" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="D280" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="E280" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7458,16 +7506,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C281" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D281" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="E281" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7475,16 +7523,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C282" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D282" t="s">
-        <v>374</v>
+        <v>763</v>
       </c>
       <c r="E282" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7492,16 +7540,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C283" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D283" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E283" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7509,16 +7557,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C284" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D284" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E284" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7526,16 +7574,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C285" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="D285" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E285" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7543,16 +7591,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C286" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D286" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E286" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7560,16 +7608,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C287" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D287" t="s">
-        <v>755</v>
+        <v>382</v>
       </c>
       <c r="E287" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7577,16 +7625,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C288" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D288" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="E288" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7594,16 +7642,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C289" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D289" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="E289" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7611,16 +7659,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C290" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D290" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="E290" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7628,16 +7676,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C291" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="D291" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="E291" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7645,16 +7693,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C292" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D292" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="E292" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7662,16 +7710,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C293" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="D293" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="E293" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7679,16 +7727,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C294" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="D294" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="E294" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7696,16 +7744,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C295" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D295" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E295" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7713,16 +7761,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C296" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="D296" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E296" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7730,16 +7778,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C297" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="D297" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E297" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7747,16 +7795,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C298" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="D298" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E298" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7764,16 +7812,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C299" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="D299" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E299" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7781,16 +7829,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C300" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="D300" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E300" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7798,16 +7846,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C301" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="D301" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E301" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7815,16 +7863,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C302" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D302" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E302" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7832,16 +7880,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C303" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D303" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E303" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7849,16 +7897,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C304" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D304" t="s">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="E304" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7866,16 +7914,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C305" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="D305" t="s">
         <v>758</v>
       </c>
       <c r="E305" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7883,16 +7931,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C306" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D306" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="E306" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7900,16 +7948,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C307" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="D307" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="E307" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7917,16 +7965,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C308" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="D308" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="E308" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7934,16 +7982,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C309" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D309" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="E309" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7951,16 +7999,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C310" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="D310" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="E310" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7968,16 +8016,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C311" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="D311" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="E311" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7985,16 +8033,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C312" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="D312" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="E312" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8002,16 +8050,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C313" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="D313" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="E313" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8019,16 +8067,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C314" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="D314" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="E314" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8036,16 +8084,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C315" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="D315" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="E315" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8053,16 +8101,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C316" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="D316" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="E316" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8070,16 +8118,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C317" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="D317" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="E317" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8087,16 +8135,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C318" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="D318" t="s">
-        <v>737</v>
+        <v>775</v>
       </c>
       <c r="E318" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8104,16 +8152,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C319" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D319" t="s">
-        <v>737</v>
+        <v>775</v>
       </c>
       <c r="E319" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8121,16 +8169,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C320" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="D320" t="s">
-        <v>737</v>
+        <v>775</v>
       </c>
       <c r="E320" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8138,16 +8186,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C321" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="D321" t="s">
-        <v>737</v>
+        <v>775</v>
       </c>
       <c r="E321" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8155,16 +8203,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C322" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="D322" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E322" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8172,16 +8220,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C323" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="D323" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E323" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8189,16 +8237,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C324" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="D324" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E324" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8206,16 +8254,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C325" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="D325" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E325" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8223,16 +8271,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C326" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="D326" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E326" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8240,16 +8288,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C327" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="D327" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E327" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8257,16 +8305,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C328" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="D328" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="E328" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8274,16 +8322,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C329" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="D329" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="E329" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8291,16 +8339,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C330" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="D330" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="E330" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8308,16 +8356,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C331" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D331" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="E331" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8325,16 +8373,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C332" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="D332" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="E332" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8342,16 +8390,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C333" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="D333" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="E333" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8359,16 +8407,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C334" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="D334" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="E334" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8376,16 +8424,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C335" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="D335" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="E335" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8393,16 +8441,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C336" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="D336" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="E336" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8410,16 +8458,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C337" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="D337" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="E337" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8427,16 +8475,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C338" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="D338" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="E338" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8444,16 +8492,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C339" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="D339" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="E339" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8461,16 +8509,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C340" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D340" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="E340" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8478,16 +8526,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C341" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="D341" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="E341" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8495,16 +8543,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C342" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="D342" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="E342" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8512,16 +8560,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C343" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="D343" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="E343" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8529,16 +8577,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C344" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D344" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="E344" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8546,16 +8594,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C345" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="D345" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="E345" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8563,16 +8611,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C346" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="D346" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="E346" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8580,16 +8628,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C347" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D347" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="E347" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8597,16 +8645,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C348" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D348" t="s">
-        <v>374</v>
+        <v>755</v>
       </c>
       <c r="E348" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8614,16 +8662,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C349" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D349" t="s">
-        <v>374</v>
+        <v>756</v>
       </c>
       <c r="E349" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8631,16 +8679,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C350" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="D350" t="s">
-        <v>374</v>
+        <v>763</v>
       </c>
       <c r="E350" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8648,16 +8696,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C351" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="D351" t="s">
-        <v>374</v>
+        <v>765</v>
       </c>
       <c r="E351" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8665,16 +8713,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C352" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D352" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E352" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8682,16 +8730,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C353" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="D353" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E353" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8699,16 +8747,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C354" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="D354" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E354" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8716,16 +8764,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C355" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="D355" t="s">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="E355" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8733,16 +8781,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C356" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="D356" t="s">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="E356" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8750,16 +8798,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C357" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="D357" t="s">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="E357" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8767,16 +8815,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C358" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="D358" t="s">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="E358" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8784,16 +8832,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C359" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="D359" t="s">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="E359" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8801,16 +8849,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C360" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="D360" t="s">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="E360" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8818,16 +8866,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C361" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="D361" t="s">
-        <v>758</v>
+        <v>382</v>
       </c>
       <c r="E361" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -8835,16 +8883,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C362" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="D362" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="E362" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8852,16 +8900,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C363" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="D363" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="E363" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -8869,16 +8917,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C364" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D364" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="E364" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8886,16 +8934,152 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
+        <v>377</v>
+      </c>
+      <c r="C365" t="s">
+        <v>744</v>
+      </c>
+      <c r="D365" t="s">
+        <v>780</v>
+      </c>
+      <c r="E365" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
         <v>369</v>
       </c>
-      <c r="C365" t="s">
-        <v>736</v>
-      </c>
-      <c r="D365" t="s">
-        <v>766</v>
-      </c>
-      <c r="E365" t="s">
-        <v>771</v>
+      <c r="B366" t="s">
+        <v>377</v>
+      </c>
+      <c r="C366" t="s">
+        <v>745</v>
+      </c>
+      <c r="D366" t="s">
+        <v>780</v>
+      </c>
+      <c r="E366" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>370</v>
+      </c>
+      <c r="B367" t="s">
+        <v>377</v>
+      </c>
+      <c r="C367" t="s">
+        <v>746</v>
+      </c>
+      <c r="D367" t="s">
+        <v>780</v>
+      </c>
+      <c r="E367" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>371</v>
+      </c>
+      <c r="B368" t="s">
+        <v>384</v>
+      </c>
+      <c r="C368" t="s">
+        <v>747</v>
+      </c>
+      <c r="D368" t="s">
+        <v>774</v>
+      </c>
+      <c r="E368" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>372</v>
+      </c>
+      <c r="B369" t="s">
+        <v>384</v>
+      </c>
+      <c r="C369" t="s">
+        <v>748</v>
+      </c>
+      <c r="D369" t="s">
+        <v>781</v>
+      </c>
+      <c r="E369" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>373</v>
+      </c>
+      <c r="B370" t="s">
+        <v>384</v>
+      </c>
+      <c r="C370" t="s">
+        <v>749</v>
+      </c>
+      <c r="D370" t="s">
+        <v>781</v>
+      </c>
+      <c r="E370" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>374</v>
+      </c>
+      <c r="B371" t="s">
+        <v>384</v>
+      </c>
+      <c r="C371" t="s">
+        <v>750</v>
+      </c>
+      <c r="D371" t="s">
+        <v>781</v>
+      </c>
+      <c r="E371" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>375</v>
+      </c>
+      <c r="B372" t="s">
+        <v>377</v>
+      </c>
+      <c r="C372" t="s">
+        <v>751</v>
+      </c>
+      <c r="D372" t="s">
+        <v>782</v>
+      </c>
+      <c r="E372" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>376</v>
+      </c>
+      <c r="B373" t="s">
+        <v>377</v>
+      </c>
+      <c r="C373" t="s">
+        <v>752</v>
+      </c>
+      <c r="D373" t="s">
+        <v>782</v>
+      </c>
+      <c r="E373" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="790">
   <si>
     <t>Pāli1</t>
   </si>
@@ -295,6 +295,9 @@
     <t>vūpasama 1</t>
   </si>
   <si>
+    <t>samudda</t>
+  </si>
+  <si>
     <t>asura</t>
   </si>
   <si>
@@ -1433,6 +1436,9 @@
   </si>
   <si>
     <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
   </si>
   <si>
     <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
@@ -2735,7 +2741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2763,16 +2769,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2780,16 +2786,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2797,16 +2803,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E4" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2814,16 +2820,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D5" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2831,16 +2837,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E6" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2848,16 +2854,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D7" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E7" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2865,16 +2871,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E8" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2882,16 +2888,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2899,16 +2905,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E10" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2916,16 +2922,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E11" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2933,16 +2939,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E12" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2950,16 +2956,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D13" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E13" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2967,16 +2973,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D14" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E14" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2984,16 +2990,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E15" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3001,16 +3007,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D16" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E16" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3018,16 +3024,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E17" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3035,16 +3041,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D18" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E18" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3052,16 +3058,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E19" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3069,16 +3075,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D20" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E20" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3086,16 +3092,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D21" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E21" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3103,16 +3109,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D22" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E22" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3120,16 +3126,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D23" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E23" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3137,16 +3143,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D24" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E24" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3154,16 +3160,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D25" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E25" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3171,16 +3177,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D26" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E26" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3188,16 +3194,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E27" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3205,16 +3211,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E28" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3222,16 +3228,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E29" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3239,16 +3245,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D30" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E30" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3256,16 +3262,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E31" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3273,16 +3279,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D32" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E32" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3290,16 +3296,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D33" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E33" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3307,16 +3313,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D34" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E34" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3324,16 +3330,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D35" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E35" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3341,16 +3347,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D36" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E36" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3358,16 +3364,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D37" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E37" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3375,16 +3381,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D38" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E38" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3392,16 +3398,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C39" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D39" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E39" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3409,16 +3415,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D40" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E40" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3426,16 +3432,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C41" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D41" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E41" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3443,16 +3449,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C42" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D42" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E42" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3460,16 +3466,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C43" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D43" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E43" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3477,16 +3483,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C44" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D44" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E44" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3494,16 +3500,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C45" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D45" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E45" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3511,16 +3517,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D46" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E46" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3528,16 +3534,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D47" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E47" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3545,16 +3551,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D48" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E48" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3562,16 +3568,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D49" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E49" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3579,16 +3585,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D50" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E50" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3596,16 +3602,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D51" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E51" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3613,16 +3619,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D52" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E52" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3630,16 +3636,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C53" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D53" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E53" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3647,16 +3653,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C54" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D54" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E54" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3664,16 +3670,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C55" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D55" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E55" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3681,16 +3687,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C56" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D56" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E56" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3698,16 +3704,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D57" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E57" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3715,16 +3721,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D58" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E58" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3732,16 +3738,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D59" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E59" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3749,16 +3755,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D60" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E60" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3766,16 +3772,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D61" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E61" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3783,16 +3789,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D62" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E62" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3800,16 +3806,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C63" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D63" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E63" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3817,16 +3823,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D64" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E64" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3834,16 +3840,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D65" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E65" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3851,16 +3857,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D66" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E66" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3868,16 +3874,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C67" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D67" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E67" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3885,16 +3891,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D68" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E68" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3902,16 +3908,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C69" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D69" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E69" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3919,16 +3925,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D70" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E70" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3936,16 +3942,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C71" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D71" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E71" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3953,16 +3959,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C72" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D72" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E72" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3970,16 +3976,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C73" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D73" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E73" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3987,16 +3993,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C74" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D74" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E74" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4004,16 +4010,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C75" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D75" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E75" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4021,16 +4027,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C76" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D76" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E76" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4038,16 +4044,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D77" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E77" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4055,16 +4061,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D78" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E78" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4072,16 +4078,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C79" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D79" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E79" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4089,16 +4095,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D80" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E80" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4106,16 +4112,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C81" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D81" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E81" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4123,16 +4129,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C82" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D82" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E82" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4140,16 +4146,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C83" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D83" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E83" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4157,16 +4163,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C84" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D84" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E84" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4174,16 +4180,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C85" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D85" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E85" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4191,16 +4197,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C86" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D86" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E86" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4208,16 +4214,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C87" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D87" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E87" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4225,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C88" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D88" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E88" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4242,16 +4248,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C89" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D89" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E89" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4259,16 +4265,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C90" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D90" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E90" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4276,16 +4282,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C91" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D91" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E91" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4293,16 +4299,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C92" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D92" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E92" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4310,16 +4316,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C93" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D93" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E93" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4327,16 +4333,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C94" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D94" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E94" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4344,16 +4350,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C95" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D95" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E95" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4361,16 +4367,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C96" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D96" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E96" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4378,16 +4384,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C97" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D97" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E97" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4395,16 +4401,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C98" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D98" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E98" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4412,16 +4418,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C99" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D99" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E99" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4429,16 +4435,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C100" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D100" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E100" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4446,16 +4452,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C101" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D101" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E101" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4463,16 +4469,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C102" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D102" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E102" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4480,16 +4486,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C103" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D103" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E103" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4497,16 +4503,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C104" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D104" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E104" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4514,16 +4520,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C105" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D105" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E105" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4531,16 +4537,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C106" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D106" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E106" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4548,16 +4554,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C107" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D107" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E107" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4565,16 +4571,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C108" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D108" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E108" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4582,16 +4588,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C109" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D109" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E109" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4599,16 +4605,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C110" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D110" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E110" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4616,16 +4622,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C111" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D111" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E111" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4633,16 +4639,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C112" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D112" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E112" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4650,16 +4656,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C113" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D113" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E113" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4667,16 +4673,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C114" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D114" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E114" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4684,16 +4690,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C115" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D115" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E115" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4701,16 +4707,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C116" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D116" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E116" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4718,16 +4724,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C117" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D117" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E117" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4735,16 +4741,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C118" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D118" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E118" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4752,16 +4758,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C119" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D119" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E119" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4769,16 +4775,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C120" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D120" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E120" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4786,16 +4792,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C121" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D121" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E121" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4803,16 +4809,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C122" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D122" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E122" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4820,16 +4826,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C123" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D123" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E123" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4837,16 +4843,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C124" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D124" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E124" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4854,16 +4860,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C125" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D125" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E125" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4871,16 +4877,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C126" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D126" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E126" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4888,16 +4894,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C127" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D127" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E127" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4905,16 +4911,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C128" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D128" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E128" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4922,16 +4928,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C129" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D129" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E129" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4939,16 +4945,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C130" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D130" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E130" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4956,16 +4962,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C131" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D131" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E131" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4973,16 +4979,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C132" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D132" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E132" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4990,16 +4996,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C133" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D133" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E133" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5007,16 +5013,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C134" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D134" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E134" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5024,16 +5030,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C135" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D135" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E135" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5044,13 +5050,13 @@
         <v>378</v>
       </c>
       <c r="C136" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D136" t="s">
         <v>755</v>
       </c>
       <c r="E136" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5058,16 +5064,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C137" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D137" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E137" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5075,16 +5081,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C138" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D138" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E138" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5092,16 +5098,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C139" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D139" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E139" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5109,16 +5115,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C140" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D140" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E140" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5129,13 +5135,13 @@
         <v>379</v>
       </c>
       <c r="C141" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D141" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E141" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5143,16 +5149,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C142" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D142" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E142" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5160,16 +5166,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C143" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D143" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E143" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5177,16 +5183,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C144" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D144" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E144" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5194,16 +5200,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D145" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E145" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5211,16 +5217,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C146" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D146" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E146" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5228,16 +5234,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C147" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D147" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E147" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5245,16 +5251,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C148" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D148" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E148" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5262,16 +5268,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C149" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D149" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E149" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5279,16 +5285,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C150" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D150" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E150" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5296,16 +5302,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C151" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D151" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E151" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5313,16 +5319,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C152" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D152" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E152" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5330,16 +5336,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C153" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D153" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E153" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5347,16 +5353,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C154" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D154" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E154" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5364,16 +5370,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C155" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D155" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E155" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5381,16 +5387,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C156" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D156" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E156" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5398,16 +5404,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D157" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E157" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5415,16 +5421,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C158" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D158" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E158" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5432,16 +5438,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C159" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D159" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E159" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5449,16 +5455,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C160" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D160" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E160" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5466,16 +5472,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C161" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D161" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E161" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5483,16 +5489,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C162" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D162" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E162" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5500,16 +5506,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C163" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D163" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E163" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5517,16 +5523,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C164" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D164" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E164" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5534,16 +5540,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C165" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D165" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E165" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5551,16 +5557,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C166" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D166" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E166" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5568,16 +5574,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C167" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D167" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E167" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5588,13 +5594,13 @@
         <v>379</v>
       </c>
       <c r="C168" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D168" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E168" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5602,16 +5608,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C169" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D169" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E169" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5619,16 +5625,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C170" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D170" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E170" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5636,16 +5642,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C171" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D171" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E171" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5653,16 +5659,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C172" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D172" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E172" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5670,16 +5676,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C173" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D173" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E173" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5687,16 +5693,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C174" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D174" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E174" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5704,16 +5710,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C175" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D175" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E175" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5721,16 +5727,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C176" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D176" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E176" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5738,16 +5744,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C177" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D177" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E177" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5758,13 +5764,13 @@
         <v>379</v>
       </c>
       <c r="C178" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D178" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E178" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5772,16 +5778,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C179" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D179" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E179" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5792,13 +5798,13 @@
         <v>379</v>
       </c>
       <c r="C180" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D180" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E180" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5806,16 +5812,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C181" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D181" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E181" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5823,16 +5829,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C182" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D182" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E182" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5840,16 +5846,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C183" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D183" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E183" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5857,16 +5863,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C184" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D184" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E184" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5874,16 +5880,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C185" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D185" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E185" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5891,16 +5897,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C186" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D186" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E186" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5908,16 +5914,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C187" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D187" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E187" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5925,16 +5931,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C188" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D188" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E188" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5942,16 +5948,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C189" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D189" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E189" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5959,16 +5965,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C190" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D190" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="E190" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5976,16 +5982,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C191" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D191" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E191" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5993,16 +5999,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C192" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D192" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E192" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6010,16 +6016,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C193" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D193" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E193" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6027,16 +6033,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C194" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D194" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E194" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6044,16 +6050,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C195" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D195" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E195" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6061,16 +6067,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C196" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D196" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E196" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6081,13 +6087,13 @@
         <v>378</v>
       </c>
       <c r="C197" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D197" t="s">
         <v>755</v>
       </c>
       <c r="E197" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6095,16 +6101,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C198" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D198" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E198" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6112,16 +6118,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C199" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D199" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E199" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6129,16 +6135,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C200" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D200" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E200" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6146,16 +6152,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C201" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D201" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E201" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6163,16 +6169,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C202" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D202" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E202" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6180,16 +6186,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C203" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D203" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E203" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6197,16 +6203,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C204" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D204" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E204" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6214,16 +6220,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C205" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D205" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E205" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6231,16 +6237,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C206" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D206" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E206" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6248,16 +6254,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C207" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D207" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E207" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6265,16 +6271,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C208" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D208" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E208" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6282,16 +6288,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C209" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D209" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E209" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6299,16 +6305,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C210" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D210" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E210" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6316,16 +6322,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C211" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D211" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E211" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6333,16 +6339,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C212" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D212" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E212" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6350,16 +6356,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C213" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D213" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E213" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6370,13 +6376,13 @@
         <v>379</v>
       </c>
       <c r="C214" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D214" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E214" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6384,16 +6390,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C215" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D215" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E215" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6401,16 +6407,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C216" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D216" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E216" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6418,16 +6424,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C217" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D217" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E217" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6435,16 +6441,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C218" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D218" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E218" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6452,16 +6458,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C219" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D219" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E219" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6472,13 +6478,13 @@
         <v>379</v>
       </c>
       <c r="C220" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D220" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E220" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6486,16 +6492,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C221" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D221" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E221" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6503,16 +6509,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C222" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D222" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E222" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6520,16 +6526,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C223" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D223" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E223" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6537,16 +6543,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C224" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D224" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E224" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6554,16 +6560,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C225" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D225" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E225" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6571,16 +6577,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C226" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D226" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E226" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6588,16 +6594,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C227" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D227" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E227" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6605,16 +6611,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C228" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D228" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E228" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6622,16 +6628,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C229" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D229" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E229" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6639,16 +6645,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C230" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D230" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E230" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6656,16 +6662,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C231" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D231" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E231" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6673,16 +6679,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C232" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D232" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E232" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6690,16 +6696,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C233" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D233" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E233" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6707,16 +6713,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C234" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D234" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E234" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6724,16 +6730,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C235" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D235" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E235" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6741,16 +6747,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C236" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D236" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E236" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6758,16 +6764,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C237" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D237" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E237" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6775,16 +6781,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C238" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D238" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E238" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6792,16 +6798,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C239" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D239" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E239" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6809,16 +6815,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C240" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D240" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E240" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6826,16 +6832,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C241" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D241" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E241" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6843,16 +6849,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C242" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D242" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E242" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6863,13 +6869,13 @@
         <v>378</v>
       </c>
       <c r="C243" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D243" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E243" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6880,13 +6886,13 @@
         <v>379</v>
       </c>
       <c r="C244" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D244" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E244" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6894,16 +6900,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C245" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D245" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E245" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6911,16 +6917,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C246" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D246" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E246" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6928,16 +6934,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C247" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D247" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E247" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6945,16 +6951,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C248" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D248" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E248" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6962,16 +6968,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C249" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D249" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E249" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6979,16 +6985,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C250" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D250" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E250" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6996,16 +7002,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C251" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D251" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E251" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7013,16 +7019,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C252" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D252" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="E252" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7030,16 +7036,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C253" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D253" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E253" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7047,16 +7053,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C254" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D254" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E254" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7064,16 +7070,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C255" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D255" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E255" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7081,16 +7087,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C256" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D256" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E256" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7098,16 +7104,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C257" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D257" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E257" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7115,16 +7121,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C258" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D258" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E258" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7132,16 +7138,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C259" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D259" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E259" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7149,16 +7155,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C260" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D260" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E260" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7166,16 +7172,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C261" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D261" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E261" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7183,16 +7189,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C262" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D262" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E262" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7200,16 +7206,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C263" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D263" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="E263" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7217,16 +7223,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C264" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D264" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E264" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7234,16 +7240,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C265" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D265" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E265" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7251,16 +7257,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C266" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D266" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E266" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7268,16 +7274,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C267" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D267" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E267" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7285,16 +7291,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C268" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D268" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E268" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7302,16 +7308,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C269" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D269" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E269" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7319,16 +7325,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C270" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D270" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E270" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7336,16 +7342,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C271" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D271" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E271" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7353,16 +7359,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C272" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D272" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E272" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7370,16 +7376,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C273" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D273" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E273" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7387,16 +7393,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C274" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D274" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E274" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7404,16 +7410,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C275" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D275" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="E275" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7421,16 +7427,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C276" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D276" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E276" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7438,16 +7444,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C277" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D277" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E277" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7455,16 +7461,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C278" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D278" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E278" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7472,16 +7478,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C279" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D279" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E279" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7489,16 +7495,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C280" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D280" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E280" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7506,16 +7512,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C281" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D281" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E281" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7523,16 +7529,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C282" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D282" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E282" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7540,16 +7546,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C283" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D283" t="s">
-        <v>382</v>
+        <v>765</v>
       </c>
       <c r="E283" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7557,16 +7563,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C284" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D284" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E284" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7574,16 +7580,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C285" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D285" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E285" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7591,16 +7597,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C286" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D286" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E286" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7608,16 +7614,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C287" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D287" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E287" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7628,13 +7634,13 @@
         <v>383</v>
       </c>
       <c r="C288" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D288" t="s">
-        <v>771</v>
+        <v>383</v>
       </c>
       <c r="E288" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7642,16 +7648,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C289" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D289" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E289" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7659,16 +7665,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C290" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D290" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E290" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7676,16 +7682,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C291" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D291" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E291" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7693,16 +7699,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C292" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D292" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E292" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7710,16 +7716,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C293" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D293" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E293" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7727,16 +7733,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C294" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D294" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E294" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7744,16 +7750,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C295" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D295" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E295" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7761,16 +7767,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C296" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D296" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E296" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7778,16 +7784,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C297" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D297" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E297" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7795,16 +7801,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C298" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D298" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E298" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7812,16 +7818,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C299" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D299" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E299" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7829,16 +7835,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C300" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D300" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E300" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7846,16 +7852,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C301" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D301" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E301" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7863,16 +7869,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C302" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D302" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E302" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7880,16 +7886,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C303" t="s">
         <v>682</v>
       </c>
       <c r="D303" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E303" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7897,16 +7903,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C304" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D304" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E304" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7914,16 +7920,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C305" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D305" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="E305" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7931,16 +7937,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C306" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D306" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="E306" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7948,16 +7954,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C307" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D307" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E307" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7965,16 +7971,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C308" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D308" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E308" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7982,16 +7988,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C309" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D309" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E309" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7999,16 +8005,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C310" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D310" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E310" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8016,16 +8022,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C311" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D311" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E311" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8033,16 +8039,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C312" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D312" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E312" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8050,16 +8056,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C313" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D313" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E313" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8067,16 +8073,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C314" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D314" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E314" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8084,16 +8090,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C315" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D315" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E315" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8101,16 +8107,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C316" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D316" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E316" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8118,16 +8124,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C317" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D317" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E317" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8135,16 +8141,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C318" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D318" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E318" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8152,16 +8158,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C319" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D319" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E319" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8169,16 +8175,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C320" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D320" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E320" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8186,16 +8192,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C321" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D321" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E321" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8203,16 +8209,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C322" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D322" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="E322" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8220,16 +8226,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C323" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D323" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E323" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8237,16 +8243,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C324" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D324" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E324" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8254,16 +8260,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C325" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D325" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E325" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8271,16 +8277,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C326" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D326" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E326" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8288,16 +8294,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C327" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D327" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E327" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8305,16 +8311,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C328" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D328" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="E328" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8322,16 +8328,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C329" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D329" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E329" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8339,16 +8345,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C330" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D330" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E330" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8356,16 +8362,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C331" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D331" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E331" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8373,16 +8379,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C332" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D332" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E332" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8390,16 +8396,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C333" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D333" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E333" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8407,16 +8413,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C334" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D334" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E334" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8424,16 +8430,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C335" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D335" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E335" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8441,16 +8447,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C336" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D336" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E336" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8458,16 +8464,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C337" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D337" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E337" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8475,16 +8481,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C338" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D338" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E338" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8492,16 +8498,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C339" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D339" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E339" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8509,16 +8515,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C340" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D340" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E340" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8526,16 +8532,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C341" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D341" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E341" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8543,16 +8549,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C342" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D342" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E342" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8560,16 +8566,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C343" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D343" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E343" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8577,16 +8583,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C344" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D344" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E344" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8594,16 +8600,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C345" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D345" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E345" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8614,13 +8620,13 @@
         <v>378</v>
       </c>
       <c r="C346" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D346" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="E346" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8628,16 +8634,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C347" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D347" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E347" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8645,16 +8651,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C348" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D348" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E348" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8662,16 +8668,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C349" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D349" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E349" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8679,16 +8685,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C350" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D350" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E350" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8696,16 +8702,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C351" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D351" t="s">
         <v>765</v>
       </c>
       <c r="E351" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8713,16 +8719,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C352" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D352" t="s">
-        <v>382</v>
+        <v>767</v>
       </c>
       <c r="E352" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8730,16 +8736,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C353" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D353" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E353" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8747,16 +8753,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C354" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D354" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E354" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8764,16 +8770,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C355" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D355" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E355" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8781,16 +8787,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C356" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D356" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E356" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8798,16 +8804,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C357" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D357" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E357" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8815,16 +8821,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C358" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D358" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E358" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8832,16 +8838,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C359" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D359" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E359" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8849,16 +8855,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C360" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D360" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E360" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8866,16 +8872,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C361" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D361" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E361" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -8883,16 +8889,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C362" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D362" t="s">
-        <v>780</v>
+        <v>383</v>
       </c>
       <c r="E362" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8900,16 +8906,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C363" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D363" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E363" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -8917,16 +8923,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C364" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D364" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E364" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8934,16 +8940,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C365" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D365" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E365" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -8951,16 +8957,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C366" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D366" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E366" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -8968,16 +8974,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C367" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D367" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E367" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -8985,16 +8991,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C368" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D368" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="E368" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9002,16 +9008,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C369" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D369" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E369" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9019,16 +9025,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C370" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D370" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E370" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9036,16 +9042,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C371" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D371" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E371" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9053,16 +9059,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C372" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D372" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E372" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9070,16 +9076,33 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
+        <v>378</v>
+      </c>
+      <c r="C373" t="s">
+        <v>753</v>
+      </c>
+      <c r="D373" t="s">
+        <v>784</v>
+      </c>
+      <c r="E373" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
         <v>377</v>
       </c>
-      <c r="C373" t="s">
-        <v>752</v>
-      </c>
-      <c r="D373" t="s">
-        <v>782</v>
-      </c>
-      <c r="E373" t="s">
-        <v>787</v>
+      <c r="B374" t="s">
+        <v>378</v>
+      </c>
+      <c r="C374" t="s">
+        <v>754</v>
+      </c>
+      <c r="D374" t="s">
+        <v>784</v>
+      </c>
+      <c r="E374" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="794">
   <si>
     <t>Pāli1</t>
   </si>
@@ -973,6 +973,9 @@
     <t>pītipaṭisaṃvedī</t>
   </si>
   <si>
+    <t>anāgāmī</t>
+  </si>
+  <si>
     <t>sakadāgāmī</t>
   </si>
   <si>
@@ -1096,6 +1099,9 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>ratto</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
@@ -2104,6 +2110,9 @@
     <t>experiencing heart-felt joy; feeling delight; sensitive to rapture</t>
   </si>
   <si>
+    <t>who does not return; non-returning (in this world)</t>
+  </si>
+  <si>
     <t>who returns once; once-returner</t>
   </si>
   <si>
@@ -2225,6 +2234,9 @@
   </si>
   <si>
     <t>ever; always</t>
+  </si>
+  <si>
+    <t>at night; by night</t>
   </si>
   <si>
     <t>and</t>
@@ -2741,7 +2753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E374"/>
+  <dimension ref="A1:E376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2769,16 +2781,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2786,16 +2798,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E3" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2803,16 +2815,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E4" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2820,16 +2832,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E5" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2837,16 +2849,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D6" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E6" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2854,16 +2866,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E7" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2871,16 +2883,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E8" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2888,16 +2900,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E9" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2905,16 +2917,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E10" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2922,16 +2934,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E11" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2939,16 +2951,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E12" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2956,16 +2968,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E13" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2973,16 +2985,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E14" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2990,16 +3002,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D15" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E15" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3007,16 +3019,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D16" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E16" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3024,16 +3036,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D17" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E17" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3041,16 +3053,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C18" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D18" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E18" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3058,16 +3070,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C19" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E19" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3075,16 +3087,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C20" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E20" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3092,16 +3104,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D21" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E21" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3109,16 +3121,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D22" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E22" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3126,16 +3138,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C23" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D23" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E23" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3143,16 +3155,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C24" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D24" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E24" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3160,16 +3172,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D25" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E25" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3177,16 +3189,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C26" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D26" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E26" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3194,16 +3206,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C27" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E27" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3211,16 +3223,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C28" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D28" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E28" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3228,16 +3240,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D29" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E29" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3245,16 +3257,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C30" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D30" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E30" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3262,16 +3274,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C31" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D31" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E31" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3279,16 +3291,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C32" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D32" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E32" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3296,16 +3308,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D33" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E33" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3313,16 +3325,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D34" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E34" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3330,16 +3342,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D35" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E35" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3347,16 +3359,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D36" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E36" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3364,16 +3376,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C37" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D37" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E37" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3381,16 +3393,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D38" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E38" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3398,16 +3410,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D39" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E39" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3415,16 +3427,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C40" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D40" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E40" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3432,16 +3444,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C41" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D41" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E41" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3449,16 +3461,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C42" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D42" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E42" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3466,16 +3478,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C43" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D43" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E43" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3483,16 +3495,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C44" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D44" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E44" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3500,16 +3512,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C45" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D45" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E45" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3517,16 +3529,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C46" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D46" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E46" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3534,16 +3546,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C47" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D47" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E47" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3551,16 +3563,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C48" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D48" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E48" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3568,16 +3580,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C49" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D49" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E49" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3585,16 +3597,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C50" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D50" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E50" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3602,16 +3614,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C51" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D51" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E51" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3619,16 +3631,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C52" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D52" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E52" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3636,16 +3648,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C53" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D53" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E53" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3653,16 +3665,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C54" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D54" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E54" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3670,16 +3682,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C55" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D55" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E55" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3687,16 +3699,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C56" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D56" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E56" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3704,16 +3716,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C57" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D57" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E57" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3721,16 +3733,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C58" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D58" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E58" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3738,16 +3750,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C59" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D59" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E59" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3755,16 +3767,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C60" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D60" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E60" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3772,16 +3784,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C61" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D61" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E61" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3789,16 +3801,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C62" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D62" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E62" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3806,16 +3818,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C63" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D63" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E63" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3823,16 +3835,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C64" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D64" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E64" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3840,16 +3852,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C65" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D65" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E65" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3857,16 +3869,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C66" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D66" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E66" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3874,16 +3886,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C67" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D67" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E67" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3891,16 +3903,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C68" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D68" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E68" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3908,16 +3920,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C69" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D69" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E69" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3925,16 +3937,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C70" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D70" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E70" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3942,16 +3954,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C71" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D71" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E71" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3959,16 +3971,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C72" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D72" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E72" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3976,16 +3988,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C73" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D73" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E73" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3993,16 +4005,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C74" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D74" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E74" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4010,16 +4022,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C75" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D75" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E75" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4027,16 +4039,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C76" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D76" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E76" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4044,16 +4056,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C77" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D77" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E77" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4061,16 +4073,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C78" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D78" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E78" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4078,16 +4090,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C79" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D79" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E79" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4095,16 +4107,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C80" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D80" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E80" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4112,16 +4124,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C81" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D81" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E81" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4129,16 +4141,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C82" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D82" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E82" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4146,16 +4158,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C83" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D83" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E83" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4163,16 +4175,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C84" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D84" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E84" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4180,16 +4192,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C85" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D85" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E85" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4197,16 +4209,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C86" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D86" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E86" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4214,16 +4226,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C87" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D87" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E87" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4231,16 +4243,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C88" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D88" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E88" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4248,16 +4260,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C89" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D89" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E89" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4265,16 +4277,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C90" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D90" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E90" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4282,16 +4294,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C91" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D91" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E91" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4299,16 +4311,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C92" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D92" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E92" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4316,16 +4328,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C93" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D93" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E93" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4333,16 +4345,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C94" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D94" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E94" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4350,16 +4362,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C95" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D95" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E95" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4367,16 +4379,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C96" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D96" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E96" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4384,16 +4396,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C97" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D97" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E97" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4401,16 +4413,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C98" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D98" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E98" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4418,16 +4430,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C99" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D99" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E99" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4435,16 +4447,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D100" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E100" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4452,16 +4464,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C101" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D101" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E101" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4469,16 +4481,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C102" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D102" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E102" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4486,16 +4498,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C103" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D103" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E103" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4503,16 +4515,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C104" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D104" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E104" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4520,16 +4532,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C105" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D105" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E105" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4537,16 +4549,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C106" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D106" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E106" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4554,16 +4566,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C107" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D107" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E107" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4571,16 +4583,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C108" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D108" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E108" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4588,16 +4600,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D109" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E109" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4605,16 +4617,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C110" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D110" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E110" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4622,16 +4634,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C111" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D111" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E111" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4639,16 +4651,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C112" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D112" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E112" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4656,16 +4668,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C113" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D113" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E113" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4673,16 +4685,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C114" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D114" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E114" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4690,16 +4702,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C115" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D115" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E115" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4707,16 +4719,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C116" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D116" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E116" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4724,16 +4736,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C117" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D117" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E117" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4741,16 +4753,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D118" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E118" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4758,16 +4770,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C119" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D119" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E119" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4775,16 +4787,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C120" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D120" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E120" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4792,16 +4804,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C121" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D121" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E121" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4809,16 +4821,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C122" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D122" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E122" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4826,16 +4838,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C123" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D123" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E123" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4843,16 +4855,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C124" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D124" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E124" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4860,16 +4872,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C125" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D125" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E125" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4877,16 +4889,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C126" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D126" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E126" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4894,16 +4906,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C127" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D127" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E127" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4911,16 +4923,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C128" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D128" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E128" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4928,16 +4940,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C129" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D129" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E129" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4945,16 +4957,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C130" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D130" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E130" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4962,16 +4974,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C131" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D131" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E131" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4979,16 +4991,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C132" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D132" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="E132" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4996,16 +5008,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C133" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D133" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="E133" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5013,16 +5025,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C134" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D134" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E134" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5030,16 +5042,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C135" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D135" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E135" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5047,16 +5059,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C136" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D136" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E136" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5064,16 +5076,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C137" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D137" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E137" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5081,16 +5093,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C138" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D138" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E138" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5098,16 +5110,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C139" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D139" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E139" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5115,16 +5127,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C140" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D140" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E140" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5132,16 +5144,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C141" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D141" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E141" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5149,16 +5161,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C142" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D142" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E142" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5166,16 +5178,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C143" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D143" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E143" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5183,16 +5195,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C144" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D144" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E144" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5200,16 +5212,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C145" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D145" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E145" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5217,16 +5229,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C146" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D146" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E146" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5234,16 +5246,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C147" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D147" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E147" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5251,16 +5263,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C148" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D148" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E148" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5268,16 +5280,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C149" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D149" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E149" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5285,16 +5297,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C150" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D150" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E150" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5302,16 +5314,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C151" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D151" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E151" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5319,16 +5331,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C152" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D152" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E152" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5336,16 +5348,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C153" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D153" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E153" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5353,16 +5365,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C154" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D154" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E154" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5370,16 +5382,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C155" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D155" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E155" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5387,16 +5399,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C156" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D156" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E156" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5404,16 +5416,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C157" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D157" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E157" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5421,16 +5433,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C158" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D158" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E158" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5438,16 +5450,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C159" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D159" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E159" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5455,16 +5467,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C160" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D160" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E160" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5472,16 +5484,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C161" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D161" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E161" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5489,16 +5501,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C162" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D162" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E162" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5506,16 +5518,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C163" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D163" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E163" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5523,16 +5535,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C164" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D164" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E164" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5540,16 +5552,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C165" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D165" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E165" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5557,16 +5569,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C166" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D166" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E166" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5574,16 +5586,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C167" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D167" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E167" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5591,16 +5603,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C168" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D168" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E168" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5608,16 +5620,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C169" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D169" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E169" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5625,16 +5637,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C170" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D170" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E170" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5642,16 +5654,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C171" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D171" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E171" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5659,16 +5671,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C172" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D172" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E172" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5676,16 +5688,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C173" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D173" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E173" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5693,16 +5705,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C174" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D174" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E174" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5710,16 +5722,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C175" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D175" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E175" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5727,16 +5739,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C176" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D176" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E176" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5744,16 +5756,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C177" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D177" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E177" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5761,16 +5773,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C178" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D178" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E178" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5778,16 +5790,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C179" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D179" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="E179" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5795,16 +5807,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C180" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D180" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E180" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5812,16 +5824,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C181" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D181" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E181" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5829,16 +5841,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C182" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D182" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E182" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5846,16 +5858,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C183" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D183" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E183" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5863,16 +5875,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C184" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D184" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E184" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5880,16 +5892,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C185" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D185" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E185" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5897,16 +5909,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C186" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D186" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E186" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5914,16 +5926,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C187" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D187" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E187" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5931,16 +5943,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D188" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E188" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5948,16 +5960,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C189" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D189" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E189" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5965,16 +5977,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C190" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D190" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E190" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5982,16 +5994,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C191" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D191" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E191" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5999,16 +6011,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C192" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D192" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E192" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6016,16 +6028,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C193" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D193" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E193" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6033,16 +6045,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C194" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D194" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E194" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6050,16 +6062,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C195" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D195" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E195" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6067,16 +6079,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C196" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D196" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E196" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6084,16 +6096,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C197" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D197" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E197" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6101,16 +6113,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C198" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D198" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E198" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6118,16 +6130,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C199" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D199" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E199" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6135,16 +6147,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C200" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D200" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E200" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6152,16 +6164,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C201" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D201" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E201" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6169,16 +6181,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C202" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D202" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E202" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6186,16 +6198,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C203" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D203" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E203" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6203,16 +6215,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C204" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D204" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E204" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6220,16 +6232,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C205" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D205" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E205" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6237,16 +6249,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C206" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D206" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E206" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6254,16 +6266,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C207" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D207" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E207" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6271,16 +6283,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C208" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D208" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E208" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6288,16 +6300,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C209" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D209" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E209" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6305,16 +6317,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C210" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D210" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E210" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6322,16 +6334,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C211" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D211" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E211" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6339,16 +6351,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C212" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D212" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E212" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6356,16 +6368,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C213" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D213" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E213" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6373,16 +6385,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C214" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D214" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E214" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6390,16 +6402,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C215" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D215" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E215" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6407,16 +6419,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C216" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D216" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E216" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6424,16 +6436,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C217" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D217" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E217" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6441,16 +6453,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C218" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D218" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E218" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6458,16 +6470,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C219" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D219" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E219" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6475,16 +6487,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C220" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D220" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E220" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6492,16 +6504,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C221" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D221" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E221" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6509,16 +6521,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C222" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D222" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E222" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6526,16 +6538,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C223" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D223" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E223" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6543,16 +6555,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C224" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D224" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E224" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6560,16 +6572,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D225" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E225" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6577,16 +6589,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C226" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D226" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E226" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6594,16 +6606,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C227" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D227" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E227" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6611,16 +6623,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C228" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D228" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E228" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6628,16 +6640,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C229" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D229" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E229" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6645,16 +6657,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C230" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D230" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E230" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6662,16 +6674,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C231" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D231" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E231" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6679,16 +6691,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C232" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D232" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E232" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6696,16 +6708,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C233" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D233" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E233" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6713,16 +6725,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C234" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D234" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E234" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6730,16 +6742,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C235" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D235" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E235" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6747,16 +6759,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C236" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D236" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E236" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6764,16 +6776,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C237" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D237" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E237" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6781,16 +6793,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C238" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D238" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E238" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6798,16 +6810,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C239" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D239" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E239" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6815,16 +6827,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C240" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D240" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E240" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6832,16 +6844,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C241" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D241" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E241" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6849,16 +6861,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C242" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D242" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E242" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6866,16 +6878,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C243" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D243" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E243" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6883,16 +6895,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C244" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D244" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E244" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6900,16 +6912,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C245" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D245" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E245" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6917,16 +6929,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C246" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D246" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E246" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6934,16 +6946,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C247" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D247" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E247" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6951,16 +6963,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C248" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D248" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E248" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6968,16 +6980,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C249" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D249" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E249" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6985,16 +6997,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C250" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D250" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E250" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7002,16 +7014,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C251" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D251" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="E251" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7019,16 +7031,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C252" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D252" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="E252" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7036,16 +7048,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C253" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D253" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E253" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7053,16 +7065,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C254" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D254" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E254" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7070,16 +7082,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C255" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D255" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E255" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7087,16 +7099,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C256" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D256" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E256" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7104,16 +7116,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C257" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D257" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E257" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7121,16 +7133,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C258" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D258" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E258" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7138,16 +7150,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C259" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D259" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E259" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7155,16 +7167,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C260" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D260" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E260" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7172,16 +7184,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C261" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D261" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E261" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7189,16 +7201,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C262" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D262" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E262" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7206,16 +7218,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C263" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D263" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E263" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7223,16 +7235,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C264" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D264" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E264" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7240,16 +7252,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C265" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D265" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E265" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7257,16 +7269,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C266" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D266" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E266" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7274,16 +7286,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C267" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D267" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E267" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7291,16 +7303,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C268" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D268" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E268" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7308,16 +7320,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C269" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D269" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E269" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7325,16 +7337,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C270" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D270" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E270" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7342,16 +7354,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C271" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D271" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E271" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7359,16 +7371,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C272" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D272" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E272" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7376,16 +7388,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C273" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D273" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E273" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7393,16 +7405,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C274" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D274" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E274" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7410,16 +7422,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C275" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D275" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E275" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7427,16 +7439,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C276" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D276" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E276" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7444,16 +7456,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C277" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D277" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E277" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7461,16 +7473,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C278" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D278" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E278" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7478,16 +7490,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C279" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D279" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E279" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7495,16 +7507,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C280" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D280" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E280" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7512,16 +7524,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C281" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D281" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E281" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7529,16 +7541,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C282" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D282" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E282" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7546,16 +7558,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C283" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D283" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E283" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7563,16 +7575,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C284" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D284" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E284" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7580,16 +7592,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C285" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D285" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E285" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7597,16 +7609,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C286" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D286" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E286" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7614,16 +7626,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C287" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D287" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E287" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7631,16 +7643,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C288" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D288" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E288" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7648,16 +7660,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C289" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D289" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E289" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7665,16 +7677,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C290" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D290" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E290" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7682,16 +7694,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C291" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D291" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E291" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7699,16 +7711,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C292" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D292" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E292" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7716,16 +7728,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C293" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D293" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E293" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7733,16 +7745,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C294" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D294" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E294" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7750,16 +7762,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C295" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D295" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E295" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7767,16 +7779,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C296" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D296" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E296" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7784,16 +7796,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C297" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D297" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E297" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7801,16 +7813,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C298" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D298" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E298" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7818,16 +7830,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C299" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D299" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E299" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7835,16 +7847,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C300" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D300" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E300" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7852,16 +7864,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C301" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D301" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E301" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7869,16 +7881,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C302" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D302" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E302" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7886,16 +7898,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C303" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D303" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E303" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7903,16 +7915,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C304" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D304" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E304" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7920,16 +7932,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C305" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D305" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="E305" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7937,16 +7949,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C306" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D306" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E306" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7954,16 +7966,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C307" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D307" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E307" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7971,16 +7983,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C308" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D308" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E308" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7988,16 +8000,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C309" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D309" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E309" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8005,16 +8017,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C310" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D310" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E310" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8022,16 +8034,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C311" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D311" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E311" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8039,16 +8051,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C312" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D312" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E312" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8056,16 +8068,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C313" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D313" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E313" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8073,16 +8085,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C314" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D314" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E314" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8090,16 +8102,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C315" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D315" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E315" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8107,16 +8119,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C316" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D316" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E316" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8124,16 +8136,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C317" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D317" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E317" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8141,16 +8153,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C318" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D318" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E318" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8158,16 +8170,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C319" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D319" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E319" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8175,16 +8187,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C320" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D320" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E320" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8192,16 +8204,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C321" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D321" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E321" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8209,16 +8221,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C322" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D322" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E322" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8226,16 +8238,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C323" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D323" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="E323" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8243,16 +8255,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C324" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D324" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E324" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8260,16 +8272,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C325" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D325" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E325" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8277,16 +8289,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C326" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D326" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E326" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8294,16 +8306,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C327" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D327" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E327" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8311,16 +8323,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C328" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D328" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E328" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8328,16 +8340,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C329" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D329" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="E329" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8345,16 +8357,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C330" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D330" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E330" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8362,16 +8374,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C331" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D331" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E331" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8379,16 +8391,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C332" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D332" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E332" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8396,16 +8408,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C333" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D333" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E333" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8413,16 +8425,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C334" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D334" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E334" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8430,16 +8442,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C335" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D335" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="E335" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8447,16 +8459,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C336" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D336" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E336" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8464,16 +8476,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C337" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D337" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="E337" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8481,16 +8493,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C338" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D338" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E338" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8498,16 +8510,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C339" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D339" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="E339" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8515,16 +8527,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C340" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D340" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="E340" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8532,16 +8544,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C341" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D341" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="E341" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8549,16 +8561,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C342" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D342" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="E342" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8566,16 +8578,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C343" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D343" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="E343" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8583,16 +8595,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C344" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D344" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="E344" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8600,16 +8612,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C345" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D345" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="E345" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8617,16 +8629,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C346" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D346" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="E346" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8634,16 +8646,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C347" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D347" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="E347" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8651,16 +8663,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C348" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D348" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E348" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8668,16 +8680,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C349" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D349" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E349" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8685,16 +8697,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C350" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D350" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="E350" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8705,13 +8717,13 @@
         <v>381</v>
       </c>
       <c r="C351" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D351" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E351" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8719,16 +8731,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C352" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D352" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E352" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8736,16 +8748,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C353" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D353" t="s">
-        <v>383</v>
+        <v>771</v>
       </c>
       <c r="E353" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8753,16 +8765,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C354" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D354" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E354" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8770,16 +8782,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C355" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D355" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E355" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8787,16 +8799,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C356" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D356" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E356" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8804,16 +8816,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C357" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D357" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E357" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8821,16 +8833,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C358" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D358" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E358" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8838,16 +8850,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C359" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D359" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E359" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8855,16 +8867,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C360" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D360" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E360" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8872,16 +8884,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C361" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D361" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E361" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -8889,16 +8901,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C362" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D362" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E362" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8906,16 +8918,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C363" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D363" t="s">
-        <v>782</v>
+        <v>385</v>
       </c>
       <c r="E363" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -8923,16 +8935,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C364" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D364" t="s">
-        <v>782</v>
+        <v>385</v>
       </c>
       <c r="E364" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8940,16 +8952,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C365" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D365" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E365" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -8957,16 +8969,16 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C366" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D366" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E366" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -8974,16 +8986,16 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C367" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D367" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E367" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -8991,16 +9003,16 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C368" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D368" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E368" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9008,16 +9020,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C369" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D369" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="E369" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9025,16 +9037,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C370" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D370" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="E370" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9042,16 +9054,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C371" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D371" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E371" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9059,16 +9071,16 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C372" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D372" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="E372" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9076,16 +9088,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C373" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D373" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="E373" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9093,16 +9105,50 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
+        <v>387</v>
+      </c>
+      <c r="C374" t="s">
+        <v>756</v>
+      </c>
+      <c r="D374" t="s">
+        <v>787</v>
+      </c>
+      <c r="E374" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
         <v>378</v>
       </c>
-      <c r="C374" t="s">
-        <v>754</v>
-      </c>
-      <c r="D374" t="s">
-        <v>784</v>
-      </c>
-      <c r="E374" t="s">
-        <v>789</v>
+      <c r="B375" t="s">
+        <v>380</v>
+      </c>
+      <c r="C375" t="s">
+        <v>757</v>
+      </c>
+      <c r="D375" t="s">
+        <v>788</v>
+      </c>
+      <c r="E375" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>379</v>
+      </c>
+      <c r="B376" t="s">
+        <v>380</v>
+      </c>
+      <c r="C376" t="s">
+        <v>758</v>
+      </c>
+      <c r="D376" t="s">
+        <v>788</v>
+      </c>
+      <c r="E376" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="772">
   <si>
     <t>Pāli1</t>
   </si>
@@ -541,9 +541,6 @@
     <t>pūjeti 1</t>
   </si>
   <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
     <t>ceteti 2</t>
   </si>
   <si>
@@ -601,15 +598,9 @@
     <t>mugga</t>
   </si>
   <si>
-    <t>pessaka</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>sippika</t>
-  </si>
-  <si>
     <t>kāraka 2</t>
   </si>
   <si>
@@ -646,9 +637,6 @@
     <t>jhāyati 1</t>
   </si>
   <si>
-    <t>panūdati</t>
-  </si>
-  <si>
     <t>chindati</t>
   </si>
   <si>
@@ -676,6 +664,9 @@
     <t>amhi</t>
   </si>
   <si>
+    <t>ajesi</t>
+  </si>
+  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -733,9 +724,6 @@
     <t>gahapati</t>
   </si>
   <si>
-    <t>vīhi</t>
-  </si>
-  <si>
     <t>sāli</t>
   </si>
   <si>
@@ -862,9 +850,6 @@
     <t>sobhati</t>
   </si>
   <si>
-    <t>ajesi</t>
-  </si>
-  <si>
     <t>ḍeti</t>
   </si>
   <si>
@@ -955,9 +940,6 @@
     <t>vihārī</t>
   </si>
   <si>
-    <t>āgāmī 1</t>
-  </si>
-  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
@@ -970,9 +952,6 @@
     <t>gavesī 1</t>
   </si>
   <si>
-    <t>pītipaṭisaṃvedī</t>
-  </si>
-  <si>
     <t>anāgāmī</t>
   </si>
   <si>
@@ -997,9 +976,6 @@
     <t>pakkhī</t>
   </si>
   <si>
-    <t>pariṇāyaka</t>
-  </si>
-  <si>
     <t>upassaya 1</t>
   </si>
   <si>
@@ -1072,18 +1048,9 @@
     <t>paricarati 3</t>
   </si>
   <si>
-    <t>upasussati</t>
-  </si>
-  <si>
-    <t>avasissati</t>
-  </si>
-  <si>
     <t>acchādeti 1</t>
   </si>
   <si>
-    <t>niddisi 1</t>
-  </si>
-  <si>
     <t>nidhi</t>
   </si>
   <si>
@@ -1690,9 +1657,6 @@
     <t>worships; honours; respects</t>
   </si>
   <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
     <t>intends; will (to); lit. thinks</t>
   </si>
   <si>
@@ -1747,15 +1711,9 @@
     <t>mung beans</t>
   </si>
   <si>
-    <t>messenger; lit. who is sent</t>
-  </si>
-  <si>
     <t>merchant; trader</t>
   </si>
   <si>
-    <t>craftsman; artisan</t>
-  </si>
-  <si>
     <t>doer; maker; creator; builder</t>
   </si>
   <si>
@@ -1792,9 +1750,6 @@
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
-    <t>dispels; drives out; rejects; pushes away</t>
-  </si>
-  <si>
     <t>cuts; cuts off; severs</t>
   </si>
   <si>
@@ -1822,6 +1777,9 @@
     <t>I am</t>
   </si>
   <si>
+    <t>conquered; defeated</t>
+  </si>
+  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -1876,9 +1834,6 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice paddy</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
@@ -2002,9 +1957,6 @@
     <t>shines; radiates; looks beautiful</t>
   </si>
   <si>
-    <t>conquered; defeated</t>
-  </si>
-  <si>
     <t>flies; flies up</t>
   </si>
   <si>
@@ -2092,9 +2044,6 @@
     <t>(of a state of being) living in; who has</t>
   </si>
   <si>
-    <t>who returns; who comes back</t>
-  </si>
-  <si>
     <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
   </si>
   <si>
@@ -2107,9 +2056,6 @@
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
-    <t>experiencing heart-felt joy; feeling delight; sensitive to rapture</t>
-  </si>
-  <si>
     <t>who does not return; non-returning (in this world)</t>
   </si>
   <si>
@@ -2134,9 +2080,6 @@
     <t>bird; lit. with wings</t>
   </si>
   <si>
-    <t>leader; guide; adviser</t>
-  </si>
-  <si>
     <t>dwelling; shelter; home</t>
   </si>
   <si>
@@ -2209,16 +2152,7 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
-    <t>dries up; withers; shrivels</t>
-  </si>
-  <si>
-    <t>remains; is left over</t>
-  </si>
-  <si>
     <t>dresses; clothes; give clothes (to)</t>
-  </si>
-  <si>
-    <t>indicated; pointed out; designated; appointed</t>
   </si>
   <si>
     <t>treasure; trove; hoard; lit. put down</t>
@@ -2753,7 +2687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E376"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2781,16 +2715,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E2" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2798,16 +2732,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E3" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2815,16 +2749,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E4" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2832,16 +2766,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" t="s">
         <v>380</v>
       </c>
-      <c r="C5" t="s">
-        <v>391</v>
-      </c>
       <c r="D5" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E5" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2849,16 +2783,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E6" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2866,16 +2800,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E7" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2883,16 +2817,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E8" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2900,16 +2834,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E9" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2917,16 +2851,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E10" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2934,16 +2868,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E11" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2951,16 +2885,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E12" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2968,16 +2902,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E13" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2985,16 +2919,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E14" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3002,16 +2936,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E15" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3019,16 +2953,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C16" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D16" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E16" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3036,16 +2970,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E17" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3053,16 +2987,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E18" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3070,16 +3004,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C19" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D19" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E19" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3087,16 +3021,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C20" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E20" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3104,16 +3038,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C21" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D21" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E21" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3121,16 +3055,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C22" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E22" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3138,16 +3072,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C23" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E23" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3155,16 +3089,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D24" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E24" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3172,16 +3106,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C25" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E25" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3189,16 +3123,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C26" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D26" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E26" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3206,16 +3140,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C27" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D27" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E27" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3223,16 +3157,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C28" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E28" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3240,16 +3174,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C29" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D29" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E29" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3257,16 +3191,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C30" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D30" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E30" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3274,16 +3208,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C31" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D31" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E31" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3291,16 +3225,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D32" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E32" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3308,16 +3242,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C33" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D33" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E33" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3325,16 +3259,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C34" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D34" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E34" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3342,16 +3276,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E35" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3359,16 +3293,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C36" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E36" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3376,16 +3310,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C37" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E37" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3393,16 +3327,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C38" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E38" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3410,16 +3344,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C39" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E39" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3427,16 +3361,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C40" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D40" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E40" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3444,16 +3378,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C41" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D41" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E41" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3461,16 +3395,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D42" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E42" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3478,16 +3412,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C43" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D43" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E43" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3495,16 +3429,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C44" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E44" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3512,16 +3446,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C45" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D45" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E45" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3529,16 +3463,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C46" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D46" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E46" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3546,16 +3480,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C47" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D47" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E47" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3563,16 +3497,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C48" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D48" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E48" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3580,16 +3514,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C49" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D49" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E49" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3597,16 +3531,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C50" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D50" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E50" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3614,16 +3548,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D51" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E51" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3631,16 +3565,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C52" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D52" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E52" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3648,16 +3582,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C53" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D53" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E53" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3665,16 +3599,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C54" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D54" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E54" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3682,16 +3616,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C55" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D55" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E55" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3699,16 +3633,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C56" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D56" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E56" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3716,16 +3650,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C57" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D57" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E57" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3733,16 +3667,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C58" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D58" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E58" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3750,16 +3684,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C59" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D59" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E59" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3767,16 +3701,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C60" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D60" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E60" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3784,16 +3718,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C61" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D61" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E61" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3801,16 +3735,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C62" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D62" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E62" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3818,16 +3752,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C63" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D63" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E63" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3835,16 +3769,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C64" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D64" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E64" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3852,16 +3786,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D65" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E65" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3869,16 +3803,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C66" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D66" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E66" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3886,16 +3820,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C67" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D67" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E67" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3903,16 +3837,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D68" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E68" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3920,16 +3854,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C69" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D69" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E69" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3937,16 +3871,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C70" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D70" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E70" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3954,16 +3888,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C71" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D71" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E71" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3971,16 +3905,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C72" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D72" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E72" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3988,16 +3922,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C73" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D73" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E73" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4005,16 +3939,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C74" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D74" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E74" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4022,16 +3956,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C75" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D75" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E75" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4039,16 +3973,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C76" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D76" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E76" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4056,16 +3990,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C77" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D77" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E77" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4073,16 +4007,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C78" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D78" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E78" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4090,16 +4024,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C79" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D79" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E79" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4107,16 +4041,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C80" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D80" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E80" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4124,16 +4058,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C81" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D81" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E81" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4141,16 +4075,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C82" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D82" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E82" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4158,16 +4092,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C83" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D83" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E83" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4175,16 +4109,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C84" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D84" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E84" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4192,16 +4126,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C85" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D85" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E85" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4209,16 +4143,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C86" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="D86" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E86" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4226,16 +4160,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C87" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D87" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E87" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4243,16 +4177,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C88" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D88" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E88" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4260,16 +4194,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C89" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D89" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E89" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4277,16 +4211,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C90" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D90" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E90" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4294,16 +4228,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C91" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D91" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E91" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4311,16 +4245,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C92" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D92" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E92" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4328,16 +4262,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C93" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D93" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E93" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4345,16 +4279,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C94" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D94" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E94" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4362,16 +4296,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C95" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D95" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E95" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4379,16 +4313,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C96" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D96" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E96" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4396,16 +4330,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C97" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D97" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E97" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4413,16 +4347,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D98" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E98" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4430,16 +4364,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C99" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D99" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E99" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4447,16 +4381,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C100" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D100" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E100" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4464,16 +4398,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C101" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D101" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E101" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4481,16 +4415,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C102" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D102" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E102" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4498,16 +4432,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C103" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D103" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E103" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4515,16 +4449,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C104" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D104" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E104" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4532,16 +4466,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C105" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D105" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E105" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4549,16 +4483,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C106" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D106" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E106" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4566,16 +4500,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C107" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D107" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E107" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4583,16 +4517,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C108" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D108" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E108" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4600,16 +4534,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C109" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D109" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E109" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4617,16 +4551,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C110" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D110" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E110" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4634,16 +4568,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C111" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D111" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E111" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4651,16 +4585,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C112" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D112" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E112" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4668,16 +4602,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C113" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D113" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E113" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4685,16 +4619,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C114" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D114" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E114" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4702,16 +4636,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C115" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D115" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E115" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4719,16 +4653,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C116" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D116" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E116" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4736,16 +4670,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C117" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D117" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E117" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4753,16 +4687,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C118" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D118" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E118" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4770,16 +4704,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C119" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D119" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E119" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4787,16 +4721,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C120" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D120" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E120" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4804,16 +4738,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C121" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D121" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E121" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4821,16 +4755,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C122" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D122" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E122" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4838,16 +4772,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C123" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D123" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E123" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4855,16 +4789,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D124" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E124" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4872,16 +4806,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C125" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D125" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E125" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4889,16 +4823,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C126" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D126" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E126" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4906,16 +4840,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C127" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D127" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E127" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4923,16 +4857,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C128" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D128" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E128" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4940,16 +4874,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C129" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D129" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E129" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4957,16 +4891,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C130" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D130" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E130" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4974,16 +4908,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C131" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D131" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E131" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4991,16 +4925,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C132" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D132" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="E132" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5008,16 +4942,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C133" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D133" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="E133" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5025,16 +4959,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C134" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D134" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E134" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5042,16 +4976,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C135" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D135" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E135" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5059,16 +4993,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C136" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D136" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E136" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5076,16 +5010,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C137" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D137" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E137" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5093,16 +5027,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C138" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D138" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E138" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5110,16 +5044,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C139" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D139" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E139" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5127,16 +5061,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C140" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D140" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E140" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5144,16 +5078,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C141" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D141" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E141" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5161,16 +5095,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C142" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D142" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E142" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5178,16 +5112,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C143" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D143" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E143" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5195,16 +5129,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C144" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D144" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E144" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5212,16 +5146,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C145" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D145" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E145" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5229,16 +5163,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C146" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D146" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E146" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5246,16 +5180,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C147" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D147" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E147" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5263,16 +5197,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C148" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D148" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E148" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5280,16 +5214,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C149" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D149" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E149" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5297,16 +5231,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C150" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D150" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E150" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5314,16 +5248,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C151" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D151" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E151" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5331,16 +5265,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C152" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D152" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E152" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5348,16 +5282,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C153" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D153" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E153" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5365,16 +5299,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C154" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D154" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E154" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5382,16 +5316,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C155" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D155" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E155" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5399,16 +5333,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C156" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D156" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E156" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5416,16 +5350,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C157" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D157" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E157" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5433,16 +5367,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C158" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D158" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E158" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5450,16 +5384,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C159" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D159" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E159" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5467,16 +5401,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C160" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D160" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E160" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5484,16 +5418,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C161" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D161" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E161" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5501,16 +5435,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C162" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D162" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E162" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5518,16 +5452,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C163" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D163" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E163" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5535,16 +5469,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C164" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D164" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E164" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5552,16 +5486,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C165" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D165" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E165" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5569,16 +5503,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C166" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D166" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E166" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5586,16 +5520,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C167" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D167" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E167" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5603,16 +5537,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C168" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D168" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E168" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5620,16 +5554,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C169" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D169" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E169" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5637,16 +5571,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C170" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="D170" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E170" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5654,16 +5588,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C171" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D171" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="E171" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5671,16 +5605,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C172" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D172" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="E172" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5688,16 +5622,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C173" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D173" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="E173" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5705,16 +5639,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C174" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D174" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="E174" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5722,16 +5656,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C175" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D175" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="E175" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5739,16 +5673,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C176" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="D176" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="E176" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5756,16 +5690,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C177" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D177" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="E177" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5773,16 +5707,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C178" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D178" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="E178" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5790,16 +5724,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C179" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D179" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="E179" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5807,16 +5741,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C180" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D180" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E180" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5824,16 +5758,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="D181" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E181" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5841,16 +5775,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C182" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D182" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E182" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5858,16 +5792,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C183" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D183" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E183" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5875,16 +5809,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C184" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D184" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E184" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5892,16 +5826,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D185" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E185" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5909,16 +5843,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C186" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D186" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E186" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5926,16 +5860,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D187" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E187" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5943,16 +5877,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C188" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D188" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E188" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5960,16 +5894,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C189" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D189" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E189" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5977,16 +5911,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C190" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D190" t="s">
-        <v>764</v>
+        <v>737</v>
       </c>
       <c r="E190" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5994,16 +5928,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C191" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D191" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E191" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6011,16 +5945,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C192" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D192" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E192" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6028,16 +5962,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C193" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D193" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E193" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6045,16 +5979,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C194" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D194" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E194" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6062,16 +5996,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C195" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D195" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="E195" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6079,16 +6013,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C196" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D196" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="E196" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6096,16 +6030,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C197" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D197" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="E197" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6113,16 +6047,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C198" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D198" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E198" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6130,16 +6064,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C199" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="D199" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E199" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6147,16 +6081,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C200" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D200" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E200" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6164,16 +6098,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C201" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D201" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E201" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6181,16 +6115,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C202" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D202" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E202" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6198,16 +6132,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C203" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D203" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E203" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6215,16 +6149,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C204" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D204" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E204" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6232,16 +6166,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C205" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D205" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="E205" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6249,16 +6183,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C206" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D206" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="E206" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6266,16 +6200,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C207" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D207" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="E207" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6283,16 +6217,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C208" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D208" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="E208" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6300,16 +6234,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C209" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D209" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="E209" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6317,16 +6251,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C210" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D210" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="E210" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6334,16 +6268,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C211" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D211" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="E211" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6351,16 +6285,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C212" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D212" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="E212" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6368,16 +6302,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C213" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D213" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="E213" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6385,16 +6319,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C214" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D214" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="E214" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6402,16 +6336,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C215" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D215" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="E215" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6419,16 +6353,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C216" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D216" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="E216" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6436,16 +6370,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C217" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="D217" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="E217" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6453,16 +6387,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C218" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D218" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="E218" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6470,16 +6404,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C219" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D219" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="E219" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6487,16 +6421,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C220" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D220" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="E220" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6504,16 +6438,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C221" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D221" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="E221" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6521,16 +6455,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C222" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D222" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="E222" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6538,16 +6472,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C223" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D223" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="E223" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6555,16 +6489,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C224" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D224" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="E224" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6572,16 +6506,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C225" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="D225" t="s">
+        <v>747</v>
+      </c>
+      <c r="E225" t="s">
         <v>769</v>
-      </c>
-      <c r="E225" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6589,16 +6523,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C226" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="D226" t="s">
+        <v>747</v>
+      </c>
+      <c r="E226" t="s">
         <v>769</v>
-      </c>
-      <c r="E226" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6606,16 +6540,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C227" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D227" t="s">
+        <v>747</v>
+      </c>
+      <c r="E227" t="s">
         <v>769</v>
-      </c>
-      <c r="E227" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6623,16 +6557,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C228" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D228" t="s">
+        <v>747</v>
+      </c>
+      <c r="E228" t="s">
         <v>769</v>
-      </c>
-      <c r="E228" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6640,16 +6574,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C229" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="D229" t="s">
+        <v>747</v>
+      </c>
+      <c r="E229" t="s">
         <v>769</v>
-      </c>
-      <c r="E229" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6657,16 +6591,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C230" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D230" t="s">
+        <v>748</v>
+      </c>
+      <c r="E230" t="s">
         <v>769</v>
-      </c>
-      <c r="E230" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6674,16 +6608,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C231" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D231" t="s">
+        <v>749</v>
+      </c>
+      <c r="E231" t="s">
         <v>769</v>
-      </c>
-      <c r="E231" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6691,16 +6625,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C232" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D232" t="s">
+        <v>749</v>
+      </c>
+      <c r="E232" t="s">
         <v>769</v>
-      </c>
-      <c r="E232" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6708,16 +6642,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C233" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D233" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="E233" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6725,16 +6659,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C234" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D234" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E234" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6742,16 +6676,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C235" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D235" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E235" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6759,16 +6693,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C236" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D236" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E236" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6776,16 +6710,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C237" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D237" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E237" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6793,16 +6727,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C238" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D238" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E238" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6810,16 +6744,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C239" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="D239" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E239" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6827,16 +6761,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C240" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D240" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="E240" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6844,16 +6778,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C241" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D241" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="E241" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6861,16 +6795,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C242" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="D242" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="E242" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6878,16 +6812,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C243" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D243" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="E243" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6895,16 +6829,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C244" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D244" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="E244" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6912,16 +6846,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C245" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D245" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="E245" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6929,16 +6863,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C246" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D246" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="E246" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6946,16 +6880,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C247" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D247" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="E247" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6963,16 +6897,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C248" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D248" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="E248" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6980,16 +6914,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C249" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D249" t="s">
-        <v>774</v>
+        <v>737</v>
       </c>
       <c r="E249" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6997,16 +6931,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C250" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D250" t="s">
-        <v>774</v>
+        <v>737</v>
       </c>
       <c r="E250" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7014,16 +6948,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C251" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="D251" t="s">
-        <v>775</v>
+        <v>737</v>
       </c>
       <c r="E251" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7031,16 +6965,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C252" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="D252" t="s">
-        <v>775</v>
+        <v>737</v>
       </c>
       <c r="E252" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7048,16 +6982,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C253" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D253" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E253" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7065,16 +6999,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C254" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="D254" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E254" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7082,16 +7016,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C255" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D255" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E255" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7099,16 +7033,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C256" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="D256" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E256" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7116,16 +7050,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C257" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D257" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E257" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7133,16 +7067,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C258" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="D258" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E258" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7150,16 +7084,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C259" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="D259" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E259" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7167,16 +7101,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C260" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D260" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E260" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7184,16 +7118,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C261" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D261" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E261" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7201,16 +7135,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C262" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D262" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E262" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7218,16 +7152,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C263" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="D263" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E263" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7235,16 +7169,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C264" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D264" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E264" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7252,16 +7186,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C265" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="D265" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E265" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7269,16 +7203,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C266" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="D266" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E266" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7286,16 +7220,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C267" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D267" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E267" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7303,16 +7237,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C268" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D268" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E268" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7320,16 +7254,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C269" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="D269" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E269" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7337,16 +7271,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C270" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D270" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E270" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7354,16 +7288,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C271" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D271" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E271" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7371,16 +7305,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C272" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D272" t="s">
-        <v>776</v>
+        <v>739</v>
       </c>
       <c r="E272" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7388,16 +7322,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C273" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="D273" t="s">
-        <v>776</v>
+        <v>739</v>
       </c>
       <c r="E273" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7405,16 +7339,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C274" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D274" t="s">
-        <v>776</v>
+        <v>739</v>
       </c>
       <c r="E274" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7422,16 +7356,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C275" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="D275" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="E275" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7439,16 +7373,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C276" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D276" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="E276" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7456,16 +7390,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C277" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D277" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="E277" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7473,16 +7407,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C278" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="D278" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="E278" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7490,16 +7424,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C279" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="D279" t="s">
-        <v>766</v>
+        <v>374</v>
       </c>
       <c r="E279" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7507,16 +7441,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C280" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="D280" t="s">
-        <v>762</v>
+        <v>374</v>
       </c>
       <c r="E280" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7524,16 +7458,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C281" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="D281" t="s">
-        <v>762</v>
+        <v>374</v>
       </c>
       <c r="E281" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7541,16 +7475,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C282" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D282" t="s">
-        <v>769</v>
+        <v>374</v>
       </c>
       <c r="E282" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7558,16 +7492,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C283" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D283" t="s">
-        <v>769</v>
+        <v>374</v>
       </c>
       <c r="E283" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7575,16 +7509,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C284" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="D284" t="s">
-        <v>385</v>
+        <v>755</v>
       </c>
       <c r="E284" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7592,16 +7526,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C285" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D285" t="s">
-        <v>385</v>
+        <v>755</v>
       </c>
       <c r="E285" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7609,16 +7543,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C286" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D286" t="s">
-        <v>385</v>
+        <v>755</v>
       </c>
       <c r="E286" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7626,16 +7560,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C287" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="D287" t="s">
-        <v>385</v>
+        <v>755</v>
       </c>
       <c r="E287" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7643,16 +7577,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C288" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D288" t="s">
-        <v>385</v>
+        <v>755</v>
       </c>
       <c r="E288" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7660,16 +7594,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C289" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="D289" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="E289" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7677,16 +7611,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C290" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D290" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="E290" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7694,16 +7628,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C291" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D291" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="E291" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7711,16 +7645,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C292" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D292" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="E292" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7728,16 +7662,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C293" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="D293" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="E293" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7745,16 +7679,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C294" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="D294" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="E294" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7762,16 +7696,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C295" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="D295" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="E295" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7779,16 +7713,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C296" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D296" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="E296" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7796,16 +7730,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C297" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="D297" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="E297" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7813,16 +7747,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C298" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D298" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="E298" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7830,16 +7764,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C299" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D299" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="E299" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7847,16 +7781,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C300" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D300" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="E300" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7864,16 +7798,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C301" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D301" t="s">
-        <v>779</v>
+        <v>742</v>
       </c>
       <c r="E301" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7881,16 +7815,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C302" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D302" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="E302" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7898,16 +7832,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C303" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D303" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="E303" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7915,16 +7849,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C304" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="D304" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="E304" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7932,16 +7866,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C305" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="D305" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="E305" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7949,16 +7883,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C306" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D306" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E306" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7966,16 +7900,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C307" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="D307" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="E307" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7983,16 +7917,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C308" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D308" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="E308" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8000,16 +7934,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C309" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="D309" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="E309" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8017,16 +7951,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C310" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="D310" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="E310" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8034,16 +7968,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C311" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="D311" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="E311" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8051,16 +7985,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C312" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="D312" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="E312" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8068,16 +8002,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C313" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="D313" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="E313" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8085,16 +8019,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C314" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="D314" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="E314" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8102,16 +8036,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C315" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="D315" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="E315" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8119,16 +8053,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C316" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="D316" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="E316" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8136,16 +8070,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C317" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="D317" t="s">
-        <v>780</v>
+        <v>737</v>
       </c>
       <c r="E317" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8153,16 +8087,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C318" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="D318" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
       <c r="E318" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8170,16 +8104,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C319" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="D319" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
       <c r="E319" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8187,16 +8121,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C320" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="D320" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
       <c r="E320" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8204,16 +8138,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C321" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="D321" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
       <c r="E321" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8221,16 +8155,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C322" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="D322" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="E322" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8238,16 +8172,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C323" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="D323" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="E323" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8255,16 +8189,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C324" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="D324" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E324" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8272,16 +8206,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C325" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D325" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E325" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8289,16 +8223,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C326" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="D326" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E326" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8306,16 +8240,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C327" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="D327" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E327" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8323,16 +8257,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C328" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="D328" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E328" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8340,16 +8274,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C329" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="D329" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E329" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8357,16 +8291,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C330" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="D330" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="E330" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8374,16 +8308,16 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C331" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="D331" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="E331" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8391,16 +8325,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C332" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="D332" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="E332" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8408,16 +8342,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C333" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="D333" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="E333" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8425,16 +8359,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C334" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="D334" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="E334" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8442,16 +8376,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C335" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D335" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="E335" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8459,16 +8393,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C336" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="D336" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="E336" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8476,16 +8410,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C337" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="D337" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="E337" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8493,16 +8427,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C338" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="D338" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="E338" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8510,16 +8444,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C339" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="D339" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="E339" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8527,16 +8461,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C340" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="D340" t="s">
-        <v>784</v>
+        <v>739</v>
       </c>
       <c r="E340" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8544,16 +8478,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C341" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="D341" t="s">
-        <v>784</v>
+        <v>740</v>
       </c>
       <c r="E341" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8561,16 +8495,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C342" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="D342" t="s">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="E342" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8578,16 +8512,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C343" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="D343" t="s">
-        <v>784</v>
+        <v>374</v>
       </c>
       <c r="E343" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8595,16 +8529,16 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C344" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="D344" t="s">
-        <v>785</v>
+        <v>374</v>
       </c>
       <c r="E344" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8612,16 +8546,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C345" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="D345" t="s">
-        <v>785</v>
+        <v>374</v>
       </c>
       <c r="E345" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8629,16 +8563,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C346" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="D346" t="s">
-        <v>785</v>
+        <v>374</v>
       </c>
       <c r="E346" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8646,16 +8580,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C347" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="D347" t="s">
-        <v>785</v>
+        <v>374</v>
       </c>
       <c r="E347" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8663,16 +8597,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C348" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="D348" t="s">
-        <v>761</v>
+        <v>374</v>
       </c>
       <c r="E348" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8680,16 +8614,16 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C349" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="D349" t="s">
-        <v>761</v>
+        <v>374</v>
       </c>
       <c r="E349" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8697,16 +8631,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C350" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="D350" t="s">
-        <v>761</v>
+        <v>374</v>
       </c>
       <c r="E350" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8714,16 +8648,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C351" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="D351" t="s">
-        <v>762</v>
+        <v>374</v>
       </c>
       <c r="E351" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8731,16 +8665,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C352" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="D352" t="s">
-        <v>769</v>
+        <v>374</v>
       </c>
       <c r="E352" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8748,16 +8682,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C353" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="D353" t="s">
+        <v>374</v>
+      </c>
+      <c r="E353" t="s">
         <v>771</v>
-      </c>
-      <c r="E353" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8765,16 +8699,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C354" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="D354" t="s">
-        <v>385</v>
+        <v>764</v>
       </c>
       <c r="E354" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8782,16 +8716,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C355" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="D355" t="s">
-        <v>385</v>
+        <v>764</v>
       </c>
       <c r="E355" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8799,16 +8733,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C356" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="D356" t="s">
-        <v>385</v>
+        <v>764</v>
       </c>
       <c r="E356" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8816,16 +8750,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C357" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D357" t="s">
-        <v>385</v>
+        <v>764</v>
       </c>
       <c r="E357" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8833,16 +8767,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C358" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="D358" t="s">
-        <v>385</v>
+        <v>764</v>
       </c>
       <c r="E358" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8850,16 +8784,16 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C359" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="D359" t="s">
-        <v>385</v>
+        <v>764</v>
       </c>
       <c r="E359" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8867,16 +8801,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C360" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="D360" t="s">
-        <v>385</v>
+        <v>758</v>
       </c>
       <c r="E360" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8884,16 +8818,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C361" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="D361" t="s">
-        <v>385</v>
+        <v>765</v>
       </c>
       <c r="E361" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -8901,16 +8835,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C362" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="D362" t="s">
-        <v>385</v>
+        <v>765</v>
       </c>
       <c r="E362" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8918,16 +8852,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C363" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="D363" t="s">
-        <v>385</v>
+        <v>765</v>
       </c>
       <c r="E363" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -8935,16 +8869,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C364" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="D364" t="s">
-        <v>385</v>
+        <v>766</v>
       </c>
       <c r="E364" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8952,203 +8886,16 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C365" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="D365" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="E365" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="A366" t="s">
-        <v>369</v>
-      </c>
-      <c r="B366" t="s">
-        <v>380</v>
-      </c>
-      <c r="C366" t="s">
-        <v>748</v>
-      </c>
-      <c r="D366" t="s">
-        <v>786</v>
-      </c>
-      <c r="E366" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="A367" t="s">
-        <v>370</v>
-      </c>
-      <c r="B367" t="s">
-        <v>380</v>
-      </c>
-      <c r="C367" t="s">
-        <v>749</v>
-      </c>
-      <c r="D367" t="s">
-        <v>786</v>
-      </c>
-      <c r="E367" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="A368" t="s">
-        <v>371</v>
-      </c>
-      <c r="B368" t="s">
-        <v>380</v>
-      </c>
-      <c r="C368" t="s">
-        <v>750</v>
-      </c>
-      <c r="D368" t="s">
-        <v>786</v>
-      </c>
-      <c r="E368" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="A369" t="s">
-        <v>372</v>
-      </c>
-      <c r="B369" t="s">
-        <v>380</v>
-      </c>
-      <c r="C369" t="s">
-        <v>751</v>
-      </c>
-      <c r="D369" t="s">
-        <v>786</v>
-      </c>
-      <c r="E369" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="A370" t="s">
-        <v>373</v>
-      </c>
-      <c r="B370" t="s">
-        <v>380</v>
-      </c>
-      <c r="C370" t="s">
-        <v>752</v>
-      </c>
-      <c r="D370" t="s">
-        <v>786</v>
-      </c>
-      <c r="E370" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="A371" t="s">
-        <v>374</v>
-      </c>
-      <c r="B371" t="s">
-        <v>387</v>
-      </c>
-      <c r="C371" t="s">
-        <v>753</v>
-      </c>
-      <c r="D371" t="s">
-        <v>780</v>
-      </c>
-      <c r="E371" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="A372" t="s">
-        <v>375</v>
-      </c>
-      <c r="B372" t="s">
-        <v>387</v>
-      </c>
-      <c r="C372" t="s">
-        <v>754</v>
-      </c>
-      <c r="D372" t="s">
-        <v>787</v>
-      </c>
-      <c r="E372" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="A373" t="s">
-        <v>376</v>
-      </c>
-      <c r="B373" t="s">
-        <v>387</v>
-      </c>
-      <c r="C373" t="s">
-        <v>755</v>
-      </c>
-      <c r="D373" t="s">
-        <v>787</v>
-      </c>
-      <c r="E373" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" t="s">
-        <v>377</v>
-      </c>
-      <c r="B374" t="s">
-        <v>387</v>
-      </c>
-      <c r="C374" t="s">
-        <v>756</v>
-      </c>
-      <c r="D374" t="s">
-        <v>787</v>
-      </c>
-      <c r="E374" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375" t="s">
-        <v>378</v>
-      </c>
-      <c r="B375" t="s">
-        <v>380</v>
-      </c>
-      <c r="C375" t="s">
-        <v>757</v>
-      </c>
-      <c r="D375" t="s">
-        <v>788</v>
-      </c>
-      <c r="E375" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" t="s">
-        <v>379</v>
-      </c>
-      <c r="B376" t="s">
-        <v>380</v>
-      </c>
-      <c r="C376" t="s">
-        <v>758</v>
-      </c>
-      <c r="D376" t="s">
-        <v>788</v>
-      </c>
-      <c r="E376" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="699">
   <si>
     <t>Pāli1</t>
   </si>
@@ -37,7 +37,7 @@
     <t>magga 2</t>
   </si>
   <si>
-    <t>dhamma 7</t>
+    <t>dhamma 06</t>
   </si>
   <si>
     <t>loka 1</t>
@@ -64,9 +64,6 @@
     <t>danta 2</t>
   </si>
   <si>
-    <t>nakha</t>
-  </si>
-  <si>
     <t>loma</t>
   </si>
   <si>
@@ -76,7 +73,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 1</t>
+    <t>dhamma 03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -124,7 +121,7 @@
     <t>purisa 1</t>
   </si>
   <si>
-    <t>attha 1</t>
+    <t>attha 01</t>
   </si>
   <si>
     <t>sāriputta</t>
@@ -175,7 +172,7 @@
     <t>hattha 1</t>
   </si>
   <si>
-    <t>satta 1</t>
+    <t>satta 2</t>
   </si>
   <si>
     <t>niraya</t>
@@ -208,7 +205,7 @@
     <t>rāga 1</t>
   </si>
   <si>
-    <t>bheda 1</t>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>khaya</t>
@@ -223,7 +220,7 @@
     <t>sekha</t>
   </si>
   <si>
-    <t>dhamma 5</t>
+    <t>dhamma 02</t>
   </si>
   <si>
     <t>samatha 1</t>
@@ -328,13 +325,13 @@
     <t>uppāda</t>
   </si>
   <si>
-    <t>dhamma 2</t>
+    <t>dhamma 05</t>
   </si>
   <si>
     <t>moha</t>
   </si>
   <si>
-    <t>bāla 4</t>
+    <t>bāla 2</t>
   </si>
   <si>
     <t>kāya 1</t>
@@ -349,7 +346,7 @@
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 5</t>
+    <t>attha 05</t>
   </si>
   <si>
     <t>abyāpāda</t>
@@ -388,7 +385,7 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 9</t>
+    <t>dhamma 09</t>
   </si>
   <si>
     <t>nara</t>
@@ -484,12 +481,6 @@
     <t>passati 2</t>
   </si>
   <si>
-    <t>tasati 1</t>
-  </si>
-  <si>
-    <t>āmantayati 1</t>
-  </si>
-  <si>
     <t>sikkhati</t>
   </si>
   <si>
@@ -547,9 +538,6 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
-    <t>paṭiggaheti</t>
-  </si>
-  <si>
     <t>vedeti 1</t>
   </si>
   <si>
@@ -577,9 +565,6 @@
     <t>paṭijānāti 3</t>
   </si>
   <si>
-    <t>jināti 2</t>
-  </si>
-  <si>
     <t>dadāti</t>
   </si>
   <si>
@@ -595,18 +580,9 @@
     <t>pāpuṇāti 1</t>
   </si>
   <si>
-    <t>mugga</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>kāraka 2</t>
-  </si>
-  <si>
-    <t>dhaja 1</t>
-  </si>
-  <si>
     <t>kassaka</t>
   </si>
   <si>
@@ -658,15 +634,12 @@
     <t>asi 2</t>
   </si>
   <si>
-    <t>attha 8</t>
+    <t>attha 12</t>
   </si>
   <si>
     <t>amhi</t>
   </si>
   <si>
-    <t>ajesi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -676,15 +649,9 @@
     <t>pāturahosi</t>
   </si>
   <si>
-    <t>homa 3</t>
-  </si>
-  <si>
     <t>hotha</t>
   </si>
   <si>
-    <t>hontu</t>
-  </si>
-  <si>
     <t>hotu</t>
   </si>
   <si>
@@ -715,9 +682,6 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>agacchi</t>
-  </si>
-  <si>
     <t>muni</t>
   </si>
   <si>
@@ -775,15 +739,9 @@
     <t>taca 1</t>
   </si>
   <si>
-    <t>kāra 2</t>
-  </si>
-  <si>
     <t>mada 1</t>
   </si>
   <si>
-    <t>dava</t>
-  </si>
-  <si>
     <t>ājīva</t>
   </si>
   <si>
@@ -793,15 +751,6 @@
     <t>adhamma 2</t>
   </si>
   <si>
-    <t>saṃyoga 2</t>
-  </si>
-  <si>
-    <t>visaṃyoga</t>
-  </si>
-  <si>
-    <t>akkosa</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
@@ -811,9 +760,6 @@
     <t>mayā 1</t>
   </si>
   <si>
-    <t>amhesu</t>
-  </si>
-  <si>
     <t>no 4</t>
   </si>
   <si>
@@ -823,7 +769,7 @@
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>me 4</t>
+    <t>me 5</t>
   </si>
   <si>
     <t>no 7</t>
@@ -841,27 +787,12 @@
     <t>me 3</t>
   </si>
   <si>
-    <t>khaṇati</t>
-  </si>
-  <si>
-    <t>okirati</t>
-  </si>
-  <si>
     <t>sobhati</t>
   </si>
   <si>
-    <t>ḍeti</t>
-  </si>
-  <si>
     <t>neti 2</t>
   </si>
   <si>
-    <t>paridevi</t>
-  </si>
-  <si>
-    <t>soci</t>
-  </si>
-  <si>
     <t>na 1</t>
   </si>
   <si>
@@ -916,7 +847,7 @@
     <t>tvaṃ</t>
   </si>
   <si>
-    <t>te 4</t>
+    <t>te 6</t>
   </si>
   <si>
     <t>tuvaṃ 1</t>
@@ -976,30 +907,15 @@
     <t>pakkhī</t>
   </si>
   <si>
-    <t>upassaya 1</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
-    <t>balibadda</t>
-  </si>
-  <si>
-    <t>saṅgara 1</t>
-  </si>
-  <si>
-    <t>vikappa 1</t>
-  </si>
-  <si>
     <t>sīlavant</t>
   </si>
   <si>
     <t>paññavant</t>
   </si>
   <si>
-    <t>hirimant</t>
-  </si>
-  <si>
     <t>balavant</t>
   </si>
   <si>
@@ -1024,21 +940,12 @@
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>pavattar</t>
-  </si>
-  <si>
-    <t>āgantar 2</t>
-  </si>
-  <si>
     <t>dātar</t>
   </si>
   <si>
     <t>pitar</t>
   </si>
   <si>
-    <t>saṅghapitar</t>
-  </si>
-  <si>
     <t>bhātar</t>
   </si>
   <si>
@@ -1048,12 +955,6 @@
     <t>paricarati 3</t>
   </si>
   <si>
-    <t>acchādeti 1</t>
-  </si>
-  <si>
-    <t>nidhi</t>
-  </si>
-  <si>
     <t>vā 1</t>
   </si>
   <si>
@@ -1066,9 +967,6 @@
     <t>sadā</t>
   </si>
   <si>
-    <t>ratto</t>
-  </si>
-  <si>
     <t>ca 1</t>
   </si>
   <si>
@@ -1078,9 +976,6 @@
     <t>pure 2</t>
   </si>
   <si>
-    <t>suve</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -1090,12 +985,6 @@
     <t>garu 5</t>
   </si>
   <si>
-    <t>bāhu</t>
-  </si>
-  <si>
-    <t>nahāru</t>
-  </si>
-  <si>
     <t>bhikkhu</t>
   </si>
   <si>
@@ -1180,9 +1069,6 @@
     <t>tooth; tusk; fang</t>
   </si>
   <si>
-    <t>a nail; a claw</t>
-  </si>
-  <si>
     <t>the hair on the body; pelt</t>
   </si>
   <si>
@@ -1219,7 +1105,7 @@
     <t>being; existence; becoming</t>
   </si>
   <si>
-    <t>rainy season; rain</t>
+    <t>rainy season; monsoon</t>
   </si>
   <si>
     <t>house; dwelling place; residence</t>
@@ -1444,7 +1330,7 @@
     <t>arising; appearing; coming into being</t>
   </si>
   <si>
-    <t>state of mind</t>
+    <t>state of mind; mental states</t>
   </si>
   <si>
     <t>stupidity; delusion; illusion; confusion</t>
@@ -1600,12 +1486,6 @@
     <t>understands; gets; lit. sees</t>
   </si>
   <si>
-    <t>is afraid (of); fears</t>
-  </si>
-  <si>
-    <t>adresses; speaks to; tells</t>
-  </si>
-  <si>
     <t>learns; trains; practises</t>
   </si>
   <si>
@@ -1663,36 +1543,33 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>feels; experiences; senses</t>
+  </si>
+  <si>
+    <t>bears in mind; keeps in mind; remembers</t>
+  </si>
+  <si>
+    <t>gives; offers; hands</t>
+  </si>
+  <si>
+    <t>come; come here!</t>
+  </si>
+  <si>
+    <t>listens; hears</t>
+  </si>
+  <si>
+    <t>he must hear! may he listen!</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>feels; experiences; senses</t>
-  </si>
-  <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
   </si>
   <si>
-    <t>surpasses; beats; wins (over)</t>
-  </si>
-  <si>
     <t>gives; offers; donates</t>
   </si>
   <si>
@@ -1708,18 +1585,9 @@
     <t>reaches; arrives (at); attains; experiences</t>
   </si>
   <si>
-    <t>mung beans</t>
-  </si>
-  <si>
     <t>merchant; trader</t>
   </si>
   <si>
-    <t>doer; maker; creator; builder</t>
-  </si>
-  <si>
-    <t>flag; banner; symbol; emblem; lit. flapping (on the wind)</t>
-  </si>
-  <si>
     <t>farmer; ploughman</t>
   </si>
   <si>
@@ -1777,9 +1645,6 @@
     <t>I am</t>
   </si>
   <si>
-    <t>conquered; defeated</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -1792,9 +1657,6 @@
     <t>may you all be! you all must be!</t>
   </si>
   <si>
-    <t>may they be! they must be!</t>
-  </si>
-  <si>
     <t>may it be! he must be</t>
   </si>
   <si>
@@ -1825,9 +1687,6 @@
     <t>sat (on); sat down (in)</t>
   </si>
   <si>
-    <t>went; travelled</t>
-  </si>
-  <si>
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
@@ -1885,15 +1744,9 @@
     <t>skin</t>
   </si>
   <si>
-    <t>deed; action; service</t>
-  </si>
-  <si>
     <t>excess; pleasure; intoxication</t>
   </si>
   <si>
-    <t>pleasure; fun; play; sport</t>
-  </si>
-  <si>
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
@@ -1903,15 +1756,6 @@
     <t>false teaching; against the teaching</t>
   </si>
   <si>
-    <t>attachment; association; constraint</t>
-  </si>
-  <si>
-    <t>detachment; separation; unconstraint</t>
-  </si>
-  <si>
-    <t>verbal abuse; insult</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
@@ -1921,9 +1765,6 @@
     <t>by me; with me</t>
   </si>
   <si>
-    <t>in us; among us</t>
-  </si>
-  <si>
     <t>us (object)</t>
   </si>
   <si>
@@ -1948,27 +1789,12 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>digs; uproots; destroys</t>
-  </si>
-  <si>
-    <t>sprinkles; scatters down (onto)</t>
-  </si>
-  <si>
     <t>shines; radiates; looks beautiful</t>
   </si>
   <si>
-    <t>flies; flies up</t>
-  </si>
-  <si>
     <t>leads; carries away; takes away</t>
   </si>
   <si>
-    <t>mourned; lamented; wailed</t>
-  </si>
-  <si>
-    <t>grieved; was sad</t>
-  </si>
-  <si>
     <t>(negative particle); no; not</t>
   </si>
   <si>
@@ -2080,30 +1906,15 @@
     <t>bird; lit. with wings</t>
   </si>
   <si>
-    <t>dwelling; shelter; home</t>
-  </si>
-  <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
-    <t>ox; bull</t>
-  </si>
-  <si>
-    <t>dealing; bargaining; negotiating; transacting; lit. talking together</t>
-  </si>
-  <si>
-    <t>alteration (to); improvement (to); alternative; lit. more suitable</t>
-  </si>
-  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
     <t>wise; insightful; percipient</t>
   </si>
   <si>
-    <t>has a conscience; conscientious</t>
-  </si>
-  <si>
     <t>powerful; strong</t>
   </si>
   <si>
@@ -2128,21 +1939,12 @@
     <t>speaker</t>
   </si>
   <si>
-    <t>proclaimer; who tells about; who points out</t>
-  </si>
-  <si>
-    <t>returner (to); who comes back (to)</t>
-  </si>
-  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
     <t>father</t>
   </si>
   <si>
-    <t>father of the community; community elder</t>
-  </si>
-  <si>
     <t>brother</t>
   </si>
   <si>
@@ -2152,12 +1954,6 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
-    <t>dresses; clothes; give clothes (to)</t>
-  </si>
-  <si>
-    <t>treasure; trove; hoard; lit. put down</t>
-  </si>
-  <si>
     <t>or; either or</t>
   </si>
   <si>
@@ -2170,9 +1966,6 @@
     <t>ever; always</t>
   </si>
   <si>
-    <t>at night; by night</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
@@ -2182,9 +1975,6 @@
     <t>formerly; previously; in the past</t>
   </si>
   <si>
-    <t>tomorrow</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
@@ -2194,12 +1984,6 @@
     <t>respect; honour</t>
   </si>
   <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>tendon; sinew; lit. binding</t>
-  </si>
-  <si>
     <t>monk; an almsman; mendicant; lit. beggar</t>
   </si>
   <si>
@@ -2258,9 +2042,6 @@
   </si>
   <si>
     <t>i-aor</t>
-  </si>
-  <si>
-    <t>i-aor-issaṃ</t>
   </si>
   <si>
     <t>i-masc</t>
@@ -2687,7 +2468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2715,16 +2496,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E2" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2732,16 +2513,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E3" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2749,16 +2530,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E4" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2766,16 +2547,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E5" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2783,16 +2564,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E6" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2800,16 +2581,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E7" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2817,16 +2598,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E8" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2834,16 +2615,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E9" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2851,16 +2632,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E10" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2868,16 +2649,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E11" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2885,16 +2666,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E12" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2902,16 +2683,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E13" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2919,16 +2700,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E14" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2936,16 +2717,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E15" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2953,16 +2734,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E16" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2970,16 +2751,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="D17" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E17" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2987,16 +2768,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="D18" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E18" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3004,16 +2785,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="D19" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E19" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3021,16 +2802,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="D20" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E20" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3038,16 +2819,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="D21" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E21" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3055,16 +2836,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C22" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="D22" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E22" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3072,16 +2853,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="D23" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E23" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3089,16 +2870,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="D24" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E24" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3106,16 +2887,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C25" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="D25" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E25" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3123,16 +2904,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="D26" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E26" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3140,16 +2921,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="D27" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E27" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3157,16 +2938,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C28" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="D28" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E28" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3174,16 +2955,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="D29" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E29" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3191,16 +2972,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="D30" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E30" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3208,16 +2989,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" t="s">
         <v>369</v>
       </c>
-      <c r="C31" t="s">
-        <v>406</v>
-      </c>
       <c r="D31" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E31" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3225,16 +3006,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E32" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3242,16 +3023,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C33" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E33" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3259,16 +3040,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="D34" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E34" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3276,16 +3057,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C35" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="D35" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E35" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3293,16 +3074,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="D36" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E36" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3310,16 +3091,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="D37" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E37" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3327,16 +3108,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="D38" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E38" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3344,16 +3125,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E39" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3361,16 +3142,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C40" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E40" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3378,16 +3159,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C41" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="D41" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E41" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3395,16 +3176,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C42" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="D42" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E42" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3412,16 +3193,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C43" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="D43" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E43" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3429,16 +3210,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C44" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="D44" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E44" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3446,16 +3227,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C45" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="D45" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E45" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3463,16 +3244,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C46" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="D46" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E46" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3480,16 +3261,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C47" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="D47" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E47" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3497,16 +3278,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="D48" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E48" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3514,16 +3295,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C49" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D49" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E49" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3531,16 +3312,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C50" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="D50" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E50" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3548,16 +3329,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C51" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="D51" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E51" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3565,16 +3346,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C52" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="D52" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E52" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3582,16 +3363,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="D53" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E53" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3599,16 +3380,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C54" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="D54" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E54" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3616,16 +3397,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C55" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="D55" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E55" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3633,16 +3414,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C56" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="D56" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E56" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3650,16 +3431,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C57" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="D57" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E57" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3667,16 +3448,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C58" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="D58" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E58" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3684,16 +3465,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C59" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="D59" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E59" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3701,16 +3482,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C60" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="D60" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E60" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3718,16 +3499,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="D61" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E61" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3735,16 +3516,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C62" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D62" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E62" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3752,16 +3533,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C63" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="D63" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E63" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3769,16 +3550,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C64" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="D64" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E64" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3786,16 +3567,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="D65" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E65" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3803,16 +3584,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C66" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="D66" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E66" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3820,16 +3601,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C67" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="D67" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E67" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3837,16 +3618,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C68" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="D68" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E68" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3854,16 +3635,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C69" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="D69" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E69" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3871,16 +3652,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="D70" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E70" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3888,16 +3669,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C71" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="D71" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E71" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3905,16 +3686,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C72" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="D72" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E72" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3922,16 +3703,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C73" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="D73" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E73" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3939,16 +3720,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C74" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="D74" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E74" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3956,16 +3737,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C75" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="D75" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E75" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3973,16 +3754,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C76" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="D76" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E76" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3990,16 +3771,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C77" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="D77" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E77" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4007,16 +3788,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C78" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="D78" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E78" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4024,16 +3805,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="D79" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E79" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4041,16 +3822,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C80" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="D80" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E80" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4058,16 +3839,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="D81" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E81" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4075,16 +3856,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C82" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="D82" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E82" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4092,16 +3873,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C83" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="D83" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E83" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4109,16 +3890,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C84" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="D84" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E84" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4126,16 +3907,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C85" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="D85" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E85" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4143,16 +3924,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C86" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="D86" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E86" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4160,16 +3941,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C87" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="D87" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E87" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4177,16 +3958,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C88" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="D88" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E88" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4194,16 +3975,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C89" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="D89" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E89" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4211,16 +3992,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C90" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="D90" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E90" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4228,16 +4009,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C91" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="D91" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E91" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4245,16 +4026,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="D92" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E92" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4262,16 +4043,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C93" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="D93" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E93" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4279,16 +4060,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C94" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="D94" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E94" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4296,16 +4077,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C95" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="D95" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E95" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4313,16 +4094,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C96" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="D96" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E96" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4330,16 +4111,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C97" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="D97" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E97" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4347,16 +4128,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C98" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="D98" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E98" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4364,16 +4145,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C99" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="D99" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E99" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4381,16 +4162,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C100" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="D100" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E100" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4398,16 +4179,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C101" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="D101" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E101" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4415,16 +4196,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C102" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="D102" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E102" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4432,16 +4213,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C103" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="D103" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E103" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4449,16 +4230,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C104" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E104" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4466,16 +4247,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C105" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="D105" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E105" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4483,16 +4264,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C106" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="D106" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E106" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4500,16 +4281,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C107" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="D107" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E107" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4517,16 +4298,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C108" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="D108" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E108" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4534,16 +4315,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C109" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="D109" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E109" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4551,16 +4332,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C110" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="D110" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E110" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4568,16 +4349,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C111" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="D111" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E111" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4585,16 +4366,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C112" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="D112" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E112" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4602,16 +4383,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C113" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="D113" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E113" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4619,16 +4400,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C114" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="D114" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E114" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4636,16 +4417,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C115" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="D115" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E115" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4653,16 +4434,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C116" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="D116" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E116" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4670,16 +4451,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C117" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="D117" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E117" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4687,16 +4468,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C118" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="D118" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E118" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4704,16 +4485,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C119" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="D119" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E119" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4721,16 +4502,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C120" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="D120" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E120" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4738,16 +4519,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C121" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="D121" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E121" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4755,16 +4536,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C122" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="D122" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E122" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4772,16 +4553,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C123" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="D123" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E123" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4789,16 +4570,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C124" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="D124" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E124" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4806,16 +4587,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C125" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="D125" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E125" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4823,16 +4604,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C126" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="D126" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E126" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4840,16 +4621,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C127" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="D127" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E127" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4857,16 +4638,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C128" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="D128" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E128" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4874,16 +4655,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C129" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="D129" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E129" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4891,16 +4672,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C130" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="D130" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E130" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4908,16 +4689,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C131" t="s">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="D131" t="s">
-        <v>737</v>
+        <v>666</v>
       </c>
       <c r="E131" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4925,16 +4706,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C132" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
       <c r="D132" t="s">
-        <v>738</v>
+        <v>666</v>
       </c>
       <c r="E132" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4942,16 +4723,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C133" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="D133" t="s">
-        <v>738</v>
+        <v>665</v>
       </c>
       <c r="E133" t="s">
-        <v>767</v>
+        <v>695</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4959,16 +4740,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C134" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="D134" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E134" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4976,16 +4757,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C135" t="s">
-        <v>510</v>
+        <v>473</v>
       </c>
       <c r="D135" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="E135" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4993,16 +4774,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C136" t="s">
-        <v>511</v>
+        <v>474</v>
       </c>
       <c r="D136" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="E136" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5010,16 +4791,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C137" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="D137" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E137" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5027,16 +4808,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C138" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="D138" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E138" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5044,16 +4825,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C139" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="D139" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E139" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5061,16 +4842,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C140" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="D140" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E140" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5078,16 +4859,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C141" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="D141" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E141" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5095,16 +4876,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="D142" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E142" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5112,16 +4893,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C143" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="D143" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E143" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5129,16 +4910,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C144" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="D144" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E144" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5146,16 +4927,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C145" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="D145" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E145" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5163,16 +4944,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C146" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="D146" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E146" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5180,16 +4961,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C147" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="D147" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E147" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5197,16 +4978,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C148" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="D148" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E148" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5214,16 +4995,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C149" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
       <c r="D149" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E149" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5231,16 +5012,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="D150" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E150" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5248,16 +5029,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C151" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="D151" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E151" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5265,16 +5046,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C152" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="D152" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E152" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5282,16 +5063,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C153" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="D153" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E153" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5299,16 +5080,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C154" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
       <c r="D154" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E154" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5316,16 +5097,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C155" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="D155" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E155" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5333,16 +5114,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C156" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="D156" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E156" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5350,16 +5131,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C157" t="s">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="D157" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E157" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5367,16 +5148,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C158" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="D158" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E158" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5384,16 +5165,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C159" t="s">
-        <v>534</v>
+        <v>497</v>
       </c>
       <c r="D159" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E159" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5401,16 +5182,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C160" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
       <c r="D160" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E160" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5418,16 +5199,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E161" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5435,16 +5216,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C162" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
       <c r="D162" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E162" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5452,16 +5233,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C163" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
       <c r="D163" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E163" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5469,16 +5250,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C164" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="D164" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E164" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5486,16 +5267,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C165" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="D165" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E165" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5503,16 +5284,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="D166" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E166" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5520,16 +5301,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="D167" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E167" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5537,16 +5318,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C168" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="D168" t="s">
-        <v>739</v>
+        <v>668</v>
       </c>
       <c r="E168" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5554,16 +5335,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C169" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="D169" t="s">
-        <v>739</v>
+        <v>668</v>
       </c>
       <c r="E169" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5571,16 +5352,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C170" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="D170" t="s">
-        <v>739</v>
+        <v>668</v>
       </c>
       <c r="E170" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5588,16 +5369,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C171" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="D171" t="s">
-        <v>740</v>
+        <v>668</v>
       </c>
       <c r="E171" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5605,16 +5386,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C172" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="D172" t="s">
-        <v>740</v>
+        <v>668</v>
       </c>
       <c r="E172" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5622,16 +5403,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C173" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="D173" t="s">
-        <v>740</v>
+        <v>668</v>
       </c>
       <c r="E173" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5639,16 +5420,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C174" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="D174" t="s">
-        <v>740</v>
+        <v>669</v>
       </c>
       <c r="E174" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5656,16 +5437,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C175" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="D175" t="s">
-        <v>740</v>
+        <v>670</v>
       </c>
       <c r="E175" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5673,16 +5454,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C176" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="D176" t="s">
-        <v>740</v>
+        <v>670</v>
       </c>
       <c r="E176" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5690,16 +5471,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C177" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="D177" t="s">
-        <v>740</v>
+        <v>670</v>
       </c>
       <c r="E177" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5707,16 +5488,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C178" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
       <c r="D178" t="s">
-        <v>741</v>
+        <v>670</v>
       </c>
       <c r="E178" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5724,16 +5505,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C179" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
       <c r="D179" t="s">
-        <v>742</v>
+        <v>670</v>
       </c>
       <c r="E179" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5741,16 +5522,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C180" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="D180" t="s">
-        <v>742</v>
+        <v>670</v>
       </c>
       <c r="E180" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5758,16 +5539,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C181" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="D181" t="s">
-        <v>742</v>
+        <v>670</v>
       </c>
       <c r="E181" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5775,16 +5556,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C182" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="D182" t="s">
-        <v>742</v>
+        <v>670</v>
       </c>
       <c r="E182" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5792,16 +5573,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C183" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="D183" t="s">
-        <v>742</v>
+        <v>670</v>
       </c>
       <c r="E183" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5809,16 +5590,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C184" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="D184" t="s">
-        <v>742</v>
+        <v>670</v>
       </c>
       <c r="E184" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5826,16 +5607,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C185" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="D185" t="s">
-        <v>742</v>
+        <v>665</v>
       </c>
       <c r="E185" t="s">
-        <v>768</v>
+        <v>696</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5843,16 +5624,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C186" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="D186" t="s">
-        <v>742</v>
+        <v>665</v>
       </c>
       <c r="E186" t="s">
-        <v>768</v>
+        <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5860,16 +5641,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="D187" t="s">
-        <v>742</v>
+        <v>667</v>
       </c>
       <c r="E187" t="s">
-        <v>768</v>
+        <v>696</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5877,16 +5658,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C188" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="D188" t="s">
-        <v>742</v>
+        <v>667</v>
       </c>
       <c r="E188" t="s">
-        <v>768</v>
+        <v>696</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5894,16 +5675,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C189" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="D189" t="s">
-        <v>742</v>
+        <v>667</v>
       </c>
       <c r="E189" t="s">
-        <v>768</v>
+        <v>696</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5911,16 +5692,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C190" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="D190" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="E190" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5928,16 +5709,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C191" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="D191" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="E191" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5945,16 +5726,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C192" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="D192" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="E192" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5962,16 +5743,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C193" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="D193" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="E193" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5979,16 +5760,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C194" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="D194" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="E194" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5996,16 +5777,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C195" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="D195" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E195" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6013,16 +5794,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C196" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="D196" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E196" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6030,16 +5811,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C197" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="D197" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="E197" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6047,16 +5828,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C198" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="D198" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="E198" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6064,16 +5845,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C199" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="D199" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="E199" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6081,16 +5862,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C200" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D200" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="E200" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6098,16 +5879,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C201" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="D201" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="E201" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6115,16 +5896,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C202" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="D202" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="E202" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6132,16 +5913,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C203" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="D203" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="E203" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6149,16 +5930,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C204" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="D204" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="E204" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6166,16 +5947,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C205" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="D205" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
       <c r="E205" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6183,16 +5964,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C206" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="D206" t="s">
-        <v>743</v>
+        <v>673</v>
       </c>
       <c r="E206" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6200,16 +5981,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C207" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="D207" t="s">
-        <v>743</v>
+        <v>673</v>
       </c>
       <c r="E207" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6217,16 +5998,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C208" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="D208" t="s">
-        <v>743</v>
+        <v>674</v>
       </c>
       <c r="E208" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6234,16 +6015,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C209" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="D209" t="s">
-        <v>743</v>
+        <v>674</v>
       </c>
       <c r="E209" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6251,16 +6032,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C210" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="D210" t="s">
-        <v>743</v>
+        <v>674</v>
       </c>
       <c r="E210" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6268,16 +6049,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="C211" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="D211" t="s">
-        <v>743</v>
+        <v>675</v>
       </c>
       <c r="E211" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6285,16 +6066,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C212" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="D212" t="s">
-        <v>743</v>
+        <v>675</v>
       </c>
       <c r="E212" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6302,16 +6083,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C213" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="D213" t="s">
-        <v>744</v>
+        <v>675</v>
       </c>
       <c r="E213" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6319,16 +6100,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C214" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="D214" t="s">
-        <v>744</v>
+        <v>675</v>
       </c>
       <c r="E214" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6336,16 +6117,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C215" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="D215" t="s">
-        <v>745</v>
+        <v>675</v>
       </c>
       <c r="E215" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6353,16 +6134,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C216" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="D216" t="s">
-        <v>745</v>
+        <v>675</v>
       </c>
       <c r="E216" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6370,16 +6151,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C217" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="D217" t="s">
-        <v>746</v>
+        <v>675</v>
       </c>
       <c r="E217" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6387,16 +6168,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="C218" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="D218" t="s">
-        <v>746</v>
+        <v>675</v>
       </c>
       <c r="E218" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6404,16 +6185,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="C219" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="D219" t="s">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="E219" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6421,16 +6202,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="C220" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="D220" t="s">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="E220" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6438,16 +6219,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C221" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="D221" t="s">
-        <v>746</v>
+        <v>676</v>
       </c>
       <c r="E221" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6455,16 +6236,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C222" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="D222" t="s">
-        <v>747</v>
+        <v>676</v>
       </c>
       <c r="E222" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6472,16 +6253,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C223" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D223" t="s">
-        <v>747</v>
+        <v>676</v>
       </c>
       <c r="E223" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6489,16 +6270,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C224" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="D224" t="s">
-        <v>747</v>
+        <v>676</v>
       </c>
       <c r="E224" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6506,16 +6287,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C225" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="D225" t="s">
-        <v>747</v>
+        <v>676</v>
       </c>
       <c r="E225" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6523,16 +6304,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C226" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="D226" t="s">
-        <v>747</v>
+        <v>676</v>
       </c>
       <c r="E226" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6540,16 +6321,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C227" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="D227" t="s">
-        <v>747</v>
+        <v>676</v>
       </c>
       <c r="E227" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6557,16 +6338,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C228" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="D228" t="s">
-        <v>747</v>
+        <v>677</v>
       </c>
       <c r="E228" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6574,16 +6355,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="C229" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="D229" t="s">
-        <v>747</v>
+        <v>677</v>
       </c>
       <c r="E229" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6591,16 +6372,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C230" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="D230" t="s">
-        <v>748</v>
+        <v>678</v>
       </c>
       <c r="E230" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6608,16 +6389,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C231" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="D231" t="s">
-        <v>749</v>
+        <v>678</v>
       </c>
       <c r="E231" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6625,16 +6406,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C232" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="D232" t="s">
-        <v>749</v>
+        <v>679</v>
       </c>
       <c r="E232" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6642,16 +6423,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C233" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="D233" t="s">
-        <v>749</v>
+        <v>679</v>
       </c>
       <c r="E233" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6659,16 +6440,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C234" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="D234" t="s">
-        <v>749</v>
+        <v>679</v>
       </c>
       <c r="E234" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6676,16 +6457,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C235" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="D235" t="s">
-        <v>749</v>
+        <v>680</v>
       </c>
       <c r="E235" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6693,16 +6474,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C236" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="D236" t="s">
-        <v>749</v>
+        <v>680</v>
       </c>
       <c r="E236" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6710,16 +6491,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C237" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="D237" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="E237" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6727,16 +6508,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C238" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="D238" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="E238" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6744,16 +6525,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C239" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="D239" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="E239" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6761,16 +6542,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C240" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
       <c r="D240" t="s">
-        <v>750</v>
+        <v>665</v>
       </c>
       <c r="E240" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6778,16 +6559,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="D241" t="s">
-        <v>750</v>
+        <v>665</v>
       </c>
       <c r="E241" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6795,16 +6576,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C242" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="D242" t="s">
-        <v>751</v>
+        <v>665</v>
       </c>
       <c r="E242" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6812,16 +6593,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C243" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="D243" t="s">
-        <v>751</v>
+        <v>681</v>
       </c>
       <c r="E243" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6829,16 +6610,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="D244" t="s">
-        <v>752</v>
+        <v>681</v>
       </c>
       <c r="E244" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6846,16 +6627,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C245" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="D245" t="s">
-        <v>752</v>
+        <v>681</v>
       </c>
       <c r="E245" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6863,16 +6644,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C246" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="D246" t="s">
-        <v>752</v>
+        <v>681</v>
       </c>
       <c r="E246" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6880,16 +6661,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C247" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="D247" t="s">
-        <v>753</v>
+        <v>681</v>
       </c>
       <c r="E247" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6897,16 +6678,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C248" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="D248" t="s">
-        <v>753</v>
+        <v>681</v>
       </c>
       <c r="E248" t="s">
-        <v>769</v>
+        <v>697</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6914,16 +6695,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C249" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="D249" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
       <c r="E249" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6931,16 +6712,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C250" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="D250" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
       <c r="E250" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6948,16 +6729,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C251" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="D251" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
       <c r="E251" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6965,16 +6746,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C252" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D252" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
       <c r="E252" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6982,16 +6763,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C253" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="D253" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
       <c r="E253" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6999,16 +6780,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C254" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="D254" t="s">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="E254" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7016,16 +6797,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C255" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="D255" t="s">
-        <v>737</v>
+        <v>668</v>
       </c>
       <c r="E255" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7033,16 +6814,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C256" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="D256" t="s">
-        <v>737</v>
+        <v>337</v>
       </c>
       <c r="E256" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7050,16 +6831,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C257" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="D257" t="s">
-        <v>737</v>
+        <v>337</v>
       </c>
       <c r="E257" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7067,16 +6848,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C258" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="D258" t="s">
-        <v>737</v>
+        <v>337</v>
       </c>
       <c r="E258" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7084,16 +6865,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C259" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D259" t="s">
-        <v>737</v>
+        <v>337</v>
       </c>
       <c r="E259" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7101,16 +6882,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="C260" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="D260" t="s">
-        <v>754</v>
+        <v>337</v>
       </c>
       <c r="E260" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7118,16 +6899,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="C261" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="D261" t="s">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="E261" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7135,16 +6916,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="C262" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="D262" t="s">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="E262" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7152,16 +6933,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="C263" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="D263" t="s">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="E263" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7169,16 +6950,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="C264" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="D264" t="s">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="E264" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7186,16 +6967,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="C265" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="D265" t="s">
-        <v>754</v>
+        <v>682</v>
       </c>
       <c r="E265" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7203,16 +6984,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="C266" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="D266" t="s">
-        <v>754</v>
+        <v>683</v>
       </c>
       <c r="E266" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7220,16 +7001,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="C267" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="D267" t="s">
-        <v>754</v>
+        <v>683</v>
       </c>
       <c r="E267" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7237,16 +7018,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C268" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="D268" t="s">
-        <v>754</v>
+        <v>684</v>
       </c>
       <c r="E268" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7254,16 +7035,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C269" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="D269" t="s">
-        <v>754</v>
+        <v>684</v>
       </c>
       <c r="E269" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7271,16 +7052,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C270" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="D270" t="s">
-        <v>754</v>
+        <v>684</v>
       </c>
       <c r="E270" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7288,16 +7069,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C271" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="D271" t="s">
-        <v>754</v>
+        <v>684</v>
       </c>
       <c r="E271" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7305,16 +7086,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C272" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="D272" t="s">
-        <v>739</v>
+        <v>684</v>
       </c>
       <c r="E272" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7322,16 +7103,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C273" t="s">
-        <v>645</v>
+        <v>610</v>
       </c>
       <c r="D273" t="s">
-        <v>739</v>
+        <v>684</v>
       </c>
       <c r="E273" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7339,16 +7120,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C274" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
       <c r="D274" t="s">
-        <v>739</v>
+        <v>684</v>
       </c>
       <c r="E274" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7356,16 +7137,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C275" t="s">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="D275" t="s">
-        <v>740</v>
+        <v>684</v>
       </c>
       <c r="E275" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7373,16 +7154,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C276" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="D276" t="s">
-        <v>740</v>
+        <v>684</v>
       </c>
       <c r="E276" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7390,16 +7171,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C277" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="D277" t="s">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="E277" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7407,16 +7188,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C278" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="D278" t="s">
-        <v>747</v>
+        <v>670</v>
       </c>
       <c r="E278" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7424,16 +7205,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C279" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="D279" t="s">
-        <v>374</v>
+        <v>685</v>
       </c>
       <c r="E279" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7441,16 +7222,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C280" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="D280" t="s">
-        <v>374</v>
+        <v>685</v>
       </c>
       <c r="E280" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7458,16 +7239,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C281" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="D281" t="s">
-        <v>374</v>
+        <v>685</v>
       </c>
       <c r="E281" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7475,16 +7256,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C282" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="D282" t="s">
-        <v>374</v>
+        <v>685</v>
       </c>
       <c r="E282" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7492,16 +7273,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C283" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="D283" t="s">
-        <v>374</v>
+        <v>685</v>
       </c>
       <c r="E283" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7509,16 +7290,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C284" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="D284" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="E284" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7526,16 +7307,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C285" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="D285" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="E285" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7543,16 +7324,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C286" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="D286" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="E286" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7560,16 +7341,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C287" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="D287" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="E287" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7577,16 +7358,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="C288" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="D288" t="s">
-        <v>755</v>
+        <v>686</v>
       </c>
       <c r="E288" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7594,16 +7375,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="C289" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="D289" t="s">
-        <v>756</v>
+        <v>686</v>
       </c>
       <c r="E289" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7611,16 +7392,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="C290" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="D290" t="s">
-        <v>756</v>
+        <v>686</v>
       </c>
       <c r="E290" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7628,16 +7409,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="C291" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="D291" t="s">
-        <v>757</v>
+        <v>686</v>
       </c>
       <c r="E291" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7645,16 +7426,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="C292" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="D292" t="s">
-        <v>757</v>
+        <v>686</v>
       </c>
       <c r="E292" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7662,16 +7443,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="C293" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="D293" t="s">
-        <v>757</v>
+        <v>686</v>
       </c>
       <c r="E293" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7679,16 +7460,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="C294" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="D294" t="s">
-        <v>757</v>
+        <v>665</v>
       </c>
       <c r="E294" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7696,16 +7477,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="D295" t="s">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="E295" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7713,16 +7494,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C296" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="D296" t="s">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="E296" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7730,16 +7511,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C297" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="D297" t="s">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="E297" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7747,16 +7528,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C298" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="D298" t="s">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="E298" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7764,16 +7545,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C299" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="D299" t="s">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="E299" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7781,16 +7562,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="C300" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="D300" t="s">
-        <v>757</v>
+        <v>688</v>
       </c>
       <c r="E300" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7798,16 +7579,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C301" t="s">
-        <v>672</v>
+        <v>637</v>
       </c>
       <c r="D301" t="s">
-        <v>742</v>
+        <v>688</v>
       </c>
       <c r="E301" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7815,16 +7596,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C302" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="D302" t="s">
-        <v>758</v>
+        <v>688</v>
       </c>
       <c r="E302" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7832,16 +7613,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C303" t="s">
-        <v>674</v>
+        <v>639</v>
       </c>
       <c r="D303" t="s">
-        <v>758</v>
+        <v>689</v>
       </c>
       <c r="E303" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7849,16 +7630,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C304" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="D304" t="s">
-        <v>758</v>
+        <v>689</v>
       </c>
       <c r="E304" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7866,16 +7647,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C305" t="s">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="D305" t="s">
-        <v>758</v>
+        <v>689</v>
       </c>
       <c r="E305" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7883,16 +7664,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C306" t="s">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="D306" t="s">
-        <v>758</v>
+        <v>690</v>
       </c>
       <c r="E306" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7900,16 +7681,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C307" t="s">
-        <v>678</v>
+        <v>643</v>
       </c>
       <c r="D307" t="s">
-        <v>758</v>
+        <v>690</v>
       </c>
       <c r="E307" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7917,16 +7698,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C308" t="s">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="D308" t="s">
-        <v>758</v>
+        <v>690</v>
       </c>
       <c r="E308" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7934,16 +7715,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="C309" t="s">
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="D309" t="s">
-        <v>758</v>
+        <v>667</v>
       </c>
       <c r="E309" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7951,16 +7732,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="C310" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="D310" t="s">
-        <v>758</v>
+        <v>337</v>
       </c>
       <c r="E310" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7968,16 +7749,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C311" t="s">
-        <v>682</v>
+        <v>647</v>
       </c>
       <c r="D311" t="s">
-        <v>759</v>
+        <v>337</v>
       </c>
       <c r="E311" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7985,16 +7766,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C312" t="s">
-        <v>683</v>
+        <v>648</v>
       </c>
       <c r="D312" t="s">
-        <v>759</v>
+        <v>337</v>
       </c>
       <c r="E312" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8002,16 +7783,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C313" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="D313" t="s">
-        <v>759</v>
+        <v>337</v>
       </c>
       <c r="E313" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8019,16 +7800,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C314" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="D314" t="s">
-        <v>759</v>
+        <v>337</v>
       </c>
       <c r="E314" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8036,16 +7817,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C315" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="D315" t="s">
-        <v>759</v>
+        <v>337</v>
       </c>
       <c r="E315" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8053,16 +7834,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C316" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="D316" t="s">
-        <v>759</v>
+        <v>337</v>
       </c>
       <c r="E316" t="s">
-        <v>770</v>
+        <v>698</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8070,16 +7851,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C317" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="D317" t="s">
-        <v>737</v>
+        <v>337</v>
       </c>
       <c r="E317" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8087,16 +7868,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C318" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="D318" t="s">
-        <v>737</v>
+        <v>337</v>
       </c>
       <c r="E318" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8104,16 +7885,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C319" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="D319" t="s">
-        <v>737</v>
+        <v>691</v>
       </c>
       <c r="E319" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8121,16 +7902,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C320" t="s">
+        <v>656</v>
+      </c>
+      <c r="D320" t="s">
         <v>691</v>
       </c>
-      <c r="D320" t="s">
-        <v>737</v>
-      </c>
       <c r="E320" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8138,16 +7919,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C321" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="D321" t="s">
-        <v>737</v>
+        <v>691</v>
       </c>
       <c r="E321" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8155,16 +7936,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C322" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="D322" t="s">
-        <v>760</v>
+        <v>691</v>
       </c>
       <c r="E322" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8172,16 +7953,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C323" t="s">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="D323" t="s">
-        <v>760</v>
+        <v>685</v>
       </c>
       <c r="E323" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8189,16 +7970,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C324" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="D324" t="s">
-        <v>760</v>
+        <v>692</v>
       </c>
       <c r="E324" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8206,16 +7987,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C325" t="s">
-        <v>696</v>
+        <v>661</v>
       </c>
       <c r="D325" t="s">
-        <v>760</v>
+        <v>692</v>
       </c>
       <c r="E325" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8223,16 +8004,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C326" t="s">
-        <v>697</v>
+        <v>662</v>
       </c>
       <c r="D326" t="s">
-        <v>760</v>
+        <v>692</v>
       </c>
       <c r="E326" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8240,16 +8021,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="C327" t="s">
+        <v>663</v>
+      </c>
+      <c r="D327" t="s">
+        <v>693</v>
+      </c>
+      <c r="E327" t="s">
         <v>698</v>
-      </c>
-      <c r="D327" t="s">
-        <v>760</v>
-      </c>
-      <c r="E327" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8257,645 +8038,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C328" t="s">
-        <v>699</v>
+        <v>664</v>
       </c>
       <c r="D328" t="s">
-        <v>761</v>
+        <v>693</v>
       </c>
       <c r="E328" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" t="s">
-        <v>332</v>
-      </c>
-      <c r="B329" t="s">
-        <v>369</v>
-      </c>
-      <c r="C329" t="s">
-        <v>700</v>
-      </c>
-      <c r="D329" t="s">
-        <v>761</v>
-      </c>
-      <c r="E329" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" t="s">
-        <v>333</v>
-      </c>
-      <c r="B330" t="s">
-        <v>369</v>
-      </c>
-      <c r="C330" t="s">
-        <v>701</v>
-      </c>
-      <c r="D330" t="s">
-        <v>761</v>
-      </c>
-      <c r="E330" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331" t="s">
-        <v>334</v>
-      </c>
-      <c r="B331" t="s">
-        <v>369</v>
-      </c>
-      <c r="C331" t="s">
-        <v>702</v>
-      </c>
-      <c r="D331" t="s">
-        <v>762</v>
-      </c>
-      <c r="E331" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" t="s">
-        <v>335</v>
-      </c>
-      <c r="B332" t="s">
-        <v>369</v>
-      </c>
-      <c r="C332" t="s">
-        <v>703</v>
-      </c>
-      <c r="D332" t="s">
-        <v>762</v>
-      </c>
-      <c r="E332" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333" t="s">
-        <v>336</v>
-      </c>
-      <c r="B333" t="s">
-        <v>369</v>
-      </c>
-      <c r="C333" t="s">
-        <v>704</v>
-      </c>
-      <c r="D333" t="s">
-        <v>762</v>
-      </c>
-      <c r="E333" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" t="s">
-        <v>337</v>
-      </c>
-      <c r="B334" t="s">
-        <v>369</v>
-      </c>
-      <c r="C334" t="s">
-        <v>705</v>
-      </c>
-      <c r="D334" t="s">
-        <v>762</v>
-      </c>
-      <c r="E334" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="A335" t="s">
-        <v>338</v>
-      </c>
-      <c r="B335" t="s">
-        <v>369</v>
-      </c>
-      <c r="C335" t="s">
-        <v>706</v>
-      </c>
-      <c r="D335" t="s">
-        <v>762</v>
-      </c>
-      <c r="E335" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" t="s">
-        <v>339</v>
-      </c>
-      <c r="B336" t="s">
-        <v>369</v>
-      </c>
-      <c r="C336" t="s">
-        <v>707</v>
-      </c>
-      <c r="D336" t="s">
-        <v>763</v>
-      </c>
-      <c r="E336" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="A337" t="s">
-        <v>340</v>
-      </c>
-      <c r="B337" t="s">
-        <v>369</v>
-      </c>
-      <c r="C337" t="s">
-        <v>708</v>
-      </c>
-      <c r="D337" t="s">
-        <v>763</v>
-      </c>
-      <c r="E337" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" t="s">
-        <v>341</v>
-      </c>
-      <c r="B338" t="s">
-        <v>369</v>
-      </c>
-      <c r="C338" t="s">
-        <v>709</v>
-      </c>
-      <c r="D338" t="s">
-        <v>763</v>
-      </c>
-      <c r="E338" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" t="s">
-        <v>342</v>
-      </c>
-      <c r="B339" t="s">
-        <v>369</v>
-      </c>
-      <c r="C339" t="s">
-        <v>710</v>
-      </c>
-      <c r="D339" t="s">
-        <v>763</v>
-      </c>
-      <c r="E339" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="A340" t="s">
-        <v>343</v>
-      </c>
-      <c r="B340" t="s">
-        <v>370</v>
-      </c>
-      <c r="C340" t="s">
-        <v>711</v>
-      </c>
-      <c r="D340" t="s">
-        <v>739</v>
-      </c>
-      <c r="E340" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" t="s">
-        <v>344</v>
-      </c>
-      <c r="B341" t="s">
-        <v>370</v>
-      </c>
-      <c r="C341" t="s">
-        <v>712</v>
-      </c>
-      <c r="D341" t="s">
-        <v>740</v>
-      </c>
-      <c r="E341" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" t="s">
-        <v>345</v>
-      </c>
-      <c r="B342" t="s">
-        <v>369</v>
-      </c>
-      <c r="C342" t="s">
-        <v>713</v>
-      </c>
-      <c r="D342" t="s">
-        <v>749</v>
-      </c>
-      <c r="E342" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" t="s">
-        <v>346</v>
-      </c>
-      <c r="B343" t="s">
-        <v>374</v>
-      </c>
-      <c r="C343" t="s">
-        <v>714</v>
-      </c>
-      <c r="D343" t="s">
-        <v>374</v>
-      </c>
-      <c r="E343" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" t="s">
-        <v>347</v>
-      </c>
-      <c r="B344" t="s">
-        <v>374</v>
-      </c>
-      <c r="C344" t="s">
-        <v>715</v>
-      </c>
-      <c r="D344" t="s">
-        <v>374</v>
-      </c>
-      <c r="E344" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="A345" t="s">
-        <v>348</v>
-      </c>
-      <c r="B345" t="s">
-        <v>374</v>
-      </c>
-      <c r="C345" t="s">
-        <v>716</v>
-      </c>
-      <c r="D345" t="s">
-        <v>374</v>
-      </c>
-      <c r="E345" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" t="s">
-        <v>349</v>
-      </c>
-      <c r="B346" t="s">
-        <v>374</v>
-      </c>
-      <c r="C346" t="s">
-        <v>717</v>
-      </c>
-      <c r="D346" t="s">
-        <v>374</v>
-      </c>
-      <c r="E346" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="A347" t="s">
-        <v>350</v>
-      </c>
-      <c r="B347" t="s">
-        <v>374</v>
-      </c>
-      <c r="C347" t="s">
-        <v>718</v>
-      </c>
-      <c r="D347" t="s">
-        <v>374</v>
-      </c>
-      <c r="E347" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="A348" t="s">
-        <v>351</v>
-      </c>
-      <c r="B348" t="s">
-        <v>374</v>
-      </c>
-      <c r="C348" t="s">
-        <v>719</v>
-      </c>
-      <c r="D348" t="s">
-        <v>374</v>
-      </c>
-      <c r="E348" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" t="s">
-        <v>352</v>
-      </c>
-      <c r="B349" t="s">
-        <v>374</v>
-      </c>
-      <c r="C349" t="s">
-        <v>720</v>
-      </c>
-      <c r="D349" t="s">
-        <v>374</v>
-      </c>
-      <c r="E349" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" t="s">
-        <v>353</v>
-      </c>
-      <c r="B350" t="s">
-        <v>374</v>
-      </c>
-      <c r="C350" t="s">
-        <v>721</v>
-      </c>
-      <c r="D350" t="s">
-        <v>374</v>
-      </c>
-      <c r="E350" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" t="s">
-        <v>354</v>
-      </c>
-      <c r="B351" t="s">
-        <v>374</v>
-      </c>
-      <c r="C351" t="s">
-        <v>722</v>
-      </c>
-      <c r="D351" t="s">
-        <v>374</v>
-      </c>
-      <c r="E351" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="A352" t="s">
-        <v>355</v>
-      </c>
-      <c r="B352" t="s">
-        <v>374</v>
-      </c>
-      <c r="C352" t="s">
-        <v>723</v>
-      </c>
-      <c r="D352" t="s">
-        <v>374</v>
-      </c>
-      <c r="E352" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="A353" t="s">
-        <v>356</v>
-      </c>
-      <c r="B353" t="s">
-        <v>374</v>
-      </c>
-      <c r="C353" t="s">
-        <v>724</v>
-      </c>
-      <c r="D353" t="s">
-        <v>374</v>
-      </c>
-      <c r="E353" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="A354" t="s">
-        <v>357</v>
-      </c>
-      <c r="B354" t="s">
-        <v>369</v>
-      </c>
-      <c r="C354" t="s">
-        <v>725</v>
-      </c>
-      <c r="D354" t="s">
-        <v>764</v>
-      </c>
-      <c r="E354" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="A355" t="s">
-        <v>358</v>
-      </c>
-      <c r="B355" t="s">
-        <v>369</v>
-      </c>
-      <c r="C355" t="s">
-        <v>726</v>
-      </c>
-      <c r="D355" t="s">
-        <v>764</v>
-      </c>
-      <c r="E355" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" t="s">
-        <v>359</v>
-      </c>
-      <c r="B356" t="s">
-        <v>369</v>
-      </c>
-      <c r="C356" t="s">
-        <v>727</v>
-      </c>
-      <c r="D356" t="s">
-        <v>764</v>
-      </c>
-      <c r="E356" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="A357" t="s">
-        <v>360</v>
-      </c>
-      <c r="B357" t="s">
-        <v>369</v>
-      </c>
-      <c r="C357" t="s">
-        <v>728</v>
-      </c>
-      <c r="D357" t="s">
-        <v>764</v>
-      </c>
-      <c r="E357" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="A358" t="s">
-        <v>361</v>
-      </c>
-      <c r="B358" t="s">
-        <v>369</v>
-      </c>
-      <c r="C358" t="s">
-        <v>729</v>
-      </c>
-      <c r="D358" t="s">
-        <v>764</v>
-      </c>
-      <c r="E358" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="A359" t="s">
-        <v>362</v>
-      </c>
-      <c r="B359" t="s">
-        <v>369</v>
-      </c>
-      <c r="C359" t="s">
-        <v>730</v>
-      </c>
-      <c r="D359" t="s">
-        <v>764</v>
-      </c>
-      <c r="E359" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="A360" t="s">
-        <v>363</v>
-      </c>
-      <c r="B360" t="s">
-        <v>376</v>
-      </c>
-      <c r="C360" t="s">
-        <v>731</v>
-      </c>
-      <c r="D360" t="s">
-        <v>758</v>
-      </c>
-      <c r="E360" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="A361" t="s">
-        <v>364</v>
-      </c>
-      <c r="B361" t="s">
-        <v>376</v>
-      </c>
-      <c r="C361" t="s">
-        <v>732</v>
-      </c>
-      <c r="D361" t="s">
-        <v>765</v>
-      </c>
-      <c r="E361" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="A362" t="s">
-        <v>365</v>
-      </c>
-      <c r="B362" t="s">
-        <v>376</v>
-      </c>
-      <c r="C362" t="s">
-        <v>733</v>
-      </c>
-      <c r="D362" t="s">
-        <v>765</v>
-      </c>
-      <c r="E362" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363" t="s">
-        <v>366</v>
-      </c>
-      <c r="B363" t="s">
-        <v>376</v>
-      </c>
-      <c r="C363" t="s">
-        <v>734</v>
-      </c>
-      <c r="D363" t="s">
-        <v>765</v>
-      </c>
-      <c r="E363" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="A364" t="s">
-        <v>367</v>
-      </c>
-      <c r="B364" t="s">
-        <v>369</v>
-      </c>
-      <c r="C364" t="s">
-        <v>735</v>
-      </c>
-      <c r="D364" t="s">
-        <v>766</v>
-      </c>
-      <c r="E364" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="A365" t="s">
-        <v>368</v>
-      </c>
-      <c r="B365" t="s">
-        <v>369</v>
-      </c>
-      <c r="C365" t="s">
-        <v>736</v>
-      </c>
-      <c r="D365" t="s">
-        <v>766</v>
-      </c>
-      <c r="E365" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -61,7 +61,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -448,7 +448,7 @@
     <t>pajahati</t>
   </si>
   <si>
-    <t>passa 2</t>
+    <t>passa 5</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -610,7 +610,7 @@
     <t>bhuñjati 1</t>
   </si>
   <si>
-    <t>jhāyati 1</t>
+    <t>jhāyati 2</t>
   </si>
   <si>
     <t>chindati</t>
@@ -1066,7 +1066,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -1075,7 +1075,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>
@@ -1162,7 +1162,7 @@
     <t>requisite; accessory</t>
   </si>
   <si>
-    <t>mode; way; course; means</t>
+    <t>range; mode; way</t>
   </si>
   <si>
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
@@ -1591,7 +1591,7 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
-    <t>takes place; arises; appears</t>
+    <t>appears; arises; takes place</t>
   </si>
   <si>
     <t>is reborn in; re-arises; lit. goes towards</t>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="698">
   <si>
     <t>Pāli1</t>
   </si>
@@ -49,7 +49,7 @@
     <t>sāvaka</t>
   </si>
   <si>
-    <t>adhigama</t>
+    <t>adhigama 1</t>
   </si>
   <si>
     <t>ñāya</t>
@@ -64,7 +64,7 @@
     <t>danta 1</t>
   </si>
   <si>
-    <t>loma</t>
+    <t>loma 1</t>
   </si>
   <si>
     <t>kesa</t>
@@ -94,7 +94,7 @@
     <t>puggala</t>
   </si>
   <si>
-    <t>uposatha</t>
+    <t>uposatha 1</t>
   </si>
   <si>
     <t>bhava 2</t>
@@ -103,7 +103,7 @@
     <t>vassa 2</t>
   </si>
   <si>
-    <t>āvāsa</t>
+    <t>āvāsa 1</t>
   </si>
   <si>
     <t>saṃvara 2</t>
@@ -127,7 +127,7 @@
     <t>sāriputta</t>
   </si>
   <si>
-    <t>pañha</t>
+    <t>pañha 2</t>
   </si>
   <si>
     <t>ābādha</t>
@@ -136,7 +136,7 @@
     <t>saṅkhāra 3</t>
   </si>
   <si>
-    <t>phassa</t>
+    <t>phassa 1</t>
   </si>
   <si>
     <t>puthujjana</t>
@@ -154,7 +154,7 @@
     <t>pāda 1</t>
   </si>
   <si>
-    <t>parikkhāra</t>
+    <t>parikkhāra 1</t>
   </si>
   <si>
     <t>patha 2</t>
@@ -211,10 +211,10 @@
     <t>khaya</t>
   </si>
   <si>
-    <t>āsava</t>
-  </si>
-  <si>
-    <t>nīvaraṇa</t>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
   </si>
   <si>
     <t>sekha</t>
@@ -322,13 +322,13 @@
     <t>chanda 1</t>
   </si>
   <si>
-    <t>uppāda</t>
+    <t>uppāda 1</t>
   </si>
   <si>
     <t>dhamma 05</t>
   </si>
   <si>
-    <t>moha</t>
+    <t>moha 1</t>
   </si>
   <si>
     <t>bāla 2</t>
@@ -361,7 +361,7 @@
     <t>ākāsa 2</t>
   </si>
   <si>
-    <t>ācariya</t>
+    <t>ācariya 1</t>
   </si>
   <si>
     <t>upajjhāya</t>
@@ -400,19 +400,19 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 1</t>
+    <t>saṅghādisesa 2</t>
   </si>
   <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
-    <t>sīha</t>
-  </si>
-  <si>
-    <t>vitakka</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -424,7 +424,7 @@
     <t>kosalā</t>
   </si>
   <si>
-    <t>pātimokkha</t>
+    <t>pātimokkha 2</t>
   </si>
   <si>
     <t>punabbhava</t>
@@ -436,7 +436,7 @@
     <t>pakkamati 1</t>
   </si>
   <si>
-    <t>bhaṇati</t>
+    <t>bhaṇati 1</t>
   </si>
   <si>
     <t>pucchati</t>
@@ -463,7 +463,7 @@
     <t>uddisati 1</t>
   </si>
   <si>
-    <t>rakkhati 1</t>
+    <t>rakkhati 2</t>
   </si>
   <si>
     <t>upasaṅkamati</t>
@@ -472,7 +472,7 @@
     <t>bhāsati 1</t>
   </si>
   <si>
-    <t>yācati</t>
+    <t>yācati 1</t>
   </si>
   <si>
     <t>paṭilabhati</t>
@@ -481,7 +481,7 @@
     <t>passati 2</t>
   </si>
   <si>
-    <t>sikkhati</t>
+    <t>sikkhati 2</t>
   </si>
   <si>
     <t>paṭisevati 2</t>
@@ -517,7 +517,7 @@
     <t>abhiramati</t>
   </si>
   <si>
-    <t>viharati</t>
+    <t>viharati 1</t>
   </si>
   <si>
     <t>passati 1</t>
@@ -541,16 +541,16 @@
     <t>vedeti 1</t>
   </si>
   <si>
-    <t>dhāreti 2</t>
-  </si>
-  <si>
-    <t>deti</t>
+    <t>dhāreti 3</t>
+  </si>
+  <si>
+    <t>deti 1</t>
   </si>
   <si>
     <t>ehi</t>
   </si>
   <si>
-    <t>suṇāti</t>
+    <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
@@ -574,7 +574,7 @@
     <t>paggaṇhāti 2</t>
   </si>
   <si>
-    <t>jānāti</t>
+    <t>jānāti 1</t>
   </si>
   <si>
     <t>pāpuṇāti 1</t>
@@ -601,7 +601,7 @@
     <t>maññati 1</t>
   </si>
   <si>
-    <t>nibbindati</t>
+    <t>nibbindati 1</t>
   </si>
   <si>
     <t>anuyuñjati 2</t>
@@ -613,7 +613,7 @@
     <t>jhāyati 2</t>
   </si>
   <si>
-    <t>chindati</t>
+    <t>chindati 1</t>
   </si>
   <si>
     <t>āpajjati 5</t>
@@ -628,10 +628,10 @@
     <t>atthi 2</t>
   </si>
   <si>
-    <t>amha</t>
-  </si>
-  <si>
-    <t>asi 2</t>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
   </si>
   <si>
     <t>attha 12</t>
@@ -652,7 +652,7 @@
     <t>hotha</t>
   </si>
   <si>
-    <t>hotu</t>
+    <t>hotu 1</t>
   </si>
   <si>
     <t>hoti 1</t>
@@ -682,7 +682,7 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>muni</t>
+    <t>muni 1</t>
   </si>
   <si>
     <t>gahapati</t>
@@ -697,7 +697,7 @@
     <t>isi</t>
   </si>
   <si>
-    <t>samādhi</t>
+    <t>samādhi 1</t>
   </si>
   <si>
     <t>gāmaṇi</t>
@@ -709,7 +709,7 @@
     <t>ñāti</t>
   </si>
   <si>
-    <t>karoti</t>
+    <t>karoti 1</t>
   </si>
   <si>
     <t>karohi</t>
@@ -718,7 +718,7 @@
     <t>sakkaroti</t>
   </si>
   <si>
-    <t>abhisaṅkharoti</t>
+    <t>abhisaṅkharoti 2</t>
   </si>
   <si>
     <t>abhāsi 1</t>
@@ -775,22 +775,22 @@
     <t>no 7</t>
   </si>
   <si>
-    <t>amhākaṃ 1</t>
+    <t>amhākaṃ 3</t>
   </si>
   <si>
     <t>ahaṃ</t>
   </si>
   <si>
-    <t>maṃ</t>
+    <t>maṃ 1</t>
   </si>
   <si>
     <t>me 3</t>
   </si>
   <si>
-    <t>sobhati</t>
-  </si>
-  <si>
-    <t>neti 2</t>
+    <t>sobhati 2</t>
+  </si>
+  <si>
+    <t>neti 1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -844,7 +844,7 @@
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>tvaṃ</t>
+    <t>tvaṃ 1</t>
   </si>
   <si>
     <t>te 6</t>
@@ -859,7 +859,7 @@
     <t>vo 4</t>
   </si>
   <si>
-    <t>nābhijānāti</t>
+    <t>nābhijānāti 1</t>
   </si>
   <si>
     <t>ottappī</t>
@@ -871,6 +871,9 @@
     <t>vihārī</t>
   </si>
   <si>
+    <t>dassī 2</t>
+  </si>
+  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
@@ -892,9 +895,6 @@
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>dassī 2</t>
-  </si>
-  <si>
     <t>sukhī 2</t>
   </si>
   <si>
@@ -931,16 +931,16 @@
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant</t>
-  </si>
-  <si>
-    <t>satthar</t>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
+    <t>satthar 1</t>
   </si>
   <si>
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>dātar</t>
+    <t>dātar 1</t>
   </si>
   <si>
     <t>pitar</t>
@@ -979,7 +979,7 @@
     <t>ajja</t>
   </si>
   <si>
-    <t>pubbe</t>
+    <t>pubbe 1</t>
   </si>
   <si>
     <t>garu 5</t>
@@ -1486,7 +1486,7 @@
     <t>understands; gets; lit. sees</t>
   </si>
   <si>
-    <t>learns; trains; practises</t>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
@@ -1522,7 +1522,7 @@
     <t>enjoys; finds high pleasure in</t>
   </si>
   <si>
-    <t>lives; abides; dwells</t>
+    <t>lives (in); dwells (in)</t>
   </si>
   <si>
     <t>sees</t>
@@ -1579,9 +1579,6 @@
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>knows; understands; is aware; finds out</t>
-  </si>
-  <si>
     <t>reaches; arrives (at); attains; experiences</t>
   </si>
   <si>
@@ -1714,7 +1711,7 @@
     <t>family; relative; lit. known</t>
   </si>
   <si>
-    <t>does; makes; acts; performs; builds</t>
+    <t>does; acts; performs</t>
   </si>
   <si>
     <t>do! make! may you preform; you must do</t>
@@ -1723,7 +1720,7 @@
     <t>honours; esteems; respects; lit. makes properly</t>
   </si>
   <si>
-    <t>does; performs; creates; constructs</t>
+    <t>does; performs; lit. constructs</t>
   </si>
   <si>
     <t>spoke; said</t>
@@ -1750,7 +1747,7 @@
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
-    <t>one who has thoroughly understood; being enlightened; the Buddha</t>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
   </si>
   <si>
     <t>false teaching; against the teaching</t>
@@ -1789,7 +1786,7 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>shines; radiates; looks beautiful</t>
+    <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
     <t>leads; carries away; takes away</t>
@@ -1870,6 +1867,9 @@
     <t>(of a state of being) living in; who has</t>
   </si>
   <si>
+    <t>who sees; who knows; who perceives; who understands</t>
+  </si>
+  <si>
     <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
   </si>
   <si>
@@ -1891,10 +1891,7 @@
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>who sees; who knows; who perceives; who understands</t>
-  </si>
-  <si>
-    <t>who is happy; at ease; comfortable</t>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
   </si>
   <si>
     <t>fellow monk; spiritual companion</t>
@@ -2502,10 +2499,10 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2519,10 +2516,10 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2536,10 +2533,10 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2553,10 +2550,10 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2570,10 +2567,10 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2587,10 +2584,10 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2604,10 +2601,10 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2621,10 +2618,10 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2638,10 +2635,10 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2655,10 +2652,10 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2672,10 +2669,10 @@
         <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2689,10 +2686,10 @@
         <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2706,10 +2703,10 @@
         <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2723,10 +2720,10 @@
         <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2740,10 +2737,10 @@
         <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2757,10 +2754,10 @@
         <v>355</v>
       </c>
       <c r="D17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2774,10 +2771,10 @@
         <v>356</v>
       </c>
       <c r="D18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2791,10 +2788,10 @@
         <v>357</v>
       </c>
       <c r="D19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2808,10 +2805,10 @@
         <v>358</v>
       </c>
       <c r="D20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2825,10 +2822,10 @@
         <v>359</v>
       </c>
       <c r="D21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2842,10 +2839,10 @@
         <v>360</v>
       </c>
       <c r="D22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2859,10 +2856,10 @@
         <v>361</v>
       </c>
       <c r="D23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2876,10 +2873,10 @@
         <v>362</v>
       </c>
       <c r="D24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2893,10 +2890,10 @@
         <v>363</v>
       </c>
       <c r="D25" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2910,10 +2907,10 @@
         <v>364</v>
       </c>
       <c r="D26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2927,10 +2924,10 @@
         <v>365</v>
       </c>
       <c r="D27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2944,10 +2941,10 @@
         <v>366</v>
       </c>
       <c r="D28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2961,10 +2958,10 @@
         <v>367</v>
       </c>
       <c r="D29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2978,10 +2975,10 @@
         <v>368</v>
       </c>
       <c r="D30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2995,10 +2992,10 @@
         <v>369</v>
       </c>
       <c r="D31" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3012,10 +3009,10 @@
         <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3029,10 +3026,10 @@
         <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3046,10 +3043,10 @@
         <v>372</v>
       </c>
       <c r="D34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3063,10 +3060,10 @@
         <v>373</v>
       </c>
       <c r="D35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E35" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3080,10 +3077,10 @@
         <v>374</v>
       </c>
       <c r="D36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3097,10 +3094,10 @@
         <v>375</v>
       </c>
       <c r="D37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3114,10 +3111,10 @@
         <v>376</v>
       </c>
       <c r="D38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3131,10 +3128,10 @@
         <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3148,10 +3145,10 @@
         <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3165,10 +3162,10 @@
         <v>379</v>
       </c>
       <c r="D41" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3182,10 +3179,10 @@
         <v>380</v>
       </c>
       <c r="D42" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E42" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3199,10 +3196,10 @@
         <v>381</v>
       </c>
       <c r="D43" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E43" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3216,10 +3213,10 @@
         <v>382</v>
       </c>
       <c r="D44" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E44" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3233,10 +3230,10 @@
         <v>383</v>
       </c>
       <c r="D45" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3250,10 +3247,10 @@
         <v>384</v>
       </c>
       <c r="D46" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E46" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3267,10 +3264,10 @@
         <v>385</v>
       </c>
       <c r="D47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3284,10 +3281,10 @@
         <v>386</v>
       </c>
       <c r="D48" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E48" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3301,10 +3298,10 @@
         <v>387</v>
       </c>
       <c r="D49" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3318,10 +3315,10 @@
         <v>388</v>
       </c>
       <c r="D50" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E50" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3335,10 +3332,10 @@
         <v>389</v>
       </c>
       <c r="D51" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E51" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3352,10 +3349,10 @@
         <v>390</v>
       </c>
       <c r="D52" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E52" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3369,10 +3366,10 @@
         <v>391</v>
       </c>
       <c r="D53" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3386,10 +3383,10 @@
         <v>392</v>
       </c>
       <c r="D54" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3403,10 +3400,10 @@
         <v>393</v>
       </c>
       <c r="D55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E55" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3420,10 +3417,10 @@
         <v>394</v>
       </c>
       <c r="D56" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E56" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3437,10 +3434,10 @@
         <v>395</v>
       </c>
       <c r="D57" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E57" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3454,10 +3451,10 @@
         <v>396</v>
       </c>
       <c r="D58" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E58" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3471,10 +3468,10 @@
         <v>397</v>
       </c>
       <c r="D59" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E59" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3488,10 +3485,10 @@
         <v>398</v>
       </c>
       <c r="D60" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E60" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3505,10 +3502,10 @@
         <v>399</v>
       </c>
       <c r="D61" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E61" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3522,10 +3519,10 @@
         <v>400</v>
       </c>
       <c r="D62" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E62" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3539,10 +3536,10 @@
         <v>401</v>
       </c>
       <c r="D63" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3556,10 +3553,10 @@
         <v>402</v>
       </c>
       <c r="D64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E64" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3573,10 +3570,10 @@
         <v>403</v>
       </c>
       <c r="D65" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3590,10 +3587,10 @@
         <v>404</v>
       </c>
       <c r="D66" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E66" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3607,10 +3604,10 @@
         <v>405</v>
       </c>
       <c r="D67" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E67" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3624,10 +3621,10 @@
         <v>406</v>
       </c>
       <c r="D68" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E68" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3641,10 +3638,10 @@
         <v>407</v>
       </c>
       <c r="D69" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E69" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3658,10 +3655,10 @@
         <v>408</v>
       </c>
       <c r="D70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E70" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3675,10 +3672,10 @@
         <v>409</v>
       </c>
       <c r="D71" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E71" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3692,10 +3689,10 @@
         <v>410</v>
       </c>
       <c r="D72" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E72" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3709,10 +3706,10 @@
         <v>411</v>
       </c>
       <c r="D73" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E73" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3726,10 +3723,10 @@
         <v>412</v>
       </c>
       <c r="D74" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E74" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3743,10 +3740,10 @@
         <v>413</v>
       </c>
       <c r="D75" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E75" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3760,10 +3757,10 @@
         <v>414</v>
       </c>
       <c r="D76" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E76" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3777,10 +3774,10 @@
         <v>415</v>
       </c>
       <c r="D77" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E77" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3794,10 +3791,10 @@
         <v>416</v>
       </c>
       <c r="D78" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E78" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3811,10 +3808,10 @@
         <v>417</v>
       </c>
       <c r="D79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E79" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3828,10 +3825,10 @@
         <v>418</v>
       </c>
       <c r="D80" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E80" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3845,10 +3842,10 @@
         <v>419</v>
       </c>
       <c r="D81" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E81" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3862,10 +3859,10 @@
         <v>420</v>
       </c>
       <c r="D82" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E82" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3879,10 +3876,10 @@
         <v>421</v>
       </c>
       <c r="D83" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E83" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3896,10 +3893,10 @@
         <v>422</v>
       </c>
       <c r="D84" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E84" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3913,10 +3910,10 @@
         <v>423</v>
       </c>
       <c r="D85" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3930,10 +3927,10 @@
         <v>424</v>
       </c>
       <c r="D86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E86" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3947,10 +3944,10 @@
         <v>425</v>
       </c>
       <c r="D87" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E87" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3964,10 +3961,10 @@
         <v>426</v>
       </c>
       <c r="D88" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E88" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3981,10 +3978,10 @@
         <v>427</v>
       </c>
       <c r="D89" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3998,10 +3995,10 @@
         <v>428</v>
       </c>
       <c r="D90" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E90" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4015,10 +4012,10 @@
         <v>429</v>
       </c>
       <c r="D91" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E91" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4032,10 +4029,10 @@
         <v>430</v>
       </c>
       <c r="D92" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E92" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4049,10 +4046,10 @@
         <v>431</v>
       </c>
       <c r="D93" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E93" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4066,10 +4063,10 @@
         <v>432</v>
       </c>
       <c r="D94" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E94" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4083,10 +4080,10 @@
         <v>433</v>
       </c>
       <c r="D95" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E95" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4100,10 +4097,10 @@
         <v>434</v>
       </c>
       <c r="D96" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E96" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4117,10 +4114,10 @@
         <v>435</v>
       </c>
       <c r="D97" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E97" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4134,10 +4131,10 @@
         <v>436</v>
       </c>
       <c r="D98" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E98" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4151,10 +4148,10 @@
         <v>437</v>
       </c>
       <c r="D99" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E99" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4168,10 +4165,10 @@
         <v>438</v>
       </c>
       <c r="D100" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E100" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4185,10 +4182,10 @@
         <v>439</v>
       </c>
       <c r="D101" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E101" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4202,10 +4199,10 @@
         <v>440</v>
       </c>
       <c r="D102" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E102" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4219,10 +4216,10 @@
         <v>441</v>
       </c>
       <c r="D103" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E103" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4236,10 +4233,10 @@
         <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E104" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4253,10 +4250,10 @@
         <v>443</v>
       </c>
       <c r="D105" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E105" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4270,10 +4267,10 @@
         <v>444</v>
       </c>
       <c r="D106" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E106" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4287,10 +4284,10 @@
         <v>445</v>
       </c>
       <c r="D107" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E107" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4304,10 +4301,10 @@
         <v>446</v>
       </c>
       <c r="D108" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E108" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4321,10 +4318,10 @@
         <v>447</v>
       </c>
       <c r="D109" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4338,10 +4335,10 @@
         <v>448</v>
       </c>
       <c r="D110" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E110" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4355,10 +4352,10 @@
         <v>449</v>
       </c>
       <c r="D111" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4372,10 +4369,10 @@
         <v>450</v>
       </c>
       <c r="D112" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E112" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4389,10 +4386,10 @@
         <v>451</v>
       </c>
       <c r="D113" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E113" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4406,10 +4403,10 @@
         <v>452</v>
       </c>
       <c r="D114" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E114" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4423,10 +4420,10 @@
         <v>453</v>
       </c>
       <c r="D115" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E115" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4440,10 +4437,10 @@
         <v>454</v>
       </c>
       <c r="D116" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E116" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4457,10 +4454,10 @@
         <v>455</v>
       </c>
       <c r="D117" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E117" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4474,10 +4471,10 @@
         <v>456</v>
       </c>
       <c r="D118" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E118" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4491,10 +4488,10 @@
         <v>457</v>
       </c>
       <c r="D119" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E119" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4508,10 +4505,10 @@
         <v>458</v>
       </c>
       <c r="D120" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E120" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4525,10 +4522,10 @@
         <v>459</v>
       </c>
       <c r="D121" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E121" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4542,10 +4539,10 @@
         <v>460</v>
       </c>
       <c r="D122" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E122" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4559,10 +4556,10 @@
         <v>461</v>
       </c>
       <c r="D123" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E123" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4576,10 +4573,10 @@
         <v>462</v>
       </c>
       <c r="D124" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E124" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4593,10 +4590,10 @@
         <v>463</v>
       </c>
       <c r="D125" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E125" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4610,10 +4607,10 @@
         <v>464</v>
       </c>
       <c r="D126" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E126" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4627,10 +4624,10 @@
         <v>465</v>
       </c>
       <c r="D127" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E127" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4644,10 +4641,10 @@
         <v>466</v>
       </c>
       <c r="D128" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E128" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4661,10 +4658,10 @@
         <v>467</v>
       </c>
       <c r="D129" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E129" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4678,10 +4675,10 @@
         <v>468</v>
       </c>
       <c r="D130" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E130" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4695,10 +4692,10 @@
         <v>469</v>
       </c>
       <c r="D131" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E131" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4712,10 +4709,10 @@
         <v>470</v>
       </c>
       <c r="D132" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E132" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4729,10 +4726,10 @@
         <v>471</v>
       </c>
       <c r="D133" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E133" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4746,10 +4743,10 @@
         <v>472</v>
       </c>
       <c r="D134" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E134" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4763,10 +4760,10 @@
         <v>473</v>
       </c>
       <c r="D135" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E135" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4780,10 +4777,10 @@
         <v>474</v>
       </c>
       <c r="D136" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E136" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4797,10 +4794,10 @@
         <v>475</v>
       </c>
       <c r="D137" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E137" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4814,10 +4811,10 @@
         <v>476</v>
       </c>
       <c r="D138" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E138" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4831,10 +4828,10 @@
         <v>477</v>
       </c>
       <c r="D139" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E139" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4848,10 +4845,10 @@
         <v>478</v>
       </c>
       <c r="D140" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E140" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4865,10 +4862,10 @@
         <v>479</v>
       </c>
       <c r="D141" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E141" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4882,10 +4879,10 @@
         <v>480</v>
       </c>
       <c r="D142" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E142" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4899,10 +4896,10 @@
         <v>481</v>
       </c>
       <c r="D143" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E143" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4916,10 +4913,10 @@
         <v>482</v>
       </c>
       <c r="D144" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E144" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4933,10 +4930,10 @@
         <v>483</v>
       </c>
       <c r="D145" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E145" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4950,10 +4947,10 @@
         <v>484</v>
       </c>
       <c r="D146" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E146" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4967,10 +4964,10 @@
         <v>485</v>
       </c>
       <c r="D147" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E147" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4984,10 +4981,10 @@
         <v>486</v>
       </c>
       <c r="D148" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E148" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5001,10 +4998,10 @@
         <v>487</v>
       </c>
       <c r="D149" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E149" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5018,10 +5015,10 @@
         <v>488</v>
       </c>
       <c r="D150" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E150" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5035,10 +5032,10 @@
         <v>489</v>
       </c>
       <c r="D151" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E151" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5052,10 +5049,10 @@
         <v>490</v>
       </c>
       <c r="D152" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E152" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5069,10 +5066,10 @@
         <v>491</v>
       </c>
       <c r="D153" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E153" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5086,10 +5083,10 @@
         <v>492</v>
       </c>
       <c r="D154" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E154" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5103,10 +5100,10 @@
         <v>493</v>
       </c>
       <c r="D155" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E155" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5120,10 +5117,10 @@
         <v>494</v>
       </c>
       <c r="D156" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E156" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5137,10 +5134,10 @@
         <v>495</v>
       </c>
       <c r="D157" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E157" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5154,10 +5151,10 @@
         <v>496</v>
       </c>
       <c r="D158" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E158" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5171,10 +5168,10 @@
         <v>497</v>
       </c>
       <c r="D159" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E159" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5188,10 +5185,10 @@
         <v>498</v>
       </c>
       <c r="D160" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E160" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5205,10 +5202,10 @@
         <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E161" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5222,10 +5219,10 @@
         <v>500</v>
       </c>
       <c r="D162" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E162" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5239,10 +5236,10 @@
         <v>501</v>
       </c>
       <c r="D163" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E163" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5256,10 +5253,10 @@
         <v>502</v>
       </c>
       <c r="D164" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E164" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5273,10 +5270,10 @@
         <v>503</v>
       </c>
       <c r="D165" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E165" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5290,10 +5287,10 @@
         <v>504</v>
       </c>
       <c r="D166" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E166" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5307,10 +5304,10 @@
         <v>505</v>
       </c>
       <c r="D167" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E167" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5324,10 +5321,10 @@
         <v>506</v>
       </c>
       <c r="D168" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E168" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5341,10 +5338,10 @@
         <v>507</v>
       </c>
       <c r="D169" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E169" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5358,10 +5355,10 @@
         <v>508</v>
       </c>
       <c r="D170" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E170" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5375,10 +5372,10 @@
         <v>509</v>
       </c>
       <c r="D171" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E171" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5392,10 +5389,10 @@
         <v>510</v>
       </c>
       <c r="D172" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E172" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5409,10 +5406,10 @@
         <v>511</v>
       </c>
       <c r="D173" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E173" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5426,10 +5423,10 @@
         <v>512</v>
       </c>
       <c r="D174" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E174" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5443,10 +5440,10 @@
         <v>513</v>
       </c>
       <c r="D175" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E175" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5460,10 +5457,10 @@
         <v>514</v>
       </c>
       <c r="D176" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E176" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5477,10 +5474,10 @@
         <v>515</v>
       </c>
       <c r="D177" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E177" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5494,10 +5491,10 @@
         <v>516</v>
       </c>
       <c r="D178" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E178" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5511,10 +5508,10 @@
         <v>517</v>
       </c>
       <c r="D179" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E179" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5528,10 +5525,10 @@
         <v>518</v>
       </c>
       <c r="D180" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E180" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5545,10 +5542,10 @@
         <v>519</v>
       </c>
       <c r="D181" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E181" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5562,10 +5559,10 @@
         <v>520</v>
       </c>
       <c r="D182" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E182" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5576,13 +5573,13 @@
         <v>333</v>
       </c>
       <c r="C183" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D183" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E183" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5593,13 +5590,13 @@
         <v>333</v>
       </c>
       <c r="C184" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D184" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E184" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5610,13 +5607,13 @@
         <v>332</v>
       </c>
       <c r="C185" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D185" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E185" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5627,13 +5624,13 @@
         <v>332</v>
       </c>
       <c r="C186" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D186" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E186" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5644,13 +5641,13 @@
         <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D187" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E187" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5661,13 +5658,13 @@
         <v>333</v>
       </c>
       <c r="C188" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D188" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E188" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5678,13 +5675,13 @@
         <v>333</v>
       </c>
       <c r="C189" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D189" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E189" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5695,13 +5692,13 @@
         <v>333</v>
       </c>
       <c r="C190" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D190" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E190" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5712,13 +5709,13 @@
         <v>333</v>
       </c>
       <c r="C191" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D191" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E191" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5729,13 +5726,13 @@
         <v>333</v>
       </c>
       <c r="C192" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D192" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E192" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5746,13 +5743,13 @@
         <v>333</v>
       </c>
       <c r="C193" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D193" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E193" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5763,13 +5760,13 @@
         <v>333</v>
       </c>
       <c r="C194" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D194" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E194" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5780,13 +5777,13 @@
         <v>333</v>
       </c>
       <c r="C195" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D195" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E195" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5797,13 +5794,13 @@
         <v>333</v>
       </c>
       <c r="C196" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D196" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E196" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5814,13 +5811,13 @@
         <v>333</v>
       </c>
       <c r="C197" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D197" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E197" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5831,13 +5828,13 @@
         <v>333</v>
       </c>
       <c r="C198" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D198" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E198" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5848,13 +5845,13 @@
         <v>333</v>
       </c>
       <c r="C199" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D199" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E199" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5865,13 +5862,13 @@
         <v>333</v>
       </c>
       <c r="C200" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D200" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E200" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5882,13 +5879,13 @@
         <v>333</v>
       </c>
       <c r="C201" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D201" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E201" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5899,13 +5896,13 @@
         <v>333</v>
       </c>
       <c r="C202" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D202" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E202" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5916,13 +5913,13 @@
         <v>334</v>
       </c>
       <c r="C203" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D203" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E203" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5933,13 +5930,13 @@
         <v>333</v>
       </c>
       <c r="C204" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D204" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E204" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5950,13 +5947,13 @@
         <v>335</v>
       </c>
       <c r="C205" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D205" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E205" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5967,13 +5964,13 @@
         <v>335</v>
       </c>
       <c r="C206" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D206" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E206" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5984,13 +5981,13 @@
         <v>335</v>
       </c>
       <c r="C207" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D207" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E207" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6001,13 +5998,13 @@
         <v>334</v>
       </c>
       <c r="C208" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D208" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E208" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6018,13 +6015,13 @@
         <v>334</v>
       </c>
       <c r="C209" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D209" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E209" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6035,13 +6032,13 @@
         <v>333</v>
       </c>
       <c r="C210" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D210" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E210" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6052,13 +6049,13 @@
         <v>335</v>
       </c>
       <c r="C211" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D211" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E211" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6069,13 +6066,13 @@
         <v>335</v>
       </c>
       <c r="C212" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D212" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E212" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6086,13 +6083,13 @@
         <v>335</v>
       </c>
       <c r="C213" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D213" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E213" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6103,13 +6100,13 @@
         <v>335</v>
       </c>
       <c r="C214" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D214" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E214" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6120,13 +6117,13 @@
         <v>335</v>
       </c>
       <c r="C215" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D215" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E215" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6137,13 +6134,13 @@
         <v>335</v>
       </c>
       <c r="C216" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D216" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E216" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6154,13 +6151,13 @@
         <v>335</v>
       </c>
       <c r="C217" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D217" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E217" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6171,13 +6168,13 @@
         <v>335</v>
       </c>
       <c r="C218" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D218" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E218" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6188,13 +6185,13 @@
         <v>332</v>
       </c>
       <c r="C219" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D219" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E219" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6205,13 +6202,13 @@
         <v>332</v>
       </c>
       <c r="C220" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D220" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E220" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6222,13 +6219,13 @@
         <v>332</v>
       </c>
       <c r="C221" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D221" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E221" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6239,13 +6236,13 @@
         <v>332</v>
       </c>
       <c r="C222" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D222" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E222" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6256,13 +6253,13 @@
         <v>332</v>
       </c>
       <c r="C223" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D223" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E223" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6273,13 +6270,13 @@
         <v>332</v>
       </c>
       <c r="C224" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D224" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E224" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6290,13 +6287,13 @@
         <v>332</v>
       </c>
       <c r="C225" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D225" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E225" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6307,13 +6304,13 @@
         <v>332</v>
       </c>
       <c r="C226" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D226" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E226" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6324,13 +6321,13 @@
         <v>332</v>
       </c>
       <c r="C227" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D227" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E227" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6341,13 +6338,13 @@
         <v>333</v>
       </c>
       <c r="C228" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D228" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E228" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6358,13 +6355,13 @@
         <v>334</v>
       </c>
       <c r="C229" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D229" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E229" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6375,13 +6372,13 @@
         <v>333</v>
       </c>
       <c r="C230" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D230" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E230" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6392,13 +6389,13 @@
         <v>333</v>
       </c>
       <c r="C231" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D231" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E231" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6409,13 +6406,13 @@
         <v>335</v>
       </c>
       <c r="C232" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D232" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E232" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6426,13 +6423,13 @@
         <v>335</v>
       </c>
       <c r="C233" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D233" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E233" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6443,13 +6440,13 @@
         <v>335</v>
       </c>
       <c r="C234" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D234" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E234" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6460,13 +6457,13 @@
         <v>335</v>
       </c>
       <c r="C235" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D235" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E235" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6477,13 +6474,13 @@
         <v>335</v>
       </c>
       <c r="C236" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D236" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E236" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6494,13 +6491,13 @@
         <v>332</v>
       </c>
       <c r="C237" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D237" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E237" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6511,13 +6508,13 @@
         <v>332</v>
       </c>
       <c r="C238" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D238" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E238" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6528,13 +6525,13 @@
         <v>332</v>
       </c>
       <c r="C239" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D239" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E239" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6545,13 +6542,13 @@
         <v>332</v>
       </c>
       <c r="C240" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D240" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E240" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6562,13 +6559,13 @@
         <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D241" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E241" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6579,13 +6576,13 @@
         <v>332</v>
       </c>
       <c r="C242" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D242" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E242" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6596,13 +6593,13 @@
         <v>336</v>
       </c>
       <c r="C243" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D243" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E243" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6613,13 +6610,13 @@
         <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D244" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E244" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6630,13 +6627,13 @@
         <v>336</v>
       </c>
       <c r="C245" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D245" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E245" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6647,13 +6644,13 @@
         <v>336</v>
       </c>
       <c r="C246" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D246" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E246" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6664,13 +6661,13 @@
         <v>336</v>
       </c>
       <c r="C247" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D247" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E247" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6681,13 +6678,13 @@
         <v>336</v>
       </c>
       <c r="C248" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D248" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E248" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6698,13 +6695,13 @@
         <v>336</v>
       </c>
       <c r="C249" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D249" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E249" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6715,13 +6712,13 @@
         <v>336</v>
       </c>
       <c r="C250" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D250" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E250" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6732,13 +6729,13 @@
         <v>336</v>
       </c>
       <c r="C251" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D251" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E251" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6749,13 +6746,13 @@
         <v>336</v>
       </c>
       <c r="C252" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D252" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E252" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6766,13 +6763,13 @@
         <v>336</v>
       </c>
       <c r="C253" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D253" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E253" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6783,13 +6780,13 @@
         <v>333</v>
       </c>
       <c r="C254" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D254" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E254" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6800,13 +6797,13 @@
         <v>333</v>
       </c>
       <c r="C255" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D255" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E255" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6817,13 +6814,13 @@
         <v>337</v>
       </c>
       <c r="C256" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D256" t="s">
         <v>337</v>
       </c>
       <c r="E256" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6834,13 +6831,13 @@
         <v>337</v>
       </c>
       <c r="C257" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D257" t="s">
         <v>337</v>
       </c>
       <c r="E257" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6851,13 +6848,13 @@
         <v>337</v>
       </c>
       <c r="C258" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D258" t="s">
         <v>337</v>
       </c>
       <c r="E258" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6868,13 +6865,13 @@
         <v>337</v>
       </c>
       <c r="C259" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D259" t="s">
         <v>337</v>
       </c>
       <c r="E259" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6885,13 +6882,13 @@
         <v>337</v>
       </c>
       <c r="C260" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D260" t="s">
         <v>337</v>
       </c>
       <c r="E260" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6902,13 +6899,13 @@
         <v>338</v>
       </c>
       <c r="C261" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D261" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E261" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6919,13 +6916,13 @@
         <v>338</v>
       </c>
       <c r="C262" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D262" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E262" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6936,13 +6933,13 @@
         <v>338</v>
       </c>
       <c r="C263" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D263" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E263" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6953,13 +6950,13 @@
         <v>338</v>
       </c>
       <c r="C264" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D264" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E264" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6970,13 +6967,13 @@
         <v>338</v>
       </c>
       <c r="C265" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D265" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E265" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6987,13 +6984,13 @@
         <v>338</v>
       </c>
       <c r="C266" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D266" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E266" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7004,13 +7001,13 @@
         <v>338</v>
       </c>
       <c r="C267" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D267" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E267" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7021,13 +7018,13 @@
         <v>336</v>
       </c>
       <c r="C268" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D268" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E268" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7038,13 +7035,13 @@
         <v>336</v>
       </c>
       <c r="C269" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D269" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E269" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7055,13 +7052,13 @@
         <v>336</v>
       </c>
       <c r="C270" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D270" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E270" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7072,13 +7069,13 @@
         <v>336</v>
       </c>
       <c r="C271" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D271" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E271" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7089,13 +7086,13 @@
         <v>336</v>
       </c>
       <c r="C272" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D272" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E272" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7106,13 +7103,13 @@
         <v>336</v>
       </c>
       <c r="C273" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D273" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E273" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7123,13 +7120,13 @@
         <v>336</v>
       </c>
       <c r="C274" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D274" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E274" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7140,13 +7137,13 @@
         <v>336</v>
       </c>
       <c r="C275" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D275" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E275" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7157,13 +7154,13 @@
         <v>336</v>
       </c>
       <c r="C276" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D276" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E276" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7174,13 +7171,13 @@
         <v>336</v>
       </c>
       <c r="C277" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D277" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E277" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7191,13 +7188,13 @@
         <v>333</v>
       </c>
       <c r="C278" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D278" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E278" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7208,13 +7205,13 @@
         <v>339</v>
       </c>
       <c r="C279" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D279" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E279" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7225,13 +7222,13 @@
         <v>339</v>
       </c>
       <c r="C280" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D280" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E280" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7242,13 +7239,13 @@
         <v>339</v>
       </c>
       <c r="C281" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D281" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E281" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7259,13 +7256,13 @@
         <v>339</v>
       </c>
       <c r="C282" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D282" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E282" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7276,13 +7273,13 @@
         <v>339</v>
       </c>
       <c r="C283" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D283" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E283" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7293,13 +7290,13 @@
         <v>339</v>
       </c>
       <c r="C284" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D284" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E284" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7310,13 +7307,13 @@
         <v>339</v>
       </c>
       <c r="C285" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D285" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E285" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7327,13 +7324,13 @@
         <v>339</v>
       </c>
       <c r="C286" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D286" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E286" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7344,13 +7341,13 @@
         <v>339</v>
       </c>
       <c r="C287" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D287" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E287" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7358,16 +7355,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C288" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D288" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E288" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7378,13 +7375,13 @@
         <v>332</v>
       </c>
       <c r="C289" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D289" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E289" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7395,13 +7392,13 @@
         <v>332</v>
       </c>
       <c r="C290" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D290" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E290" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7412,13 +7409,13 @@
         <v>332</v>
       </c>
       <c r="C291" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D291" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E291" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7429,13 +7426,13 @@
         <v>332</v>
       </c>
       <c r="C292" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D292" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E292" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7446,13 +7443,13 @@
         <v>332</v>
       </c>
       <c r="C293" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D293" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E293" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7463,13 +7460,13 @@
         <v>332</v>
       </c>
       <c r="C294" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D294" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E294" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7480,13 +7477,13 @@
         <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D295" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E295" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7497,13 +7494,13 @@
         <v>339</v>
       </c>
       <c r="C296" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D296" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E296" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7514,13 +7511,13 @@
         <v>339</v>
       </c>
       <c r="C297" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D297" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E297" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7531,13 +7528,13 @@
         <v>339</v>
       </c>
       <c r="C298" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D298" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E298" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7548,13 +7545,13 @@
         <v>339</v>
       </c>
       <c r="C299" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D299" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E299" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7565,13 +7562,13 @@
         <v>332</v>
       </c>
       <c r="C300" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D300" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E300" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7582,13 +7579,13 @@
         <v>332</v>
       </c>
       <c r="C301" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D301" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E301" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7599,13 +7596,13 @@
         <v>332</v>
       </c>
       <c r="C302" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D302" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E302" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7616,13 +7613,13 @@
         <v>332</v>
       </c>
       <c r="C303" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D303" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E303" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7633,13 +7630,13 @@
         <v>332</v>
       </c>
       <c r="C304" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D304" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E304" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7650,13 +7647,13 @@
         <v>332</v>
       </c>
       <c r="C305" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D305" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E305" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7667,13 +7664,13 @@
         <v>332</v>
       </c>
       <c r="C306" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D306" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E306" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7684,13 +7681,13 @@
         <v>332</v>
       </c>
       <c r="C307" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D307" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E307" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7701,13 +7698,13 @@
         <v>332</v>
       </c>
       <c r="C308" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D308" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E308" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7718,13 +7715,13 @@
         <v>333</v>
       </c>
       <c r="C309" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D309" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E309" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7735,13 +7732,13 @@
         <v>337</v>
       </c>
       <c r="C310" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D310" t="s">
         <v>337</v>
       </c>
       <c r="E310" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7752,13 +7749,13 @@
         <v>337</v>
       </c>
       <c r="C311" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D311" t="s">
         <v>337</v>
       </c>
       <c r="E311" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7769,13 +7766,13 @@
         <v>337</v>
       </c>
       <c r="C312" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D312" t="s">
         <v>337</v>
       </c>
       <c r="E312" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7786,13 +7783,13 @@
         <v>337</v>
       </c>
       <c r="C313" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D313" t="s">
         <v>337</v>
       </c>
       <c r="E313" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7803,13 +7800,13 @@
         <v>337</v>
       </c>
       <c r="C314" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D314" t="s">
         <v>337</v>
       </c>
       <c r="E314" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7820,13 +7817,13 @@
         <v>337</v>
       </c>
       <c r="C315" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D315" t="s">
         <v>337</v>
       </c>
       <c r="E315" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7837,13 +7834,13 @@
         <v>337</v>
       </c>
       <c r="C316" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D316" t="s">
         <v>337</v>
       </c>
       <c r="E316" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7854,13 +7851,13 @@
         <v>337</v>
       </c>
       <c r="C317" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D317" t="s">
         <v>337</v>
       </c>
       <c r="E317" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7871,13 +7868,13 @@
         <v>337</v>
       </c>
       <c r="C318" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D318" t="s">
         <v>337</v>
       </c>
       <c r="E318" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7888,13 +7885,13 @@
         <v>332</v>
       </c>
       <c r="C319" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D319" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E319" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7905,13 +7902,13 @@
         <v>332</v>
       </c>
       <c r="C320" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D320" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E320" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7922,13 +7919,13 @@
         <v>332</v>
       </c>
       <c r="C321" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D321" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E321" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7939,13 +7936,13 @@
         <v>332</v>
       </c>
       <c r="C322" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D322" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E322" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7956,13 +7953,13 @@
         <v>339</v>
       </c>
       <c r="C323" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D323" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E323" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7973,13 +7970,13 @@
         <v>339</v>
       </c>
       <c r="C324" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D324" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E324" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7990,13 +7987,13 @@
         <v>339</v>
       </c>
       <c r="C325" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D325" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E325" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8007,13 +8004,13 @@
         <v>339</v>
       </c>
       <c r="C326" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D326" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E326" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8024,13 +8021,13 @@
         <v>332</v>
       </c>
       <c r="C327" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D327" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E327" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8041,13 +8038,13 @@
         <v>332</v>
       </c>
       <c r="C328" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D328" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E328" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -1069,7 +1069,7 @@
     <t>tooth</t>
   </si>
   <si>
-    <t>the hair on the body; pelt</t>
+    <t>body hair</t>
   </si>
   <si>
     <t>hair of the head</t>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -88,6 +88,9 @@
     <t>papañca</t>
   </si>
   <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
     <t>vasa 2</t>
   </si>
   <si>
@@ -343,39 +346,39 @@
     <t>cora</t>
   </si>
   <si>
+    <t>attha 05</t>
+  </si>
+  <si>
+    <t>patta 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
     <t>tathāgata</t>
   </si>
   <si>
@@ -400,9 +403,6 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
@@ -412,7 +412,7 @@
     <t>vitakka 1</t>
   </si>
   <si>
-    <t>vipāka</t>
+    <t>vipāka 1</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -937,12 +937,12 @@
     <t>satthar 1</t>
   </si>
   <si>
+    <t>dātar 1</t>
+  </si>
+  <si>
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>dātar 1</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
@@ -1093,6 +1093,9 @@
     <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
   </si>
   <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
     <t>control; authority; power; mastery</t>
   </si>
   <si>
@@ -1348,39 +1351,39 @@
     <t>thief</t>
   </si>
   <si>
+    <t>need (for); want (for)</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; spiritual teacher</t>
+  </si>
+  <si>
+    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>beneficial friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection (of houses)</t>
+  </si>
+  <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
-  </si>
-  <si>
     <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
   </si>
   <si>
@@ -1405,9 +1408,6 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
   </si>
   <si>
@@ -1933,10 +1933,10 @@
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
+    <t>giver; donor; bestower</t>
+  </si>
+  <si>
     <t>speaker</t>
-  </si>
-  <si>
-    <t>giver; donor; bestower</t>
   </si>
   <si>
     <t>father</t>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -31,24 +31,231 @@
     <t>class</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
     <t>dhamma 06</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1</t>
+  </si>
+  <si>
+    <t>kāya 2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -58,6 +265,36 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -70,243 +307,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -424,102 +424,102 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>bhajati 1</t>
+  </si>
+  <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>bhajati 1</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -586,30 +586,30 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -619,27 +619,27 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>atthi 2</t>
+  </si>
+  <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>attha 12</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>atthi 2</t>
-  </si>
-  <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -685,15 +685,15 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -736,21 +736,21 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>mada 1</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>taca 1</t>
   </si>
   <si>
-    <t>mada 1</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
@@ -829,18 +829,18 @@
     <t>dassati 1</t>
   </si>
   <si>
+    <t>vo 3</t>
+  </si>
+  <si>
+    <t>vo 2</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 3</t>
+  </si>
+  <si>
     <t>taṃ 3</t>
   </si>
   <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 3</t>
-  </si>
-  <si>
     <t>tumhe 2</t>
   </si>
   <si>
@@ -892,12 +892,12 @@
     <t>sakadāgāmī</t>
   </si>
   <si>
+    <t>sukhī 2</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sukhī 2</t>
-  </si>
-  <si>
     <t>sabrahmacārī</t>
   </si>
   <si>
@@ -910,30 +910,30 @@
     <t>saṅgaha 1</t>
   </si>
   <si>
+    <t>paññavant</t>
+  </si>
+  <si>
+    <t>balavant</t>
+  </si>
+  <si>
+    <t>satimant 1</t>
+  </si>
+  <si>
     <t>sīlavant</t>
   </si>
   <si>
-    <t>paññavant</t>
-  </si>
-  <si>
-    <t>balavant</t>
-  </si>
-  <si>
-    <t>satimant 1</t>
-  </si>
-  <si>
     <t>assutavant</t>
   </si>
   <si>
+    <t>bhagavant 1</t>
+  </si>
+  <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
-    <t>bhagavant 1</t>
-  </si>
-  <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>satthar 1</t>
   </si>
   <si>
@@ -955,12 +955,12 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>kālena</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
-    <t>kālena</t>
-  </si>
-  <si>
     <t>yadā</t>
   </si>
   <si>
@@ -1036,24 +1036,231 @@
     <t>adj</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control; authority; power; mastery</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
     <t>matter; thing; phenomena</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>a living being; creature; sentient beings</t>
+  </si>
+  <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; comparison</t>
+  </si>
+  <si>
+    <t>group; host; multitude; lit. collection</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -1063,6 +1270,36 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
+    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -1075,243 +1312,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -1429,102 +1429,102 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for) requests</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>grows; increases</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>sits; sits down</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
+  </si>
+  <si>
+    <t>enjoys; finds high pleasure in</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>grows; increases</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -1588,30 +1588,30 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -1621,27 +1621,27 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -1687,15 +1687,15 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
@@ -1738,21 +1738,21 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>excess; pleasure; intoxication</t>
+  </si>
+  <si>
+    <t>livelihood; way of earning a living</t>
+  </si>
+  <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; against the teaching</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; against the teaching</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
@@ -1828,18 +1828,18 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>to you all; for you all</t>
+  </si>
+  <si>
+    <t>by you all; with you all</t>
+  </si>
+  <si>
+    <t>of you all; yours</t>
+  </si>
+  <si>
     <t>you (object)</t>
   </si>
   <si>
-    <t>to you all; for you all</t>
-  </si>
-  <si>
-    <t>by you all; with you all</t>
-  </si>
-  <si>
-    <t>of you all; yours</t>
-  </si>
-  <si>
     <t>you all; you (respectful plural) (object)</t>
   </si>
   <si>
@@ -1888,12 +1888,12 @@
     <t>who returns once; once-returner</t>
   </si>
   <si>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>happy one; who is at ease; who is happy; who is comfortable</t>
-  </si>
-  <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
@@ -1906,30 +1906,30 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
+    <t>wise; insightful; percipient</t>
+  </si>
+  <si>
+    <t>powerful; strong</t>
+  </si>
+  <si>
+    <t>mindful; fully present; attentive; lit. having memory quality</t>
+  </si>
+  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
-  </si>
-  <si>
-    <t>mindful; fully present; attentive; lit. having memory quality</t>
-  </si>
-  <si>
     <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
   </si>
   <si>
+    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. elder; respected</t>
+  </si>
+  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
-  </si>
-  <si>
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
@@ -1951,10 +1951,10 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>at the right moment; at a suitable time; at the proper time</t>
+  </si>
+  <si>
     <t>or; either or</t>
-  </si>
-  <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
     <t>when; whenever; lit. at whichever time</t>
@@ -4788,7 +4788,7 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C137" t="s">
         <v>475</v>
@@ -4856,7 +4856,7 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C141" t="s">
         <v>479</v>
@@ -5876,7 +5876,7 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C201" t="s">
         <v>538</v>
@@ -5910,7 +5910,7 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C203" t="s">
         <v>540</v>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="699">
   <si>
     <t>Pāli1</t>
   </si>
@@ -34,7 +34,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 03</t>
+    <t>dhamma 1.03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -52,7 +52,7 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
-    <t>vasa 2</t>
+    <t>vasa 1.2</t>
   </si>
   <si>
     <t>puggala</t>
@@ -76,16 +76,16 @@
     <t>putta 1</t>
   </si>
   <si>
-    <t>māsa 2</t>
+    <t>māsa 2.1</t>
   </si>
   <si>
     <t>purisa 1</t>
   </si>
   <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
   </si>
   <si>
     <t>sāriputta</t>
@@ -94,276 +94,276 @@
     <t>pañha 2</t>
   </si>
   <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
     <t>ābādha</t>
   </si>
   <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1</t>
-  </si>
-  <si>
-    <t>dhamma 05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -385,10 +385,10 @@
     <t>thullaccaya</t>
   </si>
   <si>
-    <t>thera 2</t>
-  </si>
-  <si>
-    <t>dhamma 09</t>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
   </si>
   <si>
     <t>nara</t>
@@ -403,7 +403,7 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>satipaṭṭhāna</t>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sīha 1</t>
@@ -436,7 +436,7 @@
     <t>pajahati</t>
   </si>
   <si>
-    <t>passa 5</t>
+    <t>passa 2.1</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -460,7 +460,7 @@
     <t>upasaṅkamati</t>
   </si>
   <si>
-    <t>bhāsati 1</t>
+    <t>bhāsati 1.1</t>
   </si>
   <si>
     <t>yācati 1</t>
@@ -484,13 +484,13 @@
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>bhajati 1</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
   </si>
   <si>
     <t>nisīdati</t>
@@ -526,7 +526,7 @@
     <t>gaccha 1</t>
   </si>
   <si>
-    <t>carati 1</t>
+    <t>carati 1.1</t>
   </si>
   <si>
     <t>pūjeti 1</t>
@@ -598,18 +598,18 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
     <t>nibbindati 1</t>
   </si>
   <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -622,13 +622,13 @@
     <t>atthi 2</t>
   </si>
   <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
+  </si>
+  <si>
+    <t>attha 4.2</t>
   </si>
   <si>
     <t>amhi</t>
@@ -667,7 +667,7 @@
     <t>udapādi 1</t>
   </si>
   <si>
-    <t>abhinandi</t>
+    <t>abhinandi 1</t>
   </si>
   <si>
     <t>sammodi</t>
@@ -733,7 +733,7 @@
     <t>āsiṃ</t>
   </si>
   <si>
-    <t>āsi 1</t>
+    <t>āsi 1.1</t>
   </si>
   <si>
     <t>mada 1</t>
@@ -760,10 +760,10 @@
     <t>mayā 1</t>
   </si>
   <si>
-    <t>no 4</t>
-  </si>
-  <si>
-    <t>no 6</t>
+    <t>no 2.1</t>
+  </si>
+  <si>
+    <t>no 2.3</t>
   </si>
   <si>
     <t>mayaṃ</t>
@@ -772,7 +772,7 @@
     <t>me 5</t>
   </si>
   <si>
-    <t>no 7</t>
+    <t>no 2.4</t>
   </si>
   <si>
     <t>amhākaṃ 3</t>
@@ -790,7 +790,7 @@
     <t>sobhati 2</t>
   </si>
   <si>
-    <t>neti 1</t>
+    <t>neti 1.1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -802,7 +802,7 @@
     <t>saha 2</t>
   </si>
   <si>
-    <t>no 1</t>
+    <t>no 1.1</t>
   </si>
   <si>
     <t>mā 1</t>
@@ -826,19 +826,19 @@
     <t>dhāressati</t>
   </si>
   <si>
-    <t>dassati 1</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
+    <t>dassati 1.1</t>
+  </si>
+  <si>
+    <t>vo 1.3</t>
+  </si>
+  <si>
+    <t>vo 1.2</t>
   </si>
   <si>
     <t>tumhākaṃ 3</t>
   </si>
   <si>
-    <t>taṃ 3</t>
+    <t>taṃ 2.1</t>
   </si>
   <si>
     <t>tumhe 2</t>
@@ -847,7 +847,7 @@
     <t>tvaṃ 1</t>
   </si>
   <si>
-    <t>te 6</t>
+    <t>te 2.4</t>
   </si>
   <si>
     <t>tuvaṃ 1</t>
@@ -856,7 +856,7 @@
     <t>tayā 1</t>
   </si>
   <si>
-    <t>vo 4</t>
+    <t>vo 1.4</t>
   </si>
   <si>
     <t>nābhijānāti 1</t>
@@ -877,7 +877,7 @@
     <t>vippaṭisārī</t>
   </si>
   <si>
-    <t>bhogī 1</t>
+    <t>bhogī 1.1</t>
   </si>
   <si>
     <t>anupassī 1</t>
@@ -913,7 +913,7 @@
     <t>paññavant</t>
   </si>
   <si>
-    <t>balavant</t>
+    <t>balavant 1</t>
   </si>
   <si>
     <t>satimant 1</t>
@@ -1039,46 +1039,46 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
-    <t>teaching; doctrine</t>
+    <t>teaching; discourse; doctrine</t>
   </si>
   <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
   </si>
   <si>
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
   </si>
   <si>
     <t>full moon or new moon observance day</t>
   </si>
   <si>
-    <t>being; existence; becoming</t>
+    <t>being; becoming; existence</t>
   </si>
   <si>
     <t>rainy season; monsoon</t>
   </si>
   <si>
-    <t>house; dwelling place; residence</t>
+    <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
-    <t>child; son</t>
+    <t>son; child</t>
   </si>
   <si>
     <t>bean</t>
@@ -1087,328 +1087,325 @@
     <t>man; person</t>
   </si>
   <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
   </si>
   <si>
     <t>question; enquiry</t>
   </si>
   <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
     <t>disease; sickness; illness; affliction</t>
   </si>
   <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method; lit. path</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>disciple; pupil; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>arrival (at); attainment (of); reaching (of)</t>
-  </si>
-  <si>
-    <t>method; system; (right) path</t>
-  </si>
-  <si>
-    <t>surpassing; overcoming; going beyond</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>distinction; attainment</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>hair of the head</t>
-  </si>
-  <si>
-    <t>friend; companion; fellow traveller</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>the Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>state of mind; mental states</t>
-  </si>
-  <si>
-    <t>stupidity; delusion; illusion; confusion</t>
-  </si>
-  <si>
-    <t>fool; immature person; ignorant person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process; lit. collection</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief</t>
-  </si>
-  <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+    <t>preceptor; teacher</t>
   </si>
   <si>
     <t>lay disciple; lay devotee; lit. who sits near</t>
   </si>
   <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
   </si>
   <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
   </si>
   <si>
     <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
   </si>
   <si>
-    <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>law; case; rule</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance</t>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>element of awakening; factor of enlightenment</t>
   </si>
   <si>
-    <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>lion</t>
@@ -1417,10 +1414,10 @@
     <t>thought; reflection; pondering</t>
   </si>
   <si>
-    <t>result; consequence; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement</t>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
   </si>
   <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
@@ -1429,22 +1426,22 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
-    <t>(vinaya) 227 precepts for Buddhist monks</t>
-  </si>
-  <si>
-    <t>analysis; classification; breakdown</t>
-  </si>
-  <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
+    <t>appearing again; renewed existence; rebirth; future life</t>
+  </si>
+  <si>
+    <t>(vinaya) precepts for Buddhist monastics</t>
+  </si>
+  <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
+    <t>gives up; abandons; lets go (of)</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
     <t>increases more and more; surpasses; outgrows</t>
@@ -1453,28 +1450,28 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>goes; goes away (from); leaves</t>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>speaks; says; proclaims</t>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
   </si>
   <si>
     <t>understands; gets; lit. sees</t>
@@ -1486,7 +1483,7 @@
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
-    <t>grows; increases</t>
+    <t>increases; develops; grows</t>
   </si>
   <si>
     <t>associates (with); keeps company (with)</t>
@@ -1495,28 +1492,28 @@
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
   </si>
   <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
-    <t>leads (to); is useful (for); is conducive to</t>
+    <t>leads (to); results (in); causes</t>
   </si>
   <si>
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
   </si>
   <si>
     <t>lives (in); dwells (in)</t>
@@ -1528,7 +1525,7 @@
     <t>sees</t>
   </si>
   <si>
-    <t>go! begone!</t>
+    <t>go!; begone!</t>
   </si>
   <si>
     <t>walks; wanders; goes around; travels; fares on</t>
@@ -1537,40 +1534,40 @@
     <t>worships; honours; respects</t>
   </si>
   <si>
-    <t>intends; will (to); lit. thinks</t>
-  </si>
-  <si>
-    <t>undergoes; feels; experiences</t>
-  </si>
-  <si>
-    <t>feels; experiences; senses</t>
-  </si>
-  <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
+    <t>intends; will (to)</t>
+  </si>
+  <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
+    <t>feels; experiences; senses; notices</t>
+  </si>
+  <si>
+    <t>bears in mind; keeps in mind; remembers; lit. carries</t>
+  </si>
+  <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
+    <t>come!</t>
+  </si>
+  <si>
+    <t>hears</t>
+  </si>
+  <si>
+    <t>one must listen!; it must hear!</t>
   </si>
   <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to); appears; becomes evident</t>
+    <t>comes to mind; occurs (to)</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
   </si>
   <si>
-    <t>gives; offers; donates</t>
+    <t>gives (to); offers (to); donates (to)</t>
   </si>
   <si>
     <t>knows; understands</t>
@@ -1579,10 +1576,10 @@
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>reaches; arrives (at); attains; experiences</t>
-  </si>
-  <si>
-    <t>merchant; trader</t>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>trader; dealer</t>
   </si>
   <si>
     <t>farmer; ploughman</t>
@@ -1591,19 +1588,16 @@
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
   </si>
   <si>
     <t>eats; consumes</t>
@@ -1612,10 +1606,13 @@
     <t>appears; arises; takes place</t>
   </si>
   <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
-    <t>cuts; cuts off; severs</t>
+    <t>cuts off; severs</t>
   </si>
   <si>
     <t>causes; effects</t>
@@ -1636,58 +1633,58 @@
     <t>I am</t>
   </si>
   <si>
-    <t>they are; there are</t>
-  </si>
-  <si>
-    <t>there is</t>
-  </si>
-  <si>
-    <t>addressed; said (to)</t>
+    <t>virtuous woman; good woman</t>
+  </si>
+  <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>addressed; said (to); advised</t>
   </si>
   <si>
     <t>was; existed; became</t>
   </si>
   <si>
-    <t>appeared; manifested; lit. became visible</t>
-  </si>
-  <si>
-    <t>may you all be! you all must be!</t>
-  </si>
-  <si>
-    <t>may it be! he must be</t>
+    <t>appeared; manifested; lit. was visible</t>
+  </si>
+  <si>
+    <t>may you all be!; I pray you all may be!</t>
+  </si>
+  <si>
+    <t>may it be (for)!</t>
   </si>
   <si>
     <t>is</t>
   </si>
   <si>
-    <t>replied; assented; agreed</t>
+    <t>replied (to); agreed (with)</t>
   </si>
   <si>
     <t>asked; enquired</t>
   </si>
   <si>
-    <t>arose; appeared</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; was friendly (with)</t>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
     <t>asked; enquired; questioned</t>
   </si>
   <si>
-    <t>approached; drew near; went (to)</t>
+    <t>approached; drew near; went (to); lit. went near</t>
   </si>
   <si>
     <t>sat (on); sat down (in)</t>
   </si>
   <si>
-    <t>monk; sage; hermit; holy man</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fine rice</t>
   </si>
   <si>
     <t>fire</t>
@@ -1699,25 +1696,25 @@
     <t>seer; sage</t>
   </si>
   <si>
-    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure; lit. putting together</t>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
   </si>
   <si>
     <t>chief; chieftain; headman; leader</t>
   </si>
   <si>
-    <t>sickness; disease; lit. upset; overturn</t>
-  </si>
-  <si>
-    <t>family; relative; lit. known</t>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
   </si>
   <si>
     <t>does; acts; performs</t>
   </si>
   <si>
-    <t>do! make! may you preform; you must do</t>
-  </si>
-  <si>
-    <t>honours; esteems; respects; lit. makes properly</t>
+    <t>do!; make!</t>
+  </si>
+  <si>
+    <t>honours; esteems; respects</t>
   </si>
   <si>
     <t>does; performs; lit. constructs</t>
@@ -1729,52 +1726,55 @@
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; explained</t>
+    <t>answered; replied; lit. made distinct</t>
   </si>
   <si>
     <t>I was</t>
   </si>
   <si>
-    <t>one was; it was</t>
-  </si>
-  <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
+    <t>was</t>
+  </si>
+  <si>
+    <t>excess; pleasure; indulgence</t>
+  </si>
+  <si>
+    <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
     <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
   </si>
   <si>
-    <t>false teaching; against the teaching</t>
+    <t>false teaching; something opposed to the teaching</t>
   </si>
   <si>
     <t>skin</t>
   </si>
   <si>
-    <t>complete comprehension (of); total understanding (of); lit. arriving</t>
+    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
+  </si>
+  <si>
+    <t>my; mine; of me</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>we; I (royal plural)</t>
   </si>
   <si>
     <t>my; mine</t>
   </si>
   <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
     <t>our</t>
   </si>
   <si>
-    <t>our; of us</t>
+    <t>our; of us; my (royal plural)</t>
   </si>
   <si>
     <t>I</t>
@@ -1783,7 +1783,7 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>for me; to me</t>
+    <t>to me; for me</t>
   </si>
   <si>
     <t>looks beautiful (in); lit. shines</t>
@@ -1792,7 +1792,7 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
+    <t>no; not; neither; nor</t>
   </si>
   <si>
     <t>together (with); with</t>
@@ -1804,7 +1804,7 @@
     <t>no; not</t>
   </si>
   <si>
-    <t>do not; may one not</t>
+    <t>do not; may one not; don’t let</t>
   </si>
   <si>
     <t>will explain; will define; will describes</t>
@@ -1813,7 +1813,7 @@
     <t>will breathe; will inhale</t>
   </si>
   <si>
-    <t>could be; should be; will be</t>
+    <t>could be; should be; lit. will be</t>
   </si>
   <si>
     <t>will go</t>
@@ -1822,7 +1822,7 @@
     <t>will exhale; will breathe out</t>
   </si>
   <si>
-    <t>will take; will consider; will keep in mind; lit. will hold</t>
+    <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
   </si>
   <si>
     <t>will give (to)</t>
@@ -1840,25 +1840,28 @@
     <t>you (object)</t>
   </si>
   <si>
-    <t>you all; you (respectful plural) (object)</t>
+    <t>(object) you all; you (royal plural)</t>
+  </si>
+  <si>
+    <t>you (subject)</t>
+  </si>
+  <si>
+    <t>your; of you</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>your; of you</t>
-  </si>
-  <si>
-    <t>by you; with you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>does not know; does not understand</t>
-  </si>
-  <si>
-    <t>afraid of wrong; feeling shame; conscientious</t>
+    <t>by you</t>
+  </si>
+  <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
+    <t>does not know; does not understand; lit. does not completely know</t>
+  </si>
+  <si>
+    <t>afraid of wrong; conscientious</t>
   </si>
   <si>
     <t>speaking; saying; telling</t>
@@ -1870,7 +1873,7 @@
     <t>who sees; who knows; who perceives; who understands</t>
   </si>
   <si>
-    <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
+    <t>remorseful; regretful; repentant; sorry; lit. remembering back negatively</t>
   </si>
   <si>
     <t>enjoying; using; experiencing; partaking in</t>
@@ -1882,22 +1885,22 @@
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
-    <t>who does not return; non-returning (in this world)</t>
-  </si>
-  <si>
-    <t>who returns once; once-returner</t>
+    <t>who does not return; non-returning</t>
+  </si>
+  <si>
+    <t>once-returner; who has attained the second stage of the path</t>
   </si>
   <si>
     <t>happy one; who is at ease; who is happy; who is comfortable</t>
   </si>
   <si>
-    <t>celibate person; one living the holy life</t>
+    <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
-    <t>intelligent man; wise man; lit. who has wisdom</t>
+    <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
   </si>
   <si>
     <t>bird; lit. with wings</t>
@@ -1906,37 +1909,37 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
+    <t>wise; intelligent; insightful; percipient; lit. having wisdom quality</t>
+  </si>
+  <si>
+    <t>strong; powerful; lit. having strength quality</t>
   </si>
   <si>
     <t>mindful; fully present; attentive; lit. having memory quality</t>
   </si>
   <si>
-    <t>virtuous; observing the moral practices</t>
-  </si>
-  <si>
-    <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
-  </si>
-  <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
+    <t>virtuous; ethical; moral; lit. having conduct quality</t>
+  </si>
+  <si>
+    <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
+  </si>
+  <si>
+    <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>teacher; master; the Buddha</t>
+    <t>master; teacher</t>
   </si>
   <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker; who talks (about)</t>
   </si>
   <si>
     <t>father</t>
@@ -1951,22 +1954,22 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
+    <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
     <t>or; either or</t>
   </si>
   <si>
-    <t>when; whenever; lit. at whichever time</t>
-  </si>
-  <si>
-    <t>ever; always</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>after; afterwards; in the future</t>
+    <t>when; whenever</t>
+  </si>
+  <si>
+    <t>always; ever; all the time</t>
+  </si>
+  <si>
+    <t>and; both</t>
+  </si>
+  <si>
+    <t>afterwards; later; in the future</t>
   </si>
   <si>
     <t>formerly; previously; in the past</t>
@@ -1975,34 +1978,34 @@
     <t>today; now</t>
   </si>
   <si>
-    <t>previously; formerly; in the past</t>
+    <t>before; previously; formerly; in the past</t>
   </si>
   <si>
     <t>respect; honour</t>
   </si>
   <si>
-    <t>monk; an almsman; mendicant; lit. beggar</t>
-  </si>
-  <si>
-    <t>death; the Death; the Māra; personification of evil forses</t>
-  </si>
-  <si>
-    <t>ease; comfort</t>
+    <t>monk; fully ordained monk; mendicant; lit. beggar</t>
+  </si>
+  <si>
+    <t>death; Death</t>
+  </si>
+  <si>
+    <t>ease (for); comfort (for)</t>
   </si>
   <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
-    <t>of long standing; lit. who knowing (many) night (as a monk)</t>
+    <t>old; experienced; of long standing; lit. knowing nights</t>
   </si>
   <si>
     <t>wise; knowing; understanding</t>
   </si>
   <si>
-    <t>knowing the measure or limit; moderate</t>
-  </si>
-  <si>
-    <t>conqueror; victor; vanquisher</t>
+    <t>knowing the correct measure (in); knowing the limit (in); moderate (in); lit. measure knowing</t>
+  </si>
+  <si>
+    <t>conqueror; victor; vanquisher; master</t>
   </si>
   <si>
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
@@ -2499,10 +2502,10 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2516,10 +2519,10 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2533,10 +2536,10 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2550,10 +2553,10 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2567,10 +2570,10 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2584,10 +2587,10 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2601,10 +2604,10 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2618,10 +2621,10 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2635,10 +2638,10 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2652,10 +2655,10 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E11" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2669,10 +2672,10 @@
         <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E12" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2686,10 +2689,10 @@
         <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E13" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2703,10 +2706,10 @@
         <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2720,10 +2723,10 @@
         <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E15" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2737,10 +2740,10 @@
         <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E16" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2754,10 +2757,10 @@
         <v>355</v>
       </c>
       <c r="D17" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E17" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2771,10 +2774,10 @@
         <v>356</v>
       </c>
       <c r="D18" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E18" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2788,10 +2791,10 @@
         <v>357</v>
       </c>
       <c r="D19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E19" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2805,10 +2808,10 @@
         <v>358</v>
       </c>
       <c r="D20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E20" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2822,10 +2825,10 @@
         <v>359</v>
       </c>
       <c r="D21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2839,10 +2842,10 @@
         <v>360</v>
       </c>
       <c r="D22" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E22" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2856,10 +2859,10 @@
         <v>361</v>
       </c>
       <c r="D23" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E23" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2873,10 +2876,10 @@
         <v>362</v>
       </c>
       <c r="D24" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E24" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2890,10 +2893,10 @@
         <v>363</v>
       </c>
       <c r="D25" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E25" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2907,10 +2910,10 @@
         <v>364</v>
       </c>
       <c r="D26" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E26" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2924,10 +2927,10 @@
         <v>365</v>
       </c>
       <c r="D27" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E27" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2941,10 +2944,10 @@
         <v>366</v>
       </c>
       <c r="D28" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E28" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2958,10 +2961,10 @@
         <v>367</v>
       </c>
       <c r="D29" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E29" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2975,10 +2978,10 @@
         <v>368</v>
       </c>
       <c r="D30" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E30" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2992,10 +2995,10 @@
         <v>369</v>
       </c>
       <c r="D31" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E31" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3009,10 +3012,10 @@
         <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E32" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3026,10 +3029,10 @@
         <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E33" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3043,10 +3046,10 @@
         <v>372</v>
       </c>
       <c r="D34" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E34" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3060,10 +3063,10 @@
         <v>373</v>
       </c>
       <c r="D35" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E35" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3077,10 +3080,10 @@
         <v>374</v>
       </c>
       <c r="D36" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E36" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3094,10 +3097,10 @@
         <v>375</v>
       </c>
       <c r="D37" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E37" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3111,10 +3114,10 @@
         <v>376</v>
       </c>
       <c r="D38" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E38" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3128,10 +3131,10 @@
         <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E39" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3145,10 +3148,10 @@
         <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E40" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3162,10 +3165,10 @@
         <v>379</v>
       </c>
       <c r="D41" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E41" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3179,10 +3182,10 @@
         <v>380</v>
       </c>
       <c r="D42" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E42" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3196,10 +3199,10 @@
         <v>381</v>
       </c>
       <c r="D43" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E43" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3213,10 +3216,10 @@
         <v>382</v>
       </c>
       <c r="D44" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E44" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3230,10 +3233,10 @@
         <v>383</v>
       </c>
       <c r="D45" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E45" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3247,10 +3250,10 @@
         <v>384</v>
       </c>
       <c r="D46" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E46" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3264,10 +3267,10 @@
         <v>385</v>
       </c>
       <c r="D47" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E47" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3281,10 +3284,10 @@
         <v>386</v>
       </c>
       <c r="D48" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E48" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3298,10 +3301,10 @@
         <v>387</v>
       </c>
       <c r="D49" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E49" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3315,10 +3318,10 @@
         <v>388</v>
       </c>
       <c r="D50" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E50" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3332,10 +3335,10 @@
         <v>389</v>
       </c>
       <c r="D51" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E51" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3349,10 +3352,10 @@
         <v>390</v>
       </c>
       <c r="D52" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E52" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3366,10 +3369,10 @@
         <v>391</v>
       </c>
       <c r="D53" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E53" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3383,10 +3386,10 @@
         <v>392</v>
       </c>
       <c r="D54" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E54" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3400,10 +3403,10 @@
         <v>393</v>
       </c>
       <c r="D55" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E55" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3417,10 +3420,10 @@
         <v>394</v>
       </c>
       <c r="D56" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E56" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3434,10 +3437,10 @@
         <v>395</v>
       </c>
       <c r="D57" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E57" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3451,10 +3454,10 @@
         <v>396</v>
       </c>
       <c r="D58" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E58" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3468,10 +3471,10 @@
         <v>397</v>
       </c>
       <c r="D59" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E59" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3485,10 +3488,10 @@
         <v>398</v>
       </c>
       <c r="D60" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E60" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3502,10 +3505,10 @@
         <v>399</v>
       </c>
       <c r="D61" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E61" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3519,10 +3522,10 @@
         <v>400</v>
       </c>
       <c r="D62" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E62" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3536,10 +3539,10 @@
         <v>401</v>
       </c>
       <c r="D63" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E63" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3553,10 +3556,10 @@
         <v>402</v>
       </c>
       <c r="D64" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E64" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3570,10 +3573,10 @@
         <v>403</v>
       </c>
       <c r="D65" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E65" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3587,10 +3590,10 @@
         <v>404</v>
       </c>
       <c r="D66" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E66" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3604,10 +3607,10 @@
         <v>405</v>
       </c>
       <c r="D67" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E67" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3621,10 +3624,10 @@
         <v>406</v>
       </c>
       <c r="D68" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E68" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3638,10 +3641,10 @@
         <v>407</v>
       </c>
       <c r="D69" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E69" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3655,10 +3658,10 @@
         <v>408</v>
       </c>
       <c r="D70" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E70" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3672,10 +3675,10 @@
         <v>409</v>
       </c>
       <c r="D71" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E71" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3689,10 +3692,10 @@
         <v>410</v>
       </c>
       <c r="D72" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E72" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3706,10 +3709,10 @@
         <v>411</v>
       </c>
       <c r="D73" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E73" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3723,10 +3726,10 @@
         <v>412</v>
       </c>
       <c r="D74" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E74" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3740,10 +3743,10 @@
         <v>413</v>
       </c>
       <c r="D75" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E75" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3757,10 +3760,10 @@
         <v>414</v>
       </c>
       <c r="D76" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E76" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3774,10 +3777,10 @@
         <v>415</v>
       </c>
       <c r="D77" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E77" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3791,10 +3794,10 @@
         <v>416</v>
       </c>
       <c r="D78" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E78" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3808,10 +3811,10 @@
         <v>417</v>
       </c>
       <c r="D79" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E79" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3825,10 +3828,10 @@
         <v>418</v>
       </c>
       <c r="D80" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E80" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3842,10 +3845,10 @@
         <v>419</v>
       </c>
       <c r="D81" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E81" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3859,10 +3862,10 @@
         <v>420</v>
       </c>
       <c r="D82" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E82" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3876,10 +3879,10 @@
         <v>421</v>
       </c>
       <c r="D83" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E83" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3893,10 +3896,10 @@
         <v>422</v>
       </c>
       <c r="D84" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E84" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3910,10 +3913,10 @@
         <v>423</v>
       </c>
       <c r="D85" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E85" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3927,10 +3930,10 @@
         <v>424</v>
       </c>
       <c r="D86" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E86" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3944,10 +3947,10 @@
         <v>425</v>
       </c>
       <c r="D87" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E87" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3961,10 +3964,10 @@
         <v>426</v>
       </c>
       <c r="D88" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E88" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3978,10 +3981,10 @@
         <v>427</v>
       </c>
       <c r="D89" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E89" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3995,10 +3998,10 @@
         <v>428</v>
       </c>
       <c r="D90" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E90" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4012,10 +4015,10 @@
         <v>429</v>
       </c>
       <c r="D91" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E91" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4029,10 +4032,10 @@
         <v>430</v>
       </c>
       <c r="D92" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E92" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4046,10 +4049,10 @@
         <v>431</v>
       </c>
       <c r="D93" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E93" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4063,10 +4066,10 @@
         <v>432</v>
       </c>
       <c r="D94" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E94" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4080,10 +4083,10 @@
         <v>433</v>
       </c>
       <c r="D95" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E95" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4097,10 +4100,10 @@
         <v>434</v>
       </c>
       <c r="D96" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E96" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4114,10 +4117,10 @@
         <v>435</v>
       </c>
       <c r="D97" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E97" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4131,10 +4134,10 @@
         <v>436</v>
       </c>
       <c r="D98" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E98" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4148,10 +4151,10 @@
         <v>437</v>
       </c>
       <c r="D99" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E99" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4165,10 +4168,10 @@
         <v>438</v>
       </c>
       <c r="D100" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E100" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4182,10 +4185,10 @@
         <v>439</v>
       </c>
       <c r="D101" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E101" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4199,10 +4202,10 @@
         <v>440</v>
       </c>
       <c r="D102" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E102" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4216,10 +4219,10 @@
         <v>441</v>
       </c>
       <c r="D103" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E103" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4233,10 +4236,10 @@
         <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E104" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4250,10 +4253,10 @@
         <v>443</v>
       </c>
       <c r="D105" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E105" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4267,10 +4270,10 @@
         <v>444</v>
       </c>
       <c r="D106" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E106" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4284,10 +4287,10 @@
         <v>445</v>
       </c>
       <c r="D107" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E107" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4301,10 +4304,10 @@
         <v>446</v>
       </c>
       <c r="D108" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E108" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4318,10 +4321,10 @@
         <v>447</v>
       </c>
       <c r="D109" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E109" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4335,10 +4338,10 @@
         <v>448</v>
       </c>
       <c r="D110" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E110" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4352,10 +4355,10 @@
         <v>449</v>
       </c>
       <c r="D111" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E111" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4369,10 +4372,10 @@
         <v>450</v>
       </c>
       <c r="D112" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E112" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4386,10 +4389,10 @@
         <v>451</v>
       </c>
       <c r="D113" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E113" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4403,10 +4406,10 @@
         <v>452</v>
       </c>
       <c r="D114" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E114" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4420,10 +4423,10 @@
         <v>453</v>
       </c>
       <c r="D115" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E115" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4437,10 +4440,10 @@
         <v>454</v>
       </c>
       <c r="D116" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E116" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4454,10 +4457,10 @@
         <v>455</v>
       </c>
       <c r="D117" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E117" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4471,10 +4474,10 @@
         <v>456</v>
       </c>
       <c r="D118" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E118" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4488,10 +4491,10 @@
         <v>457</v>
       </c>
       <c r="D119" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E119" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4505,10 +4508,10 @@
         <v>458</v>
       </c>
       <c r="D120" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E120" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4522,10 +4525,10 @@
         <v>459</v>
       </c>
       <c r="D121" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E121" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4536,13 +4539,13 @@
         <v>332</v>
       </c>
       <c r="C122" t="s">
-        <v>460</v>
+        <v>356</v>
       </c>
       <c r="D122" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E122" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4553,13 +4556,13 @@
         <v>332</v>
       </c>
       <c r="C123" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D123" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E123" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4570,13 +4573,13 @@
         <v>332</v>
       </c>
       <c r="C124" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D124" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E124" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4587,13 +4590,13 @@
         <v>332</v>
       </c>
       <c r="C125" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D125" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E125" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4604,13 +4607,13 @@
         <v>332</v>
       </c>
       <c r="C126" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D126" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E126" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4621,13 +4624,13 @@
         <v>332</v>
       </c>
       <c r="C127" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D127" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E127" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4638,13 +4641,13 @@
         <v>332</v>
       </c>
       <c r="C128" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D128" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E128" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4655,13 +4658,13 @@
         <v>332</v>
       </c>
       <c r="C129" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D129" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E129" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4672,13 +4675,13 @@
         <v>332</v>
       </c>
       <c r="C130" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D130" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E130" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4689,13 +4692,13 @@
         <v>332</v>
       </c>
       <c r="C131" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D131" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E131" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4706,13 +4709,13 @@
         <v>332</v>
       </c>
       <c r="C132" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D132" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E132" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4723,13 +4726,13 @@
         <v>332</v>
       </c>
       <c r="C133" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D133" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E133" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4740,13 +4743,13 @@
         <v>332</v>
       </c>
       <c r="C134" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D134" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E134" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4757,13 +4760,13 @@
         <v>332</v>
       </c>
       <c r="C135" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D135" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E135" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4774,13 +4777,13 @@
         <v>333</v>
       </c>
       <c r="C136" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D136" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E136" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4791,13 +4794,13 @@
         <v>334</v>
       </c>
       <c r="C137" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D137" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E137" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4808,13 +4811,13 @@
         <v>333</v>
       </c>
       <c r="C138" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D138" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E138" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4825,13 +4828,13 @@
         <v>333</v>
       </c>
       <c r="C139" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D139" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E139" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4842,13 +4845,13 @@
         <v>333</v>
       </c>
       <c r="C140" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D140" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E140" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4859,13 +4862,13 @@
         <v>333</v>
       </c>
       <c r="C141" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D141" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E141" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4876,13 +4879,13 @@
         <v>333</v>
       </c>
       <c r="C142" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D142" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E142" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4893,13 +4896,13 @@
         <v>333</v>
       </c>
       <c r="C143" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D143" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E143" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4910,13 +4913,13 @@
         <v>333</v>
       </c>
       <c r="C144" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D144" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E144" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4927,13 +4930,13 @@
         <v>333</v>
       </c>
       <c r="C145" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D145" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E145" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4944,13 +4947,13 @@
         <v>333</v>
       </c>
       <c r="C146" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D146" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E146" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4961,13 +4964,13 @@
         <v>333</v>
       </c>
       <c r="C147" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D147" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E147" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4978,13 +4981,13 @@
         <v>333</v>
       </c>
       <c r="C148" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D148" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E148" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4995,13 +4998,13 @@
         <v>333</v>
       </c>
       <c r="C149" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D149" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E149" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5012,13 +5015,13 @@
         <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D150" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E150" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5029,13 +5032,13 @@
         <v>333</v>
       </c>
       <c r="C151" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D151" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E151" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5046,13 +5049,13 @@
         <v>333</v>
       </c>
       <c r="C152" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D152" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E152" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5063,13 +5066,13 @@
         <v>333</v>
       </c>
       <c r="C153" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D153" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E153" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5080,13 +5083,13 @@
         <v>333</v>
       </c>
       <c r="C154" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D154" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E154" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5097,13 +5100,13 @@
         <v>333</v>
       </c>
       <c r="C155" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D155" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E155" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5114,13 +5117,13 @@
         <v>333</v>
       </c>
       <c r="C156" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D156" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E156" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5131,13 +5134,13 @@
         <v>333</v>
       </c>
       <c r="C157" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D157" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E157" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5148,13 +5151,13 @@
         <v>333</v>
       </c>
       <c r="C158" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D158" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E158" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5165,13 +5168,13 @@
         <v>333</v>
       </c>
       <c r="C159" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D159" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E159" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5182,13 +5185,13 @@
         <v>333</v>
       </c>
       <c r="C160" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D160" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E160" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5199,13 +5202,13 @@
         <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D161" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E161" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5216,13 +5219,13 @@
         <v>333</v>
       </c>
       <c r="C162" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D162" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E162" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5233,13 +5236,13 @@
         <v>333</v>
       </c>
       <c r="C163" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D163" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E163" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5250,13 +5253,13 @@
         <v>333</v>
       </c>
       <c r="C164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D164" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E164" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5267,13 +5270,13 @@
         <v>333</v>
       </c>
       <c r="C165" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D165" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E165" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5284,13 +5287,13 @@
         <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D166" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E166" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5301,13 +5304,13 @@
         <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D167" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E167" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5318,13 +5321,13 @@
         <v>333</v>
       </c>
       <c r="C168" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D168" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E168" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5335,13 +5338,13 @@
         <v>333</v>
       </c>
       <c r="C169" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D169" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E169" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5352,13 +5355,13 @@
         <v>333</v>
       </c>
       <c r="C170" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D170" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E170" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5369,13 +5372,13 @@
         <v>333</v>
       </c>
       <c r="C171" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D171" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E171" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5386,13 +5389,13 @@
         <v>333</v>
       </c>
       <c r="C172" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D172" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E172" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5403,13 +5406,13 @@
         <v>333</v>
       </c>
       <c r="C173" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D173" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E173" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5420,13 +5423,13 @@
         <v>334</v>
       </c>
       <c r="C174" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D174" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E174" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5437,13 +5440,13 @@
         <v>333</v>
       </c>
       <c r="C175" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D175" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E175" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5454,13 +5457,13 @@
         <v>334</v>
       </c>
       <c r="C176" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D176" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E176" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5471,13 +5474,13 @@
         <v>333</v>
       </c>
       <c r="C177" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D177" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E177" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5488,13 +5491,13 @@
         <v>333</v>
       </c>
       <c r="C178" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D178" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E178" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5505,13 +5508,13 @@
         <v>333</v>
       </c>
       <c r="C179" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D179" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E179" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5522,13 +5525,13 @@
         <v>333</v>
       </c>
       <c r="C180" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D180" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E180" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5539,13 +5542,13 @@
         <v>333</v>
       </c>
       <c r="C181" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D181" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E181" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5556,13 +5559,13 @@
         <v>333</v>
       </c>
       <c r="C182" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D182" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E182" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5573,13 +5576,13 @@
         <v>333</v>
       </c>
       <c r="C183" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D183" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E183" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5590,13 +5593,13 @@
         <v>333</v>
       </c>
       <c r="C184" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D184" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E184" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5607,13 +5610,13 @@
         <v>332</v>
       </c>
       <c r="C185" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D185" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E185" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5624,13 +5627,13 @@
         <v>332</v>
       </c>
       <c r="C186" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D186" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E186" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5641,13 +5644,13 @@
         <v>333</v>
       </c>
       <c r="C187" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D187" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E187" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5658,13 +5661,13 @@
         <v>333</v>
       </c>
       <c r="C188" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D188" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E188" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5675,13 +5678,13 @@
         <v>333</v>
       </c>
       <c r="C189" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D189" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E189" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5692,13 +5695,13 @@
         <v>333</v>
       </c>
       <c r="C190" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D190" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E190" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5709,13 +5712,13 @@
         <v>333</v>
       </c>
       <c r="C191" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D191" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E191" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5726,13 +5729,13 @@
         <v>333</v>
       </c>
       <c r="C192" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D192" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E192" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5743,13 +5746,13 @@
         <v>333</v>
       </c>
       <c r="C193" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D193" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E193" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5760,13 +5763,13 @@
         <v>333</v>
       </c>
       <c r="C194" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D194" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E194" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5777,13 +5780,13 @@
         <v>333</v>
       </c>
       <c r="C195" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D195" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E195" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5794,13 +5797,13 @@
         <v>333</v>
       </c>
       <c r="C196" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D196" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E196" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5811,13 +5814,13 @@
         <v>333</v>
       </c>
       <c r="C197" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D197" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E197" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5828,13 +5831,13 @@
         <v>333</v>
       </c>
       <c r="C198" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D198" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E198" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5845,13 +5848,13 @@
         <v>333</v>
       </c>
       <c r="C199" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D199" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E199" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5862,13 +5865,13 @@
         <v>333</v>
       </c>
       <c r="C200" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D200" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E200" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5879,13 +5882,13 @@
         <v>334</v>
       </c>
       <c r="C201" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D201" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E201" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5896,13 +5899,13 @@
         <v>333</v>
       </c>
       <c r="C202" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D202" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E202" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5913,13 +5916,13 @@
         <v>333</v>
       </c>
       <c r="C203" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D203" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E203" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5930,13 +5933,13 @@
         <v>333</v>
       </c>
       <c r="C204" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D204" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E204" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5947,13 +5950,13 @@
         <v>335</v>
       </c>
       <c r="C205" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D205" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E205" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5964,13 +5967,13 @@
         <v>335</v>
       </c>
       <c r="C206" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D206" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E206" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5981,13 +5984,13 @@
         <v>335</v>
       </c>
       <c r="C207" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D207" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E207" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5998,13 +6001,13 @@
         <v>334</v>
       </c>
       <c r="C208" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D208" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E208" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6015,13 +6018,13 @@
         <v>334</v>
       </c>
       <c r="C209" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D209" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E209" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6032,13 +6035,13 @@
         <v>333</v>
       </c>
       <c r="C210" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D210" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E210" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6049,13 +6052,13 @@
         <v>335</v>
       </c>
       <c r="C211" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D211" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E211" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6066,13 +6069,13 @@
         <v>335</v>
       </c>
       <c r="C212" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D212" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E212" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6083,13 +6086,13 @@
         <v>335</v>
       </c>
       <c r="C213" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D213" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E213" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6100,13 +6103,13 @@
         <v>335</v>
       </c>
       <c r="C214" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D214" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E214" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6117,13 +6120,13 @@
         <v>335</v>
       </c>
       <c r="C215" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D215" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E215" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6134,13 +6137,13 @@
         <v>335</v>
       </c>
       <c r="C216" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D216" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E216" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6151,13 +6154,13 @@
         <v>335</v>
       </c>
       <c r="C217" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D217" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E217" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6168,13 +6171,13 @@
         <v>335</v>
       </c>
       <c r="C218" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D218" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E218" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6185,13 +6188,13 @@
         <v>332</v>
       </c>
       <c r="C219" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D219" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E219" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6202,13 +6205,13 @@
         <v>332</v>
       </c>
       <c r="C220" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D220" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E220" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6219,13 +6222,13 @@
         <v>332</v>
       </c>
       <c r="C221" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D221" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E221" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6236,13 +6239,13 @@
         <v>332</v>
       </c>
       <c r="C222" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D222" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E222" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6253,13 +6256,13 @@
         <v>332</v>
       </c>
       <c r="C223" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D223" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E223" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6270,13 +6273,13 @@
         <v>332</v>
       </c>
       <c r="C224" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D224" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E224" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6287,13 +6290,13 @@
         <v>332</v>
       </c>
       <c r="C225" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D225" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E225" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6304,13 +6307,13 @@
         <v>332</v>
       </c>
       <c r="C226" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D226" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E226" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6321,13 +6324,13 @@
         <v>332</v>
       </c>
       <c r="C227" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D227" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E227" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6338,13 +6341,13 @@
         <v>333</v>
       </c>
       <c r="C228" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D228" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E228" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6355,13 +6358,13 @@
         <v>334</v>
       </c>
       <c r="C229" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D229" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E229" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6372,13 +6375,13 @@
         <v>333</v>
       </c>
       <c r="C230" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D230" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E230" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6389,13 +6392,13 @@
         <v>333</v>
       </c>
       <c r="C231" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D231" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E231" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6406,13 +6409,13 @@
         <v>335</v>
       </c>
       <c r="C232" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D232" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E232" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6423,13 +6426,13 @@
         <v>335</v>
       </c>
       <c r="C233" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D233" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E233" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6440,13 +6443,13 @@
         <v>335</v>
       </c>
       <c r="C234" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D234" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E234" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6457,13 +6460,13 @@
         <v>335</v>
       </c>
       <c r="C235" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D235" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E235" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6474,13 +6477,13 @@
         <v>335</v>
       </c>
       <c r="C236" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D236" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E236" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6491,13 +6494,13 @@
         <v>332</v>
       </c>
       <c r="C237" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D237" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E237" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6508,13 +6511,13 @@
         <v>332</v>
       </c>
       <c r="C238" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D238" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E238" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6525,13 +6528,13 @@
         <v>332</v>
       </c>
       <c r="C239" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D239" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E239" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6542,13 +6545,13 @@
         <v>332</v>
       </c>
       <c r="C240" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D240" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E240" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6559,13 +6562,13 @@
         <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D241" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E241" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6576,13 +6579,13 @@
         <v>332</v>
       </c>
       <c r="C242" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D242" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E242" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6593,13 +6596,13 @@
         <v>336</v>
       </c>
       <c r="C243" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D243" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E243" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6610,13 +6613,13 @@
         <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D244" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E244" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6627,13 +6630,13 @@
         <v>336</v>
       </c>
       <c r="C245" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D245" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E245" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6644,13 +6647,13 @@
         <v>336</v>
       </c>
       <c r="C246" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D246" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E246" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6661,13 +6664,13 @@
         <v>336</v>
       </c>
       <c r="C247" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D247" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E247" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6678,13 +6681,13 @@
         <v>336</v>
       </c>
       <c r="C248" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D248" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E248" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6698,10 +6701,10 @@
         <v>585</v>
       </c>
       <c r="D249" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E249" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6715,10 +6718,10 @@
         <v>586</v>
       </c>
       <c r="D250" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E250" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6732,10 +6735,10 @@
         <v>587</v>
       </c>
       <c r="D251" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E251" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6749,10 +6752,10 @@
         <v>588</v>
       </c>
       <c r="D252" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E252" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6766,10 +6769,10 @@
         <v>589</v>
       </c>
       <c r="D253" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E253" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6783,10 +6786,10 @@
         <v>590</v>
       </c>
       <c r="D254" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E254" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6800,10 +6803,10 @@
         <v>591</v>
       </c>
       <c r="D255" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E255" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6820,7 +6823,7 @@
         <v>337</v>
       </c>
       <c r="E256" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6837,7 +6840,7 @@
         <v>337</v>
       </c>
       <c r="E257" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6854,7 +6857,7 @@
         <v>337</v>
       </c>
       <c r="E258" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6871,7 +6874,7 @@
         <v>337</v>
       </c>
       <c r="E259" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6888,7 +6891,7 @@
         <v>337</v>
       </c>
       <c r="E260" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6902,10 +6905,10 @@
         <v>597</v>
       </c>
       <c r="D261" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E261" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6919,10 +6922,10 @@
         <v>598</v>
       </c>
       <c r="D262" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E262" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6936,10 +6939,10 @@
         <v>599</v>
       </c>
       <c r="D263" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E263" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6953,10 +6956,10 @@
         <v>600</v>
       </c>
       <c r="D264" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E264" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6970,10 +6973,10 @@
         <v>601</v>
       </c>
       <c r="D265" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E265" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6987,10 +6990,10 @@
         <v>602</v>
       </c>
       <c r="D266" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E266" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7004,10 +7007,10 @@
         <v>603</v>
       </c>
       <c r="D267" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E267" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7021,10 +7024,10 @@
         <v>604</v>
       </c>
       <c r="D268" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E268" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7038,10 +7041,10 @@
         <v>605</v>
       </c>
       <c r="D269" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E269" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7055,10 +7058,10 @@
         <v>606</v>
       </c>
       <c r="D270" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E270" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7072,10 +7075,10 @@
         <v>607</v>
       </c>
       <c r="D271" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E271" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7089,10 +7092,10 @@
         <v>608</v>
       </c>
       <c r="D272" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E272" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7106,10 +7109,10 @@
         <v>609</v>
       </c>
       <c r="D273" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E273" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7123,10 +7126,10 @@
         <v>610</v>
       </c>
       <c r="D274" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E274" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7137,13 +7140,13 @@
         <v>336</v>
       </c>
       <c r="C275" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D275" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E275" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7154,13 +7157,13 @@
         <v>336</v>
       </c>
       <c r="C276" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D276" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E276" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7171,13 +7174,13 @@
         <v>336</v>
       </c>
       <c r="C277" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D277" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E277" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7188,13 +7191,13 @@
         <v>333</v>
       </c>
       <c r="C278" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D278" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E278" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7205,13 +7208,13 @@
         <v>339</v>
       </c>
       <c r="C279" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D279" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E279" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7222,13 +7225,13 @@
         <v>339</v>
       </c>
       <c r="C280" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D280" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E280" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7239,13 +7242,13 @@
         <v>339</v>
       </c>
       <c r="C281" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D281" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E281" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7256,13 +7259,13 @@
         <v>339</v>
       </c>
       <c r="C282" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D282" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E282" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7273,13 +7276,13 @@
         <v>339</v>
       </c>
       <c r="C283" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D283" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E283" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7290,13 +7293,13 @@
         <v>339</v>
       </c>
       <c r="C284" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D284" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E284" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7307,13 +7310,13 @@
         <v>339</v>
       </c>
       <c r="C285" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D285" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E285" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7324,13 +7327,13 @@
         <v>339</v>
       </c>
       <c r="C286" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D286" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E286" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7341,13 +7344,13 @@
         <v>339</v>
       </c>
       <c r="C287" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D287" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E287" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7358,13 +7361,13 @@
         <v>339</v>
       </c>
       <c r="C288" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D288" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E288" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7375,13 +7378,13 @@
         <v>332</v>
       </c>
       <c r="C289" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D289" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E289" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7392,13 +7395,13 @@
         <v>332</v>
       </c>
       <c r="C290" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D290" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E290" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7409,13 +7412,13 @@
         <v>332</v>
       </c>
       <c r="C291" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D291" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E291" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7426,13 +7429,13 @@
         <v>332</v>
       </c>
       <c r="C292" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D292" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E292" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7443,13 +7446,13 @@
         <v>332</v>
       </c>
       <c r="C293" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D293" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E293" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7460,13 +7463,13 @@
         <v>332</v>
       </c>
       <c r="C294" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D294" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E294" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7477,13 +7480,13 @@
         <v>339</v>
       </c>
       <c r="C295" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D295" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E295" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7494,13 +7497,13 @@
         <v>339</v>
       </c>
       <c r="C296" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D296" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E296" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7511,13 +7514,13 @@
         <v>339</v>
       </c>
       <c r="C297" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D297" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E297" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7528,13 +7531,13 @@
         <v>339</v>
       </c>
       <c r="C298" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D298" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E298" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7545,13 +7548,13 @@
         <v>339</v>
       </c>
       <c r="C299" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D299" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E299" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7562,13 +7565,13 @@
         <v>332</v>
       </c>
       <c r="C300" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D300" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E300" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7579,13 +7582,13 @@
         <v>332</v>
       </c>
       <c r="C301" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D301" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E301" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7596,13 +7599,13 @@
         <v>332</v>
       </c>
       <c r="C302" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D302" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E302" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7613,13 +7616,13 @@
         <v>332</v>
       </c>
       <c r="C303" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D303" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E303" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7630,13 +7633,13 @@
         <v>332</v>
       </c>
       <c r="C304" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D304" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E304" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7647,13 +7650,13 @@
         <v>332</v>
       </c>
       <c r="C305" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D305" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E305" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7664,13 +7667,13 @@
         <v>332</v>
       </c>
       <c r="C306" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D306" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E306" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7681,13 +7684,13 @@
         <v>332</v>
       </c>
       <c r="C307" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D307" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E307" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7698,13 +7701,13 @@
         <v>332</v>
       </c>
       <c r="C308" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D308" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E308" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7715,13 +7718,13 @@
         <v>333</v>
       </c>
       <c r="C309" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D309" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E309" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7732,13 +7735,13 @@
         <v>337</v>
       </c>
       <c r="C310" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D310" t="s">
         <v>337</v>
       </c>
       <c r="E310" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7749,13 +7752,13 @@
         <v>337</v>
       </c>
       <c r="C311" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D311" t="s">
         <v>337</v>
       </c>
       <c r="E311" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7766,13 +7769,13 @@
         <v>337</v>
       </c>
       <c r="C312" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D312" t="s">
         <v>337</v>
       </c>
       <c r="E312" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7783,13 +7786,13 @@
         <v>337</v>
       </c>
       <c r="C313" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D313" t="s">
         <v>337</v>
       </c>
       <c r="E313" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7800,13 +7803,13 @@
         <v>337</v>
       </c>
       <c r="C314" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D314" t="s">
         <v>337</v>
       </c>
       <c r="E314" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7817,13 +7820,13 @@
         <v>337</v>
       </c>
       <c r="C315" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D315" t="s">
         <v>337</v>
       </c>
       <c r="E315" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7834,13 +7837,13 @@
         <v>337</v>
       </c>
       <c r="C316" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D316" t="s">
         <v>337</v>
       </c>
       <c r="E316" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7851,13 +7854,13 @@
         <v>337</v>
       </c>
       <c r="C317" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D317" t="s">
         <v>337</v>
       </c>
       <c r="E317" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7868,13 +7871,13 @@
         <v>337</v>
       </c>
       <c r="C318" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D318" t="s">
         <v>337</v>
       </c>
       <c r="E318" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7885,13 +7888,13 @@
         <v>332</v>
       </c>
       <c r="C319" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D319" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E319" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7902,13 +7905,13 @@
         <v>332</v>
       </c>
       <c r="C320" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D320" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E320" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7919,13 +7922,13 @@
         <v>332</v>
       </c>
       <c r="C321" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D321" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E321" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7936,13 +7939,13 @@
         <v>332</v>
       </c>
       <c r="C322" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D322" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E322" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7953,13 +7956,13 @@
         <v>339</v>
       </c>
       <c r="C323" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D323" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E323" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7970,13 +7973,13 @@
         <v>339</v>
       </c>
       <c r="C324" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D324" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E324" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7987,13 +7990,13 @@
         <v>339</v>
       </c>
       <c r="C325" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D325" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E325" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8004,13 +8007,13 @@
         <v>339</v>
       </c>
       <c r="C326" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D326" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E326" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8021,13 +8024,13 @@
         <v>332</v>
       </c>
       <c r="C327" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D327" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E327" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8038,13 +8041,13 @@
         <v>332</v>
       </c>
       <c r="C328" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D328" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E328" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -37,357 +37,357 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -436,99 +436,99 @@
     <t>pajahati</t>
   </si>
   <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -556,36 +556,39 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
     <t>kassaka</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -616,9 +619,6 @@
     <t>chindati 1</t>
   </si>
   <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -670,18 +670,18 @@
     <t>abhinandi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -691,6 +691,9 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -706,9 +709,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -724,12 +724,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -766,6 +766,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -784,9 +787,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -841,24 +841,24 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhe 2</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -937,27 +937,30 @@
     <t>satthar 1</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
@@ -979,21 +982,18 @@
     <t>ajja</t>
   </si>
   <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -1042,357 +1042,357 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -1438,99 +1438,99 @@
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -1558,33 +1558,36 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -1615,9 +1618,6 @@
     <t>cuts off; severs</t>
   </si>
   <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -1669,18 +1669,18 @@
     <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -1690,6 +1690,9 @@
     <t>fire</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -1705,9 +1708,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -1723,12 +1723,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -1765,6 +1765,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -1783,9 +1786,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -1840,24 +1840,24 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>(object) you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -1936,27 +1936,30 @@
     <t>master; teacher</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
@@ -1978,19 +1981,16 @@
     <t>today; now</t>
   </si>
   <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
-  </si>
-  <si>
-    <t>ease (for); comfort (for)</t>
   </si>
   <si>
     <t>at peace; safe; at rest</t>
@@ -4539,7 +4539,7 @@
         <v>332</v>
       </c>
       <c r="C122" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D122" t="s">
         <v>665</v>
@@ -4791,7 +4791,7 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C137" t="s">
         <v>474</v>
@@ -4876,7 +4876,7 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C142" t="s">
         <v>479</v>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -34,207 +34,246 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -253,12 +292,6 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -274,9 +307,6 @@
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
@@ -316,15 +346,9 @@
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -334,33 +358,15 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -385,9 +391,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -397,9 +400,6 @@
     <t>nissaya 1</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -457,36 +457,36 @@
     <t>upasaṅkamati</t>
   </si>
   <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>nisīdati</t>
   </si>
   <si>
@@ -541,12 +541,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>ehi</t>
   </si>
   <si>
@@ -589,39 +589,45 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>amha 1.1</t>
   </si>
   <si>
@@ -631,15 +637,9 @@
     <t>attha 4.2</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -721,15 +721,15 @@
     <t>abhisaṅkharoti 2</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -739,15 +739,15 @@
     <t>mada 1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>ājīva</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>taca 1</t>
   </si>
   <si>
@@ -925,12 +925,12 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
@@ -970,15 +970,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -1039,207 +1039,246 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -1258,12 +1297,6 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -1279,9 +1312,6 @@
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
@@ -1321,15 +1351,9 @@
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -1339,33 +1363,15 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>preceptor; teacher</t>
   </si>
   <si>
@@ -1390,18 +1396,12 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
     <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -1459,36 +1459,36 @@
     <t>approaches; goes (to); visits; lit. goes near</t>
   </si>
   <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>sits (on); sits down (in)</t>
   </si>
   <si>
@@ -1543,12 +1543,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>come!</t>
   </si>
   <si>
@@ -1588,39 +1588,45 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>we are</t>
   </si>
   <si>
@@ -1630,15 +1636,9 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -1720,15 +1720,15 @@
     <t>does; performs; lit. constructs</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -1738,15 +1738,15 @@
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
     <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
     <t>skin</t>
   </si>
   <si>
@@ -1924,12 +1924,12 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>venerable; reverend; lit. having age quality</t>
+  </si>
+  <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>venerable; reverend; lit. having age quality</t>
-  </si>
-  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
@@ -1969,13 +1969,13 @@
     <t>always; ever; all the time</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>and; both</t>
-  </si>
-  <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
   </si>
   <si>
     <t>today; now</t>
@@ -4539,7 +4539,7 @@
         <v>332</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="D122" t="s">
         <v>665</v>
@@ -4556,7 +4556,7 @@
         <v>332</v>
       </c>
       <c r="C123" t="s">
-        <v>460</v>
+        <v>358</v>
       </c>
       <c r="D123" t="s">
         <v>665</v>
@@ -5879,7 +5879,7 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C201" t="s">
         <v>537</v>
@@ -5913,7 +5913,7 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C203" t="s">
         <v>539</v>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="699">
-  <si>
-    <t>Pāli1</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Meaning IN CONTEXT</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>class</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="704">
+  <si>
+    <t>pali_1</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>meaning_1</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>sbs_class</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>vinaya 1</t>
@@ -157,267 +160,264 @@
     <t>daṇḍa 1</t>
   </si>
   <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
     <t>paṇḍita 2</t>
   </si>
   <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
     <t>bāla 2</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>mallā</t>
   </si>
   <si>
@@ -637,51 +637,54 @@
     <t>attha 4.2</t>
   </si>
   <si>
+    <t>āmantesi</t>
+  </si>
+  <si>
+    <t>ahosi</t>
+  </si>
+  <si>
+    <t>pāturahosi</t>
+  </si>
+  <si>
+    <t>hotha</t>
+  </si>
+  <si>
+    <t>hotu 1</t>
+  </si>
+  <si>
+    <t>hoti 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>sammodi</t>
+  </si>
+  <si>
+    <t>apucchi</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>āmantesi</t>
-  </si>
-  <si>
-    <t>ahosi</t>
-  </si>
-  <si>
-    <t>pāturahosi</t>
-  </si>
-  <si>
-    <t>hotha</t>
-  </si>
-  <si>
-    <t>hotu 1</t>
-  </si>
-  <si>
-    <t>hoti 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
-    <t>apucchi</t>
-  </si>
-  <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>sammodi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -727,9 +730,6 @@
     <t>byākāsi 1</t>
   </si>
   <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -787,9 +787,18 @@
     <t>maṃ 1</t>
   </si>
   <si>
+    <t>assasissati</t>
+  </si>
+  <si>
     <t>sobhati 2</t>
   </si>
   <si>
+    <t>passasissati</t>
+  </si>
+  <si>
+    <t>dhāressati</t>
+  </si>
+  <si>
     <t>neti 1.1</t>
   </si>
   <si>
@@ -808,24 +817,15 @@
     <t>mā 1</t>
   </si>
   <si>
+    <t>bhavissati 1</t>
+  </si>
+  <si>
+    <t>gamissati</t>
+  </si>
+  <si>
     <t>byākarissati</t>
   </si>
   <si>
-    <t>assasissati</t>
-  </si>
-  <si>
-    <t>bhavissati 1</t>
-  </si>
-  <si>
-    <t>gamissati</t>
-  </si>
-  <si>
-    <t>passasissati</t>
-  </si>
-  <si>
-    <t>dhāressati</t>
-  </si>
-  <si>
     <t>dassati 1.1</t>
   </si>
   <si>
@@ -1012,6 +1012,9 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>adj</t>
+  </si>
+  <si>
     <t>masc</t>
   </si>
   <si>
@@ -1024,16 +1027,19 @@
     <t>aor</t>
   </si>
   <si>
+    <t>fem</t>
+  </si>
+  <si>
     <t>pron</t>
   </si>
   <si>
+    <t>fut</t>
+  </si>
+  <si>
     <t>ind</t>
   </si>
   <si>
-    <t>fut</t>
-  </si>
-  <si>
-    <t>adj</t>
+    <t>breaking; splitting; tearing</t>
   </si>
   <si>
     <t>discipline; training; lit. leading out</t>
@@ -1162,264 +1168,261 @@
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
     <t>sage; intelligent person; wise man; smart person</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
     <t>fool; idiot; immature person</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
   </si>
   <si>
@@ -1636,51 +1639,54 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
+    <t>addressed; said (to); advised</t>
+  </si>
+  <si>
+    <t>was; existed; became</t>
+  </si>
+  <si>
+    <t>appeared; manifested; lit. was visible</t>
+  </si>
+  <si>
+    <t>may you all be!; I pray you all may be!</t>
+  </si>
+  <si>
+    <t>may it be (for)!</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
+  </si>
+  <si>
+    <t>asked; enquired</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>addressed; said (to); advised</t>
-  </si>
-  <si>
-    <t>was; existed; became</t>
-  </si>
-  <si>
-    <t>appeared; manifested; lit. was visible</t>
-  </si>
-  <si>
-    <t>may you all be!; I pray you all may be!</t>
-  </si>
-  <si>
-    <t>may it be (for)!</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
-  </si>
-  <si>
-    <t>asked; enquired</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -1726,9 +1732,6 @@
     <t>answered; replied; lit. made distinct</t>
   </si>
   <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -1786,9 +1789,18 @@
     <t>me (object)</t>
   </si>
   <si>
+    <t>will breathe; will inhale</t>
+  </si>
+  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
+    <t>will exhale; will breathe out</t>
+  </si>
+  <si>
+    <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
+  </si>
+  <si>
     <t>leads; carries away; takes away</t>
   </si>
   <si>
@@ -1807,24 +1819,15 @@
     <t>do not; may one not; don’t let</t>
   </si>
   <si>
+    <t>could be; should be; lit. will be</t>
+  </si>
+  <si>
+    <t>will go</t>
+  </si>
+  <si>
     <t>will explain; will define; will describes</t>
   </si>
   <si>
-    <t>will breathe; will inhale</t>
-  </si>
-  <si>
-    <t>could be; should be; lit. will be</t>
-  </si>
-  <si>
-    <t>will go</t>
-  </si>
-  <si>
-    <t>will exhale; will breathe out</t>
-  </si>
-  <si>
-    <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
-  </si>
-  <si>
     <t>will give (to)</t>
   </si>
   <si>
@@ -2011,9 +2014,15 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>a-adj</t>
+  </si>
+  <si>
     <t>a-masc</t>
   </si>
   <si>
+    <t>a-masc-east</t>
+  </si>
+  <si>
     <t>a-masc-pl</t>
   </si>
   <si>
@@ -2042,6 +2051,12 @@
   </si>
   <si>
     <t>i-aor</t>
+  </si>
+  <si>
+    <t>i-aor-isuṃ</t>
+  </si>
+  <si>
+    <t>i-fem</t>
   </si>
   <si>
     <t>i-masc</t>
@@ -2499,13 +2514,13 @@
         <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2513,16 +2528,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E3" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2530,16 +2545,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E4" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2547,16 +2562,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2564,16 +2579,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E6" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2581,16 +2596,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2598,16 +2613,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E8" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2615,16 +2630,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E9" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2632,16 +2647,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E10" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2649,16 +2664,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E11" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2666,16 +2681,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E12" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2683,16 +2698,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E13" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2700,16 +2715,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D14" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E14" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2717,16 +2732,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E15" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2734,16 +2749,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D16" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E16" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2751,16 +2766,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D17" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E17" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2768,16 +2783,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D18" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E18" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2785,16 +2800,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E19" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2802,16 +2817,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D20" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E20" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2819,16 +2834,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D21" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E21" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2836,16 +2851,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C22" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D22" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E22" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2853,16 +2868,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D23" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E23" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2870,16 +2885,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D24" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E24" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2887,16 +2902,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D25" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E25" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2904,16 +2919,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D26" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E26" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2921,16 +2936,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D27" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E27" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2938,16 +2953,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D28" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E28" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2955,16 +2970,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D29" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E29" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2972,16 +2987,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D30" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E30" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2989,16 +3004,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D31" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E31" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3006,16 +3021,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C32" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D32" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E32" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3023,16 +3038,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C33" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D33" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E33" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3040,16 +3055,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C34" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D34" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E34" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3057,16 +3072,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D35" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E35" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3074,16 +3089,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D36" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E36" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3091,16 +3106,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D37" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E37" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3108,16 +3123,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D38" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E38" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3125,16 +3140,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C39" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E39" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3142,16 +3157,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D40" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E40" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3159,16 +3174,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D41" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E41" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3176,16 +3191,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E42" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3193,16 +3208,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D43" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E43" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3210,16 +3225,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C44" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D44" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E44" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3227,16 +3242,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C45" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D45" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E45" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3244,16 +3259,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C46" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D46" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E46" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3261,16 +3276,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C47" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D47" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E47" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3278,16 +3293,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C48" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D48" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E48" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3295,16 +3310,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D49" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E49" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3312,16 +3327,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D50" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E50" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3329,16 +3344,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C51" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D51" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E51" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3346,16 +3361,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D52" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E52" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3363,16 +3378,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D53" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E53" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3380,16 +3395,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D54" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E54" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3397,16 +3412,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C55" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D55" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E55" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3414,16 +3429,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C56" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D56" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E56" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3431,16 +3446,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C57" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D57" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E57" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3448,16 +3463,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C58" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D58" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E58" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3465,16 +3480,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C59" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D59" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E59" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3482,16 +3497,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C60" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D60" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E60" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3499,16 +3514,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C61" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D61" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E61" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3516,16 +3531,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D62" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E62" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3533,16 +3548,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C63" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D63" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E63" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3550,16 +3565,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D64" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E64" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3567,16 +3582,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C65" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D65" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E65" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3584,16 +3599,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C66" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D66" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E66" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3601,16 +3616,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C67" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D67" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E67" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3618,16 +3633,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D68" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E68" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3635,16 +3650,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C69" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D69" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E69" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3652,16 +3667,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C70" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D70" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E70" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3669,16 +3684,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C71" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D71" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E71" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3686,16 +3701,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C72" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D72" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E72" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3703,16 +3718,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C73" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D73" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E73" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3720,16 +3735,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C74" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D74" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E74" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3737,16 +3752,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D75" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E75" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3754,16 +3769,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C76" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D76" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E76" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3771,16 +3786,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D77" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E77" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3788,16 +3803,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C78" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D78" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E78" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3805,16 +3820,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C79" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D79" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E79" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3822,16 +3837,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C80" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D80" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E80" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3839,16 +3854,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C81" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D81" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E81" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3856,16 +3871,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C82" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D82" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E82" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3873,16 +3888,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C83" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D83" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E83" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3890,16 +3905,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C84" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D84" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E84" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3907,16 +3922,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C85" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D85" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E85" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3924,16 +3939,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C86" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D86" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E86" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3941,16 +3956,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C87" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D87" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E87" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3958,16 +3973,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C88" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D88" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E88" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3975,16 +3990,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C89" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D89" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E89" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3992,16 +4007,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C90" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D90" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E90" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4009,16 +4024,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C91" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D91" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E91" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4026,16 +4041,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C92" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D92" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E92" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4043,16 +4058,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D93" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E93" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4060,16 +4075,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C94" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D94" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E94" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4077,16 +4092,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C95" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D95" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E95" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4094,16 +4109,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C96" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D96" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E96" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4111,16 +4126,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C97" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D97" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E97" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4128,16 +4143,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C98" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D98" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E98" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4145,16 +4160,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C99" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D99" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E99" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4162,16 +4177,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C100" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D100" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E100" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4179,16 +4194,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C101" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D101" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E101" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4196,16 +4211,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C102" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D102" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E102" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4213,16 +4228,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C103" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D103" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E103" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4230,16 +4245,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D104" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E104" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4247,16 +4262,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C105" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D105" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E105" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4264,16 +4279,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C106" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D106" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E106" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4281,16 +4296,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C107" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D107" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E107" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4298,16 +4313,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D108" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E108" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4315,16 +4330,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C109" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D109" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E109" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4332,16 +4347,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D110" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E110" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4349,16 +4364,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D111" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E111" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4366,16 +4381,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C112" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D112" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E112" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4383,16 +4398,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D113" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E113" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4400,16 +4415,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C114" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D114" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E114" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4417,16 +4432,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C115" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D115" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E115" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4434,16 +4449,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C116" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D116" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E116" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4451,16 +4466,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C117" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D117" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E117" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4468,16 +4483,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D118" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E118" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4485,16 +4500,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C119" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D119" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E119" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4502,16 +4517,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C120" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D120" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E120" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4519,16 +4534,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C121" t="s">
-        <v>459</v>
+        <v>360</v>
       </c>
       <c r="D121" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E121" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4536,16 +4551,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C122" t="s">
         <v>460</v>
       </c>
       <c r="D122" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E122" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4553,16 +4568,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C123" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="D123" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E123" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4570,16 +4585,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C124" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D124" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E124" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4587,16 +4602,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C125" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D125" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E125" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4604,16 +4619,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C126" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D126" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E126" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4621,16 +4636,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C127" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D127" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E127" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4638,16 +4653,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C128" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D128" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E128" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4655,16 +4670,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C129" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D129" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E129" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4672,16 +4687,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C130" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D130" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E130" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4689,16 +4704,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C131" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D131" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E131" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4706,16 +4721,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C132" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D132" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E132" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4723,16 +4738,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C133" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D133" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E133" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4740,16 +4755,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C134" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D134" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E134" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4757,16 +4772,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C135" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D135" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E135" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4774,16 +4789,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C136" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D136" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E136" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4791,16 +4806,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C137" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D137" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E137" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4808,16 +4823,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C138" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D138" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E138" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4825,16 +4840,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C139" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D139" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E139" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4842,16 +4857,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C140" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D140" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E140" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4859,16 +4874,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C141" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D141" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E141" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4876,16 +4891,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C142" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D142" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E142" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4893,16 +4908,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C143" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D143" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E143" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4910,16 +4925,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C144" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D144" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E144" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4927,16 +4942,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C145" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D145" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E145" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4944,16 +4959,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C146" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D146" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E146" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4961,16 +4976,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C147" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D147" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E147" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4978,16 +4993,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C148" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D148" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E148" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4995,16 +5010,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C149" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D149" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E149" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5012,16 +5027,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C150" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D150" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E150" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5029,16 +5044,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C151" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D151" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E151" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5046,16 +5061,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C152" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D152" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E152" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5063,16 +5078,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C153" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D153" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E153" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5080,16 +5095,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C154" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D154" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E154" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5097,16 +5112,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C155" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D155" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E155" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5114,16 +5129,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C156" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D156" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E156" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5131,16 +5146,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C157" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D157" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E157" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5148,16 +5163,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C158" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D158" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E158" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5165,16 +5180,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C159" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D159" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E159" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5182,16 +5197,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C160" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D160" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E160" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5199,16 +5214,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C161" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D161" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E161" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5216,16 +5231,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C162" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D162" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E162" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5233,16 +5248,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C163" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D163" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E163" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5250,16 +5265,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C164" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D164" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E164" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5267,16 +5282,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C165" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D165" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E165" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5284,16 +5299,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C166" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D166" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E166" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5301,16 +5316,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C167" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D167" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E167" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5318,16 +5333,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C168" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D168" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E168" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5335,16 +5350,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C169" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D169" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E169" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5352,16 +5367,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C170" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D170" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E170" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5369,16 +5384,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C171" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D171" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E171" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5386,16 +5401,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C172" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D172" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E172" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5403,16 +5418,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C173" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D173" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E173" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5420,16 +5435,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C174" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D174" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E174" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5437,16 +5452,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C175" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D175" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E175" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5454,16 +5469,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C176" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D176" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E176" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5471,16 +5486,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C177" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D177" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E177" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5488,16 +5503,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C178" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D178" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E178" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5505,16 +5520,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C179" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D179" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E179" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5522,16 +5537,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C180" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D180" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E180" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5539,16 +5554,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C181" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D181" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E181" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5556,16 +5571,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C182" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D182" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E182" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5573,16 +5588,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C183" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D183" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E183" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5590,16 +5605,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C184" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D184" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E184" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5607,16 +5622,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C185" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D185" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E185" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5624,16 +5639,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C186" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D186" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E186" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5641,16 +5656,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C187" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D187" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E187" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5658,16 +5673,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C188" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D188" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E188" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5675,16 +5690,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C189" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D189" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E189" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5692,16 +5707,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C190" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D190" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E190" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5709,16 +5724,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C191" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D191" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E191" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5726,16 +5741,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C192" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D192" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E192" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5743,16 +5758,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C193" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D193" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E193" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5760,16 +5775,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C194" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D194" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E194" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5777,16 +5792,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C195" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D195" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E195" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5794,16 +5809,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C196" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D196" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E196" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5811,16 +5826,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C197" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D197" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E197" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5828,16 +5843,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C198" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D198" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E198" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5845,16 +5860,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C199" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D199" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E199" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5862,16 +5877,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C200" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D200" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E200" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5879,16 +5894,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C201" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D201" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E201" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5896,16 +5911,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C202" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D202" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E202" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5913,16 +5928,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C203" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D203" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E203" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5930,16 +5945,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C204" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D204" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E204" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5947,16 +5962,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C205" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D205" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E205" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5964,16 +5979,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C206" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D206" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E206" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5984,13 +5999,13 @@
         <v>335</v>
       </c>
       <c r="C207" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D207" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E207" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5998,16 +6013,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C208" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D208" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E208" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6018,13 +6033,13 @@
         <v>334</v>
       </c>
       <c r="C209" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D209" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E209" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6032,16 +6047,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C210" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D210" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E210" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6049,16 +6064,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C211" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D211" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E211" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6066,16 +6081,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C212" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D212" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E212" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6083,16 +6098,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C213" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D213" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E213" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6100,16 +6115,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C214" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D214" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E214" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6117,16 +6132,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C215" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D215" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E215" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6134,16 +6149,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C216" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D216" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E216" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6151,16 +6166,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C217" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D217" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="E217" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6168,16 +6183,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C218" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D218" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="E218" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6185,16 +6200,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C219" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D219" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E219" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6202,16 +6217,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C220" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D220" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E220" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6219,16 +6234,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C221" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D221" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E221" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6236,16 +6251,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C222" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D222" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E222" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6253,16 +6268,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C223" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D223" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E223" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6270,16 +6285,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C224" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D224" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E224" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6287,16 +6302,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C225" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D225" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E225" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6304,16 +6319,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C226" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D226" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E226" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6321,16 +6336,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C227" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D227" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="E227" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6341,13 +6356,13 @@
         <v>333</v>
       </c>
       <c r="C228" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D228" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="E228" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6358,13 +6373,13 @@
         <v>334</v>
       </c>
       <c r="C229" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D229" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="E229" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6372,16 +6387,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C230" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D230" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E230" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6389,16 +6404,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C231" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D231" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E231" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6406,16 +6421,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C232" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D232" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E232" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6423,16 +6438,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C233" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D233" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="E233" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6440,16 +6455,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C234" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D234" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="E234" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6457,16 +6472,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C235" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D235" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="E235" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6474,16 +6489,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C236" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D236" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="E236" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6491,16 +6506,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C237" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D237" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E237" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6508,16 +6523,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C238" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D238" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E238" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6525,16 +6540,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C239" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D239" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E239" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6542,16 +6557,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C240" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D240" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E240" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6559,16 +6574,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C241" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D241" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E241" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6576,16 +6591,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C242" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D242" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E242" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6593,16 +6608,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C243" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D243" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E243" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6610,16 +6625,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C244" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D244" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E244" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6627,16 +6642,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C245" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D245" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E245" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6644,16 +6659,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C246" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D246" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E246" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6661,16 +6676,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C247" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D247" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E247" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6678,16 +6693,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C248" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D248" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E248" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6695,16 +6710,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C249" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D249" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E249" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6712,16 +6727,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C250" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D250" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E250" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6729,16 +6744,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C251" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D251" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E251" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6746,16 +6761,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C252" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D252" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E252" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6763,16 +6778,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C253" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D253" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="E253" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6780,16 +6795,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C254" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D254" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E254" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6797,16 +6812,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C255" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D255" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E255" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6814,16 +6829,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C256" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D256" t="s">
-        <v>337</v>
+        <v>670</v>
       </c>
       <c r="E256" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6831,16 +6846,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C257" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D257" t="s">
-        <v>337</v>
+        <v>671</v>
       </c>
       <c r="E257" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6848,16 +6863,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C258" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D258" t="s">
-        <v>337</v>
+        <v>671</v>
       </c>
       <c r="E258" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6865,16 +6880,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C259" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D259" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E259" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6882,16 +6897,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C260" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D260" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E260" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6899,16 +6914,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C261" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D261" t="s">
-        <v>682</v>
+        <v>340</v>
       </c>
       <c r="E261" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6916,16 +6931,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C262" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D262" t="s">
-        <v>682</v>
+        <v>340</v>
       </c>
       <c r="E262" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6933,16 +6948,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C263" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D263" t="s">
-        <v>682</v>
+        <v>340</v>
       </c>
       <c r="E263" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6950,16 +6965,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C264" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D264" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E264" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6967,16 +6982,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C265" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D265" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="E265" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6984,16 +6999,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C266" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D266" t="s">
         <v>683</v>
       </c>
       <c r="E266" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7001,16 +7016,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C267" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D267" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="E267" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7018,16 +7033,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C268" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D268" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E268" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7035,16 +7050,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C269" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D269" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E269" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7052,16 +7067,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C270" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D270" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E270" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7069,16 +7084,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C271" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D271" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E271" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7086,16 +7101,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C272" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D272" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E272" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7103,16 +7118,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C273" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D273" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E273" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7120,16 +7135,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C274" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D274" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E274" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7137,16 +7152,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C275" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D275" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E275" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7154,16 +7169,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C276" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D276" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E276" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7171,16 +7186,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C277" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D277" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E277" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7188,16 +7203,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C278" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D278" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E278" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7205,16 +7220,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C279" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D279" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E279" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7222,16 +7237,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C280" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D280" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E280" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7239,16 +7254,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C281" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D281" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E281" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7256,16 +7271,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C282" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D282" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E282" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7273,16 +7288,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C283" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D283" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E283" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7290,16 +7305,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C284" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D284" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E284" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7307,16 +7322,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C285" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D285" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E285" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7324,16 +7339,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C286" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D286" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E286" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7341,16 +7356,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C287" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D287" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E287" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7358,16 +7373,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C288" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D288" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E288" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7375,16 +7390,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C289" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D289" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="E289" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7392,16 +7407,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C290" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D290" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="E290" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7409,16 +7424,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C291" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D291" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="E291" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7426,16 +7441,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C292" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D292" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="E292" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7443,16 +7458,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C293" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D293" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="E293" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7460,16 +7475,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C294" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D294" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E294" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7477,16 +7492,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C295" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D295" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E295" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7494,16 +7509,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C296" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D296" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E296" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7511,16 +7526,16 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C297" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D297" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E297" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7528,16 +7543,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C298" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D298" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E298" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7545,16 +7560,16 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C299" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D299" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="E299" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7562,16 +7577,16 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C300" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D300" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="E300" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7579,16 +7594,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C301" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D301" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="E301" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7596,16 +7611,16 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C302" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D302" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="E302" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7613,16 +7628,16 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C303" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D303" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="E303" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7630,16 +7645,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C304" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D304" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="E304" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7647,16 +7662,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C305" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D305" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="E305" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7664,16 +7679,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C306" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D306" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="E306" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7681,16 +7696,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C307" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D307" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="E307" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7698,16 +7713,16 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C308" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D308" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="E308" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7715,16 +7730,16 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C309" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D309" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E309" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7732,16 +7747,16 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C310" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D310" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E310" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7749,16 +7764,16 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C311" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D311" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E311" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7766,16 +7781,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C312" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D312" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E312" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7783,16 +7798,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C313" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D313" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E313" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7800,16 +7815,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C314" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D314" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E314" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7817,16 +7832,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C315" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D315" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E315" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7834,16 +7849,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C316" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D316" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E316" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7851,16 +7866,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C317" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D317" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E317" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7868,16 +7883,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C318" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D318" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E318" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7885,16 +7900,16 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C319" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D319" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="E319" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7902,16 +7917,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C320" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D320" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="E320" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7919,16 +7934,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C321" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D321" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="E321" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7936,16 +7951,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C322" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D322" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="E322" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7953,16 +7968,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C323" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D323" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E323" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7970,16 +7985,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C324" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D324" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E324" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7987,16 +8002,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C325" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D325" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E325" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8004,16 +8019,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C326" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D326" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E326" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8021,16 +8036,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C327" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D327" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E327" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8038,16 +8053,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C328" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D328" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E328" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class6.xlsx
+++ b/pali-class/vocab/vocab-class6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="703">
   <si>
     <t>pali_1</t>
   </si>
@@ -31,15 +31,24 @@
     <t>sbs_class</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>vinaya 1</t>
   </si>
   <si>
     <t>cora</t>
   </si>
   <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
     <t>manussa</t>
   </si>
   <si>
@@ -49,369 +58,360 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
     <t>vasa 1.2</t>
   </si>
   <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
     <t>brāhmaṇa 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
   </si>
   <si>
     <t>āvāsa 1</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
   </si>
   <si>
     <t>māsa 2.1</t>
   </si>
   <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
     <t>saṃvara 1</t>
   </si>
   <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>paṇḍita 2</t>
   </si>
   <si>
@@ -427,138 +427,138 @@
     <t>punabbhava</t>
   </si>
   <si>
+    <t>vibhaṅga 1</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>vibhaṅga 1</t>
-  </si>
-  <si>
     <t>pajahati</t>
   </si>
   <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
-    <t>vadati 1</t>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>passati 1</t>
   </si>
   <si>
     <t>uddisati 1</t>
   </si>
   <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
   </si>
   <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>ceteti 2</t>
   </si>
   <si>
-    <t>paṭisaṃvedeti</t>
+    <t>deti 1</t>
   </si>
   <si>
     <t>vedeti 1</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
     <t>ehi</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
   </si>
   <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>paṭibhāti</t>
   </si>
   <si>
@@ -568,75 +568,75 @@
     <t>dadāti</t>
   </si>
   <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
     <t>ājānāti 1</t>
   </si>
   <si>
     <t>paggaṇhāti 2</t>
   </si>
   <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>paṭiggaṇhāti 1</t>
+    <t>kassaka</t>
   </si>
   <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>kassaka</t>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
   </si>
   <si>
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
     <t>maññati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
+  </si>
+  <si>
+    <t>attha 4.2</t>
   </si>
   <si>
     <t>atthi 2</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>amhi</t>
   </si>
   <si>
-    <t>amha 1.1</t>
-  </si>
-  <si>
-    <t>asi 2.1</t>
-  </si>
-  <si>
-    <t>attha 4.2</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -646,36 +646,36 @@
     <t>pāturahosi</t>
   </si>
   <si>
+    <t>hoti 1</t>
+  </si>
+  <si>
+    <t>hotu 1</t>
+  </si>
+  <si>
     <t>hotha</t>
   </si>
   <si>
-    <t>hotu 1</t>
-  </si>
-  <si>
-    <t>hoti 1</t>
+    <t>sammodi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
   </si>
   <si>
     <t>paccassosi</t>
   </si>
   <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>sammodi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -685,30 +685,30 @@
     <t>santi 3</t>
   </si>
   <si>
+    <t>samādhi 1</t>
+  </si>
+  <si>
+    <t>gahapati</t>
+  </si>
+  <si>
+    <t>sāli</t>
+  </si>
+  <si>
     <t>muni 1</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
     <t>aggi</t>
   </si>
   <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
     <t>ñāti</t>
   </si>
   <si>
-    <t>gahapati</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>samādhi 1</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
     <t>byādhi</t>
   </si>
   <si>
@@ -736,70 +736,79 @@
     <t>āsi 1.1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>taca 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>abhisamaya</t>
+  </si>
+  <si>
     <t>mada 1</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>taca 1</t>
-  </si>
-  <si>
-    <t>abhisamaya</t>
-  </si>
-  <si>
     <t>mama 2</t>
   </si>
   <si>
+    <t>me 5</t>
+  </si>
+  <si>
+    <t>no 2.1</t>
+  </si>
+  <si>
+    <t>ahaṃ</t>
+  </si>
+  <si>
+    <t>no 2.3</t>
+  </si>
+  <si>
+    <t>me 3</t>
+  </si>
+  <si>
+    <t>mayaṃ</t>
+  </si>
+  <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
     <t>mayā 1</t>
   </si>
   <si>
-    <t>no 2.1</t>
-  </si>
-  <si>
-    <t>no 2.3</t>
-  </si>
-  <si>
-    <t>me 3</t>
-  </si>
-  <si>
-    <t>mayaṃ</t>
-  </si>
-  <si>
-    <t>me 5</t>
-  </si>
-  <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
     <t>amhākaṃ 3</t>
   </si>
   <si>
-    <t>ahaṃ</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
+    <t>sobhati 2</t>
   </si>
   <si>
     <t>assasissati</t>
   </si>
   <si>
-    <t>sobhati 2</t>
-  </si>
-  <si>
     <t>passasissati</t>
   </si>
   <si>
+    <t>neti 1.1</t>
+  </si>
+  <si>
     <t>dhāressati</t>
   </si>
   <si>
-    <t>neti 1.1</t>
+    <t>no 1.1</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
+    <t>mā 1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -808,15 +817,6 @@
     <t>saddhiṃ</t>
   </si>
   <si>
-    <t>saha 2</t>
-  </si>
-  <si>
-    <t>no 1.1</t>
-  </si>
-  <si>
-    <t>mā 1</t>
-  </si>
-  <si>
     <t>bhavissati 1</t>
   </si>
   <si>
@@ -829,36 +829,36 @@
     <t>dassati 1.1</t>
   </si>
   <si>
+    <t>taṃ 2.1</t>
+  </si>
+  <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
+    <t>te 2.4</t>
+  </si>
+  <si>
     <t>vo 1.3</t>
   </si>
   <si>
+    <t>tvaṃ 1</t>
+  </si>
+  <si>
     <t>vo 1.2</t>
   </si>
   <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 3</t>
   </si>
   <si>
-    <t>taṃ 2.1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
-    <t>tvaṃ 1</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>te 2.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -874,39 +874,39 @@
     <t>dassī 2</t>
   </si>
   <si>
+    <t>anupassī 1</t>
+  </si>
+  <si>
+    <t>gavesī 1</t>
+  </si>
+  <si>
+    <t>anāgāmī</t>
+  </si>
+  <si>
+    <t>bhogī 1.1</t>
+  </si>
+  <si>
+    <t>sakadāgāmī</t>
+  </si>
+  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
-    <t>bhogī 1.1</t>
-  </si>
-  <si>
-    <t>anupassī 1</t>
-  </si>
-  <si>
-    <t>gavesī 1</t>
-  </si>
-  <si>
-    <t>anāgāmī</t>
-  </si>
-  <si>
-    <t>sakadāgāmī</t>
-  </si>
-  <si>
     <t>sukhī 2</t>
   </si>
   <si>
+    <t>sabrahmacārī</t>
+  </si>
+  <si>
+    <t>medhāvī</t>
+  </si>
+  <si>
+    <t>pakkhī</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sabrahmacārī</t>
-  </si>
-  <si>
-    <t>medhāvī</t>
-  </si>
-  <si>
-    <t>pakkhī</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
@@ -934,120 +934,129 @@
     <t>cakkhumant 2</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>satthar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>dātar 1</t>
   </si>
   <si>
+    <t>bhātar</t>
+  </si>
+  <si>
     <t>pitar</t>
   </si>
   <si>
     <t>mātāpitar</t>
   </si>
   <si>
-    <t>bhātar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
+    <t>ca 1</t>
+  </si>
+  <si>
     <t>kālena</t>
   </si>
   <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>vā 1</t>
   </si>
   <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>sadā</t>
+  </si>
+  <si>
     <t>yadā</t>
   </si>
   <si>
-    <t>sadā</t>
-  </si>
-  <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>ca 1</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
+    <t>bhikkhu</t>
+  </si>
+  <si>
+    <t>maccu</t>
+  </si>
+  <si>
     <t>garu 5</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
-    <t>bhikkhu</t>
-  </si>
-  <si>
-    <t>maccu</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
+    <t>mattaññū</t>
+  </si>
+  <si>
     <t>rattaññū</t>
   </si>
   <si>
     <t>vidū 1</t>
   </si>
   <si>
-    <t>mattaññū</t>
-  </si>
-  <si>
     <t>abhibhū 1</t>
   </si>
   <si>
     <t>lokavidū</t>
   </si>
   <si>
+    <t>masc</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>aor</t>
+  </si>
+  <si>
+    <t>fem</t>
+  </si>
+  <si>
+    <t>pron</t>
+  </si>
+  <si>
+    <t>fut</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
     <t>adj</t>
   </si>
   <si>
-    <t>masc</t>
-  </si>
-  <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>imp</t>
-  </si>
-  <si>
-    <t>aor</t>
-  </si>
-  <si>
-    <t>fem</t>
-  </si>
-  <si>
-    <t>pron</t>
-  </si>
-  <si>
-    <t>fut</t>
-  </si>
-  <si>
-    <t>ind</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>thief; robber</t>
   </si>
   <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
     <t>human being; man; person</t>
   </si>
   <si>
@@ -1057,366 +1066,357 @@
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
     <t>control (over); authority (over); power (over); mastery (over)</t>
   </si>
   <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
     <t>Brahman; priest; man of the Brahman caste</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>son; child</t>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
     <t>bean</t>
   </si>
   <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
     <t>control (according to); restraint (according to); holding back (according to)</t>
   </si>
   <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>sage; intelligent person; wise man; smart person</t>
   </si>
   <si>
@@ -1432,138 +1432,138 @@
     <t>appearing again; renewed existence; rebirth; future life</t>
   </si>
   <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
     <t>(vinaya) precepts for Buddhist monastics</t>
   </si>
   <si>
-    <t>analysis; classification; breakdown; lit. division</t>
-  </si>
-  <si>
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
-    <t>says (to); speaks (to); tells (to)</t>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>sees</t>
   </si>
   <si>
     <t>recites; chants; lit. points up</t>
   </si>
   <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
     <t>intends; will (to)</t>
   </si>
   <si>
-    <t>personally experiences; undergoes; feels</t>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
     <t>come!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>hears</t>
   </si>
   <si>
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to)</t>
   </si>
   <si>
@@ -1576,69 +1576,69 @@
     <t>knows; understands</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>takes; accepts; receives</t>
+    <t>farmer; ploughman</t>
   </si>
   <si>
     <t>trader; dealer</t>
   </si>
   <si>
-    <t>farmer; ploughman</t>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
   </si>
   <si>
     <t>causes; effects</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
     <t>there are; they are</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>I am</t>
   </si>
   <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -1648,36 +1648,36 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>may it be (for)!</t>
+  </si>
+  <si>
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
-    <t>may it be (for)!</t>
-  </si>
-  <si>
-    <t>is</t>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
   </si>
   <si>
     <t>replied (to); agreed (with)</t>
   </si>
   <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
@@ -1687,30 +1687,30 @@
     <t>virtuous woman; good woman</t>
   </si>
   <si>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
+  </si>
+  <si>
+    <t>householder; landowner; lit. house master</t>
+  </si>
+  <si>
+    <t>fine rice</t>
+  </si>
+  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
-    <t>fine rice</t>
-  </si>
-  <si>
     <t>fire</t>
   </si>
   <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
     <t>family; relative; kinsman; lit. known</t>
   </si>
   <si>
-    <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
@@ -1738,70 +1738,79 @@
     <t>was</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
+    <t>livelihood; mode of living; way of life; way of earning a living</t>
+  </si>
+  <si>
+    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
+  </si>
+  <si>
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
-    <t>livelihood; mode of living; way of life; way of earning a living</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
-  </si>
-  <si>
     <t>my; mine; of me</t>
   </si>
   <si>
+    <t>my; mine</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
+    <t>we; I (royal plural)</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
     <t>by me; with me</t>
   </si>
   <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
-    <t>we; I (royal plural)</t>
-  </si>
-  <si>
-    <t>my; mine</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
     <t>our; of us; my (royal plural)</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>me (object)</t>
+    <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
     <t>will breathe; will inhale</t>
   </si>
   <si>
-    <t>looks beautiful (in); lit. shines</t>
-  </si>
-  <si>
     <t>will exhale; will breathe out</t>
   </si>
   <si>
+    <t>leads; carries away; takes away</t>
+  </si>
+  <si>
     <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
   </si>
   <si>
-    <t>leads; carries away; takes away</t>
+    <t>no; not</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
+    <t>do not; may one not; don’t let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -1810,15 +1819,6 @@
     <t>together (with); with</t>
   </si>
   <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
-    <t>no; not</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
-  </si>
-  <si>
     <t>could be; should be; lit. will be</t>
   </si>
   <si>
@@ -1831,36 +1831,36 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>you (object)</t>
+  </si>
+  <si>
+    <t>by you</t>
+  </si>
+  <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
+    <t>your; of you</t>
+  </si>
+  <si>
     <t>to you all; for you all</t>
   </si>
   <si>
+    <t>you (subject)</t>
+  </si>
+  <si>
     <t>by you all; with you all</t>
   </si>
   <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>of you all; yours</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
     <t>(object) you all; you (royal plural)</t>
   </si>
   <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
-    <t>you (subject)</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your; of you</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -1876,39 +1876,39 @@
     <t>who sees; who knows; who perceives; who understands</t>
   </si>
   <si>
+    <t>looking (at); observing; following; noticing; witnessing; watching</t>
+  </si>
+  <si>
+    <t>seeking; searching for; looking for</t>
+  </si>
+  <si>
+    <t>who does not return; non-returning</t>
+  </si>
+  <si>
+    <t>enjoying; using; experiencing; partaking in</t>
+  </si>
+  <si>
+    <t>once-returner; who has attained the second stage of the path</t>
+  </si>
+  <si>
     <t>remorseful; regretful; repentant; sorry; lit. remembering back negatively</t>
   </si>
   <si>
-    <t>enjoying; using; experiencing; partaking in</t>
-  </si>
-  <si>
-    <t>looking (at); observing; following; noticing; witnessing; watching</t>
-  </si>
-  <si>
-    <t>seeking; searching for; looking for</t>
-  </si>
-  <si>
-    <t>who does not return; non-returning</t>
-  </si>
-  <si>
-    <t>once-returner; who has attained the second stage of the path</t>
-  </si>
-  <si>
     <t>happy one; who is at ease; who is happy; who is comfortable</t>
   </si>
   <si>
+    <t>fellow monk; spiritual companion</t>
+  </si>
+  <si>
+    <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
+  </si>
+  <si>
+    <t>bird; lit. with wings</t>
+  </si>
+  <si>
     <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
-    <t>fellow monk; spiritual companion</t>
-  </si>
-  <si>
-    <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
-  </si>
-  <si>
-    <t>bird; lit. with wings</t>
-  </si>
-  <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
@@ -1936,85 +1936,82 @@
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>master; teacher</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
+    <t>brother</t>
+  </si>
+  <si>
     <t>father</t>
   </si>
   <si>
     <t>mother and father; parents</t>
   </si>
   <si>
-    <t>brother</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
+    <t>and; both</t>
+  </si>
+  <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>or; either or</t>
   </si>
   <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>always; ever; all the time</t>
+  </si>
+  <si>
     <t>when; whenever</t>
   </si>
   <si>
-    <t>always; ever; all the time</t>
-  </si>
-  <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>and; both</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
+    <t>monk; fully ordained monk; mendicant; lit. beggar</t>
+  </si>
+  <si>
+    <t>death; Death</t>
+  </si>
+  <si>
     <t>respect; honour</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
-    <t>monk; fully ordained monk; mendicant; lit. beggar</t>
-  </si>
-  <si>
-    <t>death; Death</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
+    <t>knowing the correct measure (in); knowing the limit (in); moderate (in); lit. measure knowing</t>
+  </si>
+  <si>
     <t>old; experienced; of long standing; lit. knowing nights</t>
   </si>
   <si>
     <t>wise; knowing; understanding</t>
   </si>
   <si>
-    <t>knowing the correct measure (in); knowing the limit (in); moderate (in); lit. measure knowing</t>
-  </si>
-  <si>
     <t>conqueror; victor; vanquisher; master</t>
   </si>
   <si>
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>a-adj</t>
   </si>
   <si>
     <t>a-masc</t>
@@ -2520,7 +2517,7 @@
         <v>666</v>
       </c>
       <c r="E2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2528,16 +2525,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
         <v>342</v>
       </c>
       <c r="D3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2545,16 +2542,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
         <v>343</v>
       </c>
       <c r="D4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2562,16 +2559,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" t="s">
         <v>344</v>
       </c>
       <c r="D5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2579,16 +2576,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
         <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2596,16 +2593,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
         <v>346</v>
       </c>
       <c r="D7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2613,16 +2610,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
         <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2630,16 +2627,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" t="s">
         <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2647,16 +2644,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
         <v>349</v>
       </c>
       <c r="D10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2664,16 +2661,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
         <v>350</v>
       </c>
       <c r="D11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2681,16 +2678,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" t="s">
         <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2698,16 +2695,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
         <v>352</v>
       </c>
       <c r="D13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2715,16 +2712,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
         <v>353</v>
       </c>
       <c r="D14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2732,16 +2729,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
         <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2749,16 +2746,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
         <v>355</v>
       </c>
       <c r="D16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2766,16 +2763,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
         <v>356</v>
       </c>
       <c r="D17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2783,16 +2780,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
         <v>357</v>
       </c>
       <c r="D18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2800,16 +2797,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
         <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2817,16 +2814,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
         <v>359</v>
       </c>
       <c r="D20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2834,16 +2831,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C21" t="s">
         <v>360</v>
       </c>
       <c r="D21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2851,16 +2848,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C22" t="s">
         <v>361</v>
       </c>
       <c r="D22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2868,16 +2865,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C23" t="s">
         <v>362</v>
       </c>
       <c r="D23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2885,16 +2882,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s">
         <v>363</v>
       </c>
       <c r="D24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2902,16 +2899,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C25" t="s">
         <v>364</v>
       </c>
       <c r="D25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2919,16 +2916,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C26" t="s">
         <v>365</v>
       </c>
       <c r="D26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2936,16 +2933,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
         <v>366</v>
       </c>
       <c r="D27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E27" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2953,16 +2950,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C28" t="s">
         <v>367</v>
       </c>
       <c r="D28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2970,16 +2967,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
         <v>368</v>
       </c>
       <c r="D29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2987,16 +2984,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
         <v>369</v>
       </c>
       <c r="D30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3004,16 +3001,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
         <v>370</v>
       </c>
       <c r="D31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3021,16 +3018,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
         <v>371</v>
       </c>
       <c r="D32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3038,16 +3035,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C33" t="s">
         <v>372</v>
       </c>
       <c r="D33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E33" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3055,16 +3052,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
         <v>373</v>
       </c>
       <c r="D34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3072,16 +3069,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C35" t="s">
         <v>374</v>
       </c>
       <c r="D35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E35" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3089,16 +3086,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C36" t="s">
         <v>375</v>
       </c>
       <c r="D36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E36" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3106,16 +3103,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C37" t="s">
         <v>376</v>
       </c>
       <c r="D37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E37" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3123,16 +3120,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
         <v>377</v>
       </c>
       <c r="D38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3140,16 +3137,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
         <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3157,16 +3154,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C40" t="s">
         <v>379</v>
       </c>
       <c r="D40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E40" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3174,16 +3171,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C41" t="s">
         <v>380</v>
       </c>
       <c r="D41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3191,16 +3188,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C42" t="s">
         <v>381</v>
       </c>
       <c r="D42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3208,16 +3205,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C43" t="s">
         <v>382</v>
       </c>
       <c r="D43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E43" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3225,16 +3222,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C44" t="s">
         <v>383</v>
       </c>
       <c r="D44" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3242,16 +3239,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C45" t="s">
         <v>384</v>
       </c>
       <c r="D45" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3259,16 +3256,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C46" t="s">
         <v>385</v>
       </c>
       <c r="D46" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E46" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3276,16 +3273,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C47" t="s">
         <v>386</v>
       </c>
       <c r="D47" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E47" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3293,16 +3290,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s">
         <v>387</v>
       </c>
       <c r="D48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E48" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3310,16 +3307,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C49" t="s">
         <v>388</v>
       </c>
       <c r="D49" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E49" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3327,16 +3324,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C50" t="s">
         <v>389</v>
       </c>
       <c r="D50" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E50" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3344,16 +3341,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C51" t="s">
         <v>390</v>
       </c>
       <c r="D51" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E51" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3361,16 +3358,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C52" t="s">
         <v>391</v>
       </c>
       <c r="D52" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3378,16 +3375,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" t="s">
         <v>392</v>
       </c>
       <c r="D53" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E53" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3395,16 +3392,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C54" t="s">
         <v>393</v>
       </c>
       <c r="D54" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E54" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3412,16 +3409,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C55" t="s">
         <v>394</v>
       </c>
       <c r="D55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E55" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3429,16 +3426,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C56" t="s">
         <v>395</v>
       </c>
       <c r="D56" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E56" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3446,16 +3443,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C57" t="s">
         <v>396</v>
       </c>
       <c r="D57" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E57" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3463,16 +3460,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C58" t="s">
         <v>397</v>
       </c>
       <c r="D58" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E58" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3480,16 +3477,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C59" t="s">
         <v>398</v>
       </c>
       <c r="D59" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E59" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3497,16 +3494,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C60" t="s">
         <v>399</v>
       </c>
       <c r="D60" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E60" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3514,16 +3511,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s">
         <v>400</v>
       </c>
       <c r="D61" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E61" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3531,16 +3528,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C62" t="s">
         <v>401</v>
       </c>
       <c r="D62" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E62" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3548,16 +3545,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C63" t="s">
         <v>402</v>
       </c>
       <c r="D63" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E63" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3565,16 +3562,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C64" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D64" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E64" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3582,16 +3579,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D65" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E65" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3599,16 +3596,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D66" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E66" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3616,16 +3613,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D67" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E67" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3633,16 +3630,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D68" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E68" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3650,16 +3647,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D69" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E69" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3667,16 +3664,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D70" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E70" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3684,16 +3681,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D71" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E71" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3701,16 +3698,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C72" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D72" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E72" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3718,16 +3715,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C73" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D73" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E73" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3735,16 +3732,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D74" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3752,16 +3749,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D75" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E75" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3769,16 +3766,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D76" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E76" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3786,16 +3783,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D77" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E77" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3803,16 +3800,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D78" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E78" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3820,16 +3817,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D79" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E79" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3837,16 +3834,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C80" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D80" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E80" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3854,16 +3851,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D81" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E81" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3871,16 +3868,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D82" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E82" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3888,16 +3885,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D83" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E83" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3905,16 +3902,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D84" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E84" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3922,16 +3919,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C85" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D85" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E85" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3939,16 +3936,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C86" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D86" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E86" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3956,16 +3953,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D87" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E87" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3973,16 +3970,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D88" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E88" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3990,16 +3987,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D89" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E89" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4007,16 +4004,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C90" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D90" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E90" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4024,16 +4021,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C91" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D91" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E91" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4041,16 +4038,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D92" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E92" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4058,16 +4055,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C93" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D93" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E93" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4075,16 +4072,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C94" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D94" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E94" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4092,16 +4089,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C95" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D95" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E95" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4109,16 +4106,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C96" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D96" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E96" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4126,16 +4123,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C97" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D97" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E97" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4143,16 +4140,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C98" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D98" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E98" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4160,16 +4157,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C99" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D99" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E99" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4177,16 +4174,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D100" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E100" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4194,16 +4191,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C101" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D101" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E101" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4211,16 +4208,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C102" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D102" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4228,16 +4225,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C103" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D103" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E103" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4245,16 +4242,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C104" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E104" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4262,16 +4259,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C105" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D105" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E105" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4279,16 +4276,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C106" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D106" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E106" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4296,16 +4293,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C107" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D107" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E107" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4313,16 +4310,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C108" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D108" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E108" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4330,16 +4327,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C109" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D109" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E109" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </r